--- a/Equipamiento y Moviliario/Relacion Equipamiento y Mobiloiario PARA MODIFICACION 2021.xlsx
+++ b/Equipamiento y Moviliario/Relacion Equipamiento y Mobiloiario PARA MODIFICACION 2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositorio\Instalaciones_Especiales\Equipamiento y Moviliario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845038DB-B29A-49BB-8C3D-1EE7A6FB0921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A3CA40-6A87-4DEE-BF38-837A95B8B325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Relacion de EM" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,12 @@
     <sheet name="PRESUPUESTO EM" sheetId="7" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Relacion de EM'!$A$3:$L$515</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Relacion de EM'!$A$3:$L$516</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="10" r:id="rId4"/>
-    <pivotCache cacheId="15" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4392" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4399" uniqueCount="411">
   <si>
     <t>ITEM</t>
   </si>
@@ -1274,6 +1274,9 @@
   <si>
     <t>TIPO</t>
   </si>
+  <si>
+    <t>Servidor de Datos</t>
+  </si>
 </sst>
 </file>
 
@@ -1370,1072 +1373,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="186">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="31">
     <dxf>
       <fill>
         <patternFill>
@@ -2668,14 +1606,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>3649680</xdr:colOff>
-      <xdr:row>375</xdr:row>
+      <xdr:row>376</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>3650040</xdr:colOff>
-      <xdr:row>495</xdr:row>
-      <xdr:rowOff>37800</xdr:rowOff>
+      <xdr:row>376</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
@@ -2733,14 +1671,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1005660</xdr:colOff>
-      <xdr:row>375</xdr:row>
+      <xdr:row>376</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1006020</xdr:colOff>
-      <xdr:row>491</xdr:row>
-      <xdr:rowOff>14760</xdr:rowOff>
+      <xdr:row>376</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
@@ -2798,13 +1736,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2864880</xdr:colOff>
-      <xdr:row>375</xdr:row>
+      <xdr:row>376</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2887920</xdr:colOff>
-      <xdr:row>490</xdr:row>
+      <xdr:row>376</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
@@ -2949,7 +1887,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Manuel Raul Livano Luna" refreshedDate="44541.471469444441" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="511" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="B3:K514" sheet="Relacion de EM"/>
+    <worksheetSource ref="B3:K515" sheet="Relacion de EM"/>
   </cacheSource>
   <cacheFields count="10">
     <cacheField name="Nivel" numFmtId="0">
@@ -3187,7 +2125,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Manuel Raul Livano Luna" refreshedDate="44541.47243425926" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="511" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A3:K514" sheet="Relacion de EM"/>
+    <worksheetSource ref="A3:K515" sheet="Relacion de EM"/>
   </cacheSource>
   <cacheFields count="11">
     <cacheField name="Area" numFmtId="0">
@@ -16307,7 +15245,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="TablaDinámica2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="TablaDinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D193" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -17116,7 +16054,7 @@
     <dataField name="Suma de TOTAL" fld="9" baseField="4" baseItem="0" numFmtId="4"/>
   </dataFields>
   <formats count="31">
-    <format dxfId="185">
+    <format dxfId="30">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -17125,7 +16063,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="184">
+    <format dxfId="29">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="4">
@@ -17137,7 +16075,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="183">
+    <format dxfId="28">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="3">
@@ -17148,7 +16086,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="182">
+    <format dxfId="27">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="3">
@@ -17159,7 +16097,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="181">
+    <format dxfId="26">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -17168,7 +16106,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="180">
+    <format dxfId="25">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -17177,7 +16115,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="179">
+    <format dxfId="24">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -17186,7 +16124,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="178">
+    <format dxfId="23">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -17195,7 +16133,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="177">
+    <format dxfId="22">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -17204,7 +16142,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="176">
+    <format dxfId="21">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -17213,7 +16151,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="175">
+    <format dxfId="20">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -17222,7 +16160,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="174">
+    <format dxfId="19">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -17231,7 +16169,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="173">
+    <format dxfId="18">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -17240,7 +16178,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="172">
+    <format dxfId="17">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="2">
@@ -17250,7 +16188,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="171">
+    <format dxfId="16">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="2">
@@ -17260,7 +16198,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="170">
+    <format dxfId="15">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -17269,7 +16207,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="169">
+    <format dxfId="14">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -17278,7 +16216,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="168">
+    <format dxfId="13">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -17287,7 +16225,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="167">
+    <format dxfId="12">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -17296,7 +16234,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="166">
+    <format dxfId="11">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -17305,7 +16243,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="165">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -17314,7 +16252,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="164">
+    <format dxfId="9">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="3">
@@ -17325,7 +16263,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="163">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="3">
@@ -17336,7 +16274,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="162">
+    <format dxfId="7">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="3">
@@ -17347,7 +16285,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="161">
+    <format dxfId="6">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="3">
@@ -17358,7 +16296,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="160">
+    <format dxfId="5">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -17367,7 +16305,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="159">
+    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -17376,7 +16314,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="158">
+    <format dxfId="3">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="4">
@@ -17388,7 +16326,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="157">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="4">
@@ -17400,7 +16338,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="156">
+    <format dxfId="1">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -17409,7 +16347,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="155">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -17432,7 +16370,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="TablaDinámica2" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="TablaDinámica2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D613" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField showAll="0"/>
@@ -19911,10 +18849,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A3:L532"/>
+  <dimension ref="A3:L533"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="C247" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G264" sqref="G264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29252,7 +28190,7 @@
         <v>90</v>
       </c>
       <c r="K261" s="2">
-        <f t="shared" ref="K261:K324" si="4">I261*J261</f>
+        <f t="shared" ref="K261:K325" si="4">I261*J261</f>
         <v>90</v>
       </c>
     </row>
@@ -29303,29 +28241,29 @@
         <v>408</v>
       </c>
       <c r="D263" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E263" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F263" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G263" s="1" t="s">
-        <v>60</v>
+        <v>410</v>
       </c>
       <c r="H263" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I263" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J263" s="2">
-        <v>270</v>
+        <v>27000</v>
       </c>
       <c r="K263" s="2">
         <f t="shared" si="4"/>
-        <v>1350</v>
+        <v>27000</v>
       </c>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.3">
@@ -29345,23 +28283,23 @@
         <v>124</v>
       </c>
       <c r="F264" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G264" s="1" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="H264" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I264" s="1">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="J264" s="2">
-        <v>80</v>
+        <v>270</v>
       </c>
       <c r="K264" s="2">
         <f t="shared" si="4"/>
-        <v>2400</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.3">
@@ -29381,23 +28319,23 @@
         <v>124</v>
       </c>
       <c r="F265" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G265" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H265" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I265" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="J265" s="2">
-        <v>340</v>
+        <v>80</v>
       </c>
       <c r="K265" s="2">
         <f t="shared" si="4"/>
-        <v>340</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.3">
@@ -29417,10 +28355,10 @@
         <v>124</v>
       </c>
       <c r="F266" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G266" s="1" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="H266" s="1" t="s">
         <v>6</v>
@@ -29429,11 +28367,11 @@
         <v>1</v>
       </c>
       <c r="J266" s="2">
-        <v>750</v>
+        <v>340</v>
       </c>
       <c r="K266" s="2">
         <f t="shared" si="4"/>
-        <v>750</v>
+        <v>340</v>
       </c>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.3">
@@ -29453,10 +28391,10 @@
         <v>124</v>
       </c>
       <c r="F267" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G267" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H267" s="1" t="s">
         <v>6</v>
@@ -29465,11 +28403,11 @@
         <v>1</v>
       </c>
       <c r="J267" s="2">
-        <v>90</v>
+        <v>750</v>
       </c>
       <c r="K267" s="2">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>750</v>
       </c>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.3">
@@ -29489,10 +28427,10 @@
         <v>124</v>
       </c>
       <c r="F268" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G268" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H268" s="1" t="s">
         <v>6</v>
@@ -29501,11 +28439,11 @@
         <v>1</v>
       </c>
       <c r="J268" s="2">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="K268" s="2">
         <f t="shared" si="4"/>
-        <v>36</v>
+        <v>90</v>
       </c>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.3">
@@ -29519,16 +28457,16 @@
         <v>408</v>
       </c>
       <c r="D269" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E269" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F269" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G269" s="1" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="H269" s="1" t="s">
         <v>6</v>
@@ -29537,11 +28475,11 @@
         <v>1</v>
       </c>
       <c r="J269" s="2">
-        <v>270</v>
+        <v>36</v>
       </c>
       <c r="K269" s="2">
         <f t="shared" si="4"/>
-        <v>270</v>
+        <v>36</v>
       </c>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.3">
@@ -29561,23 +28499,23 @@
         <v>126</v>
       </c>
       <c r="F270" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G270" s="1" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="H270" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I270" s="1">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J270" s="2">
-        <v>80</v>
+        <v>270</v>
       </c>
       <c r="K270" s="2">
         <f t="shared" si="4"/>
-        <v>1280</v>
+        <v>270</v>
       </c>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.3">
@@ -29597,23 +28535,23 @@
         <v>126</v>
       </c>
       <c r="F271" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G271" s="1" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="H271" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I271" s="1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="J271" s="2">
-        <v>310</v>
+        <v>80</v>
       </c>
       <c r="K271" s="2">
         <f t="shared" si="4"/>
-        <v>310</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.3">
@@ -29633,10 +28571,10 @@
         <v>126</v>
       </c>
       <c r="F272" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G272" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H272" s="1" t="s">
         <v>6</v>
@@ -29645,11 +28583,11 @@
         <v>1</v>
       </c>
       <c r="J272" s="2">
-        <v>560</v>
+        <v>310</v>
       </c>
       <c r="K272" s="2">
         <f t="shared" si="4"/>
-        <v>560</v>
+        <v>310</v>
       </c>
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.3">
@@ -29669,23 +28607,23 @@
         <v>126</v>
       </c>
       <c r="F273" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G273" s="1" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="H273" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I273" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J273" s="2">
-        <v>520</v>
+        <v>560</v>
       </c>
       <c r="K273" s="2">
         <f t="shared" si="4"/>
-        <v>2600</v>
+        <v>560</v>
       </c>
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.3">
@@ -29705,23 +28643,23 @@
         <v>126</v>
       </c>
       <c r="F274" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G274" s="1" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="H274" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I274" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J274" s="2">
-        <v>750</v>
+        <v>520</v>
       </c>
       <c r="K274" s="2">
         <f t="shared" si="4"/>
-        <v>750</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.3">
@@ -29741,10 +28679,10 @@
         <v>126</v>
       </c>
       <c r="F275" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G275" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H275" s="1" t="s">
         <v>6</v>
@@ -29753,11 +28691,11 @@
         <v>1</v>
       </c>
       <c r="J275" s="2">
-        <v>90</v>
+        <v>750</v>
       </c>
       <c r="K275" s="2">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>750</v>
       </c>
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.3">
@@ -29771,16 +28709,16 @@
         <v>408</v>
       </c>
       <c r="D276" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E276" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F276" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G276" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="H276" s="1" t="s">
         <v>6</v>
@@ -29789,11 +28727,11 @@
         <v>1</v>
       </c>
       <c r="J276" s="2">
-        <v>310</v>
+        <v>90</v>
       </c>
       <c r="K276" s="2">
         <f t="shared" si="4"/>
-        <v>310</v>
+        <v>90</v>
       </c>
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.3">
@@ -29813,10 +28751,10 @@
         <v>128</v>
       </c>
       <c r="F277" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G277" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H277" s="1" t="s">
         <v>6</v>
@@ -29825,11 +28763,11 @@
         <v>1</v>
       </c>
       <c r="J277" s="2">
-        <v>560</v>
+        <v>310</v>
       </c>
       <c r="K277" s="2">
         <f t="shared" si="4"/>
-        <v>560</v>
+        <v>310</v>
       </c>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.3">
@@ -29849,23 +28787,23 @@
         <v>128</v>
       </c>
       <c r="F278" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G278" s="1" t="s">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="H278" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I278" s="1">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="J278" s="2">
-        <v>220</v>
+        <v>560</v>
       </c>
       <c r="K278" s="2">
         <f t="shared" si="4"/>
-        <v>6600</v>
+        <v>560</v>
       </c>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.3">
@@ -29885,23 +28823,23 @@
         <v>128</v>
       </c>
       <c r="F279" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G279" s="1" t="s">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="H279" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I279" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="J279" s="2">
-        <v>750</v>
+        <v>220</v>
       </c>
       <c r="K279" s="2">
         <f t="shared" si="4"/>
-        <v>750</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.3">
@@ -29921,10 +28859,10 @@
         <v>128</v>
       </c>
       <c r="F280" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G280" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H280" s="1" t="s">
         <v>6</v>
@@ -29933,11 +28871,11 @@
         <v>1</v>
       </c>
       <c r="J280" s="2">
-        <v>90</v>
+        <v>750</v>
       </c>
       <c r="K280" s="2">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>750</v>
       </c>
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.3">
@@ -29957,23 +28895,23 @@
         <v>128</v>
       </c>
       <c r="F281" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G281" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="H281" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I281" s="1">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="J281" s="2">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="K281" s="2">
         <f t="shared" si="4"/>
-        <v>3450</v>
+        <v>90</v>
       </c>
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.3">
@@ -29987,29 +28925,29 @@
         <v>408</v>
       </c>
       <c r="D282" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E282" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F282" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G282" s="1" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="H282" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I282" s="1">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="J282" s="2">
-        <v>300</v>
+        <v>115</v>
       </c>
       <c r="K282" s="2">
         <f t="shared" si="4"/>
-        <v>1800</v>
+        <v>3450</v>
       </c>
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.3">
@@ -30029,23 +28967,23 @@
         <v>130</v>
       </c>
       <c r="F283" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G283" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H283" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I283" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J283" s="2">
-        <v>857.3</v>
+        <v>300</v>
       </c>
       <c r="K283" s="2">
         <f t="shared" si="4"/>
-        <v>3429.2</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.3">
@@ -30059,29 +28997,29 @@
         <v>408</v>
       </c>
       <c r="D284" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E284" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F284" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G284" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H284" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I284" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J284" s="2">
-        <v>360</v>
+        <v>857.3</v>
       </c>
       <c r="K284" s="2">
         <f t="shared" si="4"/>
-        <v>720</v>
+        <v>3429.2</v>
       </c>
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.3">
@@ -30095,29 +29033,29 @@
         <v>408</v>
       </c>
       <c r="D285" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E285" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F285" s="1">
         <v>1</v>
       </c>
       <c r="G285" s="1" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="H285" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I285" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J285" s="2">
-        <v>250</v>
+        <v>360</v>
       </c>
       <c r="K285" s="2">
         <f t="shared" si="4"/>
-        <v>1000</v>
+        <v>720</v>
       </c>
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.3">
@@ -30137,23 +29075,23 @@
         <v>134</v>
       </c>
       <c r="F286" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G286" s="1" t="s">
-        <v>402</v>
+        <v>28</v>
       </c>
       <c r="H286" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I286" s="1">
-        <v>308</v>
+        <v>4</v>
       </c>
       <c r="J286" s="2">
-        <v>83</v>
+        <v>250</v>
       </c>
       <c r="K286" s="2">
         <f t="shared" si="4"/>
-        <v>25564</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.3">
@@ -30167,29 +29105,29 @@
         <v>408</v>
       </c>
       <c r="D287" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E287" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F287" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G287" s="1" t="s">
-        <v>61</v>
+        <v>402</v>
       </c>
       <c r="H287" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I287" s="1">
-        <v>2</v>
+        <v>308</v>
       </c>
       <c r="J287" s="2">
-        <v>540</v>
+        <v>83</v>
       </c>
       <c r="K287" s="2">
         <f t="shared" si="4"/>
-        <v>1080</v>
+        <v>25564</v>
       </c>
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.3">
@@ -30209,23 +29147,23 @@
         <v>136</v>
       </c>
       <c r="F288" s="1">
+        <v>1</v>
+      </c>
+      <c r="G288" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H288" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I288" s="1">
         <v>2</v>
       </c>
-      <c r="G288" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H288" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I288" s="1">
-        <v>1</v>
-      </c>
       <c r="J288" s="2">
-        <v>90</v>
+        <v>540</v>
       </c>
       <c r="K288" s="2">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.3">
@@ -30239,29 +29177,29 @@
         <v>408</v>
       </c>
       <c r="D289" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E289" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F289" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G289" s="1" t="s">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="H289" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I289" s="1">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="J289" s="2">
-        <v>250</v>
+        <v>90</v>
       </c>
       <c r="K289" s="2">
         <f t="shared" si="4"/>
-        <v>12500</v>
+        <v>90</v>
       </c>
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.3">
@@ -30275,29 +29213,29 @@
         <v>408</v>
       </c>
       <c r="D290" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E290" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F290" s="1">
         <v>1</v>
       </c>
       <c r="G290" s="1" t="s">
-        <v>41</v>
+        <v>139</v>
       </c>
       <c r="H290" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I290" s="1">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="J290" s="2">
-        <v>840</v>
+        <v>250</v>
       </c>
       <c r="K290" s="2">
         <f t="shared" si="4"/>
-        <v>840</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.3">
@@ -30317,10 +29255,10 @@
         <v>141</v>
       </c>
       <c r="F291" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G291" s="1" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="H291" s="1" t="s">
         <v>6</v>
@@ -30329,11 +29267,11 @@
         <v>1</v>
       </c>
       <c r="J291" s="2">
-        <v>540</v>
+        <v>840</v>
       </c>
       <c r="K291" s="2">
         <f t="shared" si="4"/>
-        <v>540</v>
+        <v>840</v>
       </c>
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.3">
@@ -30353,10 +29291,10 @@
         <v>141</v>
       </c>
       <c r="F292" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G292" s="1" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="H292" s="1" t="s">
         <v>6</v>
@@ -30365,11 +29303,11 @@
         <v>1</v>
       </c>
       <c r="J292" s="2">
-        <v>90</v>
+        <v>540</v>
       </c>
       <c r="K292" s="2">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>540</v>
       </c>
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.3">
@@ -30389,10 +29327,10 @@
         <v>141</v>
       </c>
       <c r="F293" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G293" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="H293" s="1" t="s">
         <v>6</v>
@@ -30401,11 +29339,11 @@
         <v>1</v>
       </c>
       <c r="J293" s="2">
-        <v>380</v>
+        <v>90</v>
       </c>
       <c r="K293" s="2">
         <f t="shared" si="4"/>
-        <v>380</v>
+        <v>90</v>
       </c>
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.3">
@@ -30419,16 +29357,16 @@
         <v>408</v>
       </c>
       <c r="D294" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E294" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F294" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G294" s="1" t="s">
-        <v>101</v>
+        <v>33</v>
       </c>
       <c r="H294" s="1" t="s">
         <v>6</v>
@@ -30437,11 +29375,11 @@
         <v>1</v>
       </c>
       <c r="J294" s="2">
-        <v>310</v>
+        <v>380</v>
       </c>
       <c r="K294" s="2">
         <f t="shared" si="4"/>
-        <v>310</v>
+        <v>380</v>
       </c>
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.3">
@@ -30455,29 +29393,29 @@
         <v>408</v>
       </c>
       <c r="D295" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E295" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F295" s="1">
         <v>1</v>
       </c>
       <c r="G295" s="1" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="H295" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I295" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J295" s="2">
-        <v>360</v>
+        <v>310</v>
       </c>
       <c r="K295" s="2">
         <f t="shared" si="4"/>
-        <v>720</v>
+        <v>310</v>
       </c>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.3">
@@ -30497,23 +29435,23 @@
         <v>145</v>
       </c>
       <c r="F296" s="1">
+        <v>1</v>
+      </c>
+      <c r="G296" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H296" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I296" s="1">
         <v>2</v>
       </c>
-      <c r="G296" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="H296" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I296" s="1">
-        <v>1</v>
-      </c>
       <c r="J296" s="2">
-        <v>1200</v>
+        <v>360</v>
       </c>
       <c r="K296" s="2">
         <f t="shared" si="4"/>
-        <v>1200</v>
+        <v>720</v>
       </c>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.3">
@@ -30533,23 +29471,23 @@
         <v>145</v>
       </c>
       <c r="F297" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G297" s="1" t="s">
-        <v>20</v>
+        <v>146</v>
       </c>
       <c r="H297" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I297" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J297" s="2">
-        <v>90</v>
+        <v>1200</v>
       </c>
       <c r="K297" s="2">
         <f t="shared" si="4"/>
-        <v>180</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.3">
@@ -30563,29 +29501,29 @@
         <v>408</v>
       </c>
       <c r="D298" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E298" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F298" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G298" s="1" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="H298" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I298" s="1">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="J298" s="2">
-        <v>300</v>
+        <v>90</v>
       </c>
       <c r="K298" s="2">
         <f t="shared" si="4"/>
-        <v>6000</v>
+        <v>180</v>
       </c>
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.3">
@@ -30605,23 +29543,23 @@
         <v>148</v>
       </c>
       <c r="F299" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G299" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H299" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I299" s="1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="J299" s="2">
-        <v>857.3</v>
+        <v>300</v>
       </c>
       <c r="K299" s="2">
         <f t="shared" si="4"/>
-        <v>1714.6</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.3">
@@ -30635,29 +29573,29 @@
         <v>408</v>
       </c>
       <c r="D300" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E300" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F300" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G300" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H300" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I300" s="1">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="J300" s="2">
-        <v>360</v>
+        <v>857.3</v>
       </c>
       <c r="K300" s="2">
         <f t="shared" si="4"/>
-        <v>6480</v>
+        <v>1714.6</v>
       </c>
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.3">
@@ -30677,23 +29615,23 @@
         <v>150</v>
       </c>
       <c r="F301" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G301" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H301" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I301" s="1">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="J301" s="2">
-        <v>540</v>
+        <v>360</v>
       </c>
       <c r="K301" s="2">
         <f t="shared" si="4"/>
-        <v>540</v>
+        <v>6480</v>
       </c>
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.3">
@@ -30713,10 +29651,10 @@
         <v>150</v>
       </c>
       <c r="F302" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G302" s="1" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="H302" s="1" t="s">
         <v>6</v>
@@ -30725,11 +29663,11 @@
         <v>1</v>
       </c>
       <c r="J302" s="2">
-        <v>90</v>
+        <v>540</v>
       </c>
       <c r="K302" s="2">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>540</v>
       </c>
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.3">
@@ -30743,29 +29681,29 @@
         <v>408</v>
       </c>
       <c r="D303" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E303" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F303" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G303" s="1" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="H303" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I303" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J303" s="2">
-        <v>240</v>
+        <v>90</v>
       </c>
       <c r="K303" s="2">
         <f t="shared" si="4"/>
-        <v>480</v>
+        <v>90</v>
       </c>
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.3">
@@ -30785,10 +29723,10 @@
         <v>152</v>
       </c>
       <c r="F304" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G304" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H304" s="1" t="s">
         <v>6</v>
@@ -30797,11 +29735,11 @@
         <v>2</v>
       </c>
       <c r="J304" s="2">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="K304" s="2">
         <f t="shared" si="4"/>
-        <v>540</v>
+        <v>480</v>
       </c>
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.3">
@@ -30821,23 +29759,23 @@
         <v>152</v>
       </c>
       <c r="F305" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G305" s="1" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="H305" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I305" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J305" s="2">
-        <v>450</v>
+        <v>270</v>
       </c>
       <c r="K305" s="2">
         <f t="shared" si="4"/>
-        <v>1800</v>
+        <v>540</v>
       </c>
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.3">
@@ -30857,23 +29795,23 @@
         <v>152</v>
       </c>
       <c r="F306" s="1">
+        <v>3</v>
+      </c>
+      <c r="G306" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H306" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I306" s="1">
         <v>4</v>
       </c>
-      <c r="G306" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H306" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I306" s="1">
-        <v>1</v>
-      </c>
       <c r="J306" s="2">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="K306" s="2">
         <f t="shared" si="4"/>
-        <v>550</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.3">
@@ -30893,10 +29831,10 @@
         <v>152</v>
       </c>
       <c r="F307" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G307" s="1" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="H307" s="1" t="s">
         <v>6</v>
@@ -30905,11 +29843,11 @@
         <v>1</v>
       </c>
       <c r="J307" s="2">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="K307" s="2">
         <f t="shared" si="4"/>
-        <v>540</v>
+        <v>550</v>
       </c>
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.3">
@@ -30929,23 +29867,23 @@
         <v>152</v>
       </c>
       <c r="F308" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G308" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="H308" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I308" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J308" s="2">
-        <v>680</v>
+        <v>540</v>
       </c>
       <c r="K308" s="2">
         <f t="shared" si="4"/>
-        <v>2720</v>
+        <v>540</v>
       </c>
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.3">
@@ -30965,23 +29903,23 @@
         <v>152</v>
       </c>
       <c r="F309" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G309" s="1" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="H309" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I309" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J309" s="2">
-        <v>90</v>
+        <v>680</v>
       </c>
       <c r="K309" s="2">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>2720</v>
       </c>
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.3">
@@ -30995,29 +29933,29 @@
         <v>408</v>
       </c>
       <c r="D310" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E310" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F310" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G310" s="1" t="s">
-        <v>155</v>
+        <v>20</v>
       </c>
       <c r="H310" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I310" s="1">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="J310" s="2">
-        <v>450</v>
+        <v>90</v>
       </c>
       <c r="K310" s="2">
         <f t="shared" si="4"/>
-        <v>11250</v>
+        <v>90</v>
       </c>
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.3">
@@ -31037,23 +29975,23 @@
         <v>154</v>
       </c>
       <c r="F311" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G311" s="1" t="s">
-        <v>401</v>
+        <v>155</v>
       </c>
       <c r="H311" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I311" s="1">
-        <v>112</v>
+        <v>25</v>
       </c>
       <c r="J311" s="2">
-        <v>90</v>
+        <v>450</v>
       </c>
       <c r="K311" s="2">
         <f t="shared" si="4"/>
-        <v>10080</v>
+        <v>11250</v>
       </c>
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.3">
@@ -31067,29 +30005,29 @@
         <v>408</v>
       </c>
       <c r="D312" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E312" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F312" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G312" s="1" t="s">
-        <v>56</v>
+        <v>401</v>
       </c>
       <c r="H312" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I312" s="1">
-        <v>2</v>
+        <v>112</v>
       </c>
       <c r="J312" s="2">
-        <v>360</v>
+        <v>90</v>
       </c>
       <c r="K312" s="2">
         <f t="shared" si="4"/>
-        <v>720</v>
+        <v>10080</v>
       </c>
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.3">
@@ -31103,16 +30041,16 @@
         <v>408</v>
       </c>
       <c r="D313" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E313" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F313" s="1">
         <v>1</v>
       </c>
       <c r="G313" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H313" s="1" t="s">
         <v>6</v>
@@ -31121,11 +30059,11 @@
         <v>2</v>
       </c>
       <c r="J313" s="2">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="K313" s="2">
         <f t="shared" si="4"/>
-        <v>480</v>
+        <v>720</v>
       </c>
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.3">
@@ -31145,10 +30083,10 @@
         <v>159</v>
       </c>
       <c r="F314" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G314" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H314" s="1" t="s">
         <v>6</v>
@@ -31157,11 +30095,11 @@
         <v>2</v>
       </c>
       <c r="J314" s="2">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="K314" s="2">
         <f t="shared" si="4"/>
-        <v>540</v>
+        <v>480</v>
       </c>
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.3">
@@ -31181,23 +30119,23 @@
         <v>159</v>
       </c>
       <c r="F315" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G315" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H315" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I315" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J315" s="2">
-        <v>400</v>
+        <v>270</v>
       </c>
       <c r="K315" s="2">
         <f t="shared" si="4"/>
-        <v>400</v>
+        <v>540</v>
       </c>
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.3">
@@ -31217,10 +30155,10 @@
         <v>159</v>
       </c>
       <c r="F316" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G316" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H316" s="1" t="s">
         <v>6</v>
@@ -31229,11 +30167,11 @@
         <v>1</v>
       </c>
       <c r="J316" s="2">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K316" s="2">
         <f t="shared" si="4"/>
-        <v>700</v>
+        <v>400</v>
       </c>
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.3">
@@ -31253,10 +30191,10 @@
         <v>159</v>
       </c>
       <c r="F317" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G317" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H317" s="1" t="s">
         <v>6</v>
@@ -31265,11 +30203,11 @@
         <v>1</v>
       </c>
       <c r="J317" s="2">
-        <v>280</v>
+        <v>700</v>
       </c>
       <c r="K317" s="2">
         <f t="shared" si="4"/>
-        <v>280</v>
+        <v>700</v>
       </c>
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.3">
@@ -31289,10 +30227,10 @@
         <v>159</v>
       </c>
       <c r="F318" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G318" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H318" s="1" t="s">
         <v>6</v>
@@ -31301,11 +30239,11 @@
         <v>1</v>
       </c>
       <c r="J318" s="2">
-        <v>540</v>
+        <v>280</v>
       </c>
       <c r="K318" s="2">
         <f t="shared" si="4"/>
-        <v>540</v>
+        <v>280</v>
       </c>
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.3">
@@ -31325,10 +30263,10 @@
         <v>159</v>
       </c>
       <c r="F319" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G319" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H319" s="1" t="s">
         <v>6</v>
@@ -31337,11 +30275,11 @@
         <v>1</v>
       </c>
       <c r="J319" s="2">
-        <v>200</v>
+        <v>540</v>
       </c>
       <c r="K319" s="2">
         <f t="shared" si="4"/>
-        <v>200</v>
+        <v>540</v>
       </c>
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.3">
@@ -31361,23 +30299,23 @@
         <v>159</v>
       </c>
       <c r="F320" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G320" s="1" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="H320" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I320" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J320" s="2">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="K320" s="2">
         <f t="shared" si="4"/>
-        <v>180</v>
+        <v>200</v>
       </c>
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.3">
@@ -31397,23 +30335,23 @@
         <v>159</v>
       </c>
       <c r="F321" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G321" s="1" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="H321" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I321" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J321" s="2">
-        <v>400</v>
+        <v>90</v>
       </c>
       <c r="K321" s="2">
         <f t="shared" si="4"/>
-        <v>400</v>
+        <v>180</v>
       </c>
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.3">
@@ -31427,29 +30365,29 @@
         <v>408</v>
       </c>
       <c r="D322" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E322" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F322" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G322" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="H322" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I322" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J322" s="2">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="K322" s="2">
         <f t="shared" si="4"/>
-        <v>720</v>
+        <v>400</v>
       </c>
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.3">
@@ -31469,23 +30407,23 @@
         <v>161</v>
       </c>
       <c r="F323" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G323" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H323" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I323" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J323" s="2">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="K323" s="2">
         <f t="shared" si="4"/>
-        <v>540</v>
+        <v>720</v>
       </c>
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.3">
@@ -31505,19 +30443,19 @@
         <v>161</v>
       </c>
       <c r="F324" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G324" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H324" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I324" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J324" s="2">
-        <v>540</v>
+        <v>270</v>
       </c>
       <c r="K324" s="2">
         <f t="shared" si="4"/>
@@ -31541,23 +30479,23 @@
         <v>161</v>
       </c>
       <c r="F325" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G325" s="1" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="H325" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I325" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J325" s="2">
-        <v>90</v>
+        <v>540</v>
       </c>
       <c r="K325" s="2">
-        <f t="shared" ref="K325:K388" si="5">I325*J325</f>
-        <v>450</v>
+        <f t="shared" si="4"/>
+        <v>540</v>
       </c>
     </row>
     <row r="326" spans="1:11" x14ac:dyDescent="0.3">
@@ -31571,29 +30509,29 @@
         <v>408</v>
       </c>
       <c r="D326" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E326" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F326" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G326" s="1" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="H326" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I326" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J326" s="2">
-        <v>240</v>
+        <v>90</v>
       </c>
       <c r="K326" s="2">
-        <f t="shared" si="5"/>
-        <v>480</v>
+        <f t="shared" ref="K326:K389" si="5">I326*J326</f>
+        <v>450</v>
       </c>
     </row>
     <row r="327" spans="1:11" x14ac:dyDescent="0.3">
@@ -31613,10 +30551,10 @@
         <v>164</v>
       </c>
       <c r="F327" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G327" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H327" s="1" t="s">
         <v>6</v>
@@ -31625,11 +30563,11 @@
         <v>2</v>
       </c>
       <c r="J327" s="2">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="K327" s="2">
         <f t="shared" si="5"/>
-        <v>540</v>
+        <v>480</v>
       </c>
     </row>
     <row r="328" spans="1:11" x14ac:dyDescent="0.3">
@@ -31649,23 +30587,23 @@
         <v>164</v>
       </c>
       <c r="F328" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G328" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="H328" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I328" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J328" s="2">
-        <v>550</v>
+        <v>270</v>
       </c>
       <c r="K328" s="2">
         <f t="shared" si="5"/>
-        <v>550</v>
+        <v>540</v>
       </c>
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.3">
@@ -31685,10 +30623,10 @@
         <v>164</v>
       </c>
       <c r="F329" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G329" s="1" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="H329" s="1" t="s">
         <v>6</v>
@@ -31697,11 +30635,11 @@
         <v>1</v>
       </c>
       <c r="J329" s="2">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="K329" s="2">
         <f t="shared" si="5"/>
-        <v>540</v>
+        <v>550</v>
       </c>
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.3">
@@ -31721,10 +30659,10 @@
         <v>164</v>
       </c>
       <c r="F330" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G330" s="1" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="H330" s="1" t="s">
         <v>6</v>
@@ -31733,11 +30671,11 @@
         <v>1</v>
       </c>
       <c r="J330" s="2">
-        <v>260</v>
+        <v>540</v>
       </c>
       <c r="K330" s="2">
         <f t="shared" si="5"/>
-        <v>260</v>
+        <v>540</v>
       </c>
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.3">
@@ -31757,23 +30695,23 @@
         <v>164</v>
       </c>
       <c r="F331" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G331" s="1" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="H331" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I331" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J331" s="2">
-        <v>90</v>
+        <v>260</v>
       </c>
       <c r="K331" s="2">
         <f t="shared" si="5"/>
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.3">
@@ -31787,29 +30725,29 @@
         <v>408</v>
       </c>
       <c r="D332" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E332" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F332" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G332" s="1" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="H332" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I332" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J332" s="2">
-        <v>240</v>
+        <v>90</v>
       </c>
       <c r="K332" s="2">
         <f t="shared" si="5"/>
-        <v>480</v>
+        <v>270</v>
       </c>
     </row>
     <row r="333" spans="1:11" x14ac:dyDescent="0.3">
@@ -31829,10 +30767,10 @@
         <v>166</v>
       </c>
       <c r="F333" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G333" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H333" s="1" t="s">
         <v>6</v>
@@ -31841,11 +30779,11 @@
         <v>2</v>
       </c>
       <c r="J333" s="2">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="K333" s="2">
         <f t="shared" si="5"/>
-        <v>540</v>
+        <v>480</v>
       </c>
     </row>
     <row r="334" spans="1:11" x14ac:dyDescent="0.3">
@@ -31865,23 +30803,23 @@
         <v>166</v>
       </c>
       <c r="F334" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G334" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="H334" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I334" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J334" s="2">
-        <v>550</v>
+        <v>270</v>
       </c>
       <c r="K334" s="2">
         <f t="shared" si="5"/>
-        <v>550</v>
+        <v>540</v>
       </c>
     </row>
     <row r="335" spans="1:11" x14ac:dyDescent="0.3">
@@ -31901,10 +30839,10 @@
         <v>166</v>
       </c>
       <c r="F335" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G335" s="1" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="H335" s="1" t="s">
         <v>6</v>
@@ -31913,11 +30851,11 @@
         <v>1</v>
       </c>
       <c r="J335" s="2">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="K335" s="2">
         <f t="shared" si="5"/>
-        <v>540</v>
+        <v>550</v>
       </c>
     </row>
     <row r="336" spans="1:11" x14ac:dyDescent="0.3">
@@ -31937,23 +30875,23 @@
         <v>166</v>
       </c>
       <c r="F336" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G336" s="1" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="H336" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I336" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J336" s="2">
-        <v>90</v>
+        <v>540</v>
       </c>
       <c r="K336" s="2">
         <f t="shared" si="5"/>
-        <v>270</v>
+        <v>540</v>
       </c>
     </row>
     <row r="337" spans="1:11" x14ac:dyDescent="0.3">
@@ -31967,29 +30905,29 @@
         <v>408</v>
       </c>
       <c r="D337" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E337" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F337" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G337" s="1" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="H337" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I337" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J337" s="2">
-        <v>240</v>
+        <v>90</v>
       </c>
       <c r="K337" s="2">
         <f t="shared" si="5"/>
-        <v>480</v>
+        <v>270</v>
       </c>
     </row>
     <row r="338" spans="1:11" x14ac:dyDescent="0.3">
@@ -32009,10 +30947,10 @@
         <v>168</v>
       </c>
       <c r="F338" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G338" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H338" s="1" t="s">
         <v>6</v>
@@ -32021,11 +30959,11 @@
         <v>2</v>
       </c>
       <c r="J338" s="2">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="K338" s="2">
         <f t="shared" si="5"/>
-        <v>540</v>
+        <v>480</v>
       </c>
     </row>
     <row r="339" spans="1:11" x14ac:dyDescent="0.3">
@@ -32045,23 +30983,23 @@
         <v>168</v>
       </c>
       <c r="F339" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G339" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="H339" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I339" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J339" s="2">
-        <v>550</v>
+        <v>270</v>
       </c>
       <c r="K339" s="2">
         <f t="shared" si="5"/>
-        <v>550</v>
+        <v>540</v>
       </c>
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.3">
@@ -32081,10 +31019,10 @@
         <v>168</v>
       </c>
       <c r="F340" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G340" s="1" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="H340" s="1" t="s">
         <v>6</v>
@@ -32093,11 +31031,11 @@
         <v>1</v>
       </c>
       <c r="J340" s="2">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="K340" s="2">
         <f t="shared" si="5"/>
-        <v>540</v>
+        <v>550</v>
       </c>
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.3">
@@ -32117,23 +31055,23 @@
         <v>168</v>
       </c>
       <c r="F341" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G341" s="1" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="H341" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I341" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J341" s="2">
-        <v>90</v>
+        <v>540</v>
       </c>
       <c r="K341" s="2">
         <f t="shared" si="5"/>
-        <v>270</v>
+        <v>540</v>
       </c>
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.3">
@@ -32147,16 +31085,16 @@
         <v>408</v>
       </c>
       <c r="D342" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E342" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F342" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G342" s="1" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="H342" s="1" t="s">
         <v>6</v>
@@ -32165,11 +31103,11 @@
         <v>3</v>
       </c>
       <c r="J342" s="2">
-        <v>240</v>
+        <v>90</v>
       </c>
       <c r="K342" s="2">
         <f t="shared" si="5"/>
-        <v>720</v>
+        <v>270</v>
       </c>
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.3">
@@ -32189,23 +31127,23 @@
         <v>170</v>
       </c>
       <c r="F343" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G343" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H343" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I343" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J343" s="2">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="K343" s="2">
         <f t="shared" si="5"/>
-        <v>540</v>
+        <v>720</v>
       </c>
     </row>
     <row r="344" spans="1:11" x14ac:dyDescent="0.3">
@@ -32225,19 +31163,19 @@
         <v>170</v>
       </c>
       <c r="F344" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G344" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H344" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I344" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J344" s="2">
-        <v>540</v>
+        <v>270</v>
       </c>
       <c r="K344" s="2">
         <f t="shared" si="5"/>
@@ -32261,19 +31199,19 @@
         <v>170</v>
       </c>
       <c r="F345" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G345" s="1" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="H345" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I345" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J345" s="2">
-        <v>90</v>
+        <v>540</v>
       </c>
       <c r="K345" s="2">
         <f t="shared" si="5"/>
@@ -32291,29 +31229,29 @@
         <v>408</v>
       </c>
       <c r="D346" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E346" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F346" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G346" s="1" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="H346" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I346" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J346" s="2">
-        <v>240</v>
+        <v>90</v>
       </c>
       <c r="K346" s="2">
         <f t="shared" si="5"/>
-        <v>480</v>
+        <v>540</v>
       </c>
     </row>
     <row r="347" spans="1:11" x14ac:dyDescent="0.3">
@@ -32333,10 +31271,10 @@
         <v>172</v>
       </c>
       <c r="F347" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G347" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H347" s="1" t="s">
         <v>6</v>
@@ -32345,11 +31283,11 @@
         <v>2</v>
       </c>
       <c r="J347" s="2">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="K347" s="2">
         <f t="shared" si="5"/>
-        <v>540</v>
+        <v>480</v>
       </c>
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.3">
@@ -32369,23 +31307,23 @@
         <v>172</v>
       </c>
       <c r="F348" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G348" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="H348" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I348" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J348" s="2">
-        <v>550</v>
+        <v>270</v>
       </c>
       <c r="K348" s="2">
         <f t="shared" si="5"/>
-        <v>550</v>
+        <v>540</v>
       </c>
     </row>
     <row r="349" spans="1:11" x14ac:dyDescent="0.3">
@@ -32405,10 +31343,10 @@
         <v>172</v>
       </c>
       <c r="F349" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G349" s="1" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="H349" s="1" t="s">
         <v>6</v>
@@ -32417,11 +31355,11 @@
         <v>1</v>
       </c>
       <c r="J349" s="2">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="K349" s="2">
         <f t="shared" si="5"/>
-        <v>540</v>
+        <v>550</v>
       </c>
     </row>
     <row r="350" spans="1:11" x14ac:dyDescent="0.3">
@@ -32441,23 +31379,23 @@
         <v>172</v>
       </c>
       <c r="F350" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G350" s="1" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="H350" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I350" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J350" s="2">
-        <v>90</v>
+        <v>540</v>
       </c>
       <c r="K350" s="2">
         <f t="shared" si="5"/>
-        <v>270</v>
+        <v>540</v>
       </c>
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.3">
@@ -32471,29 +31409,29 @@
         <v>408</v>
       </c>
       <c r="D351" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E351" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F351" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G351" s="1" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="H351" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I351" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J351" s="2">
-        <v>240</v>
+        <v>90</v>
       </c>
       <c r="K351" s="2">
         <f t="shared" si="5"/>
-        <v>960</v>
+        <v>270</v>
       </c>
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.3">
@@ -32513,23 +31451,23 @@
         <v>174</v>
       </c>
       <c r="F352" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G352" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H352" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I352" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J352" s="2">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="K352" s="2">
         <f t="shared" si="5"/>
-        <v>540</v>
+        <v>960</v>
       </c>
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.3">
@@ -32549,19 +31487,19 @@
         <v>174</v>
       </c>
       <c r="F353" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G353" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H353" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I353" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J353" s="2">
-        <v>540</v>
+        <v>270</v>
       </c>
       <c r="K353" s="2">
         <f t="shared" si="5"/>
@@ -32585,23 +31523,23 @@
         <v>174</v>
       </c>
       <c r="F354" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G354" s="1" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="H354" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I354" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J354" s="2">
-        <v>90</v>
+        <v>540</v>
       </c>
       <c r="K354" s="2">
         <f t="shared" si="5"/>
-        <v>270</v>
+        <v>540</v>
       </c>
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.3">
@@ -32615,29 +31553,29 @@
         <v>408</v>
       </c>
       <c r="D355" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E355" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F355" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G355" s="1" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="H355" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I355" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J355" s="2">
-        <v>550</v>
+        <v>90</v>
       </c>
       <c r="K355" s="2">
         <f t="shared" si="5"/>
-        <v>1100</v>
+        <v>270</v>
       </c>
     </row>
     <row r="356" spans="1:11" x14ac:dyDescent="0.3">
@@ -32657,10 +31595,10 @@
         <v>176</v>
       </c>
       <c r="F356" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G356" s="1" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="H356" s="1" t="s">
         <v>6</v>
@@ -32669,16 +31607,16 @@
         <v>2</v>
       </c>
       <c r="J356" s="2">
-        <v>440</v>
+        <v>550</v>
       </c>
       <c r="K356" s="2">
         <f t="shared" si="5"/>
-        <v>880</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B357" s="1" t="s">
         <v>103</v>
@@ -32693,23 +31631,23 @@
         <v>176</v>
       </c>
       <c r="F357" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G357" s="1" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="H357" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I357" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J357" s="2">
-        <v>750</v>
+        <v>440</v>
       </c>
       <c r="K357" s="2">
         <f t="shared" si="5"/>
-        <v>750</v>
+        <v>880</v>
       </c>
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.3">
@@ -32729,23 +31667,23 @@
         <v>176</v>
       </c>
       <c r="F358" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G358" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H358" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I358" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J358" s="2">
-        <v>90</v>
+        <v>750</v>
       </c>
       <c r="K358" s="2">
         <f t="shared" si="5"/>
-        <v>900</v>
+        <v>750</v>
       </c>
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.3">
@@ -32759,29 +31697,29 @@
         <v>408</v>
       </c>
       <c r="D359" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E359" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F359" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G359" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H359" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I359" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J359" s="2">
-        <v>1335.76</v>
+        <v>90</v>
       </c>
       <c r="K359" s="2">
         <f t="shared" si="5"/>
-        <v>1335.76</v>
+        <v>900</v>
       </c>
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.3">
@@ -32801,23 +31739,23 @@
         <v>178</v>
       </c>
       <c r="F360" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G360" s="1" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="H360" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I360" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J360" s="2">
-        <v>400</v>
+        <v>1335.76</v>
       </c>
       <c r="K360" s="2">
         <f t="shared" si="5"/>
-        <v>800</v>
+        <v>1335.76</v>
       </c>
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.3">
@@ -32837,23 +31775,23 @@
         <v>178</v>
       </c>
       <c r="F361" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G361" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H361" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I361" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J361" s="2">
-        <v>180</v>
+        <v>400</v>
       </c>
       <c r="K361" s="2">
         <f t="shared" si="5"/>
-        <v>180</v>
+        <v>800</v>
       </c>
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.3">
@@ -32873,10 +31811,10 @@
         <v>178</v>
       </c>
       <c r="F362" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G362" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H362" s="1" t="s">
         <v>6</v>
@@ -32885,11 +31823,11 @@
         <v>1</v>
       </c>
       <c r="J362" s="2">
-        <v>510</v>
+        <v>180</v>
       </c>
       <c r="K362" s="2">
         <f t="shared" si="5"/>
-        <v>510</v>
+        <v>180</v>
       </c>
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.3">
@@ -32909,10 +31847,10 @@
         <v>178</v>
       </c>
       <c r="F363" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G363" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H363" s="1" t="s">
         <v>6</v>
@@ -32921,11 +31859,11 @@
         <v>1</v>
       </c>
       <c r="J363" s="2">
-        <v>260</v>
+        <v>510</v>
       </c>
       <c r="K363" s="2">
         <f t="shared" si="5"/>
-        <v>260</v>
+        <v>510</v>
       </c>
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.3">
@@ -32945,23 +31883,23 @@
         <v>178</v>
       </c>
       <c r="F364" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G364" s="1" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="H364" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I364" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J364" s="2">
-        <v>90</v>
+        <v>260</v>
       </c>
       <c r="K364" s="2">
         <f t="shared" si="5"/>
-        <v>360</v>
+        <v>260</v>
       </c>
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.3">
@@ -32981,23 +31919,23 @@
         <v>178</v>
       </c>
       <c r="F365" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G365" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="H365" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I365" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J365" s="2">
-        <v>380</v>
+        <v>90</v>
       </c>
       <c r="K365" s="2">
         <f t="shared" si="5"/>
-        <v>760</v>
+        <v>360</v>
       </c>
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.3">
@@ -33017,23 +31955,23 @@
         <v>178</v>
       </c>
       <c r="F366" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G366" s="1" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="H366" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I366" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J366" s="2">
-        <v>680</v>
+        <v>380</v>
       </c>
       <c r="K366" s="2">
         <f t="shared" si="5"/>
-        <v>680</v>
+        <v>760</v>
       </c>
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.3">
@@ -33047,29 +31985,29 @@
         <v>408</v>
       </c>
       <c r="D367" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E367" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F367" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G367" s="1" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="H367" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I367" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J367" s="2">
-        <v>360</v>
+        <v>680</v>
       </c>
       <c r="K367" s="2">
         <f t="shared" si="5"/>
-        <v>720</v>
+        <v>680</v>
       </c>
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.3">
@@ -33089,23 +32027,23 @@
         <v>180</v>
       </c>
       <c r="F368" s="1">
+        <v>1</v>
+      </c>
+      <c r="G368" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H368" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I368" s="1">
         <v>2</v>
       </c>
-      <c r="G368" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H368" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I368" s="1">
-        <v>4</v>
-      </c>
       <c r="J368" s="2">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="K368" s="2">
         <f t="shared" si="5"/>
-        <v>960</v>
+        <v>720</v>
       </c>
     </row>
     <row r="369" spans="1:11" x14ac:dyDescent="0.3">
@@ -33119,29 +32057,29 @@
         <v>408</v>
       </c>
       <c r="D369" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E369" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F369" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G369" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H369" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I369" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J369" s="2">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="K369" s="2">
         <f t="shared" si="5"/>
-        <v>720</v>
+        <v>960</v>
       </c>
     </row>
     <row r="370" spans="1:11" x14ac:dyDescent="0.3">
@@ -33155,16 +32093,16 @@
         <v>408</v>
       </c>
       <c r="D370" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E370" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F370" s="1">
         <v>1</v>
       </c>
       <c r="G370" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H370" s="1" t="s">
         <v>6</v>
@@ -33173,11 +32111,11 @@
         <v>2</v>
       </c>
       <c r="J370" s="2">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="K370" s="2">
         <f t="shared" si="5"/>
-        <v>480</v>
+        <v>720</v>
       </c>
     </row>
     <row r="371" spans="1:11" x14ac:dyDescent="0.3">
@@ -33197,10 +32135,10 @@
         <v>184</v>
       </c>
       <c r="F371" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G371" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H371" s="1" t="s">
         <v>6</v>
@@ -33209,11 +32147,11 @@
         <v>2</v>
       </c>
       <c r="J371" s="2">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="K371" s="2">
         <f t="shared" si="5"/>
-        <v>540</v>
+        <v>480</v>
       </c>
     </row>
     <row r="372" spans="1:11" x14ac:dyDescent="0.3">
@@ -33233,23 +32171,23 @@
         <v>184</v>
       </c>
       <c r="F372" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G372" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="H372" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I372" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J372" s="2">
-        <v>550</v>
+        <v>270</v>
       </c>
       <c r="K372" s="2">
         <f t="shared" si="5"/>
-        <v>550</v>
+        <v>540</v>
       </c>
     </row>
     <row r="373" spans="1:11" x14ac:dyDescent="0.3">
@@ -33269,23 +32207,23 @@
         <v>184</v>
       </c>
       <c r="F373" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G373" s="1" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="H373" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I373" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J373" s="2">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="K373" s="2">
         <f t="shared" si="5"/>
-        <v>1080</v>
+        <v>550</v>
       </c>
     </row>
     <row r="374" spans="1:11" x14ac:dyDescent="0.3">
@@ -33305,10 +32243,10 @@
         <v>184</v>
       </c>
       <c r="F374" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G374" s="1" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="H374" s="1" t="s">
         <v>6</v>
@@ -33317,11 +32255,11 @@
         <v>2</v>
       </c>
       <c r="J374" s="2">
-        <v>460</v>
+        <v>540</v>
       </c>
       <c r="K374" s="2">
         <f t="shared" si="5"/>
-        <v>920</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.3">
@@ -33341,26 +32279,26 @@
         <v>184</v>
       </c>
       <c r="F375" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G375" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H375" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I375" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J375" s="2">
-        <v>90</v>
+        <v>460</v>
       </c>
       <c r="K375" s="2">
         <f t="shared" si="5"/>
-        <v>540</v>
-      </c>
-    </row>
-    <row r="376" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="1" t="s">
         <v>358</v>
       </c>
@@ -33368,32 +32306,32 @@
         <v>103</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D376" s="3" t="s">
-        <v>221</v>
+        <v>183</v>
       </c>
       <c r="E376" s="3" t="s">
-        <v>222</v>
+        <v>184</v>
       </c>
       <c r="F376" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G376" s="1" t="s">
-        <v>223</v>
+        <v>20</v>
       </c>
       <c r="H376" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I376" s="1">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="J376" s="2">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="K376" s="2">
         <f t="shared" si="5"/>
-        <v>2100</v>
+        <v>540</v>
       </c>
     </row>
     <row r="377" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -33413,23 +32351,23 @@
         <v>222</v>
       </c>
       <c r="F377" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G377" s="1" t="s">
-        <v>188</v>
+        <v>223</v>
       </c>
       <c r="H377" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I377" s="1">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="J377" s="2">
-        <v>580</v>
+        <v>70</v>
       </c>
       <c r="K377" s="2">
         <f t="shared" si="5"/>
-        <v>6960</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="378" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -33449,10 +32387,10 @@
         <v>222</v>
       </c>
       <c r="F378" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G378" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H378" s="1" t="s">
         <v>6</v>
@@ -33461,11 +32399,11 @@
         <v>12</v>
       </c>
       <c r="J378" s="2">
-        <v>4500</v>
+        <v>580</v>
       </c>
       <c r="K378" s="2">
         <f t="shared" si="5"/>
-        <v>54000</v>
+        <v>6960</v>
       </c>
     </row>
     <row r="379" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -33485,10 +32423,10 @@
         <v>222</v>
       </c>
       <c r="F379" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G379" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H379" s="1" t="s">
         <v>6</v>
@@ -33497,11 +32435,11 @@
         <v>12</v>
       </c>
       <c r="J379" s="2">
-        <v>5200</v>
+        <v>4500</v>
       </c>
       <c r="K379" s="2">
         <f t="shared" si="5"/>
-        <v>62400</v>
+        <v>54000</v>
       </c>
     </row>
     <row r="380" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -33515,29 +32453,29 @@
         <v>407</v>
       </c>
       <c r="D380" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E380" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F380" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G380" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H380" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I380" s="1">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J380" s="2">
-        <v>4500</v>
+        <v>5200</v>
       </c>
       <c r="K380" s="2">
         <f t="shared" si="5"/>
-        <v>18000</v>
+        <v>62400</v>
       </c>
     </row>
     <row r="381" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -33557,23 +32495,23 @@
         <v>225</v>
       </c>
       <c r="F381" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G381" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H381" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I381" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J381" s="2">
-        <v>5200</v>
+        <v>4500</v>
       </c>
       <c r="K381" s="2">
         <f t="shared" si="5"/>
-        <v>5200</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="382" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -33593,10 +32531,10 @@
         <v>225</v>
       </c>
       <c r="F382" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G382" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H382" s="1" t="s">
         <v>6</v>
@@ -33623,16 +32561,16 @@
         <v>407</v>
       </c>
       <c r="D383" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E383" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F383" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G383" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H383" s="1" t="s">
         <v>6</v>
@@ -33641,11 +32579,11 @@
         <v>1</v>
       </c>
       <c r="J383" s="2">
-        <v>4500</v>
+        <v>5200</v>
       </c>
       <c r="K383" s="2">
         <f t="shared" si="5"/>
-        <v>4500</v>
+        <v>5200</v>
       </c>
     </row>
     <row r="384" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -33665,10 +32603,10 @@
         <v>227</v>
       </c>
       <c r="F384" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G384" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H384" s="1" t="s">
         <v>6</v>
@@ -33677,11 +32615,11 @@
         <v>1</v>
       </c>
       <c r="J384" s="2">
-        <v>5200</v>
+        <v>4500</v>
       </c>
       <c r="K384" s="2">
         <f t="shared" si="5"/>
-        <v>5200</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="385" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -33695,29 +32633,29 @@
         <v>407</v>
       </c>
       <c r="D385" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E385" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F385" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G385" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H385" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I385" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J385" s="2">
         <v>5200</v>
       </c>
       <c r="K385" s="2">
         <f t="shared" si="5"/>
-        <v>10400</v>
+        <v>5200</v>
       </c>
     </row>
     <row r="386" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -33737,23 +32675,23 @@
         <v>229</v>
       </c>
       <c r="F386" s="1">
+        <v>1</v>
+      </c>
+      <c r="G386" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H386" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I386" s="1">
         <v>2</v>
       </c>
-      <c r="G386" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="H386" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I386" s="1">
-        <v>62</v>
-      </c>
       <c r="J386" s="2">
-        <v>4500</v>
+        <v>5200</v>
       </c>
       <c r="K386" s="2">
         <f t="shared" si="5"/>
-        <v>279000</v>
+        <v>10400</v>
       </c>
     </row>
     <row r="387" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -33773,23 +32711,23 @@
         <v>229</v>
       </c>
       <c r="F387" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G387" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H387" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I387" s="1">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="J387" s="2">
-        <v>5200</v>
+        <v>4500</v>
       </c>
       <c r="K387" s="2">
         <f t="shared" si="5"/>
-        <v>10400</v>
+        <v>279000</v>
       </c>
     </row>
     <row r="388" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -33803,29 +32741,29 @@
         <v>407</v>
       </c>
       <c r="D388" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E388" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F388" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G388" s="1" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="H388" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I388" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J388" s="2">
         <v>5200</v>
       </c>
       <c r="K388" s="2">
         <f t="shared" si="5"/>
-        <v>5200</v>
+        <v>10400</v>
       </c>
     </row>
     <row r="389" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -33845,10 +32783,10 @@
         <v>231</v>
       </c>
       <c r="F389" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G389" s="1" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="H389" s="1" t="s">
         <v>6</v>
@@ -33857,11 +32795,11 @@
         <v>1</v>
       </c>
       <c r="J389" s="2">
-        <v>12000</v>
+        <v>5200</v>
       </c>
       <c r="K389" s="2">
-        <f t="shared" ref="K389:K455" si="6">I389*J389</f>
-        <v>12000</v>
+        <f t="shared" si="5"/>
+        <v>5200</v>
       </c>
     </row>
     <row r="390" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -33875,29 +32813,29 @@
         <v>407</v>
       </c>
       <c r="D390" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E390" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F390" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G390" s="1" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="H390" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I390" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J390" s="2">
-        <v>5425</v>
+        <v>12000</v>
       </c>
       <c r="K390" s="2">
-        <f t="shared" si="6"/>
-        <v>10850</v>
+        <f t="shared" ref="K390:K456" si="6">I390*J390</f>
+        <v>12000</v>
       </c>
     </row>
     <row r="391" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -33917,23 +32855,23 @@
         <v>233</v>
       </c>
       <c r="F391" s="1">
+        <v>1</v>
+      </c>
+      <c r="G391" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H391" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I391" s="1">
         <v>2</v>
       </c>
-      <c r="G391" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="H391" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I391" s="1">
-        <v>5</v>
-      </c>
       <c r="J391" s="2">
-        <v>525</v>
+        <v>5425</v>
       </c>
       <c r="K391" s="2">
         <f t="shared" si="6"/>
-        <v>2625</v>
+        <v>10850</v>
       </c>
     </row>
     <row r="392" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -33953,23 +32891,23 @@
         <v>233</v>
       </c>
       <c r="F392" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G392" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H392" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I392" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J392" s="2">
-        <v>3150</v>
+        <v>525</v>
       </c>
       <c r="K392" s="2">
         <f t="shared" si="6"/>
-        <v>3150</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="393" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -33989,23 +32927,23 @@
         <v>233</v>
       </c>
       <c r="F393" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G393" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H393" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I393" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J393" s="2">
-        <v>1399</v>
+        <v>3150</v>
       </c>
       <c r="K393" s="2">
         <f t="shared" si="6"/>
-        <v>6995</v>
+        <v>3150</v>
       </c>
     </row>
     <row r="394" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -34025,23 +32963,23 @@
         <v>233</v>
       </c>
       <c r="F394" s="1">
+        <v>4</v>
+      </c>
+      <c r="G394" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H394" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I394" s="1">
         <v>5</v>
       </c>
-      <c r="G394" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="H394" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I394" s="1">
-        <v>1</v>
-      </c>
       <c r="J394" s="2">
-        <v>4500</v>
+        <v>1399</v>
       </c>
       <c r="K394" s="2">
         <f t="shared" si="6"/>
-        <v>4500</v>
+        <v>6995</v>
       </c>
     </row>
     <row r="395" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -34061,10 +32999,10 @@
         <v>233</v>
       </c>
       <c r="F395" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G395" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H395" s="1" t="s">
         <v>6</v>
@@ -34073,11 +33011,11 @@
         <v>1</v>
       </c>
       <c r="J395" s="2">
-        <v>5200</v>
+        <v>4500</v>
       </c>
       <c r="K395" s="2">
         <f t="shared" si="6"/>
-        <v>5200</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="396" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -34091,16 +33029,16 @@
         <v>407</v>
       </c>
       <c r="D396" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E396" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F396" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G396" s="1" t="s">
-        <v>236</v>
+        <v>190</v>
       </c>
       <c r="H396" s="1" t="s">
         <v>6</v>
@@ -34109,11 +33047,11 @@
         <v>1</v>
       </c>
       <c r="J396" s="2">
-        <v>1599</v>
+        <v>5200</v>
       </c>
       <c r="K396" s="2">
         <f t="shared" si="6"/>
-        <v>1599</v>
+        <v>5200</v>
       </c>
     </row>
     <row r="397" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -34133,10 +33071,10 @@
         <v>235</v>
       </c>
       <c r="F397" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G397" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H397" s="1" t="s">
         <v>6</v>
@@ -34145,11 +33083,11 @@
         <v>1</v>
       </c>
       <c r="J397" s="2">
-        <v>4071</v>
+        <v>1599</v>
       </c>
       <c r="K397" s="2">
         <f t="shared" si="6"/>
-        <v>4071</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="398" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -34169,10 +33107,10 @@
         <v>235</v>
       </c>
       <c r="F398" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G398" s="1" t="s">
-        <v>398</v>
+        <v>237</v>
       </c>
       <c r="H398" s="1" t="s">
         <v>6</v>
@@ -34181,11 +33119,11 @@
         <v>1</v>
       </c>
       <c r="J398" s="2">
-        <v>5593.2</v>
+        <v>4071</v>
       </c>
       <c r="K398" s="2">
         <f t="shared" si="6"/>
-        <v>5593.2</v>
+        <v>4071</v>
       </c>
     </row>
     <row r="399" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -34205,10 +33143,10 @@
         <v>235</v>
       </c>
       <c r="F399" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G399" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H399" s="1" t="s">
         <v>6</v>
@@ -34217,11 +33155,11 @@
         <v>1</v>
       </c>
       <c r="J399" s="2">
-        <v>16000</v>
+        <v>5593.2</v>
       </c>
       <c r="K399" s="2">
-        <f t="shared" ref="K399" si="7">I399*J399</f>
-        <v>16000</v>
+        <f t="shared" si="6"/>
+        <v>5593.2</v>
       </c>
     </row>
     <row r="400" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -34241,10 +33179,10 @@
         <v>235</v>
       </c>
       <c r="F400" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G400" s="1" t="s">
-        <v>238</v>
+        <v>397</v>
       </c>
       <c r="H400" s="1" t="s">
         <v>6</v>
@@ -34253,11 +33191,11 @@
         <v>1</v>
       </c>
       <c r="J400" s="2">
-        <v>1500</v>
+        <v>16000</v>
       </c>
       <c r="K400" s="2">
-        <f t="shared" si="6"/>
-        <v>1500</v>
+        <f t="shared" ref="K400" si="7">I400*J400</f>
+        <v>16000</v>
       </c>
     </row>
     <row r="401" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -34271,16 +33209,16 @@
         <v>407</v>
       </c>
       <c r="D401" s="3" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E401" s="3" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="F401" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G401" s="1" t="s">
-        <v>189</v>
+        <v>238</v>
       </c>
       <c r="H401" s="1" t="s">
         <v>6</v>
@@ -34289,11 +33227,11 @@
         <v>1</v>
       </c>
       <c r="J401" s="2">
-        <v>4500</v>
+        <v>1500</v>
       </c>
       <c r="K401" s="2">
         <f t="shared" si="6"/>
-        <v>4500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="402" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -34313,23 +33251,23 @@
         <v>240</v>
       </c>
       <c r="F402" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G402" s="1" t="s">
-        <v>375</v>
+        <v>189</v>
       </c>
       <c r="H402" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I402" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J402" s="2">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="K402" s="2">
         <f t="shared" si="6"/>
-        <v>30000</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="403" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -34349,10 +33287,10 @@
         <v>240</v>
       </c>
       <c r="F403" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G403" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H403" s="1" t="s">
         <v>6</v>
@@ -34385,23 +33323,23 @@
         <v>240</v>
       </c>
       <c r="F404" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G404" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H404" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I404" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J404" s="2">
-        <v>5894</v>
+        <v>5000</v>
       </c>
       <c r="K404" s="2">
         <f t="shared" si="6"/>
-        <v>23576</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="405" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -34421,23 +33359,23 @@
         <v>240</v>
       </c>
       <c r="F405" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G405" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H405" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I405" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J405" s="2">
-        <v>1200</v>
+        <v>5894</v>
       </c>
       <c r="K405" s="2">
         <f t="shared" si="6"/>
-        <v>2400</v>
+        <v>23576</v>
       </c>
     </row>
     <row r="406" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -34457,23 +33395,23 @@
         <v>240</v>
       </c>
       <c r="F406" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G406" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H406" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I406" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J406" s="2">
-        <v>7580</v>
+        <v>1200</v>
       </c>
       <c r="K406" s="2">
         <f t="shared" si="6"/>
-        <v>7580</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="407" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -34493,10 +33431,10 @@
         <v>240</v>
       </c>
       <c r="F407" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G407" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H407" s="1" t="s">
         <v>6</v>
@@ -34505,11 +33443,11 @@
         <v>1</v>
       </c>
       <c r="J407" s="2">
-        <v>27500</v>
+        <v>7580</v>
       </c>
       <c r="K407" s="2">
         <f t="shared" si="6"/>
-        <v>27500</v>
+        <v>7580</v>
       </c>
     </row>
     <row r="408" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -34529,10 +33467,10 @@
         <v>240</v>
       </c>
       <c r="F408" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G408" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H408" s="1" t="s">
         <v>6</v>
@@ -34541,11 +33479,11 @@
         <v>1</v>
       </c>
       <c r="J408" s="2">
-        <v>3610</v>
+        <v>27500</v>
       </c>
       <c r="K408" s="2">
         <f t="shared" si="6"/>
-        <v>3610</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="409" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -34565,26 +33503,32 @@
         <v>240</v>
       </c>
       <c r="F409" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G409" s="1" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="H409" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I409" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J409" s="2">
-        <v>1137</v>
+        <v>3610</v>
       </c>
       <c r="K409" s="2">
         <f t="shared" si="6"/>
-        <v>2274</v>
+        <v>3610</v>
       </c>
     </row>
     <row r="410" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A410" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="C410" s="1" t="s">
         <v>407</v>
       </c>
@@ -34595,23 +33539,23 @@
         <v>240</v>
       </c>
       <c r="F410" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G410" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="H410" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I410" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J410" s="2">
-        <v>650</v>
+        <v>1137</v>
       </c>
       <c r="K410" s="2">
         <f t="shared" si="6"/>
-        <v>5200</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="411" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -34625,32 +33569,26 @@
         <v>240</v>
       </c>
       <c r="F411" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G411" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H411" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I411" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J411" s="2">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="K411" s="2">
         <f t="shared" si="6"/>
-        <v>750</v>
+        <v>5200</v>
       </c>
     </row>
     <row r="412" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A412" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="B412" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="C412" s="1" t="s">
         <v>407</v>
       </c>
@@ -34661,10 +33599,10 @@
         <v>240</v>
       </c>
       <c r="F412" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G412" s="1" t="s">
-        <v>190</v>
+        <v>405</v>
       </c>
       <c r="H412" s="1" t="s">
         <v>6</v>
@@ -34673,11 +33611,11 @@
         <v>1</v>
       </c>
       <c r="J412" s="2">
-        <v>5200</v>
+        <v>750</v>
       </c>
       <c r="K412" s="2">
         <f t="shared" si="6"/>
-        <v>5200</v>
+        <v>750</v>
       </c>
     </row>
     <row r="413" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -34691,16 +33629,16 @@
         <v>407</v>
       </c>
       <c r="D413" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E413" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F413" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G413" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H413" s="1" t="s">
         <v>6</v>
@@ -34709,11 +33647,11 @@
         <v>1</v>
       </c>
       <c r="J413" s="2">
-        <v>4500</v>
+        <v>5200</v>
       </c>
       <c r="K413" s="2">
         <f t="shared" si="6"/>
-        <v>4500</v>
+        <v>5200</v>
       </c>
     </row>
     <row r="414" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -34730,13 +33668,13 @@
         <v>241</v>
       </c>
       <c r="E414" s="3" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F414" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G414" s="1" t="s">
-        <v>383</v>
+        <v>189</v>
       </c>
       <c r="H414" s="1" t="s">
         <v>6</v>
@@ -34745,11 +33683,11 @@
         <v>1</v>
       </c>
       <c r="J414" s="2">
-        <v>16500</v>
+        <v>4500</v>
       </c>
       <c r="K414" s="2">
         <f t="shared" si="6"/>
-        <v>16500</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="415" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -34763,29 +33701,29 @@
         <v>407</v>
       </c>
       <c r="D415" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E415" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F415" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G415" s="1" t="s">
-        <v>211</v>
+        <v>383</v>
       </c>
       <c r="H415" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I415" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J415" s="2">
-        <v>399</v>
+        <v>16500</v>
       </c>
       <c r="K415" s="2">
         <f t="shared" si="6"/>
-        <v>798</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="416" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -34799,29 +33737,29 @@
         <v>407</v>
       </c>
       <c r="D416" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E416" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F416" s="1">
         <v>1</v>
       </c>
       <c r="G416" s="1" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="H416" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I416" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J416" s="2">
-        <v>4500</v>
+        <v>399</v>
       </c>
       <c r="K416" s="2">
         <f t="shared" si="6"/>
-        <v>4500</v>
+        <v>798</v>
       </c>
     </row>
     <row r="417" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -34835,10 +33773,10 @@
         <v>407</v>
       </c>
       <c r="D417" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E417" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F417" s="1">
         <v>1</v>
@@ -34877,10 +33815,10 @@
         <v>248</v>
       </c>
       <c r="F418" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G418" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H418" s="1" t="s">
         <v>6</v>
@@ -34889,11 +33827,11 @@
         <v>1</v>
       </c>
       <c r="J418" s="2">
-        <v>5200</v>
+        <v>4500</v>
       </c>
       <c r="K418" s="2">
         <f t="shared" si="6"/>
-        <v>5200</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="419" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -34907,16 +33845,16 @@
         <v>407</v>
       </c>
       <c r="D419" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E419" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F419" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G419" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H419" s="1" t="s">
         <v>6</v>
@@ -34925,11 +33863,11 @@
         <v>1</v>
       </c>
       <c r="J419" s="2">
-        <v>4500</v>
+        <v>5200</v>
       </c>
       <c r="K419" s="2">
         <f t="shared" si="6"/>
-        <v>4500</v>
+        <v>5200</v>
       </c>
     </row>
     <row r="420" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -34949,10 +33887,10 @@
         <v>250</v>
       </c>
       <c r="F420" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G420" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H420" s="1" t="s">
         <v>6</v>
@@ -34961,11 +33899,11 @@
         <v>1</v>
       </c>
       <c r="J420" s="2">
-        <v>5200</v>
+        <v>4500</v>
       </c>
       <c r="K420" s="2">
         <f t="shared" si="6"/>
-        <v>5200</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="421" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -34979,16 +33917,16 @@
         <v>407</v>
       </c>
       <c r="D421" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E421" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F421" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G421" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H421" s="1" t="s">
         <v>6</v>
@@ -34997,11 +33935,11 @@
         <v>1</v>
       </c>
       <c r="J421" s="2">
-        <v>4500</v>
+        <v>5200</v>
       </c>
       <c r="K421" s="2">
         <f t="shared" si="6"/>
-        <v>4500</v>
+        <v>5200</v>
       </c>
     </row>
     <row r="422" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -35021,10 +33959,10 @@
         <v>252</v>
       </c>
       <c r="F422" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G422" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H422" s="1" t="s">
         <v>6</v>
@@ -35033,11 +33971,11 @@
         <v>1</v>
       </c>
       <c r="J422" s="2">
-        <v>5200</v>
+        <v>4500</v>
       </c>
       <c r="K422" s="2">
         <f t="shared" si="6"/>
-        <v>5200</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="423" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -35051,16 +33989,16 @@
         <v>407</v>
       </c>
       <c r="D423" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E423" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F423" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G423" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H423" s="1" t="s">
         <v>6</v>
@@ -35069,11 +34007,11 @@
         <v>1</v>
       </c>
       <c r="J423" s="2">
-        <v>4500</v>
+        <v>5200</v>
       </c>
       <c r="K423" s="2">
         <f t="shared" si="6"/>
-        <v>4500</v>
+        <v>5200</v>
       </c>
     </row>
     <row r="424" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -35093,10 +34031,10 @@
         <v>254</v>
       </c>
       <c r="F424" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G424" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H424" s="1" t="s">
         <v>6</v>
@@ -35105,11 +34043,11 @@
         <v>1</v>
       </c>
       <c r="J424" s="2">
-        <v>5200</v>
+        <v>4500</v>
       </c>
       <c r="K424" s="2">
         <f t="shared" si="6"/>
-        <v>5200</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="425" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -35123,29 +34061,29 @@
         <v>407</v>
       </c>
       <c r="D425" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E425" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F425" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G425" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H425" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I425" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J425" s="2">
-        <v>4500</v>
+        <v>5200</v>
       </c>
       <c r="K425" s="2">
         <f t="shared" si="6"/>
-        <v>9000</v>
+        <v>5200</v>
       </c>
     </row>
     <row r="426" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -35165,23 +34103,23 @@
         <v>256</v>
       </c>
       <c r="F426" s="1">
+        <v>1</v>
+      </c>
+      <c r="G426" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="H426" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I426" s="1">
         <v>2</v>
       </c>
-      <c r="G426" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="H426" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I426" s="1">
-        <v>1</v>
-      </c>
       <c r="J426" s="2">
-        <v>399</v>
+        <v>4500</v>
       </c>
       <c r="K426" s="2">
         <f t="shared" si="6"/>
-        <v>399</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="427" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -35201,10 +34139,10 @@
         <v>256</v>
       </c>
       <c r="F427" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G427" s="1" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="H427" s="1" t="s">
         <v>6</v>
@@ -35213,11 +34151,11 @@
         <v>1</v>
       </c>
       <c r="J427" s="2">
-        <v>5200</v>
+        <v>399</v>
       </c>
       <c r="K427" s="2">
         <f t="shared" si="6"/>
-        <v>5200</v>
+        <v>399</v>
       </c>
     </row>
     <row r="428" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -35237,10 +34175,10 @@
         <v>256</v>
       </c>
       <c r="F428" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G428" s="1" t="s">
-        <v>374</v>
+        <v>194</v>
       </c>
       <c r="H428" s="1" t="s">
         <v>6</v>
@@ -35249,11 +34187,11 @@
         <v>1</v>
       </c>
       <c r="J428" s="2">
-        <v>6500</v>
+        <v>5200</v>
       </c>
       <c r="K428" s="2">
         <f t="shared" si="6"/>
-        <v>6500</v>
+        <v>5200</v>
       </c>
     </row>
     <row r="429" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -35267,29 +34205,29 @@
         <v>407</v>
       </c>
       <c r="D429" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E429" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F429" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G429" s="1" t="s">
-        <v>193</v>
+        <v>374</v>
       </c>
       <c r="H429" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I429" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J429" s="2">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="K429" s="2">
         <f t="shared" si="6"/>
-        <v>9000</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="430" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -35309,23 +34247,23 @@
         <v>258</v>
       </c>
       <c r="F430" s="1">
+        <v>1</v>
+      </c>
+      <c r="G430" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="H430" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I430" s="1">
         <v>2</v>
       </c>
-      <c r="G430" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="H430" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I430" s="1">
-        <v>1</v>
-      </c>
       <c r="J430" s="2">
-        <v>5200</v>
+        <v>4500</v>
       </c>
       <c r="K430" s="2">
         <f t="shared" si="6"/>
-        <v>5200</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="431" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -35339,29 +34277,29 @@
         <v>407</v>
       </c>
       <c r="D431" s="3" t="s">
-        <v>291</v>
+        <v>257</v>
       </c>
       <c r="E431" s="3" t="s">
-        <v>292</v>
+        <v>258</v>
       </c>
       <c r="F431" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G431" s="1" t="s">
-        <v>261</v>
+        <v>194</v>
       </c>
       <c r="H431" s="1" t="s">
-        <v>262</v>
+        <v>6</v>
       </c>
       <c r="I431" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J431" s="2">
-        <v>282</v>
+        <v>5200</v>
       </c>
       <c r="K431" s="2">
         <f t="shared" si="6"/>
-        <v>846</v>
+        <v>5200</v>
       </c>
     </row>
     <row r="432" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -35381,10 +34319,10 @@
         <v>292</v>
       </c>
       <c r="F432" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G432" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H432" s="1" t="s">
         <v>262</v>
@@ -35417,10 +34355,10 @@
         <v>292</v>
       </c>
       <c r="F433" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G433" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H433" s="1" t="s">
         <v>262</v>
@@ -35429,11 +34367,11 @@
         <v>3</v>
       </c>
       <c r="J433" s="2">
-        <v>147</v>
+        <v>282</v>
       </c>
       <c r="K433" s="2">
         <f t="shared" si="6"/>
-        <v>441</v>
+        <v>846</v>
       </c>
     </row>
     <row r="434" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -35453,10 +34391,10 @@
         <v>292</v>
       </c>
       <c r="F434" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G434" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H434" s="1" t="s">
         <v>262</v>
@@ -35465,11 +34403,11 @@
         <v>3</v>
       </c>
       <c r="J434" s="2">
-        <v>180</v>
+        <v>147</v>
       </c>
       <c r="K434" s="2">
         <f t="shared" si="6"/>
-        <v>540</v>
+        <v>441</v>
       </c>
     </row>
     <row r="435" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -35489,10 +34427,10 @@
         <v>292</v>
       </c>
       <c r="F435" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G435" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H435" s="1" t="s">
         <v>262</v>
@@ -35501,11 +34439,11 @@
         <v>3</v>
       </c>
       <c r="J435" s="2">
-        <v>11.5</v>
+        <v>180</v>
       </c>
       <c r="K435" s="2">
         <f t="shared" si="6"/>
-        <v>34.5</v>
+        <v>540</v>
       </c>
     </row>
     <row r="436" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -35525,10 +34463,10 @@
         <v>292</v>
       </c>
       <c r="F436" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G436" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H436" s="1" t="s">
         <v>262</v>
@@ -35537,11 +34475,11 @@
         <v>3</v>
       </c>
       <c r="J436" s="2">
-        <v>1.5</v>
+        <v>11.5</v>
       </c>
       <c r="K436" s="2">
         <f t="shared" si="6"/>
-        <v>4.5</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="437" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -35561,10 +34499,10 @@
         <v>292</v>
       </c>
       <c r="F437" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G437" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H437" s="1" t="s">
         <v>262</v>
@@ -35573,11 +34511,11 @@
         <v>3</v>
       </c>
       <c r="J437" s="2">
-        <v>12</v>
+        <v>1.5</v>
       </c>
       <c r="K437" s="2">
         <f t="shared" si="6"/>
-        <v>36</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="438" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -35597,10 +34535,10 @@
         <v>292</v>
       </c>
       <c r="F438" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G438" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H438" s="1" t="s">
         <v>262</v>
@@ -35609,11 +34547,11 @@
         <v>3</v>
       </c>
       <c r="J438" s="2">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="K438" s="2">
         <f t="shared" si="6"/>
-        <v>54</v>
+        <v>36</v>
       </c>
     </row>
     <row r="439" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -35633,10 +34571,10 @@
         <v>292</v>
       </c>
       <c r="F439" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G439" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H439" s="1" t="s">
         <v>262</v>
@@ -35645,11 +34583,11 @@
         <v>3</v>
       </c>
       <c r="J439" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K439" s="2">
         <f t="shared" si="6"/>
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="440" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -35669,10 +34607,10 @@
         <v>292</v>
       </c>
       <c r="F440" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G440" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H440" s="1" t="s">
         <v>262</v>
@@ -35681,11 +34619,11 @@
         <v>3</v>
       </c>
       <c r="J440" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K440" s="2">
         <f t="shared" si="6"/>
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="441" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -35705,10 +34643,10 @@
         <v>292</v>
       </c>
       <c r="F441" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G441" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H441" s="1" t="s">
         <v>262</v>
@@ -35717,11 +34655,11 @@
         <v>3</v>
       </c>
       <c r="J441" s="2">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="K441" s="2">
         <f t="shared" si="6"/>
-        <v>57</v>
+        <v>30</v>
       </c>
     </row>
     <row r="442" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -35741,10 +34679,10 @@
         <v>292</v>
       </c>
       <c r="F442" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G442" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H442" s="1" t="s">
         <v>262</v>
@@ -35753,11 +34691,11 @@
         <v>3</v>
       </c>
       <c r="J442" s="2">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="K442" s="2">
         <f t="shared" si="6"/>
-        <v>24</v>
+        <v>57</v>
       </c>
     </row>
     <row r="443" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -35777,10 +34715,10 @@
         <v>292</v>
       </c>
       <c r="F443" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G443" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H443" s="1" t="s">
         <v>262</v>
@@ -35789,11 +34727,11 @@
         <v>3</v>
       </c>
       <c r="J443" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K443" s="2">
         <f t="shared" si="6"/>
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="444" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -35813,23 +34751,23 @@
         <v>292</v>
       </c>
       <c r="F444" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G444" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H444" s="1" t="s">
         <v>262</v>
       </c>
       <c r="I444" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J444" s="2">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="K444" s="2">
         <f t="shared" si="6"/>
-        <v>240</v>
+        <v>36</v>
       </c>
     </row>
     <row r="445" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -35849,23 +34787,23 @@
         <v>292</v>
       </c>
       <c r="F445" s="1">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G445" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H445" s="1" t="s">
         <v>262</v>
       </c>
       <c r="I445" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J445" s="2">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="K445" s="2">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>240</v>
       </c>
     </row>
     <row r="446" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -35885,23 +34823,23 @@
         <v>292</v>
       </c>
       <c r="F446" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G446" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H446" s="1" t="s">
         <v>262</v>
       </c>
       <c r="I446" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J446" s="2">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="K446" s="2">
         <f t="shared" si="6"/>
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="447" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -35921,10 +34859,10 @@
         <v>292</v>
       </c>
       <c r="F447" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G447" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H447" s="1" t="s">
         <v>262</v>
@@ -35933,11 +34871,11 @@
         <v>3</v>
       </c>
       <c r="J447" s="2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="K447" s="2">
         <f t="shared" si="6"/>
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="448" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -35957,10 +34895,10 @@
         <v>292</v>
       </c>
       <c r="F448" s="1">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G448" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H448" s="1" t="s">
         <v>262</v>
@@ -35969,11 +34907,11 @@
         <v>3</v>
       </c>
       <c r="J448" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K448" s="2">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="449" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -35993,10 +34931,10 @@
         <v>292</v>
       </c>
       <c r="F449" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G449" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H449" s="1" t="s">
         <v>262</v>
@@ -36005,11 +34943,11 @@
         <v>3</v>
       </c>
       <c r="J449" s="2">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="K449" s="2">
         <f t="shared" si="6"/>
-        <v>13.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="450" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -36029,23 +34967,23 @@
         <v>292</v>
       </c>
       <c r="F450" s="1">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G450" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H450" s="1" t="s">
         <v>262</v>
       </c>
       <c r="I450" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J450" s="2">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="K450" s="2">
         <f t="shared" si="6"/>
-        <v>21</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="451" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -36065,23 +35003,23 @@
         <v>292</v>
       </c>
       <c r="F451" s="1">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G451" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H451" s="1" t="s">
         <v>262</v>
       </c>
       <c r="I451" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J451" s="2">
-        <v>12</v>
+        <v>3.5</v>
       </c>
       <c r="K451" s="2">
         <f t="shared" si="6"/>
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="452" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -36101,23 +35039,23 @@
         <v>292</v>
       </c>
       <c r="F452" s="1">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G452" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H452" s="1" t="s">
         <v>262</v>
       </c>
       <c r="I452" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J452" s="2">
         <v>12</v>
       </c>
       <c r="K452" s="2">
         <f t="shared" si="6"/>
-        <v>72</v>
+        <v>36</v>
       </c>
     </row>
     <row r="453" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -36137,10 +35075,10 @@
         <v>292</v>
       </c>
       <c r="F453" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G453" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H453" s="1" t="s">
         <v>262</v>
@@ -36149,11 +35087,11 @@
         <v>6</v>
       </c>
       <c r="J453" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K453" s="2">
         <f t="shared" si="6"/>
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="454" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -36173,10 +35111,10 @@
         <v>292</v>
       </c>
       <c r="F454" s="1">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G454" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H454" s="1" t="s">
         <v>262</v>
@@ -36185,11 +35123,11 @@
         <v>6</v>
       </c>
       <c r="J454" s="2">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K454" s="2">
         <f t="shared" si="6"/>
-        <v>90</v>
+        <v>66</v>
       </c>
     </row>
     <row r="455" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -36209,23 +35147,23 @@
         <v>292</v>
       </c>
       <c r="F455" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G455" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H455" s="1" t="s">
         <v>262</v>
       </c>
       <c r="I455" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J455" s="2">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="K455" s="2">
         <f t="shared" si="6"/>
-        <v>24</v>
+        <v>90</v>
       </c>
     </row>
     <row r="456" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -36245,23 +35183,23 @@
         <v>292</v>
       </c>
       <c r="F456" s="1">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G456" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H456" s="1" t="s">
         <v>262</v>
       </c>
       <c r="I456" s="1">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J456" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K456" s="2">
-        <f t="shared" ref="K456:K514" si="8">I456*J456</f>
-        <v>72</v>
+        <f t="shared" si="6"/>
+        <v>24</v>
       </c>
     </row>
     <row r="457" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -36281,23 +35219,23 @@
         <v>292</v>
       </c>
       <c r="F457" s="1">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G457" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H457" s="1" t="s">
         <v>262</v>
       </c>
       <c r="I457" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J457" s="2">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="K457" s="2">
-        <f t="shared" si="8"/>
-        <v>9</v>
+        <f t="shared" ref="K457:K515" si="8">I457*J457</f>
+        <v>72</v>
       </c>
     </row>
     <row r="458" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -36317,23 +35255,23 @@
         <v>292</v>
       </c>
       <c r="F458" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G458" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H458" s="1" t="s">
         <v>262</v>
       </c>
       <c r="I458" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J458" s="2">
         <v>1.5</v>
       </c>
       <c r="K458" s="2">
         <f t="shared" si="8"/>
-        <v>4.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="459" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -36353,10 +35291,10 @@
         <v>292</v>
       </c>
       <c r="F459" s="1">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G459" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H459" s="1" t="s">
         <v>262</v>
@@ -36365,11 +35303,11 @@
         <v>3</v>
       </c>
       <c r="J459" s="2">
-        <v>30</v>
+        <v>1.5</v>
       </c>
       <c r="K459" s="2">
         <f t="shared" si="8"/>
-        <v>90</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="460" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -36383,29 +35321,29 @@
         <v>407</v>
       </c>
       <c r="D460" s="3" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="E460" s="3" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="F460" s="1">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G460" s="1" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="H460" s="1" t="s">
         <v>262</v>
       </c>
       <c r="I460" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J460" s="2">
-        <v>586.46</v>
+        <v>30</v>
       </c>
       <c r="K460" s="2">
         <f t="shared" si="8"/>
-        <v>3518.76</v>
+        <v>90</v>
       </c>
     </row>
     <row r="461" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -36425,23 +35363,23 @@
         <v>300</v>
       </c>
       <c r="F461" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G461" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H461" s="1" t="s">
         <v>262</v>
       </c>
       <c r="I461" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J461" s="2">
-        <v>60</v>
+        <v>586.46</v>
       </c>
       <c r="K461" s="2">
         <f t="shared" si="8"/>
-        <v>180</v>
+        <v>3518.76</v>
       </c>
     </row>
     <row r="462" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -36461,23 +35399,23 @@
         <v>300</v>
       </c>
       <c r="F462" s="1">
+        <v>2</v>
+      </c>
+      <c r="G462" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="H462" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="I462" s="1">
         <v>3</v>
       </c>
-      <c r="G462" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="H462" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="I462" s="1">
-        <v>1</v>
-      </c>
       <c r="J462" s="2">
-        <v>2000</v>
+        <v>60</v>
       </c>
       <c r="K462" s="2">
         <f t="shared" si="8"/>
-        <v>2000</v>
+        <v>180</v>
       </c>
     </row>
     <row r="463" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -36491,29 +35429,29 @@
         <v>407</v>
       </c>
       <c r="D463" s="3" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="E463" s="3" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="F463" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G463" s="1" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="H463" s="1" t="s">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="I463" s="1">
         <v>1</v>
       </c>
       <c r="J463" s="2">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="K463" s="2">
         <f t="shared" si="8"/>
-        <v>100</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="464" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -36533,10 +35471,10 @@
         <v>317</v>
       </c>
       <c r="F464" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G464" s="1" t="s">
-        <v>356</v>
+        <v>311</v>
       </c>
       <c r="H464" s="1" t="s">
         <v>262</v>
@@ -36545,11 +35483,11 @@
         <v>1</v>
       </c>
       <c r="J464" s="2">
-        <v>950</v>
+        <v>100</v>
       </c>
       <c r="K464" s="2">
         <f t="shared" si="8"/>
-        <v>950</v>
+        <v>100</v>
       </c>
     </row>
     <row r="465" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -36569,10 +35507,10 @@
         <v>317</v>
       </c>
       <c r="F465" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G465" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H465" s="1" t="s">
         <v>262</v>
@@ -36581,11 +35519,11 @@
         <v>1</v>
       </c>
       <c r="J465" s="2">
-        <v>200</v>
+        <v>950</v>
       </c>
       <c r="K465" s="2">
         <f t="shared" si="8"/>
-        <v>200</v>
+        <v>950</v>
       </c>
     </row>
     <row r="466" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -36605,10 +35543,10 @@
         <v>317</v>
       </c>
       <c r="F466" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G466" s="1" t="s">
-        <v>312</v>
+        <v>357</v>
       </c>
       <c r="H466" s="1" t="s">
         <v>262</v>
@@ -36617,11 +35555,11 @@
         <v>1</v>
       </c>
       <c r="J466" s="2">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="K466" s="2">
         <f t="shared" si="8"/>
-        <v>40</v>
+        <v>200</v>
       </c>
     </row>
     <row r="467" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -36641,19 +35579,19 @@
         <v>317</v>
       </c>
       <c r="F467" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G467" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H467" s="1" t="s">
         <v>262</v>
       </c>
       <c r="I467" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J467" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="K467" s="2">
         <f t="shared" si="8"/>
@@ -36677,10 +35615,10 @@
         <v>317</v>
       </c>
       <c r="F468" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G468" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H468" s="1" t="s">
         <v>262</v>
@@ -36713,23 +35651,23 @@
         <v>317</v>
       </c>
       <c r="F469" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G469" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H469" s="1" t="s">
         <v>262</v>
       </c>
       <c r="I469" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J469" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K469" s="2">
         <f t="shared" si="8"/>
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="470" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -36743,29 +35681,29 @@
         <v>407</v>
       </c>
       <c r="D470" s="3" t="s">
-        <v>353</v>
+        <v>316</v>
       </c>
       <c r="E470" s="3" t="s">
-        <v>354</v>
+        <v>317</v>
       </c>
       <c r="F470" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G470" s="1" t="s">
-        <v>384</v>
+        <v>315</v>
       </c>
       <c r="H470" s="1" t="s">
-        <v>320</v>
+        <v>262</v>
       </c>
       <c r="I470" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J470" s="2">
-        <v>82.5</v>
+        <v>30</v>
       </c>
       <c r="K470" s="2">
         <f t="shared" si="8"/>
-        <v>247.5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="471" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -36785,10 +35723,10 @@
         <v>354</v>
       </c>
       <c r="F471" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G471" s="1" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="H471" s="1" t="s">
         <v>320</v>
@@ -36797,11 +35735,11 @@
         <v>3</v>
       </c>
       <c r="J471" s="2">
-        <v>2242.5</v>
+        <v>82.5</v>
       </c>
       <c r="K471" s="2">
         <f t="shared" si="8"/>
-        <v>6727.5</v>
+        <v>247.5</v>
       </c>
     </row>
     <row r="472" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -36821,23 +35759,23 @@
         <v>354</v>
       </c>
       <c r="F472" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G472" s="1" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="H472" s="1" t="s">
         <v>320</v>
       </c>
       <c r="I472" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J472" s="2">
-        <v>75.900000000000006</v>
+        <v>2242.5</v>
       </c>
       <c r="K472" s="2">
         <f t="shared" si="8"/>
-        <v>455.40000000000003</v>
+        <v>6727.5</v>
       </c>
     </row>
     <row r="473" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -36857,23 +35795,23 @@
         <v>354</v>
       </c>
       <c r="F473" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G473" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H473" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="I473" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J473" s="2">
-        <v>21.45</v>
+        <v>75.900000000000006</v>
       </c>
       <c r="K473" s="2">
         <f t="shared" si="8"/>
-        <v>257.39999999999998</v>
+        <v>455.40000000000003</v>
       </c>
     </row>
     <row r="474" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -36893,23 +35831,23 @@
         <v>354</v>
       </c>
       <c r="F474" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G474" s="1" t="s">
-        <v>324</v>
+        <v>385</v>
       </c>
       <c r="H474" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I474" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J474" s="2">
-        <v>760</v>
+        <v>21.45</v>
       </c>
       <c r="K474" s="2">
         <f t="shared" si="8"/>
-        <v>1520</v>
+        <v>257.39999999999998</v>
       </c>
     </row>
     <row r="475" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -36929,23 +35867,23 @@
         <v>354</v>
       </c>
       <c r="F475" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G475" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="H475" s="1" t="s">
-        <v>262</v>
+        <v>325</v>
       </c>
       <c r="I475" s="1">
         <v>2</v>
       </c>
       <c r="J475" s="2">
-        <v>440</v>
+        <v>760</v>
       </c>
       <c r="K475" s="2">
         <f t="shared" si="8"/>
-        <v>880</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="476" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -36965,23 +35903,23 @@
         <v>354</v>
       </c>
       <c r="F476" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G476" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H476" s="1" t="s">
-        <v>325</v>
+        <v>262</v>
       </c>
       <c r="I476" s="1">
         <v>2</v>
       </c>
       <c r="J476" s="2">
-        <v>130</v>
+        <v>440</v>
       </c>
       <c r="K476" s="2">
         <f t="shared" si="8"/>
-        <v>260</v>
+        <v>880</v>
       </c>
     </row>
     <row r="477" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -37001,23 +35939,23 @@
         <v>354</v>
       </c>
       <c r="F477" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G477" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H477" s="1" t="s">
-        <v>262</v>
+        <v>325</v>
       </c>
       <c r="I477" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J477" s="2">
-        <v>2300</v>
+        <v>130</v>
       </c>
       <c r="K477" s="2">
         <f t="shared" si="8"/>
-        <v>2300</v>
+        <v>260</v>
       </c>
     </row>
     <row r="478" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -37037,23 +35975,23 @@
         <v>354</v>
       </c>
       <c r="F478" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G478" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H478" s="1" t="s">
-        <v>320</v>
+        <v>262</v>
       </c>
       <c r="I478" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="J478" s="2">
-        <v>5</v>
+        <v>2300</v>
       </c>
       <c r="K478" s="2">
         <f t="shared" si="8"/>
-        <v>75</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="479" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -37073,23 +36011,23 @@
         <v>354</v>
       </c>
       <c r="F479" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G479" s="1" t="s">
-        <v>369</v>
+        <v>329</v>
       </c>
       <c r="H479" s="1" t="s">
-        <v>262</v>
+        <v>320</v>
       </c>
       <c r="I479" s="1">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="J479" s="2">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K479" s="2">
         <f t="shared" si="8"/>
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="480" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -37109,23 +36047,23 @@
         <v>354</v>
       </c>
       <c r="F480" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G480" s="1" t="s">
-        <v>330</v>
+        <v>369</v>
       </c>
       <c r="H480" s="1" t="s">
-        <v>320</v>
+        <v>262</v>
       </c>
       <c r="I480" s="1">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="J480" s="2">
-        <v>3.5</v>
+        <v>15</v>
       </c>
       <c r="K480" s="2">
         <f t="shared" si="8"/>
-        <v>105</v>
+        <v>60</v>
       </c>
     </row>
     <row r="481" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -37145,23 +36083,23 @@
         <v>354</v>
       </c>
       <c r="F481" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G481" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H481" s="1" t="s">
         <v>320</v>
       </c>
       <c r="I481" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="J481" s="2">
-        <v>34.5</v>
+        <v>3.5</v>
       </c>
       <c r="K481" s="2">
         <f t="shared" si="8"/>
-        <v>345</v>
+        <v>105</v>
       </c>
     </row>
     <row r="482" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -37181,23 +36119,23 @@
         <v>354</v>
       </c>
       <c r="F482" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G482" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H482" s="1" t="s">
         <v>320</v>
       </c>
       <c r="I482" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J482" s="2">
-        <v>123.9</v>
+        <v>34.5</v>
       </c>
       <c r="K482" s="2">
         <f t="shared" si="8"/>
-        <v>619.5</v>
+        <v>345</v>
       </c>
     </row>
     <row r="483" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -37217,10 +36155,10 @@
         <v>354</v>
       </c>
       <c r="F483" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G483" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H483" s="1" t="s">
         <v>320</v>
@@ -37229,11 +36167,11 @@
         <v>5</v>
       </c>
       <c r="J483" s="2">
-        <v>140.41999999999999</v>
+        <v>123.9</v>
       </c>
       <c r="K483" s="2">
         <f t="shared" si="8"/>
-        <v>702.09999999999991</v>
+        <v>619.5</v>
       </c>
     </row>
     <row r="484" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -37253,23 +36191,23 @@
         <v>354</v>
       </c>
       <c r="F484" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G484" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H484" s="1" t="s">
         <v>320</v>
       </c>
       <c r="I484" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J484" s="2">
-        <v>136.5</v>
+        <v>140.41999999999999</v>
       </c>
       <c r="K484" s="2">
         <f t="shared" si="8"/>
-        <v>409.5</v>
+        <v>702.09999999999991</v>
       </c>
     </row>
     <row r="485" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -37289,10 +36227,10 @@
         <v>354</v>
       </c>
       <c r="F485" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G485" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H485" s="1" t="s">
         <v>320</v>
@@ -37301,11 +36239,11 @@
         <v>3</v>
       </c>
       <c r="J485" s="2">
-        <v>145</v>
+        <v>136.5</v>
       </c>
       <c r="K485" s="2">
         <f t="shared" si="8"/>
-        <v>435</v>
+        <v>409.5</v>
       </c>
     </row>
     <row r="486" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -37325,23 +36263,23 @@
         <v>354</v>
       </c>
       <c r="F486" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G486" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H486" s="1" t="s">
         <v>320</v>
       </c>
       <c r="I486" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J486" s="2">
-        <v>250</v>
+        <v>145</v>
       </c>
       <c r="K486" s="2">
         <f t="shared" si="8"/>
-        <v>500</v>
+        <v>435</v>
       </c>
     </row>
     <row r="487" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -37361,23 +36299,23 @@
         <v>354</v>
       </c>
       <c r="F487" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G487" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H487" s="1" t="s">
         <v>320</v>
       </c>
       <c r="I487" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J487" s="2">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K487" s="2">
         <f t="shared" si="8"/>
-        <v>450</v>
+        <v>500</v>
       </c>
     </row>
     <row r="488" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -37397,23 +36335,23 @@
         <v>354</v>
       </c>
       <c r="F488" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G488" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H488" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="I488" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J488" s="2">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="K488" s="2">
         <f t="shared" si="8"/>
-        <v>340</v>
+        <v>450</v>
       </c>
     </row>
     <row r="489" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -37433,23 +36371,23 @@
         <v>354</v>
       </c>
       <c r="F489" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G489" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H489" s="1" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="I489" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J489" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K489" s="2">
         <f t="shared" si="8"/>
-        <v>172</v>
+        <v>340</v>
       </c>
     </row>
     <row r="490" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -37469,23 +36407,23 @@
         <v>354</v>
       </c>
       <c r="F490" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G490" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H490" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="I490" s="1">
         <v>1</v>
       </c>
       <c r="J490" s="2">
-        <v>280</v>
+        <v>172</v>
       </c>
       <c r="K490" s="2">
         <f t="shared" si="8"/>
-        <v>280</v>
+        <v>172</v>
       </c>
     </row>
     <row r="491" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -37505,23 +36443,23 @@
         <v>354</v>
       </c>
       <c r="F491" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G491" s="1" t="s">
-        <v>368</v>
+        <v>340</v>
       </c>
       <c r="H491" s="1" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="I491" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J491" s="2">
-        <v>25</v>
+        <v>280</v>
       </c>
       <c r="K491" s="2">
         <f t="shared" si="8"/>
-        <v>50</v>
+        <v>280</v>
       </c>
     </row>
     <row r="492" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -37541,10 +36479,10 @@
         <v>354</v>
       </c>
       <c r="F492" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G492" s="1" t="s">
-        <v>342</v>
+        <v>368</v>
       </c>
       <c r="H492" s="1" t="s">
         <v>320</v>
@@ -37553,11 +36491,11 @@
         <v>2</v>
       </c>
       <c r="J492" s="2">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="K492" s="2">
         <f t="shared" si="8"/>
-        <v>226</v>
+        <v>50</v>
       </c>
     </row>
     <row r="493" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -37577,10 +36515,10 @@
         <v>354</v>
       </c>
       <c r="F493" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G493" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H493" s="1" t="s">
         <v>320</v>
@@ -37589,11 +36527,11 @@
         <v>2</v>
       </c>
       <c r="J493" s="2">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="K493" s="2">
         <f t="shared" si="8"/>
-        <v>192</v>
+        <v>226</v>
       </c>
     </row>
     <row r="494" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -37613,23 +36551,23 @@
         <v>354</v>
       </c>
       <c r="F494" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G494" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H494" s="1" t="s">
         <v>320</v>
       </c>
       <c r="I494" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J494" s="2">
-        <v>295</v>
+        <v>96</v>
       </c>
       <c r="K494" s="2">
         <f t="shared" si="8"/>
-        <v>295</v>
+        <v>192</v>
       </c>
     </row>
     <row r="495" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -37649,23 +36587,23 @@
         <v>354</v>
       </c>
       <c r="F495" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G495" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H495" s="1" t="s">
         <v>320</v>
       </c>
       <c r="I495" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J495" s="2">
-        <v>56</v>
+        <v>295</v>
       </c>
       <c r="K495" s="2">
         <f t="shared" si="8"/>
-        <v>168</v>
+        <v>295</v>
       </c>
     </row>
     <row r="496" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -37685,23 +36623,23 @@
         <v>354</v>
       </c>
       <c r="F496" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G496" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H496" s="1" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="I496" s="1">
         <v>3</v>
       </c>
       <c r="J496" s="2">
-        <v>115.5</v>
+        <v>56</v>
       </c>
       <c r="K496" s="2">
         <f t="shared" si="8"/>
-        <v>346.5</v>
+        <v>168</v>
       </c>
     </row>
     <row r="497" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -37721,10 +36659,10 @@
         <v>354</v>
       </c>
       <c r="F497" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G497" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H497" s="1" t="s">
         <v>341</v>
@@ -37733,11 +36671,11 @@
         <v>3</v>
       </c>
       <c r="J497" s="2">
-        <v>115</v>
+        <v>115.5</v>
       </c>
       <c r="K497" s="2">
         <f t="shared" si="8"/>
-        <v>345</v>
+        <v>346.5</v>
       </c>
     </row>
     <row r="498" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -37757,10 +36695,10 @@
         <v>354</v>
       </c>
       <c r="F498" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G498" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H498" s="1" t="s">
         <v>341</v>
@@ -37769,11 +36707,11 @@
         <v>3</v>
       </c>
       <c r="J498" s="2">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="K498" s="2">
         <f t="shared" si="8"/>
-        <v>396</v>
+        <v>345</v>
       </c>
     </row>
     <row r="499" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -37793,10 +36731,10 @@
         <v>354</v>
       </c>
       <c r="F499" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G499" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H499" s="1" t="s">
         <v>341</v>
@@ -37805,11 +36743,11 @@
         <v>3</v>
       </c>
       <c r="J499" s="2">
-        <v>198</v>
+        <v>132</v>
       </c>
       <c r="K499" s="2">
         <f t="shared" si="8"/>
-        <v>594</v>
+        <v>396</v>
       </c>
     </row>
     <row r="500" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -37829,10 +36767,10 @@
         <v>354</v>
       </c>
       <c r="F500" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G500" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H500" s="1" t="s">
         <v>341</v>
@@ -37841,11 +36779,11 @@
         <v>3</v>
       </c>
       <c r="J500" s="2">
-        <v>145</v>
+        <v>198</v>
       </c>
       <c r="K500" s="2">
         <f t="shared" si="8"/>
-        <v>435</v>
+        <v>594</v>
       </c>
     </row>
     <row r="501" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -37865,23 +36803,23 @@
         <v>354</v>
       </c>
       <c r="F501" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G501" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H501" s="1" t="s">
-        <v>262</v>
+        <v>341</v>
       </c>
       <c r="I501" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J501" s="2">
-        <v>350</v>
+        <v>145</v>
       </c>
       <c r="K501" s="2">
         <f t="shared" si="8"/>
-        <v>3500</v>
+        <v>435</v>
       </c>
     </row>
     <row r="502" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -37895,29 +36833,29 @@
         <v>407</v>
       </c>
       <c r="D502" s="3" t="s">
-        <v>387</v>
+        <v>353</v>
       </c>
       <c r="E502" s="3" t="s">
         <v>354</v>
       </c>
       <c r="F502" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G502" s="1" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
       <c r="H502" s="1" t="s">
         <v>262</v>
       </c>
       <c r="I502" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J502" s="2">
-        <v>1200</v>
+        <v>350</v>
       </c>
       <c r="K502" s="2">
         <f t="shared" si="8"/>
-        <v>1200</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="503" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -37931,16 +36869,16 @@
         <v>407</v>
       </c>
       <c r="D503" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E503" s="3" t="s">
         <v>354</v>
       </c>
       <c r="F503" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G503" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H503" s="1" t="s">
         <v>262</v>
@@ -37949,11 +36887,11 @@
         <v>1</v>
       </c>
       <c r="J503" s="2">
-        <v>3200</v>
+        <v>1200</v>
       </c>
       <c r="K503" s="2">
         <f t="shared" si="8"/>
-        <v>3200</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="504" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -37967,16 +36905,16 @@
         <v>407</v>
       </c>
       <c r="D504" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E504" s="3" t="s">
         <v>354</v>
       </c>
       <c r="F504" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G504" s="1" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="H504" s="1" t="s">
         <v>262</v>
@@ -37985,11 +36923,11 @@
         <v>1</v>
       </c>
       <c r="J504" s="2">
-        <v>7620</v>
+        <v>3200</v>
       </c>
       <c r="K504" s="2">
         <f t="shared" si="8"/>
-        <v>7620</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="505" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -37997,35 +36935,35 @@
         <v>358</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>371</v>
+        <v>103</v>
       </c>
       <c r="C505" s="1" t="s">
         <v>407</v>
       </c>
       <c r="D505" s="3" t="s">
-        <v>301</v>
+        <v>389</v>
       </c>
       <c r="E505" s="3" t="s">
-        <v>302</v>
+        <v>354</v>
       </c>
       <c r="F505" s="1">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="G505" s="1" t="s">
-        <v>303</v>
+        <v>382</v>
       </c>
       <c r="H505" s="1" t="s">
         <v>262</v>
       </c>
       <c r="I505" s="1">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="J505" s="2">
-        <v>360</v>
+        <v>7620</v>
       </c>
       <c r="K505" s="2">
         <f t="shared" si="8"/>
-        <v>4320</v>
+        <v>7620</v>
       </c>
     </row>
     <row r="506" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -38045,23 +36983,23 @@
         <v>302</v>
       </c>
       <c r="F506" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G506" s="1" t="s">
-        <v>390</v>
+        <v>303</v>
       </c>
       <c r="H506" s="1" t="s">
-        <v>391</v>
+        <v>262</v>
       </c>
       <c r="I506" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J506" s="2">
-        <v>4500</v>
+        <v>360</v>
       </c>
       <c r="K506" s="2">
         <f t="shared" si="8"/>
-        <v>4500</v>
+        <v>4320</v>
       </c>
     </row>
     <row r="507" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -38081,10 +37019,10 @@
         <v>302</v>
       </c>
       <c r="F507" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G507" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H507" s="1" t="s">
         <v>391</v>
@@ -38093,11 +37031,11 @@
         <v>1</v>
       </c>
       <c r="J507" s="2">
-        <v>9650</v>
+        <v>4500</v>
       </c>
       <c r="K507" s="2">
         <f t="shared" si="8"/>
-        <v>9650</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="508" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -38117,10 +37055,10 @@
         <v>302</v>
       </c>
       <c r="F508" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G508" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H508" s="1" t="s">
         <v>391</v>
@@ -38129,11 +37067,11 @@
         <v>1</v>
       </c>
       <c r="J508" s="2">
-        <v>3250</v>
+        <v>9650</v>
       </c>
       <c r="K508" s="2">
         <f t="shared" si="8"/>
-        <v>3250</v>
+        <v>9650</v>
       </c>
     </row>
     <row r="509" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -38153,23 +37091,23 @@
         <v>302</v>
       </c>
       <c r="F509" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G509" s="1" t="s">
-        <v>304</v>
+        <v>393</v>
       </c>
       <c r="H509" s="1" t="s">
-        <v>262</v>
+        <v>391</v>
       </c>
       <c r="I509" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J509" s="2">
-        <v>1800</v>
+        <v>3250</v>
       </c>
       <c r="K509" s="2">
         <f t="shared" si="8"/>
-        <v>5400</v>
+        <v>3250</v>
       </c>
     </row>
     <row r="510" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -38189,23 +37127,23 @@
         <v>302</v>
       </c>
       <c r="F510" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G510" s="1" t="s">
-        <v>394</v>
+        <v>304</v>
       </c>
       <c r="H510" s="1" t="s">
-        <v>391</v>
+        <v>262</v>
       </c>
       <c r="I510" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J510" s="2">
-        <v>1320</v>
+        <v>1800</v>
       </c>
       <c r="K510" s="2">
         <f t="shared" si="8"/>
-        <v>1320</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="511" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -38225,23 +37163,23 @@
         <v>302</v>
       </c>
       <c r="F511" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G511" s="1" t="s">
-        <v>305</v>
+        <v>394</v>
       </c>
       <c r="H511" s="1" t="s">
-        <v>262</v>
+        <v>391</v>
       </c>
       <c r="I511" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J511" s="2">
-        <v>1400</v>
+        <v>1320</v>
       </c>
       <c r="K511" s="2">
         <f t="shared" si="8"/>
-        <v>2800</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="512" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -38261,23 +37199,23 @@
         <v>302</v>
       </c>
       <c r="F512" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G512" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H512" s="1" t="s">
         <v>262</v>
       </c>
       <c r="I512" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J512" s="2">
-        <v>250</v>
+        <v>1400</v>
       </c>
       <c r="K512" s="2">
         <f t="shared" si="8"/>
-        <v>1500</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="513" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -38297,23 +37235,23 @@
         <v>302</v>
       </c>
       <c r="F513" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G513" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H513" s="1" t="s">
         <v>262</v>
       </c>
       <c r="I513" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J513" s="2">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="K513" s="2">
         <f t="shared" si="8"/>
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="514" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -38333,38 +37271,69 @@
         <v>302</v>
       </c>
       <c r="F514" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G514" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H514" s="1" t="s">
         <v>262</v>
       </c>
       <c r="I514" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J514" s="2">
-        <v>350</v>
+        <v>80</v>
       </c>
       <c r="K514" s="2">
         <f t="shared" si="8"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="515" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A515" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B515" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C515" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D515" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="E515" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="F515" s="1">
+        <v>10</v>
+      </c>
+      <c r="G515" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="H515" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="I515" s="1">
+        <v>5</v>
+      </c>
+      <c r="J515" s="2">
+        <v>350</v>
+      </c>
+      <c r="K515" s="2">
+        <f t="shared" si="8"/>
         <v>1750</v>
-      </c>
-    </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F515"/>
-      <c r="G515"/>
-      <c r="H515"/>
-      <c r="K515" s="2">
-        <f>SUM(K4:K514)</f>
-        <v>2074936.22</v>
       </c>
     </row>
     <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F516"/>
       <c r="G516"/>
       <c r="H516"/>
+      <c r="K516" s="2">
+        <f>SUM(K4:K515)</f>
+        <v>2101936.2199999997</v>
+      </c>
     </row>
     <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F517"/>
@@ -38446,17 +37415,22 @@
       <c r="G532"/>
       <c r="H532"/>
     </row>
+    <row r="533" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F533"/>
+      <c r="G533"/>
+      <c r="H533"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A3:L515" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <autoFilter ref="A3:L516" xr:uid="{00000000-0001-0000-0100-000000000000}">
     <filterColumn colId="2">
       <filters blank="1"/>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:K514">
-    <sortCondition ref="B4:B514"/>
-    <sortCondition ref="D4:D514"/>
-    <sortCondition ref="E4:E514"/>
-    <sortCondition ref="F4:F514"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:K515">
+    <sortCondition ref="B4:B515"/>
+    <sortCondition ref="D4:D515"/>
+    <sortCondition ref="E4:E515"/>
+    <sortCondition ref="F4:F515"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -38469,7 +37443,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:D193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
+    <sheetView topLeftCell="A36" workbookViewId="0">
       <selection activeCell="D191" sqref="D191"/>
     </sheetView>
   </sheetViews>

--- a/Equipamiento y Moviliario/Relacion Equipamiento y Mobiloiario PARA MODIFICACION 2021.xlsx
+++ b/Equipamiento y Moviliario/Relacion Equipamiento y Mobiloiario PARA MODIFICACION 2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositorio\Instalaciones_Especiales\Equipamiento y Moviliario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A3CA40-6A87-4DEE-BF38-837A95B8B325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0BE9C5E-5449-46D7-8D21-E1C61F0DCB1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="PRESUPUESTO EM" sheetId="7" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Relacion de EM'!$A$3:$L$516</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Relacion de EM'!$A$3:$L$517</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4399" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4404" uniqueCount="411">
   <si>
     <t>ITEM</t>
   </si>
@@ -1209,12 +1209,6 @@
     <t>CUADRO N°95</t>
   </si>
   <si>
-    <t>CUADRO N°96</t>
-  </si>
-  <si>
-    <t>CUADRO N°97</t>
-  </si>
-  <si>
     <t>Microfonos Kit</t>
   </si>
   <si>
@@ -1276,6 +1270,12 @@
   </si>
   <si>
     <t>Servidor de Datos</t>
+  </si>
+  <si>
+    <t>unidad</t>
+  </si>
+  <si>
+    <t>Tableros deportivos</t>
   </si>
 </sst>
 </file>
@@ -1887,7 +1887,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Manuel Raul Livano Luna" refreshedDate="44541.471469444441" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="511" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="B3:K515" sheet="Relacion de EM"/>
+    <worksheetSource ref="B3:K516" sheet="Relacion de EM"/>
   </cacheSource>
   <cacheFields count="10">
     <cacheField name="Nivel" numFmtId="0">
@@ -2125,7 +2125,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Manuel Raul Livano Luna" refreshedDate="44541.47243425926" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="511" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A3:K515" sheet="Relacion de EM"/>
+    <worksheetSource ref="A3:K516" sheet="Relacion de EM"/>
   </cacheSource>
   <cacheFields count="11">
     <cacheField name="Area" numFmtId="0">
@@ -18848,11 +18848,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A3:L533"/>
+  <dimension ref="A3:L534"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C247" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G264" sqref="G264"/>
+    <sheetView tabSelected="1" topLeftCell="C491" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G506" sqref="G506"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18879,7 +18878,7 @@
         <v>361</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>362</v>
@@ -18906,7 +18905,7 @@
         <v>5</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -18917,7 +18916,7 @@
         <v>102</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>23</v>
@@ -18953,7 +18952,7 @@
         <v>102</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>23</v>
@@ -18989,7 +18988,7 @@
         <v>102</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>23</v>
@@ -19025,7 +19024,7 @@
         <v>102</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>23</v>
@@ -19061,7 +19060,7 @@
         <v>102</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>23</v>
@@ -19097,7 +19096,7 @@
         <v>102</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>23</v>
@@ -19133,7 +19132,7 @@
         <v>102</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>23</v>
@@ -19169,7 +19168,7 @@
         <v>102</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>23</v>
@@ -19205,7 +19204,7 @@
         <v>102</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>23</v>
@@ -19241,7 +19240,7 @@
         <v>102</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>23</v>
@@ -19277,7 +19276,7 @@
         <v>102</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>23</v>
@@ -19313,7 +19312,7 @@
         <v>102</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>23</v>
@@ -19349,7 +19348,7 @@
         <v>102</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>23</v>
@@ -19385,7 +19384,7 @@
         <v>102</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>23</v>
@@ -19421,7 +19420,7 @@
         <v>102</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>23</v>
@@ -19457,7 +19456,7 @@
         <v>102</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>62</v>
@@ -19493,7 +19492,7 @@
         <v>102</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>62</v>
@@ -19529,7 +19528,7 @@
         <v>102</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>62</v>
@@ -19565,7 +19564,7 @@
         <v>102</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>62</v>
@@ -19601,7 +19600,7 @@
         <v>102</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>62</v>
@@ -19637,7 +19636,7 @@
         <v>102</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>62</v>
@@ -19673,7 +19672,7 @@
         <v>102</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>62</v>
@@ -19709,7 +19708,7 @@
         <v>102</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>62</v>
@@ -19745,7 +19744,7 @@
         <v>102</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>62</v>
@@ -19781,7 +19780,7 @@
         <v>102</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>69</v>
@@ -19817,7 +19816,7 @@
         <v>102</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>69</v>
@@ -19853,7 +19852,7 @@
         <v>102</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>69</v>
@@ -19889,7 +19888,7 @@
         <v>102</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>69</v>
@@ -19925,7 +19924,7 @@
         <v>102</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>69</v>
@@ -19961,7 +19960,7 @@
         <v>102</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>69</v>
@@ -19997,7 +19996,7 @@
         <v>102</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>69</v>
@@ -20033,7 +20032,7 @@
         <v>102</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>69</v>
@@ -20069,7 +20068,7 @@
         <v>102</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>74</v>
@@ -20105,7 +20104,7 @@
         <v>102</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>74</v>
@@ -20141,7 +20140,7 @@
         <v>102</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>74</v>
@@ -20177,7 +20176,7 @@
         <v>102</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>77</v>
@@ -20213,7 +20212,7 @@
         <v>102</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>77</v>
@@ -20249,7 +20248,7 @@
         <v>102</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>77</v>
@@ -20285,7 +20284,7 @@
         <v>102</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>77</v>
@@ -20321,7 +20320,7 @@
         <v>102</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>79</v>
@@ -20357,7 +20356,7 @@
         <v>102</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>79</v>
@@ -20393,7 +20392,7 @@
         <v>102</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>79</v>
@@ -20429,7 +20428,7 @@
         <v>102</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>79</v>
@@ -20465,7 +20464,7 @@
         <v>102</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>79</v>
@@ -20501,7 +20500,7 @@
         <v>102</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>79</v>
@@ -20537,7 +20536,7 @@
         <v>102</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>79</v>
@@ -20573,7 +20572,7 @@
         <v>102</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>79</v>
@@ -20609,7 +20608,7 @@
         <v>102</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>86</v>
@@ -20645,7 +20644,7 @@
         <v>102</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>86</v>
@@ -20681,7 +20680,7 @@
         <v>102</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>86</v>
@@ -20717,7 +20716,7 @@
         <v>102</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>86</v>
@@ -20753,7 +20752,7 @@
         <v>102</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>88</v>
@@ -20789,7 +20788,7 @@
         <v>102</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>88</v>
@@ -20825,7 +20824,7 @@
         <v>102</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>90</v>
@@ -20861,7 +20860,7 @@
         <v>102</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>90</v>
@@ -20897,7 +20896,7 @@
         <v>102</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>90</v>
@@ -20933,7 +20932,7 @@
         <v>102</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>90</v>
@@ -20969,7 +20968,7 @@
         <v>102</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>90</v>
@@ -21005,7 +21004,7 @@
         <v>102</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>92</v>
@@ -21041,7 +21040,7 @@
         <v>102</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>92</v>
@@ -21077,7 +21076,7 @@
         <v>102</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>92</v>
@@ -21113,7 +21112,7 @@
         <v>102</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>92</v>
@@ -21149,7 +21148,7 @@
         <v>102</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>95</v>
@@ -21185,7 +21184,7 @@
         <v>102</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>95</v>
@@ -21221,7 +21220,7 @@
         <v>102</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>95</v>
@@ -21257,7 +21256,7 @@
         <v>102</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>95</v>
@@ -21293,7 +21292,7 @@
         <v>102</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>95</v>
@@ -21329,7 +21328,7 @@
         <v>102</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>34</v>
@@ -21365,7 +21364,7 @@
         <v>102</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>34</v>
@@ -21401,7 +21400,7 @@
         <v>102</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>34</v>
@@ -21437,7 +21436,7 @@
         <v>102</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>34</v>
@@ -21473,7 +21472,7 @@
         <v>102</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>34</v>
@@ -21509,7 +21508,7 @@
         <v>102</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>34</v>
@@ -21545,7 +21544,7 @@
         <v>102</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>34</v>
@@ -21581,7 +21580,7 @@
         <v>102</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>34</v>
@@ -21617,7 +21616,7 @@
         <v>102</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>34</v>
@@ -21653,7 +21652,7 @@
         <v>102</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>34</v>
@@ -21689,7 +21688,7 @@
         <v>102</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>34</v>
@@ -21725,7 +21724,7 @@
         <v>102</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>34</v>
@@ -21761,7 +21760,7 @@
         <v>102</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>97</v>
@@ -21797,7 +21796,7 @@
         <v>102</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>97</v>
@@ -21833,7 +21832,7 @@
         <v>102</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>97</v>
@@ -21869,7 +21868,7 @@
         <v>102</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>97</v>
@@ -21905,7 +21904,7 @@
         <v>102</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>99</v>
@@ -21941,7 +21940,7 @@
         <v>102</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>38</v>
@@ -21977,7 +21976,7 @@
         <v>102</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>38</v>
@@ -22013,7 +22012,7 @@
         <v>102</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>38</v>
@@ -22049,7 +22048,7 @@
         <v>102</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>38</v>
@@ -22085,7 +22084,7 @@
         <v>102</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>38</v>
@@ -22121,7 +22120,7 @@
         <v>102</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>38</v>
@@ -22157,7 +22156,7 @@
         <v>102</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>38</v>
@@ -22193,7 +22192,7 @@
         <v>102</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>39</v>
@@ -22229,7 +22228,7 @@
         <v>102</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>39</v>
@@ -22265,7 +22264,7 @@
         <v>102</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>39</v>
@@ -22301,7 +22300,7 @@
         <v>102</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>42</v>
@@ -22337,7 +22336,7 @@
         <v>102</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>42</v>
@@ -22373,7 +22372,7 @@
         <v>102</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>42</v>
@@ -22409,7 +22408,7 @@
         <v>102</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>42</v>
@@ -22445,7 +22444,7 @@
         <v>102</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>42</v>
@@ -22481,7 +22480,7 @@
         <v>102</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>42</v>
@@ -22509,7 +22508,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>359</v>
       </c>
@@ -22517,7 +22516,7 @@
         <v>102</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>185</v>
@@ -22545,7 +22544,7 @@
         <v>6960</v>
       </c>
     </row>
-    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>359</v>
       </c>
@@ -22553,7 +22552,7 @@
         <v>102</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>185</v>
@@ -22581,7 +22580,7 @@
         <v>54000</v>
       </c>
     </row>
-    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>359</v>
       </c>
@@ -22589,7 +22588,7 @@
         <v>102</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>185</v>
@@ -22617,7 +22616,7 @@
         <v>62400</v>
       </c>
     </row>
-    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>359</v>
       </c>
@@ -22625,7 +22624,7 @@
         <v>102</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>191</v>
@@ -22653,7 +22652,7 @@
         <v>13500</v>
       </c>
     </row>
-    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>359</v>
       </c>
@@ -22661,7 +22660,7 @@
         <v>102</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>191</v>
@@ -22689,7 +22688,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>359</v>
       </c>
@@ -22697,7 +22696,7 @@
         <v>102</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>191</v>
@@ -22725,7 +22724,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>359</v>
       </c>
@@ -22733,7 +22732,7 @@
         <v>102</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>195</v>
@@ -22761,7 +22760,7 @@
         <v>139500</v>
       </c>
     </row>
-    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>359</v>
       </c>
@@ -22769,7 +22768,7 @@
         <v>102</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>195</v>
@@ -22797,7 +22796,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>359</v>
       </c>
@@ -22805,7 +22804,7 @@
         <v>102</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>195</v>
@@ -22833,7 +22832,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>359</v>
       </c>
@@ -22841,7 +22840,7 @@
         <v>102</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>197</v>
@@ -22869,7 +22868,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>359</v>
       </c>
@@ -22877,7 +22876,7 @@
         <v>102</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>197</v>
@@ -22913,7 +22912,7 @@
         <v>102</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>46</v>
@@ -22949,7 +22948,7 @@
         <v>102</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D116" s="3" t="s">
         <v>46</v>
@@ -22985,7 +22984,7 @@
         <v>102</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D117" s="3" t="s">
         <v>46</v>
@@ -23021,7 +23020,7 @@
         <v>102</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D118" s="3" t="s">
         <v>46</v>
@@ -23057,7 +23056,7 @@
         <v>102</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D119" s="3" t="s">
         <v>46</v>
@@ -23093,7 +23092,7 @@
         <v>102</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>46</v>
@@ -23129,7 +23128,7 @@
         <v>102</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D121" s="3" t="s">
         <v>46</v>
@@ -23157,7 +23156,7 @@
         <v>3450</v>
       </c>
     </row>
-    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>359</v>
       </c>
@@ -23165,7 +23164,7 @@
         <v>102</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D122" s="3" t="s">
         <v>200</v>
@@ -23193,7 +23192,7 @@
         <v>10850</v>
       </c>
     </row>
-    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>359</v>
       </c>
@@ -23201,7 +23200,7 @@
         <v>102</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D123" s="3" t="s">
         <v>200</v>
@@ -23229,7 +23228,7 @@
         <v>2625</v>
       </c>
     </row>
-    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>359</v>
       </c>
@@ -23237,7 +23236,7 @@
         <v>102</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>200</v>
@@ -23265,7 +23264,7 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>359</v>
       </c>
@@ -23273,7 +23272,7 @@
         <v>102</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>200</v>
@@ -23301,7 +23300,7 @@
         <v>8394</v>
       </c>
     </row>
-    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>359</v>
       </c>
@@ -23309,7 +23308,7 @@
         <v>102</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D126" s="3" t="s">
         <v>200</v>
@@ -23337,7 +23336,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>359</v>
       </c>
@@ -23345,7 +23344,7 @@
         <v>102</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D127" s="3" t="s">
         <v>200</v>
@@ -23373,7 +23372,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>359</v>
       </c>
@@ -23381,7 +23380,7 @@
         <v>102</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D128" s="3" t="s">
         <v>206</v>
@@ -23409,7 +23408,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>359</v>
       </c>
@@ -23417,7 +23416,7 @@
         <v>102</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D129" s="3" t="s">
         <v>208</v>
@@ -23445,7 +23444,7 @@
         <v>14850</v>
       </c>
     </row>
-    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>359</v>
       </c>
@@ -23453,7 +23452,7 @@
         <v>102</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D130" s="3" t="s">
         <v>208</v>
@@ -23481,7 +23480,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>359</v>
       </c>
@@ -23489,7 +23488,7 @@
         <v>102</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D131" s="3" t="s">
         <v>208</v>
@@ -23517,7 +23516,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>359</v>
       </c>
@@ -23525,7 +23524,7 @@
         <v>102</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D132" s="3" t="s">
         <v>212</v>
@@ -23553,7 +23552,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>359</v>
       </c>
@@ -23561,7 +23560,7 @@
         <v>102</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D133" s="3" t="s">
         <v>212</v>
@@ -23589,7 +23588,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>359</v>
       </c>
@@ -23597,7 +23596,7 @@
         <v>102</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D134" s="3" t="s">
         <v>212</v>
@@ -23625,7 +23624,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>359</v>
       </c>
@@ -23633,7 +23632,7 @@
         <v>102</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D135" s="3" t="s">
         <v>212</v>
@@ -23661,7 +23660,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>359</v>
       </c>
@@ -23669,7 +23668,7 @@
         <v>102</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D136" s="3" t="s">
         <v>214</v>
@@ -23697,7 +23696,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>359</v>
       </c>
@@ -23705,7 +23704,7 @@
         <v>102</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D137" s="3" t="s">
         <v>214</v>
@@ -23733,7 +23732,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>359</v>
       </c>
@@ -23741,7 +23740,7 @@
         <v>102</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D138" s="3" t="s">
         <v>216</v>
@@ -23769,7 +23768,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>359</v>
       </c>
@@ -23777,7 +23776,7 @@
         <v>102</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D139" s="3" t="s">
         <v>216</v>
@@ -23805,7 +23804,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>359</v>
       </c>
@@ -23813,7 +23812,7 @@
         <v>102</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D140" s="3" t="s">
         <v>218</v>
@@ -23849,7 +23848,7 @@
         <v>102</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D141" s="3" t="s">
         <v>50</v>
@@ -23885,7 +23884,7 @@
         <v>102</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D142" s="3" t="s">
         <v>50</v>
@@ -23921,7 +23920,7 @@
         <v>102</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D143" s="3" t="s">
         <v>54</v>
@@ -23949,7 +23948,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>359</v>
       </c>
@@ -23957,7 +23956,7 @@
         <v>102</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D144" s="3" t="s">
         <v>259</v>
@@ -23985,7 +23984,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>359</v>
       </c>
@@ -23993,7 +23992,7 @@
         <v>102</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D145" s="3" t="s">
         <v>259</v>
@@ -24021,7 +24020,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>359</v>
       </c>
@@ -24029,7 +24028,7 @@
         <v>102</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D146" s="3" t="s">
         <v>259</v>
@@ -24057,7 +24056,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>359</v>
       </c>
@@ -24065,7 +24064,7 @@
         <v>102</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D147" s="3" t="s">
         <v>259</v>
@@ -24093,7 +24092,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>359</v>
       </c>
@@ -24101,7 +24100,7 @@
         <v>102</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D148" s="3" t="s">
         <v>259</v>
@@ -24129,7 +24128,7 @@
         <v>34.5</v>
       </c>
     </row>
-    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>359</v>
       </c>
@@ -24137,7 +24136,7 @@
         <v>102</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D149" s="3" t="s">
         <v>259</v>
@@ -24165,7 +24164,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>359</v>
       </c>
@@ -24173,7 +24172,7 @@
         <v>102</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D150" s="3" t="s">
         <v>259</v>
@@ -24201,7 +24200,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>359</v>
       </c>
@@ -24209,7 +24208,7 @@
         <v>102</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D151" s="3" t="s">
         <v>259</v>
@@ -24237,7 +24236,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>359</v>
       </c>
@@ -24245,7 +24244,7 @@
         <v>102</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D152" s="3" t="s">
         <v>259</v>
@@ -24273,7 +24272,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>359</v>
       </c>
@@ -24281,7 +24280,7 @@
         <v>102</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D153" s="3" t="s">
         <v>259</v>
@@ -24309,7 +24308,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>359</v>
       </c>
@@ -24317,7 +24316,7 @@
         <v>102</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D154" s="3" t="s">
         <v>259</v>
@@ -24345,7 +24344,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>359</v>
       </c>
@@ -24353,7 +24352,7 @@
         <v>102</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D155" s="3" t="s">
         <v>259</v>
@@ -24381,7 +24380,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>359</v>
       </c>
@@ -24389,7 +24388,7 @@
         <v>102</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D156" s="3" t="s">
         <v>259</v>
@@ -24417,7 +24416,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>359</v>
       </c>
@@ -24425,7 +24424,7 @@
         <v>102</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D157" s="3" t="s">
         <v>259</v>
@@ -24453,7 +24452,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>359</v>
       </c>
@@ -24461,7 +24460,7 @@
         <v>102</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D158" s="3" t="s">
         <v>259</v>
@@ -24489,7 +24488,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>359</v>
       </c>
@@ -24497,7 +24496,7 @@
         <v>102</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D159" s="3" t="s">
         <v>259</v>
@@ -24525,7 +24524,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>359</v>
       </c>
@@ -24533,7 +24532,7 @@
         <v>102</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D160" s="3" t="s">
         <v>259</v>
@@ -24561,7 +24560,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>359</v>
       </c>
@@ -24569,7 +24568,7 @@
         <v>102</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D161" s="3" t="s">
         <v>259</v>
@@ -24597,7 +24596,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>359</v>
       </c>
@@ -24605,7 +24604,7 @@
         <v>102</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D162" s="3" t="s">
         <v>259</v>
@@ -24633,7 +24632,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>359</v>
       </c>
@@ -24641,7 +24640,7 @@
         <v>102</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D163" s="3" t="s">
         <v>259</v>
@@ -24669,7 +24668,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>359</v>
       </c>
@@ -24677,7 +24676,7 @@
         <v>102</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D164" s="3" t="s">
         <v>259</v>
@@ -24705,7 +24704,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>359</v>
       </c>
@@ -24713,7 +24712,7 @@
         <v>102</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D165" s="3" t="s">
         <v>259</v>
@@ -24741,7 +24740,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>359</v>
       </c>
@@ -24749,7 +24748,7 @@
         <v>102</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D166" s="3" t="s">
         <v>259</v>
@@ -24777,7 +24776,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>359</v>
       </c>
@@ -24785,7 +24784,7 @@
         <v>102</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D167" s="3" t="s">
         <v>259</v>
@@ -24813,7 +24812,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>359</v>
       </c>
@@ -24821,7 +24820,7 @@
         <v>102</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D168" s="3" t="s">
         <v>259</v>
@@ -24849,7 +24848,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>359</v>
       </c>
@@ -24857,7 +24856,7 @@
         <v>102</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D169" s="3" t="s">
         <v>259</v>
@@ -24885,7 +24884,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>359</v>
       </c>
@@ -24893,7 +24892,7 @@
         <v>102</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D170" s="3" t="s">
         <v>259</v>
@@ -24921,7 +24920,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>359</v>
       </c>
@@ -24929,7 +24928,7 @@
         <v>102</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D171" s="3" t="s">
         <v>259</v>
@@ -24957,7 +24956,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>359</v>
       </c>
@@ -24965,7 +24964,7 @@
         <v>102</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D172" s="3" t="s">
         <v>259</v>
@@ -24993,7 +24992,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>359</v>
       </c>
@@ -25001,7 +25000,7 @@
         <v>102</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D173" s="3" t="s">
         <v>294</v>
@@ -25029,7 +25028,7 @@
         <v>3518.76</v>
       </c>
     </row>
-    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>359</v>
       </c>
@@ -25037,7 +25036,7 @@
         <v>102</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D174" s="3" t="s">
         <v>294</v>
@@ -25065,7 +25064,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>359</v>
       </c>
@@ -25073,7 +25072,7 @@
         <v>102</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D175" s="3" t="s">
         <v>294</v>
@@ -25109,7 +25108,7 @@
         <v>102</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D176" s="3" t="s">
         <v>57</v>
@@ -25145,7 +25144,7 @@
         <v>102</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D177" s="3" t="s">
         <v>57</v>
@@ -25181,7 +25180,7 @@
         <v>102</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D178" s="3" t="s">
         <v>57</v>
@@ -25217,7 +25216,7 @@
         <v>102</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D179" s="3" t="s">
         <v>57</v>
@@ -25245,7 +25244,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="180" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>359</v>
       </c>
@@ -25253,7 +25252,7 @@
         <v>102</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D180" s="3" t="s">
         <v>309</v>
@@ -25281,7 +25280,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>359</v>
       </c>
@@ -25289,7 +25288,7 @@
         <v>102</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D181" s="3" t="s">
         <v>309</v>
@@ -25317,7 +25316,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>359</v>
       </c>
@@ -25325,7 +25324,7 @@
         <v>102</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D182" s="3" t="s">
         <v>309</v>
@@ -25353,7 +25352,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="183" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>359</v>
       </c>
@@ -25361,7 +25360,7 @@
         <v>102</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D183" s="3" t="s">
         <v>309</v>
@@ -25389,7 +25388,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>359</v>
       </c>
@@ -25397,7 +25396,7 @@
         <v>102</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D184" s="3" t="s">
         <v>309</v>
@@ -25425,7 +25424,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>359</v>
       </c>
@@ -25433,7 +25432,7 @@
         <v>102</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D185" s="3" t="s">
         <v>309</v>
@@ -25461,7 +25460,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="186" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>359</v>
       </c>
@@ -25469,7 +25468,7 @@
         <v>102</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D186" s="3" t="s">
         <v>309</v>
@@ -25497,7 +25496,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>359</v>
       </c>
@@ -25505,7 +25504,7 @@
         <v>102</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D187" s="3" t="s">
         <v>318</v>
@@ -25533,7 +25532,7 @@
         <v>247.5</v>
       </c>
     </row>
-    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>359</v>
       </c>
@@ -25541,7 +25540,7 @@
         <v>102</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D188" s="3" t="s">
         <v>318</v>
@@ -25569,7 +25568,7 @@
         <v>6727.5</v>
       </c>
     </row>
-    <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>359</v>
       </c>
@@ -25577,7 +25576,7 @@
         <v>102</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D189" s="3" t="s">
         <v>318</v>
@@ -25605,7 +25604,7 @@
         <v>455.40000000000003</v>
       </c>
     </row>
-    <row r="190" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>359</v>
       </c>
@@ -25613,7 +25612,7 @@
         <v>102</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D190" s="3" t="s">
         <v>318</v>
@@ -25641,7 +25640,7 @@
         <v>257.39999999999998</v>
       </c>
     </row>
-    <row r="191" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>359</v>
       </c>
@@ -25649,7 +25648,7 @@
         <v>102</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D191" s="3" t="s">
         <v>318</v>
@@ -25677,7 +25676,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="192" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>359</v>
       </c>
@@ -25685,7 +25684,7 @@
         <v>102</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D192" s="3" t="s">
         <v>318</v>
@@ -25713,7 +25712,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="193" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>359</v>
       </c>
@@ -25721,7 +25720,7 @@
         <v>102</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D193" s="3" t="s">
         <v>318</v>
@@ -25749,7 +25748,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="194" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>359</v>
       </c>
@@ -25757,7 +25756,7 @@
         <v>102</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D194" s="3" t="s">
         <v>318</v>
@@ -25785,7 +25784,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="195" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>359</v>
       </c>
@@ -25793,7 +25792,7 @@
         <v>102</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D195" s="3" t="s">
         <v>318</v>
@@ -25821,7 +25820,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="196" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>359</v>
       </c>
@@ -25829,7 +25828,7 @@
         <v>102</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D196" s="3" t="s">
         <v>318</v>
@@ -25857,7 +25856,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="197" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>359</v>
       </c>
@@ -25865,7 +25864,7 @@
         <v>102</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D197" s="3" t="s">
         <v>318</v>
@@ -25893,7 +25892,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="198" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>359</v>
       </c>
@@ -25901,7 +25900,7 @@
         <v>102</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D198" s="3" t="s">
         <v>318</v>
@@ -25929,7 +25928,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="199" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>359</v>
       </c>
@@ -25937,7 +25936,7 @@
         <v>102</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D199" s="3" t="s">
         <v>318</v>
@@ -25965,7 +25964,7 @@
         <v>619.5</v>
       </c>
     </row>
-    <row r="200" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>359</v>
       </c>
@@ -25973,7 +25972,7 @@
         <v>102</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D200" s="3" t="s">
         <v>318</v>
@@ -26001,7 +26000,7 @@
         <v>702.09999999999991</v>
       </c>
     </row>
-    <row r="201" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>359</v>
       </c>
@@ -26009,7 +26008,7 @@
         <v>102</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D201" s="3" t="s">
         <v>318</v>
@@ -26037,7 +26036,7 @@
         <v>409.5</v>
       </c>
     </row>
-    <row r="202" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>359</v>
       </c>
@@ -26045,7 +26044,7 @@
         <v>102</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D202" s="3" t="s">
         <v>318</v>
@@ -26073,7 +26072,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="203" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>359</v>
       </c>
@@ -26081,7 +26080,7 @@
         <v>102</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D203" s="3" t="s">
         <v>318</v>
@@ -26109,7 +26108,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="204" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>359</v>
       </c>
@@ -26117,7 +26116,7 @@
         <v>102</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D204" s="3" t="s">
         <v>318</v>
@@ -26145,7 +26144,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="205" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>359</v>
       </c>
@@ -26153,7 +26152,7 @@
         <v>102</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D205" s="3" t="s">
         <v>318</v>
@@ -26181,7 +26180,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="206" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>359</v>
       </c>
@@ -26189,7 +26188,7 @@
         <v>102</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D206" s="3" t="s">
         <v>318</v>
@@ -26217,7 +26216,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="207" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>359</v>
       </c>
@@ -26225,7 +26224,7 @@
         <v>102</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D207" s="3" t="s">
         <v>318</v>
@@ -26253,7 +26252,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="208" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>359</v>
       </c>
@@ -26261,7 +26260,7 @@
         <v>102</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D208" s="3" t="s">
         <v>318</v>
@@ -26289,7 +26288,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="209" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>359</v>
       </c>
@@ -26297,7 +26296,7 @@
         <v>102</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D209" s="3" t="s">
         <v>318</v>
@@ -26325,7 +26324,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="210" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>359</v>
       </c>
@@ -26333,7 +26332,7 @@
         <v>102</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D210" s="3" t="s">
         <v>318</v>
@@ -26361,7 +26360,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="211" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>359</v>
       </c>
@@ -26369,7 +26368,7 @@
         <v>102</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D211" s="3" t="s">
         <v>318</v>
@@ -26397,7 +26396,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="212" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>359</v>
       </c>
@@ -26405,7 +26404,7 @@
         <v>102</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D212" s="3" t="s">
         <v>318</v>
@@ -26433,7 +26432,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="213" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>359</v>
       </c>
@@ -26441,7 +26440,7 @@
         <v>102</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D213" s="3" t="s">
         <v>318</v>
@@ -26469,7 +26468,7 @@
         <v>346.5</v>
       </c>
     </row>
-    <row r="214" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>359</v>
       </c>
@@ -26477,7 +26476,7 @@
         <v>102</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D214" s="3" t="s">
         <v>318</v>
@@ -26505,7 +26504,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="215" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>359</v>
       </c>
@@ -26513,7 +26512,7 @@
         <v>102</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D215" s="3" t="s">
         <v>318</v>
@@ -26541,7 +26540,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="216" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>359</v>
       </c>
@@ -26549,7 +26548,7 @@
         <v>102</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D216" s="3" t="s">
         <v>318</v>
@@ -26577,7 +26576,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="217" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>359</v>
       </c>
@@ -26585,7 +26584,7 @@
         <v>102</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D217" s="3" t="s">
         <v>318</v>
@@ -26613,7 +26612,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="218" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>359</v>
       </c>
@@ -26621,7 +26620,7 @@
         <v>102</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D218" s="3" t="s">
         <v>318</v>
@@ -26649,24 +26648,24 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="219" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B219" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D219" s="3" t="s">
         <v>353</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F219" s="1">
         <v>1</v>
       </c>
       <c r="G219" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="H219" s="1" t="s">
         <v>6</v>
@@ -26690,7 +26689,7 @@
         <v>103</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D220" s="3" t="s">
         <v>104</v>
@@ -26726,7 +26725,7 @@
         <v>103</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D221" s="3" t="s">
         <v>104</v>
@@ -26762,7 +26761,7 @@
         <v>103</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D222" s="3" t="s">
         <v>104</v>
@@ -26798,7 +26797,7 @@
         <v>103</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D223" s="3" t="s">
         <v>104</v>
@@ -26834,7 +26833,7 @@
         <v>103</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D224" s="3" t="s">
         <v>104</v>
@@ -26870,7 +26869,7 @@
         <v>103</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D225" s="3" t="s">
         <v>104</v>
@@ -26906,7 +26905,7 @@
         <v>103</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D226" s="3" t="s">
         <v>104</v>
@@ -26942,7 +26941,7 @@
         <v>103</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D227" s="3" t="s">
         <v>104</v>
@@ -26978,7 +26977,7 @@
         <v>103</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D228" s="3" t="s">
         <v>104</v>
@@ -27014,7 +27013,7 @@
         <v>103</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D229" s="3" t="s">
         <v>104</v>
@@ -27050,7 +27049,7 @@
         <v>103</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D230" s="3" t="s">
         <v>104</v>
@@ -27086,7 +27085,7 @@
         <v>103</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D231" s="3" t="s">
         <v>108</v>
@@ -27122,7 +27121,7 @@
         <v>103</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D232" s="3" t="s">
         <v>108</v>
@@ -27158,7 +27157,7 @@
         <v>103</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D233" s="3" t="s">
         <v>108</v>
@@ -27194,7 +27193,7 @@
         <v>103</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D234" s="3" t="s">
         <v>108</v>
@@ -27230,7 +27229,7 @@
         <v>103</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D235" s="3" t="s">
         <v>108</v>
@@ -27266,7 +27265,7 @@
         <v>103</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D236" s="3" t="s">
         <v>108</v>
@@ -27302,7 +27301,7 @@
         <v>103</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D237" s="3" t="s">
         <v>108</v>
@@ -27338,7 +27337,7 @@
         <v>103</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D238" s="3" t="s">
         <v>108</v>
@@ -27374,7 +27373,7 @@
         <v>103</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D239" s="3" t="s">
         <v>108</v>
@@ -27410,7 +27409,7 @@
         <v>103</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D240" s="3" t="s">
         <v>108</v>
@@ -27446,7 +27445,7 @@
         <v>103</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D241" s="3" t="s">
         <v>108</v>
@@ -27482,7 +27481,7 @@
         <v>103</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D242" s="3" t="s">
         <v>108</v>
@@ -27518,7 +27517,7 @@
         <v>103</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D243" s="3" t="s">
         <v>112</v>
@@ -27554,7 +27553,7 @@
         <v>103</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D244" s="3" t="s">
         <v>112</v>
@@ -27590,7 +27589,7 @@
         <v>103</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D245" s="3" t="s">
         <v>112</v>
@@ -27626,7 +27625,7 @@
         <v>103</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D246" s="3" t="s">
         <v>112</v>
@@ -27662,7 +27661,7 @@
         <v>103</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D247" s="3" t="s">
         <v>112</v>
@@ -27698,7 +27697,7 @@
         <v>103</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D248" s="3" t="s">
         <v>112</v>
@@ -27734,7 +27733,7 @@
         <v>103</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D249" s="3" t="s">
         <v>112</v>
@@ -27770,7 +27769,7 @@
         <v>103</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D250" s="3" t="s">
         <v>112</v>
@@ -27806,7 +27805,7 @@
         <v>103</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D251" s="3" t="s">
         <v>112</v>
@@ -27842,7 +27841,7 @@
         <v>103</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D252" s="3" t="s">
         <v>112</v>
@@ -27878,7 +27877,7 @@
         <v>103</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D253" s="3" t="s">
         <v>117</v>
@@ -27914,7 +27913,7 @@
         <v>103</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D254" s="3" t="s">
         <v>117</v>
@@ -27950,7 +27949,7 @@
         <v>103</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D255" s="3" t="s">
         <v>117</v>
@@ -27986,7 +27985,7 @@
         <v>103</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D256" s="3" t="s">
         <v>117</v>
@@ -28022,7 +28021,7 @@
         <v>103</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D257" s="3" t="s">
         <v>117</v>
@@ -28058,7 +28057,7 @@
         <v>103</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D258" s="3" t="s">
         <v>117</v>
@@ -28094,7 +28093,7 @@
         <v>103</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D259" s="3" t="s">
         <v>120</v>
@@ -28130,7 +28129,7 @@
         <v>103</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D260" s="3" t="s">
         <v>120</v>
@@ -28166,7 +28165,7 @@
         <v>103</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D261" s="3" t="s">
         <v>120</v>
@@ -28202,7 +28201,7 @@
         <v>103</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D262" s="3" t="s">
         <v>120</v>
@@ -28238,7 +28237,7 @@
         <v>103</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D263" s="3" t="s">
         <v>120</v>
@@ -28250,7 +28249,7 @@
         <v>7</v>
       </c>
       <c r="G263" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="H263" s="1" t="s">
         <v>6</v>
@@ -28274,7 +28273,7 @@
         <v>103</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D264" s="3" t="s">
         <v>123</v>
@@ -28310,7 +28309,7 @@
         <v>103</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D265" s="3" t="s">
         <v>123</v>
@@ -28346,7 +28345,7 @@
         <v>103</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D266" s="3" t="s">
         <v>123</v>
@@ -28382,7 +28381,7 @@
         <v>103</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D267" s="3" t="s">
         <v>123</v>
@@ -28418,7 +28417,7 @@
         <v>103</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D268" s="3" t="s">
         <v>123</v>
@@ -28454,7 +28453,7 @@
         <v>103</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D269" s="3" t="s">
         <v>123</v>
@@ -28490,7 +28489,7 @@
         <v>103</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D270" s="3" t="s">
         <v>125</v>
@@ -28526,7 +28525,7 @@
         <v>103</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D271" s="3" t="s">
         <v>125</v>
@@ -28562,7 +28561,7 @@
         <v>103</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D272" s="3" t="s">
         <v>125</v>
@@ -28598,7 +28597,7 @@
         <v>103</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D273" s="3" t="s">
         <v>125</v>
@@ -28634,7 +28633,7 @@
         <v>103</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D274" s="3" t="s">
         <v>125</v>
@@ -28670,7 +28669,7 @@
         <v>103</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D275" s="3" t="s">
         <v>125</v>
@@ -28706,7 +28705,7 @@
         <v>103</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D276" s="3" t="s">
         <v>125</v>
@@ -28742,7 +28741,7 @@
         <v>103</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D277" s="3" t="s">
         <v>127</v>
@@ -28778,7 +28777,7 @@
         <v>103</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D278" s="3" t="s">
         <v>127</v>
@@ -28814,7 +28813,7 @@
         <v>103</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D279" s="3" t="s">
         <v>127</v>
@@ -28850,7 +28849,7 @@
         <v>103</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D280" s="3" t="s">
         <v>127</v>
@@ -28886,7 +28885,7 @@
         <v>103</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D281" s="3" t="s">
         <v>127</v>
@@ -28922,7 +28921,7 @@
         <v>103</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D282" s="3" t="s">
         <v>127</v>
@@ -28958,7 +28957,7 @@
         <v>103</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D283" s="3" t="s">
         <v>129</v>
@@ -28994,7 +28993,7 @@
         <v>103</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D284" s="3" t="s">
         <v>129</v>
@@ -29030,7 +29029,7 @@
         <v>103</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D285" s="3" t="s">
         <v>131</v>
@@ -29066,7 +29065,7 @@
         <v>103</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D286" s="3" t="s">
         <v>133</v>
@@ -29102,7 +29101,7 @@
         <v>103</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D287" s="3" t="s">
         <v>133</v>
@@ -29114,7 +29113,7 @@
         <v>2</v>
       </c>
       <c r="G287" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="H287" s="1" t="s">
         <v>6</v>
@@ -29138,7 +29137,7 @@
         <v>103</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D288" s="3" t="s">
         <v>135</v>
@@ -29174,7 +29173,7 @@
         <v>103</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D289" s="3" t="s">
         <v>135</v>
@@ -29210,7 +29209,7 @@
         <v>103</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D290" s="3" t="s">
         <v>137</v>
@@ -29246,7 +29245,7 @@
         <v>103</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D291" s="3" t="s">
         <v>140</v>
@@ -29282,7 +29281,7 @@
         <v>103</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D292" s="3" t="s">
         <v>140</v>
@@ -29318,7 +29317,7 @@
         <v>103</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D293" s="3" t="s">
         <v>140</v>
@@ -29354,7 +29353,7 @@
         <v>103</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D294" s="3" t="s">
         <v>140</v>
@@ -29390,7 +29389,7 @@
         <v>103</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D295" s="3" t="s">
         <v>142</v>
@@ -29426,7 +29425,7 @@
         <v>103</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D296" s="3" t="s">
         <v>144</v>
@@ -29462,7 +29461,7 @@
         <v>103</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D297" s="3" t="s">
         <v>144</v>
@@ -29498,7 +29497,7 @@
         <v>103</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D298" s="3" t="s">
         <v>144</v>
@@ -29534,7 +29533,7 @@
         <v>103</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D299" s="3" t="s">
         <v>147</v>
@@ -29570,7 +29569,7 @@
         <v>103</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D300" s="3" t="s">
         <v>147</v>
@@ -29606,7 +29605,7 @@
         <v>103</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D301" s="3" t="s">
         <v>149</v>
@@ -29642,7 +29641,7 @@
         <v>103</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D302" s="3" t="s">
         <v>149</v>
@@ -29678,7 +29677,7 @@
         <v>103</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D303" s="3" t="s">
         <v>149</v>
@@ -29714,7 +29713,7 @@
         <v>103</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D304" s="3" t="s">
         <v>151</v>
@@ -29750,7 +29749,7 @@
         <v>103</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D305" s="3" t="s">
         <v>151</v>
@@ -29786,7 +29785,7 @@
         <v>103</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D306" s="3" t="s">
         <v>151</v>
@@ -29822,7 +29821,7 @@
         <v>103</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D307" s="3" t="s">
         <v>151</v>
@@ -29858,7 +29857,7 @@
         <v>103</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D308" s="3" t="s">
         <v>151</v>
@@ -29894,7 +29893,7 @@
         <v>103</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D309" s="3" t="s">
         <v>151</v>
@@ -29930,7 +29929,7 @@
         <v>103</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D310" s="3" t="s">
         <v>151</v>
@@ -29966,7 +29965,7 @@
         <v>103</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D311" s="3" t="s">
         <v>153</v>
@@ -30002,7 +30001,7 @@
         <v>103</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D312" s="3" t="s">
         <v>153</v>
@@ -30014,7 +30013,7 @@
         <v>2</v>
       </c>
       <c r="G312" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H312" s="1" t="s">
         <v>6</v>
@@ -30038,7 +30037,7 @@
         <v>103</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D313" s="3" t="s">
         <v>156</v>
@@ -30074,7 +30073,7 @@
         <v>103</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D314" s="3" t="s">
         <v>158</v>
@@ -30110,7 +30109,7 @@
         <v>103</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D315" s="3" t="s">
         <v>158</v>
@@ -30146,7 +30145,7 @@
         <v>103</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D316" s="3" t="s">
         <v>158</v>
@@ -30182,7 +30181,7 @@
         <v>103</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D317" s="3" t="s">
         <v>158</v>
@@ -30218,7 +30217,7 @@
         <v>103</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D318" s="3" t="s">
         <v>158</v>
@@ -30254,7 +30253,7 @@
         <v>103</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D319" s="3" t="s">
         <v>158</v>
@@ -30290,7 +30289,7 @@
         <v>103</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D320" s="3" t="s">
         <v>158</v>
@@ -30326,7 +30325,7 @@
         <v>103</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D321" s="3" t="s">
         <v>158</v>
@@ -30362,7 +30361,7 @@
         <v>103</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D322" s="3" t="s">
         <v>158</v>
@@ -30398,7 +30397,7 @@
         <v>103</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D323" s="3" t="s">
         <v>160</v>
@@ -30434,7 +30433,7 @@
         <v>103</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D324" s="3" t="s">
         <v>160</v>
@@ -30470,7 +30469,7 @@
         <v>103</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D325" s="3" t="s">
         <v>160</v>
@@ -30506,7 +30505,7 @@
         <v>103</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D326" s="3" t="s">
         <v>160</v>
@@ -30542,7 +30541,7 @@
         <v>103</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D327" s="3" t="s">
         <v>163</v>
@@ -30578,7 +30577,7 @@
         <v>103</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D328" s="3" t="s">
         <v>163</v>
@@ -30614,7 +30613,7 @@
         <v>103</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D329" s="3" t="s">
         <v>163</v>
@@ -30650,7 +30649,7 @@
         <v>103</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D330" s="3" t="s">
         <v>163</v>
@@ -30686,7 +30685,7 @@
         <v>103</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D331" s="3" t="s">
         <v>163</v>
@@ -30722,7 +30721,7 @@
         <v>103</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D332" s="3" t="s">
         <v>163</v>
@@ -30758,7 +30757,7 @@
         <v>103</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D333" s="3" t="s">
         <v>165</v>
@@ -30794,7 +30793,7 @@
         <v>103</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D334" s="3" t="s">
         <v>165</v>
@@ -30830,7 +30829,7 @@
         <v>103</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D335" s="3" t="s">
         <v>165</v>
@@ -30866,7 +30865,7 @@
         <v>103</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D336" s="3" t="s">
         <v>165</v>
@@ -30902,7 +30901,7 @@
         <v>103</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D337" s="3" t="s">
         <v>165</v>
@@ -30938,7 +30937,7 @@
         <v>103</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D338" s="3" t="s">
         <v>167</v>
@@ -30974,7 +30973,7 @@
         <v>103</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D339" s="3" t="s">
         <v>167</v>
@@ -31010,7 +31009,7 @@
         <v>103</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D340" s="3" t="s">
         <v>167</v>
@@ -31046,7 +31045,7 @@
         <v>103</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D341" s="3" t="s">
         <v>167</v>
@@ -31082,7 +31081,7 @@
         <v>103</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D342" s="3" t="s">
         <v>167</v>
@@ -31118,7 +31117,7 @@
         <v>103</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D343" s="3" t="s">
         <v>169</v>
@@ -31154,7 +31153,7 @@
         <v>103</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D344" s="3" t="s">
         <v>169</v>
@@ -31190,7 +31189,7 @@
         <v>103</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D345" s="3" t="s">
         <v>169</v>
@@ -31226,7 +31225,7 @@
         <v>103</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D346" s="3" t="s">
         <v>169</v>
@@ -31262,7 +31261,7 @@
         <v>103</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D347" s="3" t="s">
         <v>171</v>
@@ -31298,7 +31297,7 @@
         <v>103</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D348" s="3" t="s">
         <v>171</v>
@@ -31334,7 +31333,7 @@
         <v>103</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D349" s="3" t="s">
         <v>171</v>
@@ -31370,7 +31369,7 @@
         <v>103</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D350" s="3" t="s">
         <v>171</v>
@@ -31406,7 +31405,7 @@
         <v>103</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D351" s="3" t="s">
         <v>171</v>
@@ -31442,7 +31441,7 @@
         <v>103</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D352" s="3" t="s">
         <v>173</v>
@@ -31478,7 +31477,7 @@
         <v>103</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D353" s="3" t="s">
         <v>173</v>
@@ -31514,7 +31513,7 @@
         <v>103</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D354" s="3" t="s">
         <v>173</v>
@@ -31550,7 +31549,7 @@
         <v>103</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D355" s="3" t="s">
         <v>173</v>
@@ -31586,7 +31585,7 @@
         <v>103</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D356" s="3" t="s">
         <v>175</v>
@@ -31622,7 +31621,7 @@
         <v>103</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D357" s="3" t="s">
         <v>175</v>
@@ -31658,7 +31657,7 @@
         <v>103</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D358" s="3" t="s">
         <v>175</v>
@@ -31694,7 +31693,7 @@
         <v>103</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D359" s="3" t="s">
         <v>175</v>
@@ -31730,7 +31729,7 @@
         <v>103</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D360" s="3" t="s">
         <v>177</v>
@@ -31766,7 +31765,7 @@
         <v>103</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D361" s="3" t="s">
         <v>177</v>
@@ -31802,7 +31801,7 @@
         <v>103</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D362" s="3" t="s">
         <v>177</v>
@@ -31838,7 +31837,7 @@
         <v>103</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D363" s="3" t="s">
         <v>177</v>
@@ -31874,7 +31873,7 @@
         <v>103</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D364" s="3" t="s">
         <v>177</v>
@@ -31910,7 +31909,7 @@
         <v>103</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D365" s="3" t="s">
         <v>177</v>
@@ -31946,7 +31945,7 @@
         <v>103</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D366" s="3" t="s">
         <v>177</v>
@@ -31982,7 +31981,7 @@
         <v>103</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D367" s="3" t="s">
         <v>177</v>
@@ -32018,7 +32017,7 @@
         <v>103</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D368" s="3" t="s">
         <v>179</v>
@@ -32054,7 +32053,7 @@
         <v>103</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D369" s="3" t="s">
         <v>179</v>
@@ -32090,7 +32089,7 @@
         <v>103</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D370" s="3" t="s">
         <v>181</v>
@@ -32126,7 +32125,7 @@
         <v>103</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D371" s="3" t="s">
         <v>183</v>
@@ -32162,7 +32161,7 @@
         <v>103</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D372" s="3" t="s">
         <v>183</v>
@@ -32198,7 +32197,7 @@
         <v>103</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D373" s="3" t="s">
         <v>183</v>
@@ -32234,7 +32233,7 @@
         <v>103</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D374" s="3" t="s">
         <v>183</v>
@@ -32270,7 +32269,7 @@
         <v>103</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D375" s="3" t="s">
         <v>183</v>
@@ -32306,7 +32305,7 @@
         <v>103</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D376" s="3" t="s">
         <v>183</v>
@@ -32334,7 +32333,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="377" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="1" t="s">
         <v>358</v>
       </c>
@@ -32342,7 +32341,7 @@
         <v>103</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D377" s="3" t="s">
         <v>221</v>
@@ -32370,7 +32369,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="378" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="1" t="s">
         <v>358</v>
       </c>
@@ -32378,7 +32377,7 @@
         <v>103</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D378" s="3" t="s">
         <v>221</v>
@@ -32406,7 +32405,7 @@
         <v>6960</v>
       </c>
     </row>
-    <row r="379" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="1" t="s">
         <v>358</v>
       </c>
@@ -32414,7 +32413,7 @@
         <v>103</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D379" s="3" t="s">
         <v>221</v>
@@ -32442,7 +32441,7 @@
         <v>54000</v>
       </c>
     </row>
-    <row r="380" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="1" t="s">
         <v>358</v>
       </c>
@@ -32450,7 +32449,7 @@
         <v>103</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D380" s="3" t="s">
         <v>221</v>
@@ -32478,7 +32477,7 @@
         <v>62400</v>
       </c>
     </row>
-    <row r="381" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="1" t="s">
         <v>358</v>
       </c>
@@ -32486,7 +32485,7 @@
         <v>103</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D381" s="3" t="s">
         <v>224</v>
@@ -32514,7 +32513,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="382" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="1" t="s">
         <v>358</v>
       </c>
@@ -32522,7 +32521,7 @@
         <v>103</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D382" s="3" t="s">
         <v>224</v>
@@ -32550,7 +32549,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="383" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="1" t="s">
         <v>358</v>
       </c>
@@ -32558,7 +32557,7 @@
         <v>103</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D383" s="3" t="s">
         <v>224</v>
@@ -32586,7 +32585,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="384" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="1" t="s">
         <v>358</v>
       </c>
@@ -32594,7 +32593,7 @@
         <v>103</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D384" s="3" t="s">
         <v>226</v>
@@ -32622,7 +32621,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="385" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="1" t="s">
         <v>358</v>
       </c>
@@ -32630,7 +32629,7 @@
         <v>103</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D385" s="3" t="s">
         <v>226</v>
@@ -32658,7 +32657,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="386" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="1" t="s">
         <v>358</v>
       </c>
@@ -32666,7 +32665,7 @@
         <v>103</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D386" s="3" t="s">
         <v>228</v>
@@ -32694,7 +32693,7 @@
         <v>10400</v>
       </c>
     </row>
-    <row r="387" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="1" t="s">
         <v>358</v>
       </c>
@@ -32702,7 +32701,7 @@
         <v>103</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D387" s="3" t="s">
         <v>228</v>
@@ -32730,7 +32729,7 @@
         <v>279000</v>
       </c>
     </row>
-    <row r="388" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="1" t="s">
         <v>358</v>
       </c>
@@ -32738,7 +32737,7 @@
         <v>103</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D388" s="3" t="s">
         <v>228</v>
@@ -32766,7 +32765,7 @@
         <v>10400</v>
       </c>
     </row>
-    <row r="389" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="1" t="s">
         <v>358</v>
       </c>
@@ -32774,7 +32773,7 @@
         <v>103</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D389" s="3" t="s">
         <v>230</v>
@@ -32802,7 +32801,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="390" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="1" t="s">
         <v>358</v>
       </c>
@@ -32810,7 +32809,7 @@
         <v>103</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D390" s="3" t="s">
         <v>230</v>
@@ -32838,7 +32837,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="391" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="1" t="s">
         <v>358</v>
       </c>
@@ -32846,7 +32845,7 @@
         <v>103</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D391" s="3" t="s">
         <v>232</v>
@@ -32874,7 +32873,7 @@
         <v>10850</v>
       </c>
     </row>
-    <row r="392" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="1" t="s">
         <v>358</v>
       </c>
@@ -32882,7 +32881,7 @@
         <v>103</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D392" s="3" t="s">
         <v>232</v>
@@ -32910,7 +32909,7 @@
         <v>2625</v>
       </c>
     </row>
-    <row r="393" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="1" t="s">
         <v>358</v>
       </c>
@@ -32918,7 +32917,7 @@
         <v>103</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D393" s="3" t="s">
         <v>232</v>
@@ -32946,7 +32945,7 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="394" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="1" t="s">
         <v>358</v>
       </c>
@@ -32954,7 +32953,7 @@
         <v>103</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D394" s="3" t="s">
         <v>232</v>
@@ -32982,7 +32981,7 @@
         <v>6995</v>
       </c>
     </row>
-    <row r="395" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="1" t="s">
         <v>358</v>
       </c>
@@ -32990,7 +32989,7 @@
         <v>103</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D395" s="3" t="s">
         <v>232</v>
@@ -33018,7 +33017,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="396" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="1" t="s">
         <v>358</v>
       </c>
@@ -33026,7 +33025,7 @@
         <v>103</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D396" s="3" t="s">
         <v>232</v>
@@ -33054,7 +33053,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="397" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="1" t="s">
         <v>358</v>
       </c>
@@ -33062,7 +33061,7 @@
         <v>103</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D397" s="3" t="s">
         <v>234</v>
@@ -33090,7 +33089,7 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="398" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="1" t="s">
         <v>358</v>
       </c>
@@ -33098,7 +33097,7 @@
         <v>103</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D398" s="3" t="s">
         <v>234</v>
@@ -33126,7 +33125,7 @@
         <v>4071</v>
       </c>
     </row>
-    <row r="399" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="1" t="s">
         <v>358</v>
       </c>
@@ -33134,7 +33133,7 @@
         <v>103</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D399" s="3" t="s">
         <v>234</v>
@@ -33146,7 +33145,7 @@
         <v>3</v>
       </c>
       <c r="G399" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="H399" s="1" t="s">
         <v>6</v>
@@ -33162,7 +33161,7 @@
         <v>5593.2</v>
       </c>
     </row>
-    <row r="400" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="1" t="s">
         <v>358</v>
       </c>
@@ -33170,7 +33169,7 @@
         <v>103</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D400" s="3" t="s">
         <v>234</v>
@@ -33182,7 +33181,7 @@
         <v>4</v>
       </c>
       <c r="G400" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H400" s="1" t="s">
         <v>6</v>
@@ -33198,7 +33197,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="401" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="1" t="s">
         <v>358</v>
       </c>
@@ -33206,7 +33205,7 @@
         <v>103</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D401" s="3" t="s">
         <v>234</v>
@@ -33234,7 +33233,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="402" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="1" t="s">
         <v>358</v>
       </c>
@@ -33242,7 +33241,7 @@
         <v>103</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D402" s="3" t="s">
         <v>239</v>
@@ -33270,7 +33269,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="403" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="1" t="s">
         <v>358</v>
       </c>
@@ -33278,7 +33277,7 @@
         <v>103</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D403" s="3" t="s">
         <v>239</v>
@@ -33306,7 +33305,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="404" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="1" t="s">
         <v>358</v>
       </c>
@@ -33314,7 +33313,7 @@
         <v>103</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D404" s="3" t="s">
         <v>239</v>
@@ -33342,7 +33341,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="405" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="1" t="s">
         <v>358</v>
       </c>
@@ -33350,7 +33349,7 @@
         <v>103</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D405" s="3" t="s">
         <v>239</v>
@@ -33378,7 +33377,7 @@
         <v>23576</v>
       </c>
     </row>
-    <row r="406" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="1" t="s">
         <v>358</v>
       </c>
@@ -33386,7 +33385,7 @@
         <v>103</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D406" s="3" t="s">
         <v>239</v>
@@ -33414,7 +33413,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="407" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="1" t="s">
         <v>358</v>
       </c>
@@ -33422,7 +33421,7 @@
         <v>103</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D407" s="3" t="s">
         <v>239</v>
@@ -33450,7 +33449,7 @@
         <v>7580</v>
       </c>
     </row>
-    <row r="408" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="1" t="s">
         <v>358</v>
       </c>
@@ -33458,7 +33457,7 @@
         <v>103</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D408" s="3" t="s">
         <v>239</v>
@@ -33486,7 +33485,7 @@
         <v>27500</v>
       </c>
     </row>
-    <row r="409" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="1" t="s">
         <v>358</v>
       </c>
@@ -33494,7 +33493,7 @@
         <v>103</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D409" s="3" t="s">
         <v>239</v>
@@ -33522,7 +33521,7 @@
         <v>3610</v>
       </c>
     </row>
-    <row r="410" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="1" t="s">
         <v>358</v>
       </c>
@@ -33530,7 +33529,7 @@
         <v>103</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D410" s="3" t="s">
         <v>239</v>
@@ -33542,7 +33541,7 @@
         <v>9</v>
       </c>
       <c r="G410" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="H410" s="1" t="s">
         <v>6</v>
@@ -33558,9 +33557,9 @@
         <v>2274</v>
       </c>
     </row>
-    <row r="411" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C411" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D411" s="3" t="s">
         <v>239</v>
@@ -33572,7 +33571,7 @@
         <v>10</v>
       </c>
       <c r="G411" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="H411" s="1" t="s">
         <v>6</v>
@@ -33588,9 +33587,9 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="412" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C412" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D412" s="3" t="s">
         <v>239</v>
@@ -33602,7 +33601,7 @@
         <v>11</v>
       </c>
       <c r="G412" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H412" s="1" t="s">
         <v>6</v>
@@ -33618,7 +33617,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="413" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="1" t="s">
         <v>358</v>
       </c>
@@ -33626,7 +33625,7 @@
         <v>103</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D413" s="3" t="s">
         <v>239</v>
@@ -33654,7 +33653,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="414" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="1" t="s">
         <v>358</v>
       </c>
@@ -33662,7 +33661,7 @@
         <v>103</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D414" s="3" t="s">
         <v>241</v>
@@ -33690,7 +33689,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="415" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="1" t="s">
         <v>358</v>
       </c>
@@ -33698,7 +33697,7 @@
         <v>103</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D415" s="3" t="s">
         <v>241</v>
@@ -33726,7 +33725,7 @@
         <v>16500</v>
       </c>
     </row>
-    <row r="416" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="1" t="s">
         <v>358</v>
       </c>
@@ -33734,7 +33733,7 @@
         <v>103</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D416" s="3" t="s">
         <v>243</v>
@@ -33762,7 +33761,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="417" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="1" t="s">
         <v>358</v>
       </c>
@@ -33770,7 +33769,7 @@
         <v>103</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D417" s="3" t="s">
         <v>245</v>
@@ -33798,7 +33797,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="418" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="1" t="s">
         <v>358</v>
       </c>
@@ -33806,7 +33805,7 @@
         <v>103</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D418" s="3" t="s">
         <v>247</v>
@@ -33834,7 +33833,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="419" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="1" t="s">
         <v>358</v>
       </c>
@@ -33842,7 +33841,7 @@
         <v>103</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D419" s="3" t="s">
         <v>247</v>
@@ -33870,7 +33869,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="420" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="1" t="s">
         <v>358</v>
       </c>
@@ -33878,7 +33877,7 @@
         <v>103</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D420" s="3" t="s">
         <v>249</v>
@@ -33906,7 +33905,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="421" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="1" t="s">
         <v>358</v>
       </c>
@@ -33914,7 +33913,7 @@
         <v>103</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D421" s="3" t="s">
         <v>249</v>
@@ -33942,7 +33941,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="422" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="1" t="s">
         <v>358</v>
       </c>
@@ -33950,7 +33949,7 @@
         <v>103</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D422" s="3" t="s">
         <v>251</v>
@@ -33978,7 +33977,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="423" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="1" t="s">
         <v>358</v>
       </c>
@@ -33986,7 +33985,7 @@
         <v>103</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D423" s="3" t="s">
         <v>251</v>
@@ -34014,7 +34013,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="424" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="1" t="s">
         <v>358</v>
       </c>
@@ -34022,7 +34021,7 @@
         <v>103</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D424" s="3" t="s">
         <v>253</v>
@@ -34050,7 +34049,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="425" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="1" t="s">
         <v>358</v>
       </c>
@@ -34058,7 +34057,7 @@
         <v>103</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D425" s="3" t="s">
         <v>253</v>
@@ -34086,7 +34085,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="426" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="1" t="s">
         <v>358</v>
       </c>
@@ -34094,7 +34093,7 @@
         <v>103</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D426" s="3" t="s">
         <v>255</v>
@@ -34122,7 +34121,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="427" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="1" t="s">
         <v>358</v>
       </c>
@@ -34130,7 +34129,7 @@
         <v>103</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D427" s="3" t="s">
         <v>255</v>
@@ -34158,7 +34157,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="428" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="1" t="s">
         <v>358</v>
       </c>
@@ -34166,7 +34165,7 @@
         <v>103</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D428" s="3" t="s">
         <v>255</v>
@@ -34194,7 +34193,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="429" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="1" t="s">
         <v>358</v>
       </c>
@@ -34202,7 +34201,7 @@
         <v>103</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D429" s="3" t="s">
         <v>255</v>
@@ -34230,7 +34229,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="430" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="1" t="s">
         <v>358</v>
       </c>
@@ -34238,7 +34237,7 @@
         <v>103</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D430" s="3" t="s">
         <v>257</v>
@@ -34266,7 +34265,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="431" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="1" t="s">
         <v>358</v>
       </c>
@@ -34274,7 +34273,7 @@
         <v>103</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D431" s="3" t="s">
         <v>257</v>
@@ -34302,7 +34301,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="432" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="1" t="s">
         <v>358</v>
       </c>
@@ -34310,7 +34309,7 @@
         <v>103</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D432" s="3" t="s">
         <v>291</v>
@@ -34338,7 +34337,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="433" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="1" t="s">
         <v>358</v>
       </c>
@@ -34346,7 +34345,7 @@
         <v>103</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D433" s="3" t="s">
         <v>291</v>
@@ -34374,7 +34373,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="434" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="1" t="s">
         <v>358</v>
       </c>
@@ -34382,7 +34381,7 @@
         <v>103</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D434" s="3" t="s">
         <v>291</v>
@@ -34410,7 +34409,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="435" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="1" t="s">
         <v>358</v>
       </c>
@@ -34418,7 +34417,7 @@
         <v>103</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D435" s="3" t="s">
         <v>291</v>
@@ -34446,7 +34445,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="436" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="1" t="s">
         <v>358</v>
       </c>
@@ -34454,7 +34453,7 @@
         <v>103</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D436" s="3" t="s">
         <v>291</v>
@@ -34482,7 +34481,7 @@
         <v>34.5</v>
       </c>
     </row>
-    <row r="437" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="1" t="s">
         <v>358</v>
       </c>
@@ -34490,7 +34489,7 @@
         <v>103</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D437" s="3" t="s">
         <v>291</v>
@@ -34518,7 +34517,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="438" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="1" t="s">
         <v>358</v>
       </c>
@@ -34526,7 +34525,7 @@
         <v>103</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D438" s="3" t="s">
         <v>291</v>
@@ -34554,7 +34553,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="439" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="1" t="s">
         <v>358</v>
       </c>
@@ -34562,7 +34561,7 @@
         <v>103</v>
       </c>
       <c r="C439" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D439" s="3" t="s">
         <v>291</v>
@@ -34590,7 +34589,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="440" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="1" t="s">
         <v>358</v>
       </c>
@@ -34598,7 +34597,7 @@
         <v>103</v>
       </c>
       <c r="C440" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D440" s="3" t="s">
         <v>291</v>
@@ -34626,7 +34625,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="441" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="1" t="s">
         <v>358</v>
       </c>
@@ -34634,7 +34633,7 @@
         <v>103</v>
       </c>
       <c r="C441" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D441" s="3" t="s">
         <v>291</v>
@@ -34662,7 +34661,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="442" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="1" t="s">
         <v>358</v>
       </c>
@@ -34670,7 +34669,7 @@
         <v>103</v>
       </c>
       <c r="C442" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D442" s="3" t="s">
         <v>291</v>
@@ -34698,7 +34697,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="443" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="1" t="s">
         <v>358</v>
       </c>
@@ -34706,7 +34705,7 @@
         <v>103</v>
       </c>
       <c r="C443" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D443" s="3" t="s">
         <v>291</v>
@@ -34734,7 +34733,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="444" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="1" t="s">
         <v>358</v>
       </c>
@@ -34742,7 +34741,7 @@
         <v>103</v>
       </c>
       <c r="C444" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D444" s="3" t="s">
         <v>291</v>
@@ -34770,7 +34769,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="445" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="1" t="s">
         <v>358</v>
       </c>
@@ -34778,7 +34777,7 @@
         <v>103</v>
       </c>
       <c r="C445" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D445" s="3" t="s">
         <v>291</v>
@@ -34806,7 +34805,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="446" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="1" t="s">
         <v>358</v>
       </c>
@@ -34814,7 +34813,7 @@
         <v>103</v>
       </c>
       <c r="C446" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D446" s="3" t="s">
         <v>291</v>
@@ -34842,7 +34841,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="447" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="1" t="s">
         <v>358</v>
       </c>
@@ -34850,7 +34849,7 @@
         <v>103</v>
       </c>
       <c r="C447" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D447" s="3" t="s">
         <v>291</v>
@@ -34878,7 +34877,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="448" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="1" t="s">
         <v>358</v>
       </c>
@@ -34886,7 +34885,7 @@
         <v>103</v>
       </c>
       <c r="C448" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D448" s="3" t="s">
         <v>291</v>
@@ -34914,7 +34913,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="449" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="1" t="s">
         <v>358</v>
       </c>
@@ -34922,7 +34921,7 @@
         <v>103</v>
       </c>
       <c r="C449" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D449" s="3" t="s">
         <v>291</v>
@@ -34950,7 +34949,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="450" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="1" t="s">
         <v>358</v>
       </c>
@@ -34958,7 +34957,7 @@
         <v>103</v>
       </c>
       <c r="C450" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D450" s="3" t="s">
         <v>291</v>
@@ -34986,7 +34985,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="451" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="1" t="s">
         <v>358</v>
       </c>
@@ -34994,7 +34993,7 @@
         <v>103</v>
       </c>
       <c r="C451" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D451" s="3" t="s">
         <v>291</v>
@@ -35022,7 +35021,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="452" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="1" t="s">
         <v>358</v>
       </c>
@@ -35030,7 +35029,7 @@
         <v>103</v>
       </c>
       <c r="C452" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D452" s="3" t="s">
         <v>291</v>
@@ -35058,7 +35057,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="453" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="1" t="s">
         <v>358</v>
       </c>
@@ -35066,7 +35065,7 @@
         <v>103</v>
       </c>
       <c r="C453" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D453" s="3" t="s">
         <v>291</v>
@@ -35094,7 +35093,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="454" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="1" t="s">
         <v>358</v>
       </c>
@@ -35102,7 +35101,7 @@
         <v>103</v>
       </c>
       <c r="C454" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D454" s="3" t="s">
         <v>291</v>
@@ -35130,7 +35129,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="455" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="1" t="s">
         <v>358</v>
       </c>
@@ -35138,7 +35137,7 @@
         <v>103</v>
       </c>
       <c r="C455" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D455" s="3" t="s">
         <v>291</v>
@@ -35166,7 +35165,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="456" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="1" t="s">
         <v>358</v>
       </c>
@@ -35174,7 +35173,7 @@
         <v>103</v>
       </c>
       <c r="C456" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D456" s="3" t="s">
         <v>291</v>
@@ -35202,7 +35201,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="457" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="1" t="s">
         <v>358</v>
       </c>
@@ -35210,7 +35209,7 @@
         <v>103</v>
       </c>
       <c r="C457" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D457" s="3" t="s">
         <v>291</v>
@@ -35234,11 +35233,11 @@
         <v>6</v>
       </c>
       <c r="K457" s="2">
-        <f t="shared" ref="K457:K515" si="8">I457*J457</f>
+        <f t="shared" ref="K457:K516" si="8">I457*J457</f>
         <v>72</v>
       </c>
     </row>
-    <row r="458" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="1" t="s">
         <v>358</v>
       </c>
@@ -35246,7 +35245,7 @@
         <v>103</v>
       </c>
       <c r="C458" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D458" s="3" t="s">
         <v>291</v>
@@ -35274,7 +35273,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="459" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="1" t="s">
         <v>358</v>
       </c>
@@ -35282,7 +35281,7 @@
         <v>103</v>
       </c>
       <c r="C459" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D459" s="3" t="s">
         <v>291</v>
@@ -35310,7 +35309,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="460" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="1" t="s">
         <v>358</v>
       </c>
@@ -35318,7 +35317,7 @@
         <v>103</v>
       </c>
       <c r="C460" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D460" s="3" t="s">
         <v>291</v>
@@ -35346,7 +35345,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="461" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="1" t="s">
         <v>358</v>
       </c>
@@ -35354,7 +35353,7 @@
         <v>103</v>
       </c>
       <c r="C461" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D461" s="3" t="s">
         <v>299</v>
@@ -35382,7 +35381,7 @@
         <v>3518.76</v>
       </c>
     </row>
-    <row r="462" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="1" t="s">
         <v>358</v>
       </c>
@@ -35390,7 +35389,7 @@
         <v>103</v>
       </c>
       <c r="C462" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D462" s="3" t="s">
         <v>299</v>
@@ -35418,7 +35417,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="463" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="1" t="s">
         <v>358</v>
       </c>
@@ -35426,7 +35425,7 @@
         <v>103</v>
       </c>
       <c r="C463" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D463" s="3" t="s">
         <v>299</v>
@@ -35454,7 +35453,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="464" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="1" t="s">
         <v>358</v>
       </c>
@@ -35462,7 +35461,7 @@
         <v>103</v>
       </c>
       <c r="C464" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D464" s="3" t="s">
         <v>316</v>
@@ -35490,7 +35489,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="465" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="1" t="s">
         <v>358</v>
       </c>
@@ -35498,7 +35497,7 @@
         <v>103</v>
       </c>
       <c r="C465" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D465" s="3" t="s">
         <v>316</v>
@@ -35526,7 +35525,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="466" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="1" t="s">
         <v>358</v>
       </c>
@@ -35534,7 +35533,7 @@
         <v>103</v>
       </c>
       <c r="C466" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D466" s="3" t="s">
         <v>316</v>
@@ -35562,7 +35561,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="467" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="1" t="s">
         <v>358</v>
       </c>
@@ -35570,7 +35569,7 @@
         <v>103</v>
       </c>
       <c r="C467" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D467" s="3" t="s">
         <v>316</v>
@@ -35598,7 +35597,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="468" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="1" t="s">
         <v>358</v>
       </c>
@@ -35606,7 +35605,7 @@
         <v>103</v>
       </c>
       <c r="C468" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D468" s="3" t="s">
         <v>316</v>
@@ -35634,7 +35633,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="469" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="1" t="s">
         <v>358</v>
       </c>
@@ -35642,7 +35641,7 @@
         <v>103</v>
       </c>
       <c r="C469" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D469" s="3" t="s">
         <v>316</v>
@@ -35670,7 +35669,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="470" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="1" t="s">
         <v>358</v>
       </c>
@@ -35678,7 +35677,7 @@
         <v>103</v>
       </c>
       <c r="C470" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D470" s="3" t="s">
         <v>316</v>
@@ -35706,7 +35705,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="471" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="1" t="s">
         <v>358</v>
       </c>
@@ -35714,7 +35713,7 @@
         <v>103</v>
       </c>
       <c r="C471" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D471" s="3" t="s">
         <v>353</v>
@@ -35742,7 +35741,7 @@
         <v>247.5</v>
       </c>
     </row>
-    <row r="472" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="1" t="s">
         <v>358</v>
       </c>
@@ -35750,7 +35749,7 @@
         <v>103</v>
       </c>
       <c r="C472" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D472" s="3" t="s">
         <v>353</v>
@@ -35778,7 +35777,7 @@
         <v>6727.5</v>
       </c>
     </row>
-    <row r="473" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="1" t="s">
         <v>358</v>
       </c>
@@ -35786,7 +35785,7 @@
         <v>103</v>
       </c>
       <c r="C473" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D473" s="3" t="s">
         <v>353</v>
@@ -35814,7 +35813,7 @@
         <v>455.40000000000003</v>
       </c>
     </row>
-    <row r="474" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="1" t="s">
         <v>358</v>
       </c>
@@ -35822,7 +35821,7 @@
         <v>103</v>
       </c>
       <c r="C474" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D474" s="3" t="s">
         <v>353</v>
@@ -35850,7 +35849,7 @@
         <v>257.39999999999998</v>
       </c>
     </row>
-    <row r="475" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="1" t="s">
         <v>358</v>
       </c>
@@ -35858,7 +35857,7 @@
         <v>103</v>
       </c>
       <c r="C475" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D475" s="3" t="s">
         <v>353</v>
@@ -35886,7 +35885,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="476" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="1" t="s">
         <v>358</v>
       </c>
@@ -35894,7 +35893,7 @@
         <v>103</v>
       </c>
       <c r="C476" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D476" s="3" t="s">
         <v>353</v>
@@ -35922,7 +35921,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="477" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="1" t="s">
         <v>358</v>
       </c>
@@ -35930,7 +35929,7 @@
         <v>103</v>
       </c>
       <c r="C477" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D477" s="3" t="s">
         <v>353</v>
@@ -35958,7 +35957,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="478" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="1" t="s">
         <v>358</v>
       </c>
@@ -35966,7 +35965,7 @@
         <v>103</v>
       </c>
       <c r="C478" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D478" s="3" t="s">
         <v>353</v>
@@ -35994,7 +35993,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="479" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="1" t="s">
         <v>358</v>
       </c>
@@ -36002,7 +36001,7 @@
         <v>103</v>
       </c>
       <c r="C479" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D479" s="3" t="s">
         <v>353</v>
@@ -36030,7 +36029,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="480" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="1" t="s">
         <v>358</v>
       </c>
@@ -36038,7 +36037,7 @@
         <v>103</v>
       </c>
       <c r="C480" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D480" s="3" t="s">
         <v>353</v>
@@ -36066,7 +36065,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="481" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="1" t="s">
         <v>358</v>
       </c>
@@ -36074,7 +36073,7 @@
         <v>103</v>
       </c>
       <c r="C481" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D481" s="3" t="s">
         <v>353</v>
@@ -36102,7 +36101,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="482" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="1" t="s">
         <v>358</v>
       </c>
@@ -36110,7 +36109,7 @@
         <v>103</v>
       </c>
       <c r="C482" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D482" s="3" t="s">
         <v>353</v>
@@ -36138,7 +36137,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="483" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="1" t="s">
         <v>358</v>
       </c>
@@ -36146,7 +36145,7 @@
         <v>103</v>
       </c>
       <c r="C483" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D483" s="3" t="s">
         <v>353</v>
@@ -36174,7 +36173,7 @@
         <v>619.5</v>
       </c>
     </row>
-    <row r="484" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="1" t="s">
         <v>358</v>
       </c>
@@ -36182,7 +36181,7 @@
         <v>103</v>
       </c>
       <c r="C484" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D484" s="3" t="s">
         <v>353</v>
@@ -36210,7 +36209,7 @@
         <v>702.09999999999991</v>
       </c>
     </row>
-    <row r="485" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="1" t="s">
         <v>358</v>
       </c>
@@ -36218,7 +36217,7 @@
         <v>103</v>
       </c>
       <c r="C485" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D485" s="3" t="s">
         <v>353</v>
@@ -36246,7 +36245,7 @@
         <v>409.5</v>
       </c>
     </row>
-    <row r="486" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="1" t="s">
         <v>358</v>
       </c>
@@ -36254,7 +36253,7 @@
         <v>103</v>
       </c>
       <c r="C486" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D486" s="3" t="s">
         <v>353</v>
@@ -36282,7 +36281,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="487" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="1" t="s">
         <v>358</v>
       </c>
@@ -36290,7 +36289,7 @@
         <v>103</v>
       </c>
       <c r="C487" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D487" s="3" t="s">
         <v>353</v>
@@ -36318,7 +36317,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="488" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="1" t="s">
         <v>358</v>
       </c>
@@ -36326,7 +36325,7 @@
         <v>103</v>
       </c>
       <c r="C488" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D488" s="3" t="s">
         <v>353</v>
@@ -36354,7 +36353,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="489" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="1" t="s">
         <v>358</v>
       </c>
@@ -36362,7 +36361,7 @@
         <v>103</v>
       </c>
       <c r="C489" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D489" s="3" t="s">
         <v>353</v>
@@ -36390,7 +36389,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="490" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="1" t="s">
         <v>358</v>
       </c>
@@ -36398,7 +36397,7 @@
         <v>103</v>
       </c>
       <c r="C490" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D490" s="3" t="s">
         <v>353</v>
@@ -36426,7 +36425,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="491" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="1" t="s">
         <v>358</v>
       </c>
@@ -36434,7 +36433,7 @@
         <v>103</v>
       </c>
       <c r="C491" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D491" s="3" t="s">
         <v>353</v>
@@ -36462,7 +36461,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="492" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="1" t="s">
         <v>358</v>
       </c>
@@ -36470,7 +36469,7 @@
         <v>103</v>
       </c>
       <c r="C492" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D492" s="3" t="s">
         <v>353</v>
@@ -36498,7 +36497,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="493" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="1" t="s">
         <v>358</v>
       </c>
@@ -36506,7 +36505,7 @@
         <v>103</v>
       </c>
       <c r="C493" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D493" s="3" t="s">
         <v>353</v>
@@ -36534,7 +36533,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="494" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="1" t="s">
         <v>358</v>
       </c>
@@ -36542,7 +36541,7 @@
         <v>103</v>
       </c>
       <c r="C494" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D494" s="3" t="s">
         <v>353</v>
@@ -36570,7 +36569,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="495" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="1" t="s">
         <v>358</v>
       </c>
@@ -36578,7 +36577,7 @@
         <v>103</v>
       </c>
       <c r="C495" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D495" s="3" t="s">
         <v>353</v>
@@ -36606,7 +36605,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="496" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="1" t="s">
         <v>358</v>
       </c>
@@ -36614,7 +36613,7 @@
         <v>103</v>
       </c>
       <c r="C496" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D496" s="3" t="s">
         <v>353</v>
@@ -36642,7 +36641,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="497" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="1" t="s">
         <v>358</v>
       </c>
@@ -36650,7 +36649,7 @@
         <v>103</v>
       </c>
       <c r="C497" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D497" s="3" t="s">
         <v>353</v>
@@ -36678,7 +36677,7 @@
         <v>346.5</v>
       </c>
     </row>
-    <row r="498" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="1" t="s">
         <v>358</v>
       </c>
@@ -36686,7 +36685,7 @@
         <v>103</v>
       </c>
       <c r="C498" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D498" s="3" t="s">
         <v>353</v>
@@ -36714,7 +36713,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="499" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="1" t="s">
         <v>358</v>
       </c>
@@ -36722,7 +36721,7 @@
         <v>103</v>
       </c>
       <c r="C499" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D499" s="3" t="s">
         <v>353</v>
@@ -36750,7 +36749,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="500" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="1" t="s">
         <v>358</v>
       </c>
@@ -36758,7 +36757,7 @@
         <v>103</v>
       </c>
       <c r="C500" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D500" s="3" t="s">
         <v>353</v>
@@ -36786,7 +36785,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="501" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="1" t="s">
         <v>358</v>
       </c>
@@ -36794,7 +36793,7 @@
         <v>103</v>
       </c>
       <c r="C501" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D501" s="3" t="s">
         <v>353</v>
@@ -36822,7 +36821,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="502" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="1" t="s">
         <v>358</v>
       </c>
@@ -36830,7 +36829,7 @@
         <v>103</v>
       </c>
       <c r="C502" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D502" s="3" t="s">
         <v>353</v>
@@ -36858,7 +36857,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="503" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="1" t="s">
         <v>358</v>
       </c>
@@ -36866,7 +36865,7 @@
         <v>103</v>
       </c>
       <c r="C503" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D503" s="3" t="s">
         <v>387</v>
@@ -36894,7 +36893,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="504" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="1" t="s">
         <v>358</v>
       </c>
@@ -36902,10 +36901,10 @@
         <v>103</v>
       </c>
       <c r="C504" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D504" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E504" s="3" t="s">
         <v>354</v>
@@ -36930,18 +36929,12 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="505" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A505" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="B505" s="1" t="s">
-        <v>103</v>
-      </c>
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C505" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D505" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E505" s="3" t="s">
         <v>354</v>
@@ -36950,59 +36943,59 @@
         <v>35</v>
       </c>
       <c r="G505" s="1" t="s">
-        <v>382</v>
+        <v>410</v>
       </c>
       <c r="H505" s="1" t="s">
-        <v>262</v>
+        <v>409</v>
       </c>
       <c r="I505" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J505" s="2">
-        <v>7620</v>
+        <v>35000</v>
       </c>
       <c r="K505" s="2">
         <f t="shared" si="8"/>
-        <v>7620</v>
-      </c>
-    </row>
-    <row r="506" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="1" t="s">
         <v>358</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>371</v>
+        <v>103</v>
       </c>
       <c r="C506" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D506" s="3" t="s">
-        <v>301</v>
+        <v>387</v>
       </c>
       <c r="E506" s="3" t="s">
-        <v>302</v>
+        <v>354</v>
       </c>
       <c r="F506" s="1">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="G506" s="1" t="s">
-        <v>303</v>
+        <v>382</v>
       </c>
       <c r="H506" s="1" t="s">
         <v>262</v>
       </c>
       <c r="I506" s="1">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="J506" s="2">
-        <v>360</v>
+        <v>7620</v>
       </c>
       <c r="K506" s="2">
         <f t="shared" si="8"/>
-        <v>4320</v>
-      </c>
-    </row>
-    <row r="507" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+        <v>7620</v>
+      </c>
+    </row>
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="1" t="s">
         <v>358</v>
       </c>
@@ -37010,7 +37003,7 @@
         <v>371</v>
       </c>
       <c r="C507" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D507" s="3" t="s">
         <v>301</v>
@@ -37019,26 +37012,26 @@
         <v>302</v>
       </c>
       <c r="F507" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G507" s="1" t="s">
-        <v>390</v>
+        <v>303</v>
       </c>
       <c r="H507" s="1" t="s">
-        <v>391</v>
+        <v>262</v>
       </c>
       <c r="I507" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J507" s="2">
-        <v>4500</v>
+        <v>360</v>
       </c>
       <c r="K507" s="2">
         <f t="shared" si="8"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="508" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+        <v>4320</v>
+      </c>
+    </row>
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="1" t="s">
         <v>358</v>
       </c>
@@ -37046,7 +37039,7 @@
         <v>371</v>
       </c>
       <c r="C508" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D508" s="3" t="s">
         <v>301</v>
@@ -37055,26 +37048,26 @@
         <v>302</v>
       </c>
       <c r="F508" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G508" s="1" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="H508" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I508" s="1">
         <v>1</v>
       </c>
       <c r="J508" s="2">
-        <v>9650</v>
+        <v>4500</v>
       </c>
       <c r="K508" s="2">
         <f t="shared" si="8"/>
-        <v>9650</v>
-      </c>
-    </row>
-    <row r="509" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="1" t="s">
         <v>358</v>
       </c>
@@ -37082,7 +37075,7 @@
         <v>371</v>
       </c>
       <c r="C509" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D509" s="3" t="s">
         <v>301</v>
@@ -37091,26 +37084,26 @@
         <v>302</v>
       </c>
       <c r="F509" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G509" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H509" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I509" s="1">
         <v>1</v>
       </c>
       <c r="J509" s="2">
-        <v>3250</v>
+        <v>9650</v>
       </c>
       <c r="K509" s="2">
         <f t="shared" si="8"/>
-        <v>3250</v>
-      </c>
-    </row>
-    <row r="510" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+        <v>9650</v>
+      </c>
+    </row>
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="1" t="s">
         <v>358</v>
       </c>
@@ -37118,7 +37111,7 @@
         <v>371</v>
       </c>
       <c r="C510" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D510" s="3" t="s">
         <v>301</v>
@@ -37127,26 +37120,26 @@
         <v>302</v>
       </c>
       <c r="F510" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G510" s="1" t="s">
-        <v>304</v>
+        <v>391</v>
       </c>
       <c r="H510" s="1" t="s">
-        <v>262</v>
+        <v>389</v>
       </c>
       <c r="I510" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J510" s="2">
-        <v>1800</v>
+        <v>3250</v>
       </c>
       <c r="K510" s="2">
         <f t="shared" si="8"/>
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="511" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+        <v>3250</v>
+      </c>
+    </row>
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="1" t="s">
         <v>358</v>
       </c>
@@ -37154,7 +37147,7 @@
         <v>371</v>
       </c>
       <c r="C511" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D511" s="3" t="s">
         <v>301</v>
@@ -37163,26 +37156,26 @@
         <v>302</v>
       </c>
       <c r="F511" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G511" s="1" t="s">
-        <v>394</v>
+        <v>304</v>
       </c>
       <c r="H511" s="1" t="s">
-        <v>391</v>
+        <v>262</v>
       </c>
       <c r="I511" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J511" s="2">
-        <v>1320</v>
+        <v>1800</v>
       </c>
       <c r="K511" s="2">
         <f t="shared" si="8"/>
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="512" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="1" t="s">
         <v>358</v>
       </c>
@@ -37190,7 +37183,7 @@
         <v>371</v>
       </c>
       <c r="C512" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D512" s="3" t="s">
         <v>301</v>
@@ -37199,26 +37192,26 @@
         <v>302</v>
       </c>
       <c r="F512" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G512" s="1" t="s">
-        <v>305</v>
+        <v>392</v>
       </c>
       <c r="H512" s="1" t="s">
-        <v>262</v>
+        <v>389</v>
       </c>
       <c r="I512" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J512" s="2">
-        <v>1400</v>
+        <v>1320</v>
       </c>
       <c r="K512" s="2">
         <f t="shared" si="8"/>
-        <v>2800</v>
-      </c>
-    </row>
-    <row r="513" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="1" t="s">
         <v>358</v>
       </c>
@@ -37226,7 +37219,7 @@
         <v>371</v>
       </c>
       <c r="C513" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D513" s="3" t="s">
         <v>301</v>
@@ -37235,26 +37228,26 @@
         <v>302</v>
       </c>
       <c r="F513" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G513" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H513" s="1" t="s">
         <v>262</v>
       </c>
       <c r="I513" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J513" s="2">
-        <v>250</v>
+        <v>1400</v>
       </c>
       <c r="K513" s="2">
         <f t="shared" si="8"/>
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="514" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" s="1" t="s">
         <v>358</v>
       </c>
@@ -37262,7 +37255,7 @@
         <v>371</v>
       </c>
       <c r="C514" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D514" s="3" t="s">
         <v>301</v>
@@ -37271,26 +37264,26 @@
         <v>302</v>
       </c>
       <c r="F514" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G514" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H514" s="1" t="s">
         <v>262</v>
       </c>
       <c r="I514" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J514" s="2">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="K514" s="2">
         <f t="shared" si="8"/>
-        <v>800</v>
-      </c>
-    </row>
-    <row r="515" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="1" t="s">
         <v>358</v>
       </c>
@@ -37298,7 +37291,7 @@
         <v>371</v>
       </c>
       <c r="C515" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D515" s="3" t="s">
         <v>301</v>
@@ -37307,38 +37300,69 @@
         <v>302</v>
       </c>
       <c r="F515" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G515" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H515" s="1" t="s">
         <v>262</v>
       </c>
       <c r="I515" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J515" s="2">
-        <v>350</v>
+        <v>80</v>
       </c>
       <c r="K515" s="2">
         <f t="shared" si="8"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A516" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B516" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C516" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D516" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="E516" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="F516" s="1">
+        <v>10</v>
+      </c>
+      <c r="G516" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="H516" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="I516" s="1">
+        <v>5</v>
+      </c>
+      <c r="J516" s="2">
+        <v>350</v>
+      </c>
+      <c r="K516" s="2">
+        <f t="shared" si="8"/>
         <v>1750</v>
-      </c>
-    </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F516"/>
-      <c r="G516"/>
-      <c r="H516"/>
-      <c r="K516" s="2">
-        <f>SUM(K4:K515)</f>
-        <v>2101936.2199999997</v>
       </c>
     </row>
     <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F517"/>
       <c r="G517"/>
       <c r="H517"/>
+      <c r="K517" s="2">
+        <f>SUM(K4:K516)</f>
+        <v>2241936.2199999997</v>
+      </c>
     </row>
     <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F518"/>
@@ -37420,17 +37444,18 @@
       <c r="G533"/>
       <c r="H533"/>
     </row>
+    <row r="534" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F534"/>
+      <c r="G534"/>
+      <c r="H534"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A3:L516" xr:uid="{00000000-0001-0000-0100-000000000000}">
-    <filterColumn colId="2">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:K515">
-    <sortCondition ref="B4:B515"/>
-    <sortCondition ref="D4:D515"/>
-    <sortCondition ref="E4:E515"/>
-    <sortCondition ref="F4:F515"/>
+  <autoFilter ref="A3:L517" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:K516">
+    <sortCondition ref="B4:B516"/>
+    <sortCondition ref="D4:D516"/>
+    <sortCondition ref="E4:E516"/>
+    <sortCondition ref="F4:F516"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -37463,7 +37488,7 @@
         <v>367</v>
       </c>
       <c r="C3" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D3" t="s">
         <v>366</v>
@@ -37471,7 +37496,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B4" s="8">
         <v>936</v>
@@ -38157,7 +38182,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B53" s="8">
         <v>1</v>
@@ -38185,7 +38210,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B55" s="8">
         <v>1</v>
@@ -38381,7 +38406,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B69" s="8">
         <v>1</v>
@@ -38493,7 +38518,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B77" s="8">
         <v>1</v>
@@ -38913,7 +38938,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="7" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B107" s="8">
         <v>1</v>
@@ -39053,7 +39078,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B117" s="8">
         <v>2</v>
@@ -39109,7 +39134,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="7" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B121" s="8">
         <v>2</v>
@@ -39123,7 +39148,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B122" s="8">
         <v>8</v>
@@ -39137,7 +39162,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B123" s="8">
         <v>1</v>
@@ -39151,7 +39176,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B124" s="8">
         <v>3407</v>
@@ -40089,7 +40114,7 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="16" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B191" s="14">
         <v>308</v>
@@ -40103,7 +40128,7 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="7" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B192" s="8">
         <v>112</v>
@@ -40159,7 +40184,7 @@
         <v>367</v>
       </c>
       <c r="C3" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D3" t="s">
         <v>366</v>
@@ -43695,7 +43720,7 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" s="7" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B256" s="8">
         <v>1</v>
@@ -43709,7 +43734,7 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" s="13" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B257" s="8">
         <v>1</v>
@@ -45361,7 +45386,7 @@
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" s="13" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B375" s="8">
         <v>1</v>
@@ -45375,7 +45400,7 @@
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" s="13" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B376" s="8">
         <v>1</v>
@@ -45725,7 +45750,7 @@
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401" s="13" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B401" s="8">
         <v>2</v>
@@ -47839,7 +47864,7 @@
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A552" s="13" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B552" s="8">
         <v>308</v>
@@ -48385,7 +48410,7 @@
     </row>
     <row r="591" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A591" s="13" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B591" s="8">
         <v>112</v>
@@ -48525,7 +48550,7 @@
     </row>
     <row r="601" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A601" s="13" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B601" s="8">
         <v>1</v>
@@ -48553,7 +48578,7 @@
     </row>
     <row r="603" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A603" s="13" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B603" s="8">
         <v>1</v>
@@ -48581,7 +48606,7 @@
     </row>
     <row r="605" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A605" s="13" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B605" s="8">
         <v>1</v>
@@ -48609,7 +48634,7 @@
     </row>
     <row r="607" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A607" s="13" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B607" s="8">
         <v>1</v>
@@ -48637,7 +48662,7 @@
     </row>
     <row r="609" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A609" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B609" s="8">
         <v>9</v>
@@ -48665,7 +48690,7 @@
     </row>
     <row r="611" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A611" s="13" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B611" s="8">
         <v>8</v>
@@ -48679,7 +48704,7 @@
     </row>
     <row r="612" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A612" s="13" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B612" s="8">
         <v>1</v>

--- a/Equipamiento y Moviliario/Relacion Equipamiento y Mobiloiario PARA MODIFICACION 2021.xlsx
+++ b/Equipamiento y Moviliario/Relacion Equipamiento y Mobiloiario PARA MODIFICACION 2021.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositorio\Instalaciones_Especiales\Equipamiento y Moviliario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C2EDFF-6652-49D3-A25C-50F40F19E328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166FC064-B589-49A8-8CFC-DECD87E8DA38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
   <calcPr calcId="191029"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId4"/>
-    <pivotCache cacheId="4" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4604" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4238" uniqueCount="414">
   <si>
     <t>ITEM</t>
   </si>
@@ -1286,9 +1286,6 @@
   <si>
     <t>TV 85 pulgadas</t>
   </si>
-  <si>
-    <t>e</t>
-  </si>
 </sst>
 </file>
 
@@ -1374,64 +1371,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <numFmt numFmtId="4" formatCode="#,##0.00"/>
     </dxf>
@@ -15398,8 +15338,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="TablaDinámica2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:D372" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="TablaDinámica2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:D6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0">
       <items count="5">
@@ -15412,7 +15352,7 @@
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
       <items count="3">
-        <item x="1"/>
+        <item sd="0" x="1"/>
         <item sd="0" x="0"/>
         <item t="default"/>
       </items>
@@ -15824,1107 +15764,9 @@
     <field x="5"/>
     <field x="3"/>
   </rowFields>
-  <rowItems count="369">
+  <rowItems count="3">
     <i>
       <x/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="2">
-      <x v="25"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="2">
-      <x v="8"/>
-    </i>
-    <i r="2">
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="12"/>
-    </i>
-    <i r="2">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="16"/>
-    </i>
-    <i r="2">
-      <x v="6"/>
-    </i>
-    <i r="2">
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="18"/>
-    </i>
-    <i r="2">
-      <x v="3"/>
-    </i>
-    <i r="2">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="19"/>
-    </i>
-    <i r="2">
-      <x v="3"/>
-    </i>
-    <i r="2">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="21"/>
-    </i>
-    <i r="2">
-      <x v="34"/>
-    </i>
-    <i r="1">
-      <x v="22"/>
-    </i>
-    <i r="2">
-      <x v="34"/>
-    </i>
-    <i r="1">
-      <x v="23"/>
-    </i>
-    <i r="2">
-      <x v="34"/>
-    </i>
-    <i r="1">
-      <x v="24"/>
-    </i>
-    <i r="2">
-      <x v="23"/>
-    </i>
-    <i r="2">
-      <x v="24"/>
-    </i>
-    <i r="1">
-      <x v="25"/>
-    </i>
-    <i r="2">
-      <x v="23"/>
-    </i>
-    <i r="2">
-      <x v="24"/>
-    </i>
-    <i r="1">
-      <x v="27"/>
-    </i>
-    <i r="2">
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="28"/>
-    </i>
-    <i r="2">
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="31"/>
-    </i>
-    <i r="2">
-      <x v="6"/>
-    </i>
-    <i r="2">
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="33"/>
-    </i>
-    <i r="2">
-      <x v="8"/>
-    </i>
-    <i r="2">
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="34"/>
-    </i>
-    <i r="2">
-      <x v="10"/>
-    </i>
-    <i r="2">
-      <x v="14"/>
-    </i>
-    <i r="2">
-      <x v="15"/>
-    </i>
-    <i r="2">
-      <x v="17"/>
-    </i>
-    <i r="2">
-      <x v="18"/>
-    </i>
-    <i r="2">
-      <x v="19"/>
-    </i>
-    <i r="2">
-      <x v="20"/>
-    </i>
-    <i r="2">
-      <x v="26"/>
-    </i>
-    <i r="2">
-      <x v="27"/>
-    </i>
-    <i r="2">
-      <x v="28"/>
-    </i>
-    <i r="2">
-      <x v="31"/>
-    </i>
-    <i r="2">
-      <x v="32"/>
-    </i>
-    <i r="2">
-      <x v="38"/>
-    </i>
-    <i r="1">
-      <x v="35"/>
-    </i>
-    <i r="2">
-      <x v="25"/>
-    </i>
-    <i r="1">
-      <x v="36"/>
-    </i>
-    <i r="2">
-      <x v="8"/>
-    </i>
-    <i r="2">
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="37"/>
-    </i>
-    <i r="2">
-      <x v="8"/>
-    </i>
-    <i r="2">
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="38"/>
-    </i>
-    <i r="2">
-      <x v="8"/>
-    </i>
-    <i r="2">
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="39"/>
-    </i>
-    <i r="2">
-      <x v="8"/>
-    </i>
-    <i r="2">
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="40"/>
-    </i>
-    <i r="2">
-      <x v="8"/>
-    </i>
-    <i r="2">
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="41"/>
-    </i>
-    <i r="2">
-      <x v="34"/>
-    </i>
-    <i r="1">
-      <x v="43"/>
-    </i>
-    <i r="2">
-      <x v="8"/>
-    </i>
-    <i r="2">
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="44"/>
-    </i>
-    <i r="2">
-      <x v="8"/>
-    </i>
-    <i r="2">
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="45"/>
-    </i>
-    <i r="2">
-      <x v="8"/>
-    </i>
-    <i r="2">
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="46"/>
-    </i>
-    <i r="2">
-      <x v="8"/>
-    </i>
-    <i r="2">
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="48"/>
-    </i>
-    <i r="2">
-      <x v="25"/>
-    </i>
-    <i r="1">
-      <x v="49"/>
-    </i>
-    <i r="2">
-      <x v="6"/>
-    </i>
-    <i r="2">
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="50"/>
-    </i>
-    <i r="2">
-      <x v="6"/>
-    </i>
-    <i r="2">
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="51"/>
-    </i>
-    <i r="2">
-      <x v="13"/>
-    </i>
-    <i r="1">
-      <x v="52"/>
-    </i>
-    <i r="2">
-      <x v="12"/>
-    </i>
-    <i r="2">
-      <x v="13"/>
-    </i>
-    <i r="1">
-      <x v="53"/>
-    </i>
-    <i r="2">
-      <x v="8"/>
-    </i>
-    <i r="2">
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="54"/>
-    </i>
-    <i r="2">
-      <x v="8"/>
-    </i>
-    <i r="2">
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="56"/>
-    </i>
-    <i r="2">
-      <x v="6"/>
-    </i>
-    <i r="2">
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="57"/>
-    </i>
-    <i r="2">
-      <x v="6"/>
-    </i>
-    <i r="2">
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="65"/>
-    </i>
-    <i r="2">
-      <x v="34"/>
-    </i>
-    <i r="1">
-      <x v="66"/>
-    </i>
-    <i r="2">
-      <x v="21"/>
-    </i>
-    <i r="2">
-      <x v="22"/>
-    </i>
-    <i r="1">
-      <x v="67"/>
-    </i>
-    <i r="2">
-      <x v="6"/>
-    </i>
-    <i r="2">
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="68"/>
-    </i>
-    <i r="2">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="69"/>
-    </i>
-    <i r="2">
-      <x v="37"/>
-    </i>
-    <i r="1">
-      <x v="70"/>
-    </i>
-    <i r="2">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="71"/>
-    </i>
-    <i r="2">
-      <x v="6"/>
-    </i>
-    <i r="2">
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="72"/>
-    </i>
-    <i r="2">
-      <x v="6"/>
-    </i>
-    <i r="2">
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="73"/>
-    </i>
-    <i r="2">
-      <x v="6"/>
-    </i>
-    <i r="2">
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="74"/>
-    </i>
-    <i r="2">
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="75"/>
-    </i>
-    <i r="2">
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="76"/>
-    </i>
-    <i r="2">
-      <x v="16"/>
-    </i>
-    <i r="2">
-      <x v="26"/>
-    </i>
-    <i r="2">
-      <x v="27"/>
-    </i>
-    <i r="2">
-      <x v="37"/>
-    </i>
-    <i r="1">
-      <x v="77"/>
-    </i>
-    <i r="2">
-      <x v="25"/>
-    </i>
-    <i r="1">
-      <x v="78"/>
-    </i>
-    <i r="2">
-      <x v="10"/>
-    </i>
-    <i r="2">
-      <x v="11"/>
-    </i>
-    <i r="2">
-      <x v="14"/>
-    </i>
-    <i r="2">
-      <x v="15"/>
-    </i>
-    <i r="2">
-      <x v="17"/>
-    </i>
-    <i r="2">
-      <x v="18"/>
-    </i>
-    <i r="2">
-      <x v="19"/>
-    </i>
-    <i r="2">
-      <x v="20"/>
-    </i>
-    <i r="2">
-      <x v="26"/>
-    </i>
-    <i r="2">
-      <x v="27"/>
-    </i>
-    <i r="2">
-      <x v="28"/>
-    </i>
-    <i r="2">
-      <x v="31"/>
-    </i>
-    <i r="2">
-      <x v="32"/>
-    </i>
-    <i r="1">
-      <x v="79"/>
-    </i>
-    <i r="2">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="80"/>
-    </i>
-    <i r="2">
-      <x v="8"/>
-    </i>
-    <i r="2">
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="81"/>
-    </i>
-    <i r="2">
-      <x v="8"/>
-    </i>
-    <i r="2">
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="82"/>
-    </i>
-    <i r="2">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="86"/>
-    </i>
-    <i r="2">
-      <x v="8"/>
-    </i>
-    <i r="2">
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="87"/>
-    </i>
-    <i r="2">
-      <x v="3"/>
-    </i>
-    <i r="2">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="88"/>
-    </i>
-    <i r="2">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="89"/>
-    </i>
-    <i r="2">
-      <x v="6"/>
-    </i>
-    <i r="2">
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="90"/>
-    </i>
-    <i r="2">
-      <x v="6"/>
-    </i>
-    <i r="2">
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="91"/>
-    </i>
-    <i r="2">
-      <x v="21"/>
-    </i>
-    <i r="2">
-      <x v="22"/>
-    </i>
-    <i r="1">
-      <x v="92"/>
-    </i>
-    <i r="2">
-      <x v="8"/>
-    </i>
-    <i r="2">
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="105"/>
-    </i>
-    <i r="2">
-      <x v="8"/>
-    </i>
-    <i r="2">
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="110"/>
-    </i>
-    <i r="2">
-      <x v="3"/>
-    </i>
-    <i r="2">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="112"/>
-    </i>
-    <i r="2">
-      <x v="3"/>
-    </i>
-    <i r="2">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="117"/>
-    </i>
-    <i r="2">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="118"/>
-    </i>
-    <i r="2">
-      <x v="21"/>
-    </i>
-    <i r="2">
-      <x v="22"/>
-    </i>
-    <i r="1">
-      <x v="119"/>
-    </i>
-    <i r="2">
-      <x v="21"/>
-    </i>
-    <i r="2">
-      <x v="22"/>
-    </i>
-    <i r="1">
-      <x v="120"/>
-    </i>
-    <i r="2">
-      <x v="6"/>
-    </i>
-    <i r="2">
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="122"/>
-    </i>
-    <i r="2">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="123"/>
-    </i>
-    <i r="2">
-      <x v="34"/>
-    </i>
-    <i r="1">
-      <x v="124"/>
-    </i>
-    <i r="2">
-      <x v="11"/>
-    </i>
-    <i r="2">
-      <x v="12"/>
-    </i>
-    <i r="2">
-      <x v="13"/>
-    </i>
-    <i r="2">
-      <x v="21"/>
-    </i>
-    <i r="2">
-      <x v="22"/>
-    </i>
-    <i r="2">
-      <x v="29"/>
-    </i>
-    <i r="2">
-      <x v="34"/>
-    </i>
-    <i r="2">
-      <x v="35"/>
-    </i>
-    <i r="2">
-      <x v="36"/>
-    </i>
-    <i r="1">
-      <x v="125"/>
-    </i>
-    <i r="2">
-      <x v="6"/>
-    </i>
-    <i r="2">
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="126"/>
-    </i>
-    <i r="2">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="127"/>
-    </i>
-    <i r="2">
-      <x v="6"/>
-    </i>
-    <i r="2">
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="128"/>
-    </i>
-    <i r="2">
-      <x v="8"/>
-    </i>
-    <i r="2">
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="129"/>
-    </i>
-    <i r="2">
-      <x v="8"/>
-    </i>
-    <i r="2">
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="130"/>
-    </i>
-    <i r="2">
-      <x v="6"/>
-    </i>
-    <i r="2">
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="131"/>
-    </i>
-    <i r="2">
-      <x v="6"/>
-    </i>
-    <i r="2">
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="132"/>
-    </i>
-    <i r="2">
-      <x v="6"/>
-    </i>
-    <i r="2">
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="133"/>
-    </i>
-    <i r="2">
-      <x v="6"/>
-    </i>
-    <i r="2">
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="134"/>
-    </i>
-    <i r="2">
-      <x v="6"/>
-    </i>
-    <i r="2">
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="137"/>
-    </i>
-    <i r="2">
-      <x v="6"/>
-    </i>
-    <i r="2">
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="138"/>
-    </i>
-    <i r="2">
-      <x v="6"/>
-    </i>
-    <i r="2">
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="139"/>
-    </i>
-    <i r="2">
-      <x v="8"/>
-    </i>
-    <i r="2">
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="140"/>
-    </i>
-    <i r="2">
-      <x v="8"/>
-    </i>
-    <i r="2">
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="141"/>
-    </i>
-    <i r="2">
-      <x v="6"/>
-    </i>
-    <i r="2">
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="142"/>
-    </i>
-    <i r="2">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="143"/>
-    </i>
-    <i r="2">
-      <x v="8"/>
-    </i>
-    <i r="2">
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="144"/>
-    </i>
-    <i r="2">
-      <x v="8"/>
-    </i>
-    <i r="2">
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="145"/>
-    </i>
-    <i r="2">
-      <x v="8"/>
-    </i>
-    <i r="2">
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="146"/>
-    </i>
-    <i r="2">
-      <x v="6"/>
-    </i>
-    <i r="2">
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="147"/>
-    </i>
-    <i r="2">
-      <x v="8"/>
-    </i>
-    <i r="2">
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="148"/>
-    </i>
-    <i r="2">
-      <x v="6"/>
-    </i>
-    <i r="2">
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="149"/>
-    </i>
-    <i r="2">
-      <x v="34"/>
-    </i>
-    <i r="1">
-      <x v="151"/>
-    </i>
-    <i r="2">
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="152"/>
-    </i>
-    <i r="2">
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="153"/>
-    </i>
-    <i r="2">
-      <x v="8"/>
-    </i>
-    <i r="2">
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="154"/>
-    </i>
-    <i r="2">
-      <x v="26"/>
-    </i>
-    <i r="2">
-      <x v="27"/>
-    </i>
-    <i r="2">
-      <x v="37"/>
-    </i>
-    <i r="1">
-      <x v="155"/>
-    </i>
-    <i r="2">
-      <x v="6"/>
-    </i>
-    <i r="2">
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="156"/>
-    </i>
-    <i r="2">
-      <x v="3"/>
-    </i>
-    <i r="2">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="157"/>
-    </i>
-    <i r="2">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="158"/>
-    </i>
-    <i r="2">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="163"/>
-    </i>
-    <i r="2">
-      <x v="8"/>
-    </i>
-    <i r="2">
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="169"/>
-    </i>
-    <i r="2">
-      <x v="34"/>
-    </i>
-    <i r="1">
-      <x v="170"/>
-    </i>
-    <i r="2">
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="171"/>
-    </i>
-    <i r="2">
-      <x v="8"/>
-    </i>
-    <i r="2">
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="172"/>
-    </i>
-    <i r="2">
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="173"/>
-    </i>
-    <i r="2">
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="177"/>
-    </i>
-    <i r="2">
-      <x v="6"/>
-    </i>
-    <i r="2">
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="178"/>
-    </i>
-    <i r="2">
-      <x v="6"/>
-    </i>
-    <i r="2">
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="179"/>
-    </i>
-    <i r="2">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="180"/>
-    </i>
-    <i r="2">
-      <x v="34"/>
-    </i>
-    <i r="1">
-      <x v="181"/>
-    </i>
-    <i r="2">
-      <x v="6"/>
-    </i>
-    <i r="2">
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="182"/>
-    </i>
-    <i r="2">
-      <x v="3"/>
-    </i>
-    <i r="2">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="183"/>
-    </i>
-    <i r="2">
-      <x v="30"/>
-    </i>
-    <i r="1">
-      <x v="184"/>
-    </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="2">
-      <x v="25"/>
-    </i>
-    <i r="1">
-      <x v="187"/>
-    </i>
-    <i r="2">
-      <x v="34"/>
-    </i>
-    <i r="1">
-      <x v="188"/>
-    </i>
-    <i r="2">
-      <x v="34"/>
-    </i>
-    <i r="1">
-      <x v="190"/>
-    </i>
-    <i r="2">
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="191"/>
-    </i>
-    <i r="2">
-      <x v="10"/>
-    </i>
-    <i r="2">
-      <x v="11"/>
-    </i>
-    <i r="2">
-      <x v="12"/>
-    </i>
-    <i r="2">
-      <x v="13"/>
-    </i>
-    <i r="2">
-      <x v="14"/>
-    </i>
-    <i r="2">
-      <x v="15"/>
-    </i>
-    <i r="2">
-      <x v="21"/>
-    </i>
-    <i r="2">
-      <x v="22"/>
-    </i>
-    <i r="2">
-      <x v="34"/>
-    </i>
-    <i r="2">
-      <x v="36"/>
-    </i>
-    <i r="1">
-      <x v="192"/>
-    </i>
-    <i r="2">
-      <x v="33"/>
-    </i>
-    <i r="1">
-      <x v="193"/>
-    </i>
-    <i r="2">
-      <x v="78"/>
     </i>
     <i>
       <x v="1"/>
@@ -16953,7 +15795,7 @@
     <dataField name="Suma de TOTAL" fld="9" baseField="4" baseItem="0" numFmtId="4"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="19">
+    <format dxfId="0">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -38172,15 +37014,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:D372"/>
+  <dimension ref="A3:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A5" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="64" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.21875" bestFit="1" customWidth="1"/>
@@ -38209,5161 +37051,37 @@
         <v>943</v>
       </c>
       <c r="C4" s="12">
-        <v>2760.9945081967221</v>
+        <v>2760.9945081967217</v>
       </c>
       <c r="D4" s="12">
         <v>1892762.7199999997</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>236</v>
+      <c r="A5" s="6" t="s">
+        <v>405</v>
       </c>
       <c r="B5" s="8">
-        <v>1</v>
+        <v>3408</v>
       </c>
       <c r="C5" s="12">
-        <v>4071</v>
+        <v>459.58575645756457</v>
       </c>
       <c r="D5" s="12">
-        <v>4071</v>
+        <v>765473.49999999988</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
-        <v>234</v>
+      <c r="A6" s="6" t="s">
+        <v>364</v>
       </c>
       <c r="B6" s="8">
-        <v>1</v>
+        <v>4351</v>
       </c>
       <c r="C6" s="12">
-        <v>4071</v>
+        <v>1549.9619417475733</v>
       </c>
       <c r="D6" s="12">
-        <v>4071</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="B7" s="8">
-        <v>4</v>
-      </c>
-      <c r="C7" s="12">
-        <v>130</v>
-      </c>
-      <c r="D7" s="12">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="B8" s="8">
-        <v>2</v>
-      </c>
-      <c r="C8" s="12">
-        <v>130</v>
-      </c>
-      <c r="D8" s="12">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="B9" s="8">
-        <v>2</v>
-      </c>
-      <c r="C9" s="12">
-        <v>130</v>
-      </c>
-      <c r="D9" s="12">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="B10" s="8">
-        <v>2</v>
-      </c>
-      <c r="C10" s="12">
-        <v>1400</v>
-      </c>
-      <c r="D10" s="12">
-        <v>2800</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
-        <v>301</v>
-      </c>
-      <c r="B11" s="8">
-        <v>2</v>
-      </c>
-      <c r="C11" s="12">
-        <v>1400</v>
-      </c>
-      <c r="D11" s="12">
-        <v>2800</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="B12" s="8">
-        <v>12</v>
-      </c>
-      <c r="C12" s="12">
-        <v>3.5</v>
-      </c>
-      <c r="D12" s="12">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="B13" s="8">
-        <v>6</v>
-      </c>
-      <c r="C13" s="12">
-        <v>3.5</v>
-      </c>
-      <c r="D13" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="B14" s="8">
-        <v>6</v>
-      </c>
-      <c r="C14" s="12">
-        <v>3.5</v>
-      </c>
-      <c r="D14" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="B15" s="8">
-        <v>4</v>
-      </c>
-      <c r="C15" s="12">
-        <v>20</v>
-      </c>
-      <c r="D15" s="12">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="B16" s="8">
-        <v>2</v>
-      </c>
-      <c r="C16" s="12">
-        <v>20</v>
-      </c>
-      <c r="D16" s="12">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="13" t="s">
-        <v>316</v>
-      </c>
-      <c r="B17" s="8">
-        <v>2</v>
-      </c>
-      <c r="C17" s="12">
-        <v>20</v>
-      </c>
-      <c r="D17" s="12">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="B18" s="8">
-        <v>4</v>
-      </c>
-      <c r="C18" s="12">
-        <v>20</v>
-      </c>
-      <c r="D18" s="12">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="B19" s="8">
-        <v>2</v>
-      </c>
-      <c r="C19" s="12">
-        <v>20</v>
-      </c>
-      <c r="D19" s="12">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="13" t="s">
-        <v>316</v>
-      </c>
-      <c r="B20" s="8">
-        <v>2</v>
-      </c>
-      <c r="C20" s="12">
-        <v>20</v>
-      </c>
-      <c r="D20" s="12">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="B21" s="8">
-        <v>6</v>
-      </c>
-      <c r="C21" s="12">
-        <v>5000</v>
-      </c>
-      <c r="D21" s="12">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="B22" s="8">
-        <v>6</v>
-      </c>
-      <c r="C22" s="12">
-        <v>5000</v>
-      </c>
-      <c r="D22" s="12">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="B23" s="8">
-        <v>4</v>
-      </c>
-      <c r="C23" s="12">
-        <v>5894</v>
-      </c>
-      <c r="D23" s="12">
-        <v>23576</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="B24" s="8">
-        <v>4</v>
-      </c>
-      <c r="C24" s="12">
-        <v>5894</v>
-      </c>
-      <c r="D24" s="12">
-        <v>23576</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="B25" s="8">
-        <v>1</v>
-      </c>
-      <c r="C25" s="12">
-        <v>7580</v>
-      </c>
-      <c r="D25" s="12">
-        <v>7580</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="B26" s="8">
-        <v>1</v>
-      </c>
-      <c r="C26" s="12">
-        <v>7580</v>
-      </c>
-      <c r="D26" s="12">
-        <v>7580</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="B27" s="8">
-        <v>2</v>
-      </c>
-      <c r="C27" s="12">
-        <v>12000</v>
-      </c>
-      <c r="D27" s="12">
-        <v>24000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="B28" s="8">
-        <v>1</v>
-      </c>
-      <c r="C28" s="12">
-        <v>12000</v>
-      </c>
-      <c r="D28" s="12">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="B29" s="8">
-        <v>1</v>
-      </c>
-      <c r="C29" s="12">
-        <v>12000</v>
-      </c>
-      <c r="D29" s="12">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="B30" s="8">
-        <v>2</v>
-      </c>
-      <c r="C30" s="12">
-        <v>5200</v>
-      </c>
-      <c r="D30" s="12">
-        <v>10400</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="B31" s="8">
-        <v>1</v>
-      </c>
-      <c r="C31" s="12">
-        <v>5200</v>
-      </c>
-      <c r="D31" s="12">
-        <v>5200</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="B32" s="8">
-        <v>1</v>
-      </c>
-      <c r="C32" s="12">
-        <v>5200</v>
-      </c>
-      <c r="D32" s="12">
-        <v>5200</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="B33" s="8">
-        <v>1</v>
-      </c>
-      <c r="C33" s="12">
-        <v>7620</v>
-      </c>
-      <c r="D33" s="12">
-        <v>7620</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="B34" s="8">
-        <v>1</v>
-      </c>
-      <c r="C34" s="12">
-        <v>7620</v>
-      </c>
-      <c r="D34" s="12">
-        <v>7620</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="B35" s="8">
-        <v>1</v>
-      </c>
-      <c r="C35" s="12">
-        <v>1200</v>
-      </c>
-      <c r="D35" s="12">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="B36" s="8">
-        <v>1</v>
-      </c>
-      <c r="C36" s="12">
-        <v>1200</v>
-      </c>
-      <c r="D36" s="12">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="B37" s="8">
-        <v>6</v>
-      </c>
-      <c r="C37" s="12">
-        <v>30</v>
-      </c>
-      <c r="D37" s="12">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="B38" s="8">
-        <v>3</v>
-      </c>
-      <c r="C38" s="12">
-        <v>30</v>
-      </c>
-      <c r="D38" s="12">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="B39" s="8">
-        <v>3</v>
-      </c>
-      <c r="C39" s="12">
-        <v>30</v>
-      </c>
-      <c r="D39" s="12">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="B40" s="8">
-        <v>20</v>
-      </c>
-      <c r="C40" s="12">
-        <v>350</v>
-      </c>
-      <c r="D40" s="12">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="B41" s="8">
-        <v>10</v>
-      </c>
-      <c r="C41" s="12">
-        <v>350</v>
-      </c>
-      <c r="D41" s="12">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="B42" s="8">
-        <v>10</v>
-      </c>
-      <c r="C42" s="12">
-        <v>350</v>
-      </c>
-      <c r="D42" s="12">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="B43" s="8">
-        <v>51</v>
-      </c>
-      <c r="C43" s="12">
-        <v>4500</v>
-      </c>
-      <c r="D43" s="12">
-        <v>229500</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="B44" s="8">
-        <v>31</v>
-      </c>
-      <c r="C44" s="12">
-        <v>4500</v>
-      </c>
-      <c r="D44" s="12">
-        <v>139500</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="B45" s="8">
-        <v>4</v>
-      </c>
-      <c r="C45" s="12">
-        <v>4500</v>
-      </c>
-      <c r="D45" s="12">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="B46" s="8">
-        <v>3</v>
-      </c>
-      <c r="C46" s="12">
-        <v>4500</v>
-      </c>
-      <c r="D46" s="12">
-        <v>13500</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="B47" s="8">
-        <v>1</v>
-      </c>
-      <c r="C47" s="12">
-        <v>4500</v>
-      </c>
-      <c r="D47" s="12">
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="B48" s="8">
-        <v>2</v>
-      </c>
-      <c r="C48" s="12">
-        <v>4500</v>
-      </c>
-      <c r="D48" s="12">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="B49" s="8">
-        <v>1</v>
-      </c>
-      <c r="C49" s="12">
-        <v>4500</v>
-      </c>
-      <c r="D49" s="12">
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="B50" s="8">
-        <v>1</v>
-      </c>
-      <c r="C50" s="12">
-        <v>4500</v>
-      </c>
-      <c r="D50" s="12">
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="B51" s="8">
-        <v>2</v>
-      </c>
-      <c r="C51" s="12">
-        <v>4500</v>
-      </c>
-      <c r="D51" s="12">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="B52" s="8">
-        <v>2</v>
-      </c>
-      <c r="C52" s="12">
-        <v>4500</v>
-      </c>
-      <c r="D52" s="12">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="B53" s="8">
-        <v>1</v>
-      </c>
-      <c r="C53" s="12">
-        <v>4500</v>
-      </c>
-      <c r="D53" s="12">
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="B54" s="8">
-        <v>1</v>
-      </c>
-      <c r="C54" s="12">
-        <v>4500</v>
-      </c>
-      <c r="D54" s="12">
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="B55" s="8">
-        <v>1</v>
-      </c>
-      <c r="C55" s="12">
-        <v>4500</v>
-      </c>
-      <c r="D55" s="12">
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="B56" s="8">
-        <v>1</v>
-      </c>
-      <c r="C56" s="12">
-        <v>4500</v>
-      </c>
-      <c r="D56" s="12">
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="B57" s="8">
-        <v>1</v>
-      </c>
-      <c r="C57" s="12">
-        <v>1599</v>
-      </c>
-      <c r="D57" s="12">
-        <v>1599</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="B58" s="8">
-        <v>1</v>
-      </c>
-      <c r="C58" s="12">
-        <v>1599</v>
-      </c>
-      <c r="D58" s="12">
-        <v>1599</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="B59" s="8">
-        <v>6</v>
-      </c>
-      <c r="C59" s="12">
-        <v>198</v>
-      </c>
-      <c r="D59" s="12">
-        <v>1188</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="B60" s="8">
-        <v>3</v>
-      </c>
-      <c r="C60" s="12">
-        <v>198</v>
-      </c>
-      <c r="D60" s="12">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="B61" s="8">
-        <v>3</v>
-      </c>
-      <c r="C61" s="12">
-        <v>198</v>
-      </c>
-      <c r="D61" s="12">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="B62" s="8">
-        <v>6</v>
-      </c>
-      <c r="C62" s="12">
-        <v>145</v>
-      </c>
-      <c r="D62" s="12">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="B63" s="8">
-        <v>3</v>
-      </c>
-      <c r="C63" s="12">
-        <v>145</v>
-      </c>
-      <c r="D63" s="12">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="B64" s="8">
-        <v>3</v>
-      </c>
-      <c r="C64" s="12">
-        <v>145</v>
-      </c>
-      <c r="D64" s="12">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="B65" s="8">
-        <v>6</v>
-      </c>
-      <c r="C65" s="12">
-        <v>132</v>
-      </c>
-      <c r="D65" s="12">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="B66" s="8">
-        <v>3</v>
-      </c>
-      <c r="C66" s="12">
-        <v>132</v>
-      </c>
-      <c r="D66" s="12">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="B67" s="8">
-        <v>3</v>
-      </c>
-      <c r="C67" s="12">
-        <v>132</v>
-      </c>
-      <c r="D67" s="12">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="B68" s="8">
-        <v>6</v>
-      </c>
-      <c r="C68" s="12">
-        <v>115</v>
-      </c>
-      <c r="D68" s="12">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="B69" s="8">
-        <v>3</v>
-      </c>
-      <c r="C69" s="12">
-        <v>115</v>
-      </c>
-      <c r="D69" s="12">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="B70" s="8">
-        <v>3</v>
-      </c>
-      <c r="C70" s="12">
-        <v>115</v>
-      </c>
-      <c r="D70" s="12">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="B71" s="8">
-        <v>6</v>
-      </c>
-      <c r="C71" s="12">
-        <v>115.5</v>
-      </c>
-      <c r="D71" s="12">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="B72" s="8">
-        <v>3</v>
-      </c>
-      <c r="C72" s="12">
-        <v>115.5</v>
-      </c>
-      <c r="D72" s="12">
-        <v>346.5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="B73" s="8">
-        <v>3</v>
-      </c>
-      <c r="C73" s="12">
-        <v>115.5</v>
-      </c>
-      <c r="D73" s="12">
-        <v>346.5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="B74" s="8">
-        <v>1</v>
-      </c>
-      <c r="C74" s="12">
-        <v>27500</v>
-      </c>
-      <c r="D74" s="12">
-        <v>27500</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="B75" s="8">
-        <v>1</v>
-      </c>
-      <c r="C75" s="12">
-        <v>27500</v>
-      </c>
-      <c r="D75" s="12">
-        <v>27500</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="B76" s="8">
-        <v>6</v>
-      </c>
-      <c r="C76" s="12">
-        <v>56</v>
-      </c>
-      <c r="D76" s="12">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="B77" s="8">
-        <v>3</v>
-      </c>
-      <c r="C77" s="12">
-        <v>56</v>
-      </c>
-      <c r="D77" s="12">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="B78" s="8">
-        <v>3</v>
-      </c>
-      <c r="C78" s="12">
-        <v>56</v>
-      </c>
-      <c r="D78" s="12">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="B79" s="8">
-        <v>2</v>
-      </c>
-      <c r="C79" s="12">
-        <v>295</v>
-      </c>
-      <c r="D79" s="12">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="B80" s="8">
-        <v>1</v>
-      </c>
-      <c r="C80" s="12">
-        <v>295</v>
-      </c>
-      <c r="D80" s="12">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="B81" s="8">
-        <v>1</v>
-      </c>
-      <c r="C81" s="12">
-        <v>295</v>
-      </c>
-      <c r="D81" s="12">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="B82" s="8">
-        <v>10</v>
-      </c>
-      <c r="C82" s="12">
-        <v>123.9</v>
-      </c>
-      <c r="D82" s="12">
-        <v>1239</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="B83" s="8">
-        <v>5</v>
-      </c>
-      <c r="C83" s="12">
-        <v>123.9</v>
-      </c>
-      <c r="D83" s="12">
-        <v>619.5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="B84" s="8">
-        <v>5</v>
-      </c>
-      <c r="C84" s="12">
-        <v>123.9</v>
-      </c>
-      <c r="D84" s="12">
-        <v>619.5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="B85" s="8">
-        <v>10</v>
-      </c>
-      <c r="C85" s="12">
-        <v>140.41999999999999</v>
-      </c>
-      <c r="D85" s="12">
-        <v>1404.1999999999998</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="B86" s="8">
-        <v>5</v>
-      </c>
-      <c r="C86" s="12">
-        <v>140.41999999999999</v>
-      </c>
-      <c r="D86" s="12">
-        <v>702.09999999999991</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="B87" s="8">
-        <v>5</v>
-      </c>
-      <c r="C87" s="12">
-        <v>140.41999999999999</v>
-      </c>
-      <c r="D87" s="12">
-        <v>702.09999999999991</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="B88" s="8">
-        <v>1</v>
-      </c>
-      <c r="C88" s="12">
-        <v>1500</v>
-      </c>
-      <c r="D88" s="12">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="B89" s="8">
-        <v>1</v>
-      </c>
-      <c r="C89" s="12">
-        <v>1500</v>
-      </c>
-      <c r="D89" s="12">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="B90" s="8">
-        <v>6</v>
-      </c>
-      <c r="C90" s="12">
-        <v>4.5</v>
-      </c>
-      <c r="D90" s="12">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="B91" s="8">
-        <v>3</v>
-      </c>
-      <c r="C91" s="12">
-        <v>4.5</v>
-      </c>
-      <c r="D91" s="12">
-        <v>13.5</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="B92" s="8">
-        <v>3</v>
-      </c>
-      <c r="C92" s="12">
-        <v>4.5</v>
-      </c>
-      <c r="D92" s="12">
-        <v>13.5</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="B93" s="8">
-        <v>6</v>
-      </c>
-      <c r="C93" s="12">
-        <v>3</v>
-      </c>
-      <c r="D93" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="B94" s="8">
-        <v>3</v>
-      </c>
-      <c r="C94" s="12">
-        <v>3</v>
-      </c>
-      <c r="D94" s="12">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="B95" s="8">
-        <v>3</v>
-      </c>
-      <c r="C95" s="12">
-        <v>3</v>
-      </c>
-      <c r="D95" s="12">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="B96" s="8">
-        <v>30</v>
-      </c>
-      <c r="C96" s="12">
-        <v>70</v>
-      </c>
-      <c r="D96" s="12">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="B97" s="8">
-        <v>30</v>
-      </c>
-      <c r="C97" s="12">
-        <v>70</v>
-      </c>
-      <c r="D97" s="12">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="B98" s="8">
-        <v>24</v>
-      </c>
-      <c r="C98" s="12">
-        <v>580</v>
-      </c>
-      <c r="D98" s="12">
-        <v>13920</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A99" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="B99" s="8">
-        <v>12</v>
-      </c>
-      <c r="C99" s="12">
-        <v>580</v>
-      </c>
-      <c r="D99" s="12">
-        <v>6960</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A100" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="B100" s="8">
-        <v>12</v>
-      </c>
-      <c r="C100" s="12">
-        <v>580</v>
-      </c>
-      <c r="D100" s="12">
-        <v>6960</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A101" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="B101" s="8">
-        <v>4</v>
-      </c>
-      <c r="C101" s="12">
-        <v>113</v>
-      </c>
-      <c r="D101" s="12">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A102" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="B102" s="8">
-        <v>2</v>
-      </c>
-      <c r="C102" s="12">
-        <v>113</v>
-      </c>
-      <c r="D102" s="12">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A103" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="B103" s="8">
-        <v>2</v>
-      </c>
-      <c r="C103" s="12">
-        <v>113</v>
-      </c>
-      <c r="D103" s="12">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A104" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="B104" s="8">
-        <v>4</v>
-      </c>
-      <c r="C104" s="12">
-        <v>96</v>
-      </c>
-      <c r="D104" s="12">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A105" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="B105" s="8">
-        <v>2</v>
-      </c>
-      <c r="C105" s="12">
-        <v>96</v>
-      </c>
-      <c r="D105" s="12">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A106" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="B106" s="8">
-        <v>2</v>
-      </c>
-      <c r="C106" s="12">
-        <v>96</v>
-      </c>
-      <c r="D106" s="12">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A107" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="B107" s="8">
-        <v>6</v>
-      </c>
-      <c r="C107" s="12">
-        <v>8</v>
-      </c>
-      <c r="D107" s="12">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A108" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="B108" s="8">
-        <v>3</v>
-      </c>
-      <c r="C108" s="12">
-        <v>8</v>
-      </c>
-      <c r="D108" s="12">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A109" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="B109" s="8">
-        <v>3</v>
-      </c>
-      <c r="C109" s="12">
-        <v>8</v>
-      </c>
-      <c r="D109" s="12">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A110" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="B110" s="8">
-        <v>6</v>
-      </c>
-      <c r="C110" s="12">
-        <v>12</v>
-      </c>
-      <c r="D110" s="12">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A111" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="B111" s="8">
-        <v>3</v>
-      </c>
-      <c r="C111" s="12">
-        <v>12</v>
-      </c>
-      <c r="D111" s="12">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A112" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="B112" s="8">
-        <v>3</v>
-      </c>
-      <c r="C112" s="12">
-        <v>12</v>
-      </c>
-      <c r="D112" s="12">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A113" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="B113" s="8">
-        <v>2</v>
-      </c>
-      <c r="C113" s="12">
-        <v>1200</v>
-      </c>
-      <c r="D113" s="12">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A114" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="B114" s="8">
-        <v>2</v>
-      </c>
-      <c r="C114" s="12">
-        <v>1200</v>
-      </c>
-      <c r="D114" s="12">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A115" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="B115" s="8">
-        <v>4</v>
-      </c>
-      <c r="C115" s="12">
-        <v>5425</v>
-      </c>
-      <c r="D115" s="12">
-        <v>21700</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A116" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="B116" s="8">
-        <v>2</v>
-      </c>
-      <c r="C116" s="12">
-        <v>5425</v>
-      </c>
-      <c r="D116" s="12">
-        <v>10850</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A117" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="B117" s="8">
-        <v>2</v>
-      </c>
-      <c r="C117" s="12">
-        <v>5425</v>
-      </c>
-      <c r="D117" s="12">
-        <v>10850</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A118" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="B118" s="8">
-        <v>6</v>
-      </c>
-      <c r="C118" s="12">
-        <v>147</v>
-      </c>
-      <c r="D118" s="12">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A119" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="B119" s="8">
-        <v>3</v>
-      </c>
-      <c r="C119" s="12">
-        <v>147</v>
-      </c>
-      <c r="D119" s="12">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A120" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="B120" s="8">
-        <v>3</v>
-      </c>
-      <c r="C120" s="12">
-        <v>147</v>
-      </c>
-      <c r="D120" s="12">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A121" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="B121" s="8">
-        <v>5</v>
-      </c>
-      <c r="C121" s="12">
-        <v>350</v>
-      </c>
-      <c r="D121" s="12">
-        <v>1750</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A122" s="13" t="s">
-        <v>301</v>
-      </c>
-      <c r="B122" s="8">
-        <v>5</v>
-      </c>
-      <c r="C122" s="12">
-        <v>350</v>
-      </c>
-      <c r="D122" s="12">
-        <v>1750</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A123" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="B123" s="8">
-        <v>1</v>
-      </c>
-      <c r="C123" s="12">
-        <v>14850</v>
-      </c>
-      <c r="D123" s="12">
-        <v>14850</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A124" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="B124" s="8">
-        <v>1</v>
-      </c>
-      <c r="C124" s="12">
-        <v>14850</v>
-      </c>
-      <c r="D124" s="12">
-        <v>14850</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A125" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="B125" s="8">
-        <v>12</v>
-      </c>
-      <c r="C125" s="12">
-        <v>586.46</v>
-      </c>
-      <c r="D125" s="12">
-        <v>7037.52</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A126" s="13" t="s">
-        <v>294</v>
-      </c>
-      <c r="B126" s="8">
-        <v>6</v>
-      </c>
-      <c r="C126" s="12">
-        <v>586.46</v>
-      </c>
-      <c r="D126" s="12">
-        <v>3518.76</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A127" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="B127" s="8">
-        <v>6</v>
-      </c>
-      <c r="C127" s="12">
-        <v>586.46</v>
-      </c>
-      <c r="D127" s="12">
-        <v>3518.76</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A128" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="B128" s="8">
-        <v>12</v>
-      </c>
-      <c r="C128" s="12">
-        <v>40</v>
-      </c>
-      <c r="D128" s="12">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A129" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="B129" s="8">
-        <v>6</v>
-      </c>
-      <c r="C129" s="12">
-        <v>40</v>
-      </c>
-      <c r="D129" s="12">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A130" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="B130" s="8">
-        <v>6</v>
-      </c>
-      <c r="C130" s="12">
-        <v>40</v>
-      </c>
-      <c r="D130" s="12">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A131" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="B131" s="8">
-        <v>6</v>
-      </c>
-      <c r="C131" s="12">
-        <v>282</v>
-      </c>
-      <c r="D131" s="12">
-        <v>1692</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A132" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="B132" s="8">
-        <v>3</v>
-      </c>
-      <c r="C132" s="12">
-        <v>282</v>
-      </c>
-      <c r="D132" s="12">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A133" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="B133" s="8">
-        <v>3</v>
-      </c>
-      <c r="C133" s="12">
-        <v>282</v>
-      </c>
-      <c r="D133" s="12">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A134" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="B134" s="8">
-        <v>6</v>
-      </c>
-      <c r="C134" s="12">
-        <v>282</v>
-      </c>
-      <c r="D134" s="12">
-        <v>1692</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A135" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="B135" s="8">
-        <v>3</v>
-      </c>
-      <c r="C135" s="12">
-        <v>282</v>
-      </c>
-      <c r="D135" s="12">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A136" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="B136" s="8">
-        <v>3</v>
-      </c>
-      <c r="C136" s="12">
-        <v>282</v>
-      </c>
-      <c r="D136" s="12">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A137" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="B137" s="8">
-        <v>12</v>
-      </c>
-      <c r="C137" s="12">
-        <v>21.45</v>
-      </c>
-      <c r="D137" s="12">
-        <v>257.39999999999998</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A138" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="B138" s="8">
-        <v>12</v>
-      </c>
-      <c r="C138" s="12">
-        <v>21.45</v>
-      </c>
-      <c r="D138" s="12">
-        <v>257.39999999999998</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A139" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="B139" s="8">
-        <v>12</v>
-      </c>
-      <c r="C139" s="12">
-        <v>21.45</v>
-      </c>
-      <c r="D139" s="12">
-        <v>257.39999999999998</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A140" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="B140" s="8">
-        <v>12</v>
-      </c>
-      <c r="C140" s="12">
-        <v>21.45</v>
-      </c>
-      <c r="D140" s="12">
-        <v>257.39999999999998</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A141" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="B141" s="8">
-        <v>5</v>
-      </c>
-      <c r="C141" s="12">
-        <v>399</v>
-      </c>
-      <c r="D141" s="12">
-        <v>1995</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A142" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="B142" s="8">
-        <v>2</v>
-      </c>
-      <c r="C142" s="12">
-        <v>399</v>
-      </c>
-      <c r="D142" s="12">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A143" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="B143" s="8">
-        <v>1</v>
-      </c>
-      <c r="C143" s="12">
-        <v>399</v>
-      </c>
-      <c r="D143" s="12">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A144" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="B144" s="8">
-        <v>1</v>
-      </c>
-      <c r="C144" s="12">
-        <v>399</v>
-      </c>
-      <c r="D144" s="12">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A145" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="B145" s="8">
-        <v>1</v>
-      </c>
-      <c r="C145" s="12">
-        <v>399</v>
-      </c>
-      <c r="D145" s="12">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A146" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="B146" s="8">
-        <v>1</v>
-      </c>
-      <c r="C146" s="12">
-        <v>16000</v>
-      </c>
-      <c r="D146" s="12">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A147" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="B147" s="8">
-        <v>1</v>
-      </c>
-      <c r="C147" s="12">
-        <v>16000</v>
-      </c>
-      <c r="D147" s="12">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A148" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="B148" s="8">
-        <v>14</v>
-      </c>
-      <c r="C148" s="12">
-        <v>5200</v>
-      </c>
-      <c r="D148" s="12">
-        <v>72800</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A149" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="B149" s="8">
-        <v>1</v>
-      </c>
-      <c r="C149" s="12">
-        <v>5200</v>
-      </c>
-      <c r="D149" s="12">
-        <v>5200</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A150" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="B150" s="8">
-        <v>2</v>
-      </c>
-      <c r="C150" s="12">
-        <v>5200</v>
-      </c>
-      <c r="D150" s="12">
-        <v>10400</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A151" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="B151" s="8">
-        <v>1</v>
-      </c>
-      <c r="C151" s="12">
-        <v>5200</v>
-      </c>
-      <c r="D151" s="12">
-        <v>5200</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A152" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="B152" s="8">
-        <v>1</v>
-      </c>
-      <c r="C152" s="12">
-        <v>5200</v>
-      </c>
-      <c r="D152" s="12">
-        <v>5200</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A153" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="B153" s="8">
-        <v>1</v>
-      </c>
-      <c r="C153" s="12">
-        <v>5200</v>
-      </c>
-      <c r="D153" s="12">
-        <v>5200</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A154" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="B154" s="8">
-        <v>1</v>
-      </c>
-      <c r="C154" s="12">
-        <v>5200</v>
-      </c>
-      <c r="D154" s="12">
-        <v>5200</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A155" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="B155" s="8">
-        <v>1</v>
-      </c>
-      <c r="C155" s="12">
-        <v>5200</v>
-      </c>
-      <c r="D155" s="12">
-        <v>5200</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A156" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="B156" s="8">
-        <v>1</v>
-      </c>
-      <c r="C156" s="12">
-        <v>5200</v>
-      </c>
-      <c r="D156" s="12">
-        <v>5200</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A157" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="B157" s="8">
-        <v>1</v>
-      </c>
-      <c r="C157" s="12">
-        <v>5200</v>
-      </c>
-      <c r="D157" s="12">
-        <v>5200</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A158" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="B158" s="8">
-        <v>1</v>
-      </c>
-      <c r="C158" s="12">
-        <v>5200</v>
-      </c>
-      <c r="D158" s="12">
-        <v>5200</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A159" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="B159" s="8">
-        <v>1</v>
-      </c>
-      <c r="C159" s="12">
-        <v>5200</v>
-      </c>
-      <c r="D159" s="12">
-        <v>5200</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A160" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="B160" s="8">
-        <v>1</v>
-      </c>
-      <c r="C160" s="12">
-        <v>5200</v>
-      </c>
-      <c r="D160" s="12">
-        <v>5200</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A161" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="B161" s="8">
-        <v>1</v>
-      </c>
-      <c r="C161" s="12">
-        <v>5200</v>
-      </c>
-      <c r="D161" s="12">
-        <v>5200</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A162" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="B162" s="8">
-        <v>1</v>
-      </c>
-      <c r="C162" s="12">
-        <v>9650</v>
-      </c>
-      <c r="D162" s="12">
-        <v>9650</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A163" s="13" t="s">
-        <v>301</v>
-      </c>
-      <c r="B163" s="8">
-        <v>1</v>
-      </c>
-      <c r="C163" s="12">
-        <v>9650</v>
-      </c>
-      <c r="D163" s="12">
-        <v>9650</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A164" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="B164" s="8">
-        <v>6</v>
-      </c>
-      <c r="C164" s="12">
-        <v>136.5</v>
-      </c>
-      <c r="D164" s="12">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A165" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="B165" s="8">
-        <v>3</v>
-      </c>
-      <c r="C165" s="12">
-        <v>136.5</v>
-      </c>
-      <c r="D165" s="12">
-        <v>409.5</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A166" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="B166" s="8">
-        <v>3</v>
-      </c>
-      <c r="C166" s="12">
-        <v>136.5</v>
-      </c>
-      <c r="D166" s="12">
-        <v>409.5</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A167" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="B167" s="8">
-        <v>6</v>
-      </c>
-      <c r="C167" s="12">
-        <v>145</v>
-      </c>
-      <c r="D167" s="12">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A168" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="B168" s="8">
-        <v>3</v>
-      </c>
-      <c r="C168" s="12">
-        <v>145</v>
-      </c>
-      <c r="D168" s="12">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A169" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="B169" s="8">
-        <v>3</v>
-      </c>
-      <c r="C169" s="12">
-        <v>145</v>
-      </c>
-      <c r="D169" s="12">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A170" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="B170" s="8">
-        <v>6</v>
-      </c>
-      <c r="C170" s="12">
-        <v>250</v>
-      </c>
-      <c r="D170" s="12">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A171" s="13" t="s">
-        <v>301</v>
-      </c>
-      <c r="B171" s="8">
-        <v>6</v>
-      </c>
-      <c r="C171" s="12">
-        <v>250</v>
-      </c>
-      <c r="D171" s="12">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A172" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="B172" s="8">
-        <v>8</v>
-      </c>
-      <c r="C172" s="12">
-        <v>15</v>
-      </c>
-      <c r="D172" s="12">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A173" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="B173" s="8">
-        <v>4</v>
-      </c>
-      <c r="C173" s="12">
-        <v>15</v>
-      </c>
-      <c r="D173" s="12">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A174" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="B174" s="8">
-        <v>4</v>
-      </c>
-      <c r="C174" s="12">
-        <v>15</v>
-      </c>
-      <c r="D174" s="12">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A175" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="B175" s="8">
-        <v>2</v>
-      </c>
-      <c r="C175" s="12">
-        <v>30</v>
-      </c>
-      <c r="D175" s="12">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A176" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="B176" s="8">
-        <v>1</v>
-      </c>
-      <c r="C176" s="12">
-        <v>30</v>
-      </c>
-      <c r="D176" s="12">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A177" s="13" t="s">
-        <v>316</v>
-      </c>
-      <c r="B177" s="8">
-        <v>1</v>
-      </c>
-      <c r="C177" s="12">
-        <v>30</v>
-      </c>
-      <c r="D177" s="12">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A178" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="B178" s="8">
-        <v>2</v>
-      </c>
-      <c r="C178" s="12">
-        <v>2000</v>
-      </c>
-      <c r="D178" s="12">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A179" s="13" t="s">
-        <v>294</v>
-      </c>
-      <c r="B179" s="8">
-        <v>1</v>
-      </c>
-      <c r="C179" s="12">
-        <v>2000</v>
-      </c>
-      <c r="D179" s="12">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A180" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="B180" s="8">
-        <v>1</v>
-      </c>
-      <c r="C180" s="12">
-        <v>2000</v>
-      </c>
-      <c r="D180" s="12">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A181" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="B181" s="8">
-        <v>6</v>
-      </c>
-      <c r="C181" s="12">
-        <v>180</v>
-      </c>
-      <c r="D181" s="12">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A182" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="B182" s="8">
-        <v>3</v>
-      </c>
-      <c r="C182" s="12">
-        <v>180</v>
-      </c>
-      <c r="D182" s="12">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A183" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="B183" s="8">
-        <v>3</v>
-      </c>
-      <c r="C183" s="12">
-        <v>180</v>
-      </c>
-      <c r="D183" s="12">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A184" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="B184" s="8">
-        <v>6</v>
-      </c>
-      <c r="C184" s="12">
-        <v>11.5</v>
-      </c>
-      <c r="D184" s="12">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A185" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="B185" s="8">
-        <v>3</v>
-      </c>
-      <c r="C185" s="12">
-        <v>11.5</v>
-      </c>
-      <c r="D185" s="12">
-        <v>34.5</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A186" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="B186" s="8">
-        <v>3</v>
-      </c>
-      <c r="C186" s="12">
-        <v>11.5</v>
-      </c>
-      <c r="D186" s="12">
-        <v>34.5</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A187" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="B187" s="8">
-        <v>10</v>
-      </c>
-      <c r="C187" s="12">
-        <v>525</v>
-      </c>
-      <c r="D187" s="12">
-        <v>5250</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A188" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="B188" s="8">
-        <v>5</v>
-      </c>
-      <c r="C188" s="12">
-        <v>525</v>
-      </c>
-      <c r="D188" s="12">
-        <v>2625</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A189" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="B189" s="8">
-        <v>5</v>
-      </c>
-      <c r="C189" s="12">
-        <v>525</v>
-      </c>
-      <c r="D189" s="12">
-        <v>2625</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A190" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="B190" s="8">
-        <v>4</v>
-      </c>
-      <c r="C190" s="12">
-        <v>25</v>
-      </c>
-      <c r="D190" s="12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A191" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="B191" s="8">
-        <v>2</v>
-      </c>
-      <c r="C191" s="12">
-        <v>25</v>
-      </c>
-      <c r="D191" s="12">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A192" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="B192" s="8">
-        <v>2</v>
-      </c>
-      <c r="C192" s="12">
-        <v>25</v>
-      </c>
-      <c r="D192" s="12">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A193" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="B193" s="8">
-        <v>6</v>
-      </c>
-      <c r="C193" s="12">
-        <v>2242.5</v>
-      </c>
-      <c r="D193" s="12">
-        <v>13455</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A194" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="B194" s="8">
-        <v>3</v>
-      </c>
-      <c r="C194" s="12">
-        <v>2242.5</v>
-      </c>
-      <c r="D194" s="12">
-        <v>6727.5</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A195" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="B195" s="8">
-        <v>3</v>
-      </c>
-      <c r="C195" s="12">
-        <v>2242.5</v>
-      </c>
-      <c r="D195" s="12">
-        <v>6727.5</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A196" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="B196" s="8">
-        <v>2</v>
-      </c>
-      <c r="C196" s="12">
-        <v>200</v>
-      </c>
-      <c r="D196" s="12">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A197" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="B197" s="8">
-        <v>1</v>
-      </c>
-      <c r="C197" s="12">
-        <v>200</v>
-      </c>
-      <c r="D197" s="12">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A198" s="13" t="s">
-        <v>316</v>
-      </c>
-      <c r="B198" s="8">
-        <v>1</v>
-      </c>
-      <c r="C198" s="12">
-        <v>200</v>
-      </c>
-      <c r="D198" s="12">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A199" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="B199" s="8">
-        <v>2</v>
-      </c>
-      <c r="C199" s="12">
-        <v>950</v>
-      </c>
-      <c r="D199" s="12">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A200" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="B200" s="8">
-        <v>1</v>
-      </c>
-      <c r="C200" s="12">
-        <v>950</v>
-      </c>
-      <c r="D200" s="12">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A201" s="13" t="s">
-        <v>316</v>
-      </c>
-      <c r="B201" s="8">
-        <v>1</v>
-      </c>
-      <c r="C201" s="12">
-        <v>950</v>
-      </c>
-      <c r="D201" s="12">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A202" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="B202" s="8">
-        <v>1</v>
-      </c>
-      <c r="C202" s="12">
-        <v>4500</v>
-      </c>
-      <c r="D202" s="12">
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A203" s="13" t="s">
-        <v>301</v>
-      </c>
-      <c r="B203" s="8">
-        <v>1</v>
-      </c>
-      <c r="C203" s="12">
-        <v>4500</v>
-      </c>
-      <c r="D203" s="12">
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A204" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="B204" s="8">
-        <v>2</v>
-      </c>
-      <c r="C204" s="12">
-        <v>3150</v>
-      </c>
-      <c r="D204" s="12">
-        <v>6300</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A205" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="B205" s="8">
-        <v>1</v>
-      </c>
-      <c r="C205" s="12">
-        <v>3150</v>
-      </c>
-      <c r="D205" s="12">
-        <v>3150</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A206" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="B206" s="8">
-        <v>1</v>
-      </c>
-      <c r="C206" s="12">
-        <v>3150</v>
-      </c>
-      <c r="D206" s="12">
-        <v>3150</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A207" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="B207" s="8">
-        <v>11</v>
-      </c>
-      <c r="C207" s="12">
-        <v>1399</v>
-      </c>
-      <c r="D207" s="12">
-        <v>15389</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A208" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="B208" s="8">
-        <v>6</v>
-      </c>
-      <c r="C208" s="12">
-        <v>1399</v>
-      </c>
-      <c r="D208" s="12">
-        <v>8394</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A209" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="B209" s="8">
-        <v>5</v>
-      </c>
-      <c r="C209" s="12">
-        <v>1399</v>
-      </c>
-      <c r="D209" s="12">
-        <v>6995</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A210" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="B210" s="8">
-        <v>6</v>
-      </c>
-      <c r="C210" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="D210" s="12">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A211" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="B211" s="8">
-        <v>3</v>
-      </c>
-      <c r="C211" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="D211" s="12">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A212" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="B212" s="8">
-        <v>3</v>
-      </c>
-      <c r="C212" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="D212" s="12">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A213" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="B213" s="8">
-        <v>10</v>
-      </c>
-      <c r="C213" s="12">
-        <v>80</v>
-      </c>
-      <c r="D213" s="12">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A214" s="13" t="s">
-        <v>301</v>
-      </c>
-      <c r="B214" s="8">
-        <v>10</v>
-      </c>
-      <c r="C214" s="12">
-        <v>80</v>
-      </c>
-      <c r="D214" s="12">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A215" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="B215" s="8">
-        <v>6</v>
-      </c>
-      <c r="C215" s="12">
-        <v>5000</v>
-      </c>
-      <c r="D215" s="12">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A216" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="B216" s="8">
-        <v>6</v>
-      </c>
-      <c r="C216" s="12">
-        <v>5000</v>
-      </c>
-      <c r="D216" s="12">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A217" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="B217" s="8">
-        <v>92</v>
-      </c>
-      <c r="C217" s="12">
-        <v>4500</v>
-      </c>
-      <c r="D217" s="12">
-        <v>414000</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A218" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="B218" s="8">
-        <v>62</v>
-      </c>
-      <c r="C218" s="12">
-        <v>4500</v>
-      </c>
-      <c r="D218" s="12">
-        <v>279000</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A219" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="B219" s="8">
-        <v>12</v>
-      </c>
-      <c r="C219" s="12">
-        <v>4500</v>
-      </c>
-      <c r="D219" s="12">
-        <v>54000</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A220" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="B220" s="8">
-        <v>12</v>
-      </c>
-      <c r="C220" s="12">
-        <v>4500</v>
-      </c>
-      <c r="D220" s="12">
-        <v>54000</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A221" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="B221" s="8">
-        <v>1</v>
-      </c>
-      <c r="C221" s="12">
-        <v>4500</v>
-      </c>
-      <c r="D221" s="12">
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A222" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="B222" s="8">
-        <v>1</v>
-      </c>
-      <c r="C222" s="12">
-        <v>4500</v>
-      </c>
-      <c r="D222" s="12">
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A223" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="B223" s="8">
-        <v>1</v>
-      </c>
-      <c r="C223" s="12">
-        <v>4500</v>
-      </c>
-      <c r="D223" s="12">
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A224" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="B224" s="8">
-        <v>1</v>
-      </c>
-      <c r="C224" s="12">
-        <v>4500</v>
-      </c>
-      <c r="D224" s="12">
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A225" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="B225" s="8">
-        <v>1</v>
-      </c>
-      <c r="C225" s="12">
-        <v>4500</v>
-      </c>
-      <c r="D225" s="12">
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A226" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="B226" s="8">
-        <v>1</v>
-      </c>
-      <c r="C226" s="12">
-        <v>4500</v>
-      </c>
-      <c r="D226" s="12">
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A227" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="B227" s="8">
-        <v>2</v>
-      </c>
-      <c r="C227" s="12">
-        <v>7</v>
-      </c>
-      <c r="D227" s="12">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A228" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="B228" s="8">
-        <v>1</v>
-      </c>
-      <c r="C228" s="12">
-        <v>7</v>
-      </c>
-      <c r="D228" s="12">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A229" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="B229" s="8">
-        <v>1</v>
-      </c>
-      <c r="C229" s="12">
-        <v>7</v>
-      </c>
-      <c r="D229" s="12">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A230" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="B230" s="8">
-        <v>1</v>
-      </c>
-      <c r="C230" s="12">
-        <v>1320</v>
-      </c>
-      <c r="D230" s="12">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A231" s="13" t="s">
-        <v>301</v>
-      </c>
-      <c r="B231" s="8">
-        <v>1</v>
-      </c>
-      <c r="C231" s="12">
-        <v>1320</v>
-      </c>
-      <c r="D231" s="12">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A232" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="B232" s="8">
-        <v>6</v>
-      </c>
-      <c r="C232" s="12">
-        <v>8</v>
-      </c>
-      <c r="D232" s="12">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A233" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="B233" s="8">
-        <v>3</v>
-      </c>
-      <c r="C233" s="12">
-        <v>8</v>
-      </c>
-      <c r="D233" s="12">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A234" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="B234" s="8">
-        <v>3</v>
-      </c>
-      <c r="C234" s="12">
-        <v>8</v>
-      </c>
-      <c r="D234" s="12">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A235" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="B235" s="8">
-        <v>2</v>
-      </c>
-      <c r="C235" s="12">
-        <v>280</v>
-      </c>
-      <c r="D235" s="12">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A236" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="B236" s="8">
-        <v>1</v>
-      </c>
-      <c r="C236" s="12">
-        <v>280</v>
-      </c>
-      <c r="D236" s="12">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A237" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="B237" s="8">
-        <v>1</v>
-      </c>
-      <c r="C237" s="12">
-        <v>280</v>
-      </c>
-      <c r="D237" s="12">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A238" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="B238" s="8">
-        <v>4</v>
-      </c>
-      <c r="C238" s="12">
-        <v>170</v>
-      </c>
-      <c r="D238" s="12">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A239" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="B239" s="8">
-        <v>2</v>
-      </c>
-      <c r="C239" s="12">
-        <v>170</v>
-      </c>
-      <c r="D239" s="12">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A240" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="B240" s="8">
-        <v>2</v>
-      </c>
-      <c r="C240" s="12">
-        <v>170</v>
-      </c>
-      <c r="D240" s="12">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A241" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="B241" s="8">
-        <v>24</v>
-      </c>
-      <c r="C241" s="12">
-        <v>6</v>
-      </c>
-      <c r="D241" s="12">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A242" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="B242" s="8">
-        <v>12</v>
-      </c>
-      <c r="C242" s="12">
-        <v>6</v>
-      </c>
-      <c r="D242" s="12">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A243" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="B243" s="8">
-        <v>12</v>
-      </c>
-      <c r="C243" s="12">
-        <v>6</v>
-      </c>
-      <c r="D243" s="12">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A244" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="B244" s="8">
-        <v>12</v>
-      </c>
-      <c r="C244" s="12">
-        <v>11</v>
-      </c>
-      <c r="D244" s="12">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A245" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="B245" s="8">
-        <v>6</v>
-      </c>
-      <c r="C245" s="12">
-        <v>11</v>
-      </c>
-      <c r="D245" s="12">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A246" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="B246" s="8">
-        <v>6</v>
-      </c>
-      <c r="C246" s="12">
-        <v>11</v>
-      </c>
-      <c r="D246" s="12">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A247" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="B247" s="8">
-        <v>12</v>
-      </c>
-      <c r="C247" s="12">
-        <v>15</v>
-      </c>
-      <c r="D247" s="12">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A248" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="B248" s="8">
-        <v>6</v>
-      </c>
-      <c r="C248" s="12">
-        <v>15</v>
-      </c>
-      <c r="D248" s="12">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A249" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="B249" s="8">
-        <v>6</v>
-      </c>
-      <c r="C249" s="12">
-        <v>15</v>
-      </c>
-      <c r="D249" s="12">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A250" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="B250" s="8">
-        <v>6</v>
-      </c>
-      <c r="C250" s="12">
-        <v>12</v>
-      </c>
-      <c r="D250" s="12">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A251" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="B251" s="8">
-        <v>3</v>
-      </c>
-      <c r="C251" s="12">
-        <v>12</v>
-      </c>
-      <c r="D251" s="12">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A252" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="B252" s="8">
-        <v>3</v>
-      </c>
-      <c r="C252" s="12">
-        <v>12</v>
-      </c>
-      <c r="D252" s="12">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A253" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="B253" s="8">
-        <v>6</v>
-      </c>
-      <c r="C253" s="12">
-        <v>18</v>
-      </c>
-      <c r="D253" s="12">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A254" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="B254" s="8">
-        <v>3</v>
-      </c>
-      <c r="C254" s="12">
-        <v>18</v>
-      </c>
-      <c r="D254" s="12">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A255" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="B255" s="8">
-        <v>3</v>
-      </c>
-      <c r="C255" s="12">
-        <v>18</v>
-      </c>
-      <c r="D255" s="12">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A256" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="B256" s="8">
-        <v>6</v>
-      </c>
-      <c r="C256" s="12">
-        <v>19</v>
-      </c>
-      <c r="D256" s="12">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A257" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="B257" s="8">
-        <v>3</v>
-      </c>
-      <c r="C257" s="12">
-        <v>19</v>
-      </c>
-      <c r="D257" s="12">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A258" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="B258" s="8">
-        <v>3</v>
-      </c>
-      <c r="C258" s="12">
-        <v>19</v>
-      </c>
-      <c r="D258" s="12">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A259" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="B259" s="8">
-        <v>6</v>
-      </c>
-      <c r="C259" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="D259" s="12">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A260" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="B260" s="8">
-        <v>3</v>
-      </c>
-      <c r="C260" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="D260" s="12">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A261" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="B261" s="8">
-        <v>3</v>
-      </c>
-      <c r="C261" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="D261" s="12">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A262" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="B262" s="8">
-        <v>30</v>
-      </c>
-      <c r="C262" s="12">
-        <v>5</v>
-      </c>
-      <c r="D262" s="12">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A263" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="B263" s="8">
-        <v>15</v>
-      </c>
-      <c r="C263" s="12">
-        <v>5</v>
-      </c>
-      <c r="D263" s="12">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A264" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="B264" s="8">
-        <v>15</v>
-      </c>
-      <c r="C264" s="12">
-        <v>5</v>
-      </c>
-      <c r="D264" s="12">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A265" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="B265" s="8">
-        <v>60</v>
-      </c>
-      <c r="C265" s="12">
-        <v>3.5</v>
-      </c>
-      <c r="D265" s="12">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A266" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="B266" s="8">
-        <v>30</v>
-      </c>
-      <c r="C266" s="12">
-        <v>3.5</v>
-      </c>
-      <c r="D266" s="12">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A267" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="B267" s="8">
-        <v>30</v>
-      </c>
-      <c r="C267" s="12">
-        <v>3.5</v>
-      </c>
-      <c r="D267" s="12">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A268" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="B268" s="8">
-        <v>12</v>
-      </c>
-      <c r="C268" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="D268" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A269" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="B269" s="8">
-        <v>6</v>
-      </c>
-      <c r="C269" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="D269" s="12">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A270" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="B270" s="8">
-        <v>6</v>
-      </c>
-      <c r="C270" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="D270" s="12">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A271" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="B271" s="8">
-        <v>6</v>
-      </c>
-      <c r="C271" s="12">
-        <v>60</v>
-      </c>
-      <c r="D271" s="12">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A272" s="13" t="s">
-        <v>294</v>
-      </c>
-      <c r="B272" s="8">
-        <v>3</v>
-      </c>
-      <c r="C272" s="12">
-        <v>60</v>
-      </c>
-      <c r="D272" s="12">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A273" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="B273" s="8">
-        <v>3</v>
-      </c>
-      <c r="C273" s="12">
-        <v>60</v>
-      </c>
-      <c r="D273" s="12">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A274" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="B274" s="8">
-        <v>2</v>
-      </c>
-      <c r="C274" s="12">
-        <v>172</v>
-      </c>
-      <c r="D274" s="12">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A275" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="B275" s="8">
-        <v>1</v>
-      </c>
-      <c r="C275" s="12">
-        <v>172</v>
-      </c>
-      <c r="D275" s="12">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A276" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="B276" s="8">
-        <v>1</v>
-      </c>
-      <c r="C276" s="12">
-        <v>172</v>
-      </c>
-      <c r="D276" s="12">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A277" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="B277" s="8">
-        <v>6</v>
-      </c>
-      <c r="C277" s="12">
-        <v>150</v>
-      </c>
-      <c r="D277" s="12">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A278" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="B278" s="8">
-        <v>3</v>
-      </c>
-      <c r="C278" s="12">
-        <v>150</v>
-      </c>
-      <c r="D278" s="12">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A279" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="B279" s="8">
-        <v>3</v>
-      </c>
-      <c r="C279" s="12">
-        <v>150</v>
-      </c>
-      <c r="D279" s="12">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A280" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="B280" s="8">
-        <v>4</v>
-      </c>
-      <c r="C280" s="12">
-        <v>760</v>
-      </c>
-      <c r="D280" s="12">
-        <v>3040</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A281" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="B281" s="8">
-        <v>2</v>
-      </c>
-      <c r="C281" s="12">
-        <v>760</v>
-      </c>
-      <c r="D281" s="12">
-        <v>1520</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A282" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="B282" s="8">
-        <v>2</v>
-      </c>
-      <c r="C282" s="12">
-        <v>760</v>
-      </c>
-      <c r="D282" s="12">
-        <v>1520</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A283" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="B283" s="8">
-        <v>6</v>
-      </c>
-      <c r="C283" s="12">
-        <v>12</v>
-      </c>
-      <c r="D283" s="12">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A284" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="B284" s="8">
-        <v>3</v>
-      </c>
-      <c r="C284" s="12">
-        <v>12</v>
-      </c>
-      <c r="D284" s="12">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A285" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="B285" s="8">
-        <v>3</v>
-      </c>
-      <c r="C285" s="12">
-        <v>12</v>
-      </c>
-      <c r="D285" s="12">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A286" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="B286" s="8">
-        <v>4</v>
-      </c>
-      <c r="C286" s="12">
-        <v>250</v>
-      </c>
-      <c r="D286" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A287" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="B287" s="8">
-        <v>2</v>
-      </c>
-      <c r="C287" s="12">
-        <v>250</v>
-      </c>
-      <c r="D287" s="12">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A288" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="B288" s="8">
-        <v>2</v>
-      </c>
-      <c r="C288" s="12">
-        <v>250</v>
-      </c>
-      <c r="D288" s="12">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A289" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="B289" s="8">
-        <v>6</v>
-      </c>
-      <c r="C289" s="12">
-        <v>20</v>
-      </c>
-      <c r="D289" s="12">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A290" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="B290" s="8">
-        <v>3</v>
-      </c>
-      <c r="C290" s="12">
-        <v>20</v>
-      </c>
-      <c r="D290" s="12">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A291" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="B291" s="8">
-        <v>3</v>
-      </c>
-      <c r="C291" s="12">
-        <v>20</v>
-      </c>
-      <c r="D291" s="12">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A292" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="B292" s="8">
-        <v>1</v>
-      </c>
-      <c r="C292" s="12">
-        <v>3610</v>
-      </c>
-      <c r="D292" s="12">
-        <v>3610</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A293" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="B293" s="8">
-        <v>1</v>
-      </c>
-      <c r="C293" s="12">
-        <v>3610</v>
-      </c>
-      <c r="D293" s="12">
-        <v>3610</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A294" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="B294" s="8">
-        <v>6</v>
-      </c>
-      <c r="C294" s="12">
-        <v>75.900000000000006</v>
-      </c>
-      <c r="D294" s="12">
-        <v>455.40000000000003</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A295" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="B295" s="8">
-        <v>6</v>
-      </c>
-      <c r="C295" s="12">
-        <v>75.900000000000006</v>
-      </c>
-      <c r="D295" s="12">
-        <v>455.40000000000003</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A296" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="B296" s="8">
-        <v>6</v>
-      </c>
-      <c r="C296" s="12">
-        <v>75.900000000000006</v>
-      </c>
-      <c r="D296" s="12">
-        <v>455.40000000000003</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A297" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="B297" s="8">
-        <v>6</v>
-      </c>
-      <c r="C297" s="12">
-        <v>75.900000000000006</v>
-      </c>
-      <c r="D297" s="12">
-        <v>455.40000000000003</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A298" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="B298" s="8">
-        <v>4</v>
-      </c>
-      <c r="C298" s="12">
-        <v>440</v>
-      </c>
-      <c r="D298" s="12">
-        <v>1760</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A299" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="B299" s="8">
-        <v>2</v>
-      </c>
-      <c r="C299" s="12">
-        <v>440</v>
-      </c>
-      <c r="D299" s="12">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A300" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="B300" s="8">
-        <v>2</v>
-      </c>
-      <c r="C300" s="12">
-        <v>440</v>
-      </c>
-      <c r="D300" s="12">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A301" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="B301" s="8">
-        <v>3</v>
-      </c>
-      <c r="C301" s="12">
-        <v>6500</v>
-      </c>
-      <c r="D301" s="12">
-        <v>19500</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A302" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="B302" s="8">
-        <v>1</v>
-      </c>
-      <c r="C302" s="12">
-        <v>6500</v>
-      </c>
-      <c r="D302" s="12">
-        <v>6500</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A303" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="B303" s="8">
-        <v>1</v>
-      </c>
-      <c r="C303" s="12">
-        <v>6500</v>
-      </c>
-      <c r="D303" s="12">
-        <v>6500</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A304" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="B304" s="8">
-        <v>1</v>
-      </c>
-      <c r="C304" s="12">
-        <v>6500</v>
-      </c>
-      <c r="D304" s="12">
-        <v>6500</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A305" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="B305" s="8">
-        <v>12</v>
-      </c>
-      <c r="C305" s="12">
-        <v>12</v>
-      </c>
-      <c r="D305" s="12">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A306" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="B306" s="8">
-        <v>6</v>
-      </c>
-      <c r="C306" s="12">
-        <v>12</v>
-      </c>
-      <c r="D306" s="12">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A307" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="B307" s="8">
-        <v>6</v>
-      </c>
-      <c r="C307" s="12">
-        <v>12</v>
-      </c>
-      <c r="D307" s="12">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A308" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="B308" s="8">
-        <v>2</v>
-      </c>
-      <c r="C308" s="12">
-        <v>40</v>
-      </c>
-      <c r="D308" s="12">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A309" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="B309" s="8">
-        <v>1</v>
-      </c>
-      <c r="C309" s="12">
-        <v>40</v>
-      </c>
-      <c r="D309" s="12">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A310" s="13" t="s">
-        <v>316</v>
-      </c>
-      <c r="B310" s="8">
-        <v>1</v>
-      </c>
-      <c r="C310" s="12">
-        <v>40</v>
-      </c>
-      <c r="D310" s="12">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A311" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="B311" s="8">
-        <v>3</v>
-      </c>
-      <c r="C311" s="12">
-        <v>1800</v>
-      </c>
-      <c r="D311" s="12">
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A312" s="13" t="s">
-        <v>301</v>
-      </c>
-      <c r="B312" s="8">
-        <v>3</v>
-      </c>
-      <c r="C312" s="12">
-        <v>1800</v>
-      </c>
-      <c r="D312" s="12">
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A313" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="B313" s="8">
-        <v>1</v>
-      </c>
-      <c r="C313" s="12">
-        <v>3250</v>
-      </c>
-      <c r="D313" s="12">
-        <v>3250</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A314" s="13" t="s">
-        <v>301</v>
-      </c>
-      <c r="B314" s="8">
-        <v>1</v>
-      </c>
-      <c r="C314" s="12">
-        <v>3250</v>
-      </c>
-      <c r="D314" s="12">
-        <v>3250</v>
-      </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A315" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="B315" s="8">
-        <v>2</v>
-      </c>
-      <c r="C315" s="12">
-        <v>2300</v>
-      </c>
-      <c r="D315" s="12">
-        <v>4600</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A316" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="B316" s="8">
-        <v>1</v>
-      </c>
-      <c r="C316" s="12">
-        <v>2300</v>
-      </c>
-      <c r="D316" s="12">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A317" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="B317" s="8">
-        <v>1</v>
-      </c>
-      <c r="C317" s="12">
-        <v>2300</v>
-      </c>
-      <c r="D317" s="12">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A318" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="B318" s="8">
-        <v>1</v>
-      </c>
-      <c r="C318" s="12">
-        <v>16500</v>
-      </c>
-      <c r="D318" s="12">
-        <v>16500</v>
-      </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A319" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="B319" s="8">
-        <v>1</v>
-      </c>
-      <c r="C319" s="12">
-        <v>16500</v>
-      </c>
-      <c r="D319" s="12">
-        <v>16500</v>
-      </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A320" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="B320" s="8">
-        <v>1</v>
-      </c>
-      <c r="C320" s="12">
-        <v>3200</v>
-      </c>
-      <c r="D320" s="12">
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A321" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="B321" s="8">
-        <v>1</v>
-      </c>
-      <c r="C321" s="12">
-        <v>3200</v>
-      </c>
-      <c r="D321" s="12">
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A322" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="B322" s="8">
-        <v>20</v>
-      </c>
-      <c r="C322" s="12">
-        <v>34.5</v>
-      </c>
-      <c r="D322" s="12">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A323" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="B323" s="8">
-        <v>10</v>
-      </c>
-      <c r="C323" s="12">
-        <v>34.5</v>
-      </c>
-      <c r="D323" s="12">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A324" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="B324" s="8">
-        <v>10</v>
-      </c>
-      <c r="C324" s="12">
-        <v>34.5</v>
-      </c>
-      <c r="D324" s="12">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A325" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="B325" s="8">
-        <v>3</v>
-      </c>
-      <c r="C325" s="12">
-        <v>82.5</v>
-      </c>
-      <c r="D325" s="12">
-        <v>247.5</v>
-      </c>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A326" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="B326" s="8">
-        <v>3</v>
-      </c>
-      <c r="C326" s="12">
-        <v>82.5</v>
-      </c>
-      <c r="D326" s="12">
-        <v>247.5</v>
-      </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A327" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="B327" s="8">
-        <v>3</v>
-      </c>
-      <c r="C327" s="12">
-        <v>82.5</v>
-      </c>
-      <c r="D327" s="12">
-        <v>247.5</v>
-      </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A328" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="B328" s="8">
-        <v>3</v>
-      </c>
-      <c r="C328" s="12">
-        <v>82.5</v>
-      </c>
-      <c r="D328" s="12">
-        <v>247.5</v>
-      </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A329" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="B329" s="8">
-        <v>6</v>
-      </c>
-      <c r="C329" s="12">
-        <v>6</v>
-      </c>
-      <c r="D329" s="12">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A330" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="B330" s="8">
-        <v>3</v>
-      </c>
-      <c r="C330" s="12">
-        <v>6</v>
-      </c>
-      <c r="D330" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A331" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="B331" s="8">
-        <v>3</v>
-      </c>
-      <c r="C331" s="12">
-        <v>6</v>
-      </c>
-      <c r="D331" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A332" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="B332" s="8">
-        <v>6</v>
-      </c>
-      <c r="C332" s="12">
-        <v>12</v>
-      </c>
-      <c r="D332" s="12">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A333" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="B333" s="8">
-        <v>3</v>
-      </c>
-      <c r="C333" s="12">
-        <v>12</v>
-      </c>
-      <c r="D333" s="12">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A334" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="B334" s="8">
-        <v>3</v>
-      </c>
-      <c r="C334" s="12">
-        <v>12</v>
-      </c>
-      <c r="D334" s="12">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A335" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="B335" s="8">
-        <v>12</v>
-      </c>
-      <c r="C335" s="12">
-        <v>360</v>
-      </c>
-      <c r="D335" s="12">
-        <v>4320</v>
-      </c>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A336" s="13" t="s">
-        <v>301</v>
-      </c>
-      <c r="B336" s="8">
-        <v>12</v>
-      </c>
-      <c r="C336" s="12">
-        <v>360</v>
-      </c>
-      <c r="D336" s="12">
-        <v>4320</v>
-      </c>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A337" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="B337" s="8">
-        <v>2</v>
-      </c>
-      <c r="C337" s="12">
-        <v>1137</v>
-      </c>
-      <c r="D337" s="12">
-        <v>2274</v>
-      </c>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A338" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="B338" s="8">
-        <v>2</v>
-      </c>
-      <c r="C338" s="12">
-        <v>1137</v>
-      </c>
-      <c r="D338" s="12">
-        <v>2274</v>
-      </c>
-    </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A339" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="B339" s="8">
-        <v>6</v>
-      </c>
-      <c r="C339" s="12">
-        <v>10</v>
-      </c>
-      <c r="D339" s="12">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A340" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="B340" s="8">
-        <v>3</v>
-      </c>
-      <c r="C340" s="12">
-        <v>10</v>
-      </c>
-      <c r="D340" s="12">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A341" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="B341" s="8">
-        <v>3</v>
-      </c>
-      <c r="C341" s="12">
-        <v>10</v>
-      </c>
-      <c r="D341" s="12">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A342" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="B342" s="8">
-        <v>2</v>
-      </c>
-      <c r="C342" s="12">
-        <v>100</v>
-      </c>
-      <c r="D342" s="12">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A343" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="B343" s="8">
-        <v>1</v>
-      </c>
-      <c r="C343" s="12">
-        <v>100</v>
-      </c>
-      <c r="D343" s="12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A344" s="13" t="s">
-        <v>316</v>
-      </c>
-      <c r="B344" s="8">
-        <v>1</v>
-      </c>
-      <c r="C344" s="12">
-        <v>100</v>
-      </c>
-      <c r="D344" s="12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A345" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="B345" s="8">
-        <v>6</v>
-      </c>
-      <c r="C345" s="12">
-        <v>2149</v>
-      </c>
-      <c r="D345" s="12">
-        <v>12894</v>
-      </c>
-    </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A346" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="B346" s="8">
-        <v>6</v>
-      </c>
-      <c r="C346" s="12">
-        <v>2149</v>
-      </c>
-      <c r="D346" s="12">
-        <v>12894</v>
-      </c>
-    </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A347" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="B347" s="8">
-        <v>2</v>
-      </c>
-      <c r="C347" s="12">
-        <v>5593.2</v>
-      </c>
-      <c r="D347" s="12">
-        <v>11186.4</v>
-      </c>
-    </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A348" s="13" t="s">
-        <v>396</v>
-      </c>
-      <c r="B348" s="8">
-        <v>1</v>
-      </c>
-      <c r="C348" s="12">
-        <v>5593.2</v>
-      </c>
-      <c r="D348" s="12">
-        <v>5593.2</v>
-      </c>
-    </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A349" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="B349" s="8">
-        <v>1</v>
-      </c>
-      <c r="C349" s="12">
-        <v>5593.2</v>
-      </c>
-      <c r="D349" s="12">
-        <v>5593.2</v>
-      </c>
-    </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A350" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="B350" s="8">
-        <v>8</v>
-      </c>
-      <c r="C350" s="12">
-        <v>650</v>
-      </c>
-      <c r="D350" s="12">
-        <v>5200</v>
-      </c>
-    </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A351" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="B351" s="8">
-        <v>8</v>
-      </c>
-      <c r="C351" s="12">
-        <v>650</v>
-      </c>
-      <c r="D351" s="12">
-        <v>5200</v>
-      </c>
-    </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A352" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="B352" s="8">
-        <v>1</v>
-      </c>
-      <c r="C352" s="12">
-        <v>750</v>
-      </c>
-      <c r="D352" s="12">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A353" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="B353" s="8">
-        <v>1</v>
-      </c>
-      <c r="C353" s="12">
-        <v>750</v>
-      </c>
-      <c r="D353" s="12">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A354" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="B354" s="8">
-        <v>4</v>
-      </c>
-      <c r="C354" s="12">
-        <v>35000</v>
-      </c>
-      <c r="D354" s="12">
-        <v>140000</v>
-      </c>
-    </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A355" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="B355" s="8">
-        <v>4</v>
-      </c>
-      <c r="C355" s="12">
-        <v>35000</v>
-      </c>
-      <c r="D355" s="12">
-        <v>140000</v>
-      </c>
-    </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A356" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="B356" s="8">
-        <v>33</v>
-      </c>
-      <c r="C356" s="12">
-        <v>16500</v>
-      </c>
-      <c r="D356" s="12">
-        <v>544500</v>
-      </c>
-    </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A357" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="B357" s="8">
-        <v>1</v>
-      </c>
-      <c r="C357" s="12">
-        <v>16500</v>
-      </c>
-      <c r="D357" s="12">
-        <v>16500</v>
-      </c>
-    </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A358" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="B358" s="8">
-        <v>2</v>
-      </c>
-      <c r="C358" s="12">
-        <v>16500</v>
-      </c>
-      <c r="D358" s="12">
-        <v>33000</v>
-      </c>
-    </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A359" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="B359" s="8">
-        <v>12</v>
-      </c>
-      <c r="C359" s="12">
-        <v>16500</v>
-      </c>
-      <c r="D359" s="12">
-        <v>198000</v>
-      </c>
-    </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A360" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="B360" s="8">
-        <v>12</v>
-      </c>
-      <c r="C360" s="12">
-        <v>16500</v>
-      </c>
-      <c r="D360" s="12">
-        <v>198000</v>
-      </c>
-    </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A361" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="B361" s="8">
-        <v>1</v>
-      </c>
-      <c r="C361" s="12">
-        <v>16500</v>
-      </c>
-      <c r="D361" s="12">
-        <v>16500</v>
-      </c>
-    </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A362" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="B362" s="8">
-        <v>1</v>
-      </c>
-      <c r="C362" s="12">
-        <v>16500</v>
-      </c>
-      <c r="D362" s="12">
-        <v>16500</v>
-      </c>
-    </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A363" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="B363" s="8">
-        <v>1</v>
-      </c>
-      <c r="C363" s="12">
-        <v>16500</v>
-      </c>
-      <c r="D363" s="12">
-        <v>16500</v>
-      </c>
-    </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A364" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="B364" s="8">
-        <v>1</v>
-      </c>
-      <c r="C364" s="12">
-        <v>16500</v>
-      </c>
-      <c r="D364" s="12">
-        <v>16500</v>
-      </c>
-    </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A365" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="B365" s="8">
-        <v>1</v>
-      </c>
-      <c r="C365" s="12">
-        <v>16500</v>
-      </c>
-      <c r="D365" s="12">
-        <v>16500</v>
-      </c>
-    </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A366" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="B366" s="8">
-        <v>1</v>
-      </c>
-      <c r="C366" s="12">
-        <v>16500</v>
-      </c>
-      <c r="D366" s="12">
-        <v>16500</v>
-      </c>
-    </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A367" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="B367" s="8">
-        <v>1</v>
-      </c>
-      <c r="C367" s="12">
-        <v>35000</v>
-      </c>
-      <c r="D367" s="12">
-        <v>35000</v>
-      </c>
-    </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A368" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="B368" s="8">
-        <v>1</v>
-      </c>
-      <c r="C368" s="12">
-        <v>35000</v>
-      </c>
-      <c r="D368" s="12">
-        <v>35000</v>
-      </c>
-    </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A369" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="B369" s="8">
-        <v>2</v>
-      </c>
-      <c r="C369" s="12">
-        <v>4200</v>
-      </c>
-      <c r="D369" s="12">
-        <v>8400</v>
-      </c>
-    </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A370" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="B370" s="8">
-        <v>2</v>
-      </c>
-      <c r="C370" s="12">
-        <v>4200</v>
-      </c>
-      <c r="D370" s="12">
-        <v>8400</v>
-      </c>
-    </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A371" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="B371" s="8">
-        <v>3408</v>
-      </c>
-      <c r="C371" s="12">
-        <v>459.58575645756457</v>
-      </c>
-      <c r="D371" s="12">
-        <v>765473.49999999988</v>
-      </c>
-    </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A372" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="B372" s="8">
-        <v>4351</v>
-      </c>
-      <c r="C372" s="12">
-        <v>1549.9619417475735</v>
-      </c>
-      <c r="D372" s="12">
         <v>2658236.2199999997</v>
       </c>
     </row>

--- a/Equipamiento y Moviliario/Relacion Equipamiento y Mobiloiario PARA MODIFICACION 2021.xlsx
+++ b/Equipamiento y Moviliario/Relacion Equipamiento y Mobiloiario PARA MODIFICACION 2021.xlsx
@@ -8,20 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositorio\Instalaciones_Especiales\Equipamiento y Moviliario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{377D4C20-27A3-4A82-ACB3-E05F4E2AC83C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41A65DC-6F2A-49D1-B12A-C79597B3B3D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="749" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="749" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Relacion de EM" sheetId="1" r:id="rId1"/>
-    <sheet name="PRESUPUESTO GENERAL" sheetId="10" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="11" r:id="rId1"/>
+    <sheet name="Relacion de EM" sheetId="1" r:id="rId2"/>
+    <sheet name="PRESUPUESTO GENERAL" sheetId="10" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Relacion de EM'!$A$3:$L$522</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Relacion de EM'!$A$3:$L$522</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="75" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="9" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4265" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4317" uniqueCount="419">
   <si>
     <t>ITEM</t>
   </si>
@@ -1296,6 +1298,9 @@
   <si>
     <t xml:space="preserve">Insumos para instalacion de Luces </t>
   </si>
+  <si>
+    <t>Suma de PRECIO</t>
+  </si>
 </sst>
 </file>
 
@@ -1351,7 +1356,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1359,11 +1364,122 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFABABAB"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFABABAB"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFABABAB"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFABABAB"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFABABAB"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFABABAB"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFABABAB"/>
+      </right>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFABABAB"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFABABAB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFABABAB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFABABAB"/>
+      </right>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFABABAB"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1389,365 +1505,23 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="122">
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <numFmt numFmtId="4" formatCode="#,##0.00"/>
     </dxf>
@@ -2309,6 +2083,364 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Manuel Raul Livano Luna" refreshedDate="44611.535851157409" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="517" xr:uid="{53F21F46-99D3-4EB1-BDA3-61C213DA05BF}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A3:L520" sheet="Relacion de EM"/>
+  </cacheSource>
+  <cacheFields count="12">
+    <cacheField name="Area" numFmtId="0">
+      <sharedItems containsBlank="1" count="3">
+        <s v="Material Didactico"/>
+        <s v="Aulas Pedagogicas"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Nivel" numFmtId="0">
+      <sharedItems containsBlank="1" count="4">
+        <s v="Secundaria"/>
+        <s v="Primaria"/>
+        <s v="Uso General"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="TIPO" numFmtId="0">
+      <sharedItems containsBlank="1" count="3">
+        <s v="EQUIPAMIENTO"/>
+        <s v="MOBILIARIO"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Cuadro" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Detalle" numFmtId="0">
+      <sharedItems count="94">
+        <s v="EQUIPAMIENTO REPOSTERIA - SECUNDARIA"/>
+        <s v="MOBILIARIO - EDUCACION FISICA - PRIMARIA"/>
+        <s v="MOBILIARIO - ARCHIVO - PRIMARIA"/>
+        <s v="MOBILIARIO - COCINA - PRIMARIA"/>
+        <s v="MOBILIARIO - DEPOSITO - SUM"/>
+        <s v="MOBILIARIO - MAESTRANZA - SECUNDARIA"/>
+        <s v="MOBILIARIO - ALMACEN CENTRAL"/>
+        <s v="MOBILIARIO - ALMACEN COCINA - SECUNDARIA"/>
+        <s v="MOBILIARIO - ARCHIVO - SECUNDARIA"/>
+        <s v="MOBILIARIO - ECONOMATO - SECUNDARIA"/>
+        <s v="MOBILIARIO - CTO DE BOMBAS - PRIMARIA"/>
+        <s v="MOBILIARIO - TALLER DE ARTE - SECUNDARIA"/>
+        <s v="MOBILIARIO - CTO BOMBAS - SECUNDARIA"/>
+        <s v="EDUCACION FISICA - PRIMARIA"/>
+        <s v="EDUCACION FISICA - SECUNDARIA"/>
+        <s v="MOBILIARIO - ENFERMERIA - PRIMARIA"/>
+        <s v="MOBILIARIO - APAFA - PRIMARIA"/>
+        <s v="MOBILIARIO - SALA DE ESPERA - PRIMARIA"/>
+        <s v="MOBILIARIO - DIRECCION - PRIMARIA"/>
+        <s v="MOBILIARIO - SALA DE MONITOREO"/>
+        <s v="MOBILIARIO - PSICOLOGIA - PRIMARIA"/>
+        <s v="MOBILIARIO - EDUCACION FISICA - SECUNDARIA"/>
+        <s v="MOBILIARIO - ENFERMERIA - SECUNDARIA"/>
+        <s v="MOBILIARIO -PSICOLOGIA - SECUNDARIA"/>
+        <s v="MOBILIARIO - TUTORIA - SECUNDARIA"/>
+        <s v="MOBILIARIO - DIRECCION - SECUNDARIA"/>
+        <s v="MOBILIARIO - SUB DIRECCION - SECUNDARIA"/>
+        <s v="MOBILIARIO - SECRETARIA - SECUNDARIA"/>
+        <s v="MOBILIARIO - COORDINACION ADMINISTRATIVA - SECUNDARIA"/>
+        <s v="MOBILIARIO - APAFA - SECUNDARIA"/>
+        <s v="MOBILIARIO - COORDINACION PEDAGOGICA - SECUNDARIA"/>
+        <s v="MOBILIARIO - GUARDIANIA - PRIMARIA"/>
+        <s v="MOBILIARIO - MODULO DE CONECTIVIDAD - PRIMARIA"/>
+        <s v="MOBILIARIO - GUARDIANIA - SECUNDARIA"/>
+        <s v="MOBILIARIO - BIBLIOTECA - SECUNDARIA"/>
+        <s v="MOBILIARIO - LABORATORIO - SECUNDARIA"/>
+        <s v="MOBILIARIO - TALLER DE REPOSTERIA - SECUNDARIA"/>
+        <s v="MOBILIARIO - AULA DE INNOVACION PEDAGOGICA - PRIMARIA"/>
+        <s v="MOBILIARIO - LABORATORIO - PRIMARIA"/>
+        <s v="MOBILIARIO DE AULAS PEDAGOGICAS - PRIMARIA"/>
+        <s v="MOBILIARIO - AULAS PEDAGOGICAS - SECUNDARIA"/>
+        <s v="MOBILIARIO - TALLER DE ARTE - PRIMARIA"/>
+        <s v="COSTOS DE INSTRUMENTOS MUSICALES"/>
+        <s v="MOBILIARIO - VESTUARIO - PRIMARIA"/>
+        <s v="MOBILIARIO - CAMERINOS SUM - SECUNDARIA"/>
+        <s v="MOBILIARIO - VESTUARIO SECUNDARIA"/>
+        <s v="MOBILIARIO - TIENDA ESCOLAR -"/>
+        <s v="COSTOS DE LABORATORIO – PRIMARIA"/>
+        <s v="COSTOS DE LABORATORIO – SECUNDARIA"/>
+        <s v="COSTOS DE ENFERMERIA – PRIMARIA"/>
+        <s v="COSTOS DE ENFERMERIA – SECUNDARIA"/>
+        <s v="MOBILIARIO - MEZZANINE - SUM - SECUNDARIA"/>
+        <s v="EQUIPAMIENTO SUM - SECUNDARIA"/>
+        <s v="EQUIPAMIENTO MODULO DE CONECTIVIDAD - PRIMARIA"/>
+        <s v="EQUIPAMIENTO MODULO DE CONECTIVIDAD - SECUNDARIA"/>
+        <s v="COCINA - PRIMARIA"/>
+        <s v="EQUIPAMIENTO BIBLIOTECA PRIMARIA"/>
+        <s v="EQUIPAMIENTO AULA DE INNOVACION PEDAGOGICA - PRIMARIA"/>
+        <s v="EQUIPAMIENTO SALA DE DOCENTES - PRIMARIA"/>
+        <s v="EQUIPAMIENTO SALA DE ESPERA - PRIMARIA"/>
+        <s v="EQUIPAMIENTO DIRECCION - PRIMARIA"/>
+        <s v="EQUIPAMIENTO BIBLIOTECA - SECUNDARIA"/>
+        <s v="EQUIPAMIENTO TUTORIA - SECUNDARIA"/>
+        <s v="EQUIPAMIENTO DIRECCION - SECUNDARIA"/>
+        <s v="EQUIPAMIENTO SUB DIRECCION - SECUNDARIA"/>
+        <s v="EQUIPAMIENTO SECRETARIA - SECUNDARIA"/>
+        <s v="EQUIPAMIENTO COORDINACION ADMINISTRATIVA - SECUNDARIA"/>
+        <s v="EQUIPAMIENTO SALA DE DOCENTES - SECUNDARIA"/>
+        <s v="EQUIPAMIENTO COORDINACION PEDAGOGICA - SECUNDARIA"/>
+        <s v="MOBILIARIO - SALA DE REUNIONES - PRIMARIA"/>
+        <s v="MOBILIARIO - SALA DE REUNIONES - SECUNDARIA"/>
+        <s v="MOBILIARIO - BIBLIOTECA - PRIMARIA"/>
+        <s v="EQUIPAMIENTO AULAS PEDAGOGICAS - SECUNDARIA"/>
+        <s v="EQUIPAMIENTO AULAS PEDAGOGICAS - PRIMARIA"/>
+        <s v="MOBILIARIO - MODULO DE CONECTIVIDAD - SECUNDARIA"/>
+        <s v="MOBILIARIO - TALLER DE MANUALIDADES - SECUNDARIA"/>
+        <s v="MOBILIARIO - SALA DE SONIDO - SUM -SECUNDARIA"/>
+        <s v="EQUIPAMIENTO LABORATORIO - PRIMARIA"/>
+        <s v="EQUIPAMIENTO LABORATORIO - SECUNDARIA"/>
+        <s v="EQUIPAMIENTO TIENDA ESCOLAR - PRIMARIA"/>
+        <s v="COSTOS DE BIBLIOTECA – PRIMARIA"/>
+        <s v="COSTOS DE BIBLIOTECA – SECUNDARIA"/>
+        <s v="EQUIPAMIENTO COMEDOR - SECUNDARIA"/>
+        <s v="EQUIPAMIENTO AULA DE INNOVACION PEDAGOGICA - SECUNDARIA"/>
+        <s v="MOBILIARIO - SALA DE DOCENTES - PRIMARIA"/>
+        <s v="MOBILIARIO - SALA DE DOCENTES - SECUNDARIA"/>
+        <s v="MOBILIARIO - SUM - SECUNDARIA"/>
+        <s v="MOBILIARIO -COMEDOR - SECUNDARIA"/>
+        <s v="MOBILIARIO - AULA DE INNOVACION PEDAGOGICA - SECUNDARIA"/>
+        <s v="EQUIPAMIENTO TALLER DE ARTE - SECUNDARIA"/>
+        <s v="EQUIPAMIENTO TALLER DE ARTE - PRIMARIA"/>
+        <s v="EQUIPAMIENTO SALA DE SONIDO - SECUNDARIA"/>
+        <s v="EQUIPAMIENTO SUM - PRIMARIA"/>
+        <s v="EQUIPAMIENTO SALA MONITOREO - PRIMARIA"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="ITEM" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="50"/>
+    </cacheField>
+    <cacheField name="DESCRIPCION" numFmtId="0">
+      <sharedItems count="195">
+        <s v="Amasadora mezcladora 0.40 x 0.50"/>
+        <s v="Anaquel metalico 0.95x0.45x2.00"/>
+        <s v="Anaquel metalico de 0.65X0.45x2.00"/>
+        <s v="Antenas voleibol"/>
+        <s v="Archivador 0.40x0.40x1.20"/>
+        <s v="Armario 1.00x0.40x1.50"/>
+        <s v="Armario 1.00x0.60x0.90"/>
+        <s v="Armario 1.20x0.50x0.70"/>
+        <s v="Armario empotrado (1.35x0.40x2.00)"/>
+        <s v="Armario empotrado (1.84x60x115)"/>
+        <s v="Atril de mesa 0.43 x 0.33"/>
+        <s v="Bajo de viento"/>
+        <s v="Banca de 0.85x0.30"/>
+        <s v="Banco de ɸ0.30"/>
+        <s v="Barra de atencion 0.60x2.00"/>
+        <s v="Base con soporte universal de 0.80 cm"/>
+        <s v="Biombo metalico de dos cuerpos"/>
+        <s v="Bolsa de agua caliente"/>
+        <s v="Bolsa de agua fria"/>
+        <s v="Butaca de 0.60 x0.60"/>
+        <s v="CAJA ACUSTICA AUTOAMPLIFICADA DE 1600W"/>
+        <s v="CAJA ACUSTICA AUTOAMPLIFICADA SUB BAJO"/>
+        <s v="CAJA REMOTA PARA M32 DE 32 IN 16 OUT"/>
+        <s v="Camara filmadora"/>
+        <s v="Camara fotografica"/>
+        <s v="Camilla rodante 0.70x1.80"/>
+        <s v="campana extractora"/>
+        <s v="Carro porta balones"/>
+        <s v="Cocina electrica de mesa"/>
+        <s v="Cocina industrial con horno incorporado 140x60x90 cm"/>
+        <s v="Colchoneta plegable"/>
+        <s v="Computadora para escritorio monitor de 20&quot; Incl. UPS"/>
+        <s v="Congeladora 10x0.73"/>
+        <s v="Cono semiesfericos"/>
+        <s v="Conos de 5 cm"/>
+        <s v="Conos flexibles  de 40 cm"/>
+        <s v="Conos flexibles de 23 cm"/>
+        <s v="Conos flexibles de 25 cm"/>
+        <s v="CONSOLA DE MEZCLA DIGITAL DE 40 ENTRADAS"/>
+        <s v="Credenza 1.20x0.40x1.80"/>
+        <s v="Cronómetro"/>
+        <s v="Cronómetro digital"/>
+        <s v="Discos de goma 1.00 KG"/>
+        <s v="Discos de goma 1.50 KG"/>
+        <s v="Divisiones en closet"/>
+        <s v="Divisora 0.45x0.55"/>
+        <s v="Embudo de decantación con llave de paso"/>
+        <s v="Embudo de vidrio mediano"/>
+        <s v="Equipo de audifonos y microfonos"/>
+        <s v="Equipo de sonido Incl. Microfono inalambrico"/>
+        <s v="Escala de velocidad 9m"/>
+        <s v="Escalera de velocidad  5m"/>
+        <s v="Escalinata con dos peldaños"/>
+        <s v="Escobilla para probeta"/>
+        <s v="Escobilla para tubo de ensayo"/>
+        <s v="Escritorio 0.50x1.00x0.75 (docente)"/>
+        <s v="Escritorio 1.50x0.60"/>
+        <s v="Estante 1.20x0.30x1.50"/>
+        <s v="Estante 1.80x0.50X1.50"/>
+        <s v="Estante para biblioteca del aula 1.60x0.40x1.50"/>
+        <s v="Estante para libros 222x90x180"/>
+        <s v="Estante para libros 222x90x360"/>
+        <s v="ESTRUCTURA DE SUJETACION"/>
+        <s v="Extintor ojo tipo"/>
+        <s v="Fiola de vidrio de 250 ml"/>
+        <s v="Flauta importada"/>
+        <s v="Fotocopiadora 0.75x0.75"/>
+        <s v="Globo terráqueo"/>
+        <s v="Gotero de vidrio"/>
+        <s v="Gradilla metálica para pipetas"/>
+        <s v="Gradilla metálica para tubos de ensayo"/>
+        <s v="Gruesa de pelotitas (6 UND)"/>
+        <s v="Gruesa de pelotitas (6 UND) para tenis"/>
+        <s v="Horno microhondas"/>
+        <s v="Horno rotativo industrial"/>
+        <s v="Impresora multifuncional"/>
+        <s v="Instrumento Musical de Percusion "/>
+        <s v="Jabalina 400 G."/>
+        <s v="Jabalina 500 G."/>
+        <s v="lira"/>
+        <s v="Lockers tipo I (137cm) M5-03"/>
+        <s v="Lockers tipo II (83cm) M3-03"/>
+        <s v="Lockers tipo III (56.5 cm) M2-03"/>
+        <s v="luces tipo robot"/>
+        <s v="Insumos para instalacion de Luces "/>
+        <s v="Luces tipo Tachos "/>
+        <s v="PROYECTOR MULTIMEDIA"/>
+        <s v="Malla para aro de Básquet (par)"/>
+        <s v="Martillo de evaluacion medica"/>
+        <s v="Material didáctico video digital"/>
+        <s v="Matraz Erlenmayer de 250 ml"/>
+        <s v="Matraz Kitasato de 250 ml"/>
+        <s v="Mecheros de alcohol"/>
+        <s v="Medidor de presión"/>
+        <s v="Mesa 0.50x0.60"/>
+        <s v="Mesa 0.50x0.60 (1° y 2° grado)"/>
+        <s v="Mesa 0.50x0.60 (3° y 4° grado)"/>
+        <s v="Mesa 0.50x0.60 (5° y 6° grado)"/>
+        <s v="Mesa 0.50x0.80"/>
+        <s v="Mesa 1.00x1.00"/>
+        <s v="Mesa 2.00x1.20"/>
+        <s v="Mesa auxiliar 0.90x0.45x0.90"/>
+        <s v="Mesa central 0.40x0.80"/>
+        <s v="Mesa comedor 1.50x0.80"/>
+        <s v="Mesa de apoyo topico"/>
+        <s v="Mesa de lectura 1.20x0.80"/>
+        <s v="Mesa de reuniones 300x120x75"/>
+        <s v="Mesa de tenis"/>
+        <s v="Mesa de trabajo 1.70x0.60"/>
+        <s v="Mesa de trabajo 3.50x0.60"/>
+        <s v="Mesa encargado1.00x0.50x0.70"/>
+        <s v="Mesa encargado1.20x0.80"/>
+        <s v="Mesa especial para topico"/>
+        <s v="Mesa grupales  0.90x1.50"/>
+        <s v="Mesa metalica rodable para multiples usos"/>
+        <s v="Mesa para computadora 0.80x0.50"/>
+        <s v="Mesa para computadora 1.00x0.70"/>
+        <s v="Mesas de trabajo  2.00x1.00"/>
+        <s v="Mesas individuales 0.50x0.80"/>
+        <s v="Microfonos Kit"/>
+        <s v="Microscopio digital"/>
+        <s v="Microscopios binoculares"/>
+        <s v="Modulo de control DMX"/>
+        <s v="Mortero de porcelana con pilón de 100ml"/>
+        <s v="Mueble móvil (0.55x0.70x0.90)"/>
+        <s v="Pandereta"/>
+        <s v="Pantalla Interactiva"/>
+        <s v="PARLANTES ACTIVOS DE 1400W"/>
+        <s v="PC DE ESCRITORIO"/>
+        <s v="PC portatil 15&quot;"/>
+        <s v="Peachímetro de cinta x caja"/>
+        <s v="pedestales set"/>
+        <s v="Péndulo metálico"/>
+        <s v="Picas de 1.70 m inc/ porta picas (15 und)"/>
+        <s v="Pieza de precision (3 Und)"/>
+        <s v="Pinza de cocodrilo rojo y negro"/>
+        <s v="Pinza metálica para tubo de ensayo"/>
+        <s v="Pinza para base soporte"/>
+        <s v="Pipeta graduada de vidrio de 2 ml"/>
+        <s v="Pipeta graduada de vidrio de 5 ml"/>
+        <s v="Pizarra de acero vitrificado (2.0x1.15)"/>
+        <s v="Pizarra de acero vitrificado (3.0x1.15)"/>
+        <s v="Pizarra de acero vitrificado (4.20x1.20)"/>
+        <s v="Pizarra de acero vitrificado 1.50x1.20"/>
+        <s v="Pizeta de 250 ml"/>
+        <s v="Plano inclinado metálico"/>
+        <s v="Platillo cono voleibol"/>
+        <s v="Platos de color"/>
+        <s v="Polea metálica simple y doble (3 de c/u)"/>
+        <s v="Porta CDs de 100 unidades"/>
+        <s v="Porteria portatil 3.00 x 1.80 m"/>
+        <s v="Postes de llegada"/>
+        <s v="Postes Voleibol"/>
+        <s v="Prensa metálica tipo &quot;C&quot; mediano"/>
+        <s v="Prisma salida de carreras"/>
+        <s v="Probeta graduada de vidrio de 250 ml"/>
+        <s v="PROCESADOR DE AUDIO"/>
+        <s v="Raqueta de tenia de mesa"/>
+        <s v="Raqueta de tenis de mesa"/>
+        <s v="Redes voleibol"/>
+        <s v="Refrigeradora 680 L"/>
+        <s v="Rejilla metálica con asbesto"/>
+        <s v="Reloj de una esfera de pared"/>
+        <s v="Saxo"/>
+        <s v="Servidor de Datos"/>
+        <s v="set de platillos de bronce"/>
+        <s v="Silla 0.30x0.35 (1° y 2° grado)"/>
+        <s v="Silla 0.30x0.35 (3° y 4° grado)"/>
+        <s v="Silla 0.30x0.35 (5° y 6° grado)"/>
+        <s v="Silla 0.45x0.45x0.45 (docente)"/>
+        <s v="Silla de juez Voleibol"/>
+        <s v="Silla giratoria"/>
+        <s v="Silla Plegable o apilable para comedor"/>
+        <s v="Silla Plegable o apilable pasa SUM"/>
+        <s v="Sillas según grupo 0.40x0.40x0.35"/>
+        <s v="Sillon modular 0.60x0.60"/>
+        <s v="Sillon modular 1.20x0.60"/>
+        <s v="SISTEMA DE AUDIO PARA ORATORIO"/>
+        <s v="Sistema de Audio para SUM Primaria"/>
+        <s v="sistema de extraccion de aire mecanico"/>
+        <s v="Sogas elasticas"/>
+        <s v="Soporte de red"/>
+        <s v="Soporte de red para mesa de tenis"/>
+        <s v="Tablero de trabajo 0.60x2.70"/>
+        <s v="Tableros deportivos"/>
+        <s v="Tableros para desarrollo de pintura"/>
+        <s v="Tacho de basura"/>
+        <s v="Tapones de jebe bi horadado mediano"/>
+        <s v="Tapones de jebe mono horadado mediano"/>
+        <s v="Tarola importada"/>
+        <s v="TECLE CON CADENA"/>
+        <s v="Termómetro de mercurio -10a300ºC"/>
+        <s v="Termometro Digital"/>
+        <s v="TV 85 pulgadas"/>
+        <s v="TV de 49&quot; Incl. Rack"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="UNIDAD" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="CANTIDAD" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="360"/>
+    </cacheField>
+    <cacheField name="PRECIO" numFmtId="4">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.5" maxValue="35000"/>
+    </cacheField>
+    <cacheField name="TOTAL" numFmtId="4">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4.5" maxValue="336000"/>
+    </cacheField>
+    <cacheField name="ESTADO" numFmtId="0">
+      <sharedItems containsBlank="1" count="2">
+        <s v="PEDIDO"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="519">
   <r>
@@ -9580,8 +9712,7811 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="517">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°73"/>
+    <x v="0"/>
+    <n v="2"/>
+    <x v="0"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="4071"/>
+    <n v="4071"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°11"/>
+    <x v="1"/>
+    <n v="1"/>
+    <x v="1"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="360"/>
+    <n v="360"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°16"/>
+    <x v="2"/>
+    <n v="1"/>
+    <x v="1"/>
+    <s v="Und"/>
+    <n v="2"/>
+    <n v="360"/>
+    <n v="720"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°8"/>
+    <x v="3"/>
+    <n v="1"/>
+    <x v="1"/>
+    <s v="Und"/>
+    <n v="2"/>
+    <n v="360"/>
+    <n v="720"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°31"/>
+    <x v="4"/>
+    <n v="1"/>
+    <x v="1"/>
+    <s v="Und"/>
+    <n v="2"/>
+    <n v="360"/>
+    <n v="720"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°37"/>
+    <x v="5"/>
+    <n v="1"/>
+    <x v="1"/>
+    <s v="Und"/>
+    <n v="2"/>
+    <n v="360"/>
+    <n v="720"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°39"/>
+    <x v="6"/>
+    <n v="1"/>
+    <x v="1"/>
+    <s v="Und"/>
+    <n v="18"/>
+    <n v="360"/>
+    <n v="6480"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°42"/>
+    <x v="7"/>
+    <n v="1"/>
+    <x v="1"/>
+    <s v="Und"/>
+    <n v="2"/>
+    <n v="360"/>
+    <n v="720"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°53"/>
+    <x v="8"/>
+    <n v="1"/>
+    <x v="1"/>
+    <s v="Und"/>
+    <n v="2"/>
+    <n v="360"/>
+    <n v="720"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°54"/>
+    <x v="9"/>
+    <n v="1"/>
+    <x v="1"/>
+    <s v="Und"/>
+    <n v="2"/>
+    <n v="360"/>
+    <n v="720"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°21"/>
+    <x v="10"/>
+    <n v="1"/>
+    <x v="2"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="310"/>
+    <n v="310"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°24"/>
+    <x v="11"/>
+    <n v="1"/>
+    <x v="2"/>
+    <s v="Und"/>
+    <n v="3"/>
+    <n v="310"/>
+    <n v="930"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°36"/>
+    <x v="12"/>
+    <n v="1"/>
+    <x v="2"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="310"/>
+    <n v="310"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°93"/>
+    <x v="13"/>
+    <n v="7"/>
+    <x v="3"/>
+    <s v="Juego"/>
+    <n v="2"/>
+    <n v="130"/>
+    <n v="260"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°94"/>
+    <x v="14"/>
+    <n v="7"/>
+    <x v="3"/>
+    <s v="Juego"/>
+    <n v="2"/>
+    <n v="130"/>
+    <n v="260"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°10"/>
+    <x v="15"/>
+    <n v="1"/>
+    <x v="4"/>
+    <s v="Und"/>
+    <n v="2"/>
+    <n v="240"/>
+    <n v="480"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°11"/>
+    <x v="1"/>
+    <n v="2"/>
+    <x v="4"/>
+    <s v="Und"/>
+    <n v="2"/>
+    <n v="240"/>
+    <n v="480"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°13"/>
+    <x v="16"/>
+    <n v="1"/>
+    <x v="4"/>
+    <s v="Und"/>
+    <n v="4"/>
+    <n v="240"/>
+    <n v="960"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°15"/>
+    <x v="17"/>
+    <n v="1"/>
+    <x v="4"/>
+    <s v="Und"/>
+    <n v="3"/>
+    <n v="240"/>
+    <n v="720"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°16"/>
+    <x v="2"/>
+    <n v="2"/>
+    <x v="4"/>
+    <s v="Und"/>
+    <n v="4"/>
+    <n v="240"/>
+    <n v="960"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°17"/>
+    <x v="18"/>
+    <n v="1"/>
+    <x v="4"/>
+    <s v="Und"/>
+    <n v="2"/>
+    <n v="240"/>
+    <n v="480"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°19"/>
+    <x v="19"/>
+    <n v="1"/>
+    <x v="4"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="240"/>
+    <n v="240"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°9"/>
+    <x v="20"/>
+    <n v="1"/>
+    <x v="4"/>
+    <s v="Und"/>
+    <n v="3"/>
+    <n v="240"/>
+    <n v="720"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°40"/>
+    <x v="21"/>
+    <n v="1"/>
+    <x v="4"/>
+    <s v="Und"/>
+    <n v="2"/>
+    <n v="240"/>
+    <n v="480"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°43"/>
+    <x v="22"/>
+    <n v="1"/>
+    <x v="4"/>
+    <s v="Und"/>
+    <n v="2"/>
+    <n v="240"/>
+    <n v="480"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°44"/>
+    <x v="23"/>
+    <n v="1"/>
+    <x v="4"/>
+    <s v="Und"/>
+    <n v="3"/>
+    <n v="240"/>
+    <n v="720"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°45"/>
+    <x v="24"/>
+    <n v="1"/>
+    <x v="4"/>
+    <s v="Und"/>
+    <n v="2"/>
+    <n v="240"/>
+    <n v="480"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°46"/>
+    <x v="25"/>
+    <n v="1"/>
+    <x v="4"/>
+    <s v="Und"/>
+    <n v="2"/>
+    <n v="240"/>
+    <n v="480"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°47"/>
+    <x v="26"/>
+    <n v="1"/>
+    <x v="4"/>
+    <s v="Und"/>
+    <n v="2"/>
+    <n v="240"/>
+    <n v="480"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°48"/>
+    <x v="27"/>
+    <n v="1"/>
+    <x v="4"/>
+    <s v="Und"/>
+    <n v="3"/>
+    <n v="240"/>
+    <n v="720"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°49"/>
+    <x v="28"/>
+    <n v="1"/>
+    <x v="4"/>
+    <s v="Und"/>
+    <n v="2"/>
+    <n v="240"/>
+    <n v="480"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°50"/>
+    <x v="29"/>
+    <n v="1"/>
+    <x v="4"/>
+    <s v="Und"/>
+    <n v="4"/>
+    <n v="240"/>
+    <n v="960"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°53"/>
+    <x v="8"/>
+    <n v="2"/>
+    <x v="4"/>
+    <s v="Und"/>
+    <n v="4"/>
+    <n v="240"/>
+    <n v="960"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°55"/>
+    <x v="30"/>
+    <n v="1"/>
+    <x v="4"/>
+    <s v="Und"/>
+    <n v="2"/>
+    <n v="240"/>
+    <n v="480"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°20"/>
+    <x v="31"/>
+    <n v="1"/>
+    <x v="5"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="840"/>
+    <n v="840"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°4"/>
+    <x v="32"/>
+    <n v="1"/>
+    <x v="5"/>
+    <s v="Und"/>
+    <n v="3"/>
+    <n v="840"/>
+    <n v="2520"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°35"/>
+    <x v="33"/>
+    <n v="1"/>
+    <x v="5"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="840"/>
+    <n v="840"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°24"/>
+    <x v="11"/>
+    <n v="2"/>
+    <x v="6"/>
+    <s v="Und"/>
+    <n v="3"/>
+    <n v="360"/>
+    <n v="1080"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°10"/>
+    <x v="15"/>
+    <n v="2"/>
+    <x v="7"/>
+    <s v="Und"/>
+    <n v="2"/>
+    <n v="270"/>
+    <n v="540"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°11"/>
+    <x v="1"/>
+    <n v="3"/>
+    <x v="7"/>
+    <s v="Und"/>
+    <n v="2"/>
+    <n v="270"/>
+    <n v="540"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°13"/>
+    <x v="16"/>
+    <n v="2"/>
+    <x v="7"/>
+    <s v="Und"/>
+    <n v="2"/>
+    <n v="270"/>
+    <n v="540"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°15"/>
+    <x v="17"/>
+    <n v="2"/>
+    <x v="7"/>
+    <s v="Und"/>
+    <n v="2"/>
+    <n v="270"/>
+    <n v="540"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°17"/>
+    <x v="18"/>
+    <n v="2"/>
+    <x v="7"/>
+    <s v="Und"/>
+    <n v="2"/>
+    <n v="270"/>
+    <n v="540"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°19"/>
+    <x v="19"/>
+    <n v="2"/>
+    <x v="7"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="270"/>
+    <n v="270"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°9"/>
+    <x v="20"/>
+    <n v="2"/>
+    <x v="7"/>
+    <s v="Und"/>
+    <n v="2"/>
+    <n v="270"/>
+    <n v="540"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°23"/>
+    <x v="34"/>
+    <n v="1"/>
+    <x v="7"/>
+    <s v="Und"/>
+    <n v="5"/>
+    <n v="270"/>
+    <n v="1350"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°27"/>
+    <x v="35"/>
+    <n v="1"/>
+    <x v="7"/>
+    <s v="Und"/>
+    <n v="5"/>
+    <n v="270"/>
+    <n v="1350"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°28"/>
+    <x v="36"/>
+    <n v="1"/>
+    <x v="7"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="270"/>
+    <n v="270"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°40"/>
+    <x v="21"/>
+    <n v="2"/>
+    <x v="7"/>
+    <s v="Und"/>
+    <n v="2"/>
+    <n v="270"/>
+    <n v="540"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°43"/>
+    <x v="22"/>
+    <n v="2"/>
+    <x v="7"/>
+    <s v="Und"/>
+    <n v="2"/>
+    <n v="270"/>
+    <n v="540"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°44"/>
+    <x v="23"/>
+    <n v="2"/>
+    <x v="7"/>
+    <s v="Und"/>
+    <n v="2"/>
+    <n v="270"/>
+    <n v="540"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°45"/>
+    <x v="24"/>
+    <n v="2"/>
+    <x v="7"/>
+    <s v="Und"/>
+    <n v="2"/>
+    <n v="270"/>
+    <n v="540"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°46"/>
+    <x v="25"/>
+    <n v="2"/>
+    <x v="7"/>
+    <s v="Und"/>
+    <n v="2"/>
+    <n v="270"/>
+    <n v="540"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°47"/>
+    <x v="26"/>
+    <n v="2"/>
+    <x v="7"/>
+    <s v="Und"/>
+    <n v="2"/>
+    <n v="270"/>
+    <n v="540"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°48"/>
+    <x v="27"/>
+    <n v="2"/>
+    <x v="7"/>
+    <s v="Und"/>
+    <n v="2"/>
+    <n v="270"/>
+    <n v="540"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°49"/>
+    <x v="28"/>
+    <n v="2"/>
+    <x v="7"/>
+    <s v="Und"/>
+    <n v="2"/>
+    <n v="270"/>
+    <n v="540"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°50"/>
+    <x v="29"/>
+    <n v="2"/>
+    <x v="7"/>
+    <s v="Und"/>
+    <n v="2"/>
+    <n v="270"/>
+    <n v="540"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°55"/>
+    <x v="30"/>
+    <n v="2"/>
+    <x v="7"/>
+    <s v="Und"/>
+    <n v="2"/>
+    <n v="270"/>
+    <n v="540"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°3"/>
+    <x v="37"/>
+    <n v="1"/>
+    <x v="8"/>
+    <s v="Und"/>
+    <n v="12"/>
+    <n v="740"/>
+    <n v="8880"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°5"/>
+    <x v="38"/>
+    <n v="1"/>
+    <x v="8"/>
+    <s v="Und"/>
+    <n v="21"/>
+    <n v="740"/>
+    <n v="15540"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°1"/>
+    <x v="39"/>
+    <n v="2"/>
+    <x v="9"/>
+    <s v="Und"/>
+    <n v="12"/>
+    <n v="630"/>
+    <n v="7560"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°22"/>
+    <x v="40"/>
+    <n v="2"/>
+    <x v="9"/>
+    <s v="Und"/>
+    <n v="12"/>
+    <n v="630"/>
+    <n v="7560"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°6"/>
+    <x v="41"/>
+    <n v="2"/>
+    <x v="10"/>
+    <s v="Und"/>
+    <n v="50"/>
+    <n v="260"/>
+    <n v="13000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°24"/>
+    <x v="11"/>
+    <n v="3"/>
+    <x v="10"/>
+    <s v="Und"/>
+    <n v="50"/>
+    <n v="260"/>
+    <n v="13000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="CUADRO N°90"/>
+    <x v="42"/>
+    <n v="7"/>
+    <x v="11"/>
+    <s v="Unidad"/>
+    <n v="2"/>
+    <n v="1400"/>
+    <n v="2800"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°7"/>
+    <x v="43"/>
+    <n v="1"/>
+    <x v="12"/>
+    <s v="Und"/>
+    <n v="16"/>
+    <n v="300"/>
+    <n v="4800"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°30"/>
+    <x v="44"/>
+    <n v="1"/>
+    <x v="12"/>
+    <s v="Und"/>
+    <n v="6"/>
+    <n v="300"/>
+    <n v="1800"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°38"/>
+    <x v="45"/>
+    <n v="1"/>
+    <x v="12"/>
+    <s v="Und"/>
+    <n v="20"/>
+    <n v="300"/>
+    <n v="6000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°5"/>
+    <x v="38"/>
+    <n v="2"/>
+    <x v="13"/>
+    <s v="Und"/>
+    <n v="30"/>
+    <n v="80"/>
+    <n v="2400"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°27"/>
+    <x v="35"/>
+    <n v="2"/>
+    <x v="13"/>
+    <s v="Und"/>
+    <n v="30"/>
+    <n v="80"/>
+    <n v="2400"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°28"/>
+    <x v="36"/>
+    <n v="3"/>
+    <x v="13"/>
+    <s v="Und"/>
+    <n v="16"/>
+    <n v="80"/>
+    <n v="1280"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°12"/>
+    <x v="46"/>
+    <n v="1"/>
+    <x v="14"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="1050"/>
+    <n v="1050"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°84"/>
+    <x v="47"/>
+    <n v="27"/>
+    <x v="15"/>
+    <s v="Unidad"/>
+    <n v="6"/>
+    <n v="3.5"/>
+    <n v="21"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°85"/>
+    <x v="48"/>
+    <n v="27"/>
+    <x v="15"/>
+    <s v="Unidad"/>
+    <n v="6"/>
+    <n v="3.5"/>
+    <n v="21"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°10"/>
+    <x v="15"/>
+    <n v="3"/>
+    <x v="16"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="400"/>
+    <n v="400"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°43"/>
+    <x v="22"/>
+    <n v="3"/>
+    <x v="16"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="400"/>
+    <n v="400"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°91"/>
+    <x v="49"/>
+    <n v="8"/>
+    <x v="17"/>
+    <s v="Unidad"/>
+    <n v="2"/>
+    <n v="20"/>
+    <n v="40"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°92"/>
+    <x v="50"/>
+    <n v="8"/>
+    <x v="17"/>
+    <s v="Unidad"/>
+    <n v="2"/>
+    <n v="20"/>
+    <n v="40"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°91"/>
+    <x v="49"/>
+    <n v="9"/>
+    <x v="18"/>
+    <s v="Unidad"/>
+    <n v="2"/>
+    <n v="20"/>
+    <n v="40"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°92"/>
+    <x v="50"/>
+    <n v="9"/>
+    <x v="18"/>
+    <s v="Unidad"/>
+    <n v="2"/>
+    <n v="20"/>
+    <n v="40"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°34"/>
+    <x v="51"/>
+    <n v="1"/>
+    <x v="19"/>
+    <s v="Und"/>
+    <n v="50"/>
+    <n v="250"/>
+    <n v="12500"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°74"/>
+    <x v="52"/>
+    <n v="2"/>
+    <x v="20"/>
+    <s v="Und"/>
+    <n v="6"/>
+    <n v="5000"/>
+    <n v="30000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°74"/>
+    <x v="52"/>
+    <n v="4"/>
+    <x v="21"/>
+    <s v="Und"/>
+    <n v="4"/>
+    <n v="5894"/>
+    <n v="23576"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°74"/>
+    <x v="52"/>
+    <n v="6"/>
+    <x v="22"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="7580"/>
+    <n v="7580"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°59"/>
+    <x v="53"/>
+    <n v="2"/>
+    <x v="23"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="12000"/>
+    <n v="12000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°71"/>
+    <x v="54"/>
+    <n v="2"/>
+    <x v="23"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="12000"/>
+    <n v="12000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°59"/>
+    <x v="53"/>
+    <n v="1"/>
+    <x v="24"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="5200"/>
+    <n v="5200"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°71"/>
+    <x v="54"/>
+    <n v="1"/>
+    <x v="24"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="5200"/>
+    <n v="5200"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°10"/>
+    <x v="15"/>
+    <n v="4"/>
+    <x v="25"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="700"/>
+    <n v="700"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°43"/>
+    <x v="22"/>
+    <n v="4"/>
+    <x v="25"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="700"/>
+    <n v="700"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°95"/>
+    <x v="14"/>
+    <n v="33"/>
+    <x v="26"/>
+    <s v="Unidad"/>
+    <n v="2"/>
+    <n v="1200"/>
+    <n v="2400"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°11"/>
+    <x v="1"/>
+    <n v="4"/>
+    <x v="27"/>
+    <s v="Und"/>
+    <n v="4"/>
+    <n v="450"/>
+    <n v="1800"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°40"/>
+    <x v="21"/>
+    <n v="3"/>
+    <x v="27"/>
+    <s v="Und"/>
+    <n v="4"/>
+    <n v="450"/>
+    <n v="1800"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°84"/>
+    <x v="47"/>
+    <n v="50"/>
+    <x v="28"/>
+    <s v="Unidad"/>
+    <n v="3"/>
+    <n v="30"/>
+    <n v="90"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°85"/>
+    <x v="48"/>
+    <n v="50"/>
+    <x v="28"/>
+    <s v="Unidad"/>
+    <n v="3"/>
+    <n v="30"/>
+    <n v="90"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°94"/>
+    <x v="55"/>
+    <n v="1"/>
+    <x v="29"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="5593.2"/>
+    <n v="5593.2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°73"/>
+    <x v="0"/>
+    <n v="3"/>
+    <x v="29"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="5593.2"/>
+    <n v="5593.2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°93"/>
+    <x v="13"/>
+    <n v="32"/>
+    <x v="30"/>
+    <s v="un"/>
+    <n v="10"/>
+    <n v="350"/>
+    <n v="3500"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°94"/>
+    <x v="14"/>
+    <n v="32"/>
+    <x v="30"/>
+    <s v="Unidad"/>
+    <n v="10"/>
+    <n v="350"/>
+    <n v="3500"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°57"/>
+    <x v="56"/>
+    <n v="1"/>
+    <x v="31"/>
+    <s v="Und"/>
+    <n v="3"/>
+    <n v="4500"/>
+    <n v="13500"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°58"/>
+    <x v="57"/>
+    <n v="1"/>
+    <x v="31"/>
+    <s v="Und"/>
+    <n v="31"/>
+    <n v="4500"/>
+    <n v="139500"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°63"/>
+    <x v="58"/>
+    <n v="1"/>
+    <x v="31"/>
+    <s v="Und"/>
+    <n v="2"/>
+    <n v="4500"/>
+    <n v="9000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°64"/>
+    <x v="59"/>
+    <n v="1"/>
+    <x v="31"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="4500"/>
+    <n v="4500"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°65"/>
+    <x v="60"/>
+    <n v="1"/>
+    <x v="31"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="4500"/>
+    <n v="4500"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°68"/>
+    <x v="61"/>
+    <n v="1"/>
+    <x v="31"/>
+    <s v="Und"/>
+    <n v="4"/>
+    <n v="4500"/>
+    <n v="18000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°77"/>
+    <x v="62"/>
+    <n v="1"/>
+    <x v="31"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="4500"/>
+    <n v="4500"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°78"/>
+    <x v="63"/>
+    <n v="1"/>
+    <x v="31"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="4500"/>
+    <n v="4500"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°79"/>
+    <x v="64"/>
+    <n v="1"/>
+    <x v="31"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="4500"/>
+    <n v="4500"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°80"/>
+    <x v="65"/>
+    <n v="1"/>
+    <x v="31"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="4500"/>
+    <n v="4500"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°81"/>
+    <x v="66"/>
+    <n v="1"/>
+    <x v="31"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="4500"/>
+    <n v="4500"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°82"/>
+    <x v="67"/>
+    <n v="1"/>
+    <x v="31"/>
+    <s v="Und"/>
+    <n v="2"/>
+    <n v="4500"/>
+    <n v="9000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°83"/>
+    <x v="68"/>
+    <n v="1"/>
+    <x v="31"/>
+    <s v="Und"/>
+    <n v="2"/>
+    <n v="4500"/>
+    <n v="9000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°73"/>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="32"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="1599"/>
+    <n v="1599"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°93"/>
+    <x v="13"/>
+    <n v="30"/>
+    <x v="33"/>
+    <s v="doc."/>
+    <n v="3"/>
+    <n v="198"/>
+    <n v="594"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°94"/>
+    <x v="14"/>
+    <n v="30"/>
+    <x v="33"/>
+    <s v="doc."/>
+    <n v="3"/>
+    <n v="198"/>
+    <n v="594"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°93"/>
+    <x v="13"/>
+    <n v="31"/>
+    <x v="34"/>
+    <s v="doc."/>
+    <n v="3"/>
+    <n v="145"/>
+    <n v="435"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°94"/>
+    <x v="14"/>
+    <n v="31"/>
+    <x v="34"/>
+    <s v="doc."/>
+    <n v="3"/>
+    <n v="145"/>
+    <n v="435"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°93"/>
+    <x v="13"/>
+    <n v="29"/>
+    <x v="35"/>
+    <s v="doc."/>
+    <n v="3"/>
+    <n v="132"/>
+    <n v="396"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°94"/>
+    <x v="14"/>
+    <n v="29"/>
+    <x v="35"/>
+    <s v="doc."/>
+    <n v="3"/>
+    <n v="132"/>
+    <n v="396"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°93"/>
+    <x v="13"/>
+    <n v="28"/>
+    <x v="36"/>
+    <s v="doc."/>
+    <n v="3"/>
+    <n v="115"/>
+    <n v="345"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°94"/>
+    <x v="14"/>
+    <n v="28"/>
+    <x v="36"/>
+    <s v="doc."/>
+    <n v="3"/>
+    <n v="115"/>
+    <n v="345"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°93"/>
+    <x v="13"/>
+    <n v="27"/>
+    <x v="37"/>
+    <s v="doc."/>
+    <n v="3"/>
+    <n v="115.5"/>
+    <n v="346.5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°94"/>
+    <x v="14"/>
+    <n v="27"/>
+    <x v="37"/>
+    <s v="doc."/>
+    <n v="3"/>
+    <n v="115.5"/>
+    <n v="346.5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°74"/>
+    <x v="52"/>
+    <n v="7"/>
+    <x v="38"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="27500"/>
+    <n v="27500"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°11"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="39"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="550"/>
+    <n v="550"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°17"/>
+    <x v="18"/>
+    <n v="3"/>
+    <x v="39"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="550"/>
+    <n v="550"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°18"/>
+    <x v="69"/>
+    <n v="1"/>
+    <x v="39"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="550"/>
+    <n v="550"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°40"/>
+    <x v="21"/>
+    <n v="4"/>
+    <x v="39"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="550"/>
+    <n v="550"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°45"/>
+    <x v="24"/>
+    <n v="3"/>
+    <x v="39"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="550"/>
+    <n v="550"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°46"/>
+    <x v="25"/>
+    <n v="3"/>
+    <x v="39"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="550"/>
+    <n v="550"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°47"/>
+    <x v="26"/>
+    <n v="3"/>
+    <x v="39"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="550"/>
+    <n v="550"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°49"/>
+    <x v="28"/>
+    <n v="3"/>
+    <x v="39"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="550"/>
+    <n v="550"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°51"/>
+    <x v="70"/>
+    <n v="1"/>
+    <x v="39"/>
+    <s v="Und"/>
+    <n v="2"/>
+    <n v="550"/>
+    <n v="1100"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°55"/>
+    <x v="30"/>
+    <n v="3"/>
+    <x v="39"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="550"/>
+    <n v="550"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°93"/>
+    <x v="13"/>
+    <n v="26"/>
+    <x v="40"/>
+    <s v="Und"/>
+    <n v="3"/>
+    <n v="56"/>
+    <n v="168"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°94"/>
+    <x v="14"/>
+    <n v="26"/>
+    <x v="40"/>
+    <s v="Und"/>
+    <n v="3"/>
+    <n v="56"/>
+    <n v="168"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°93"/>
+    <x v="13"/>
+    <n v="25"/>
+    <x v="41"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="295"/>
+    <n v="295"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°94"/>
+    <x v="14"/>
+    <n v="25"/>
+    <x v="41"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="295"/>
+    <n v="295"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°93"/>
+    <x v="13"/>
+    <n v="13"/>
+    <x v="42"/>
+    <s v="Und"/>
+    <n v="5"/>
+    <n v="123.9"/>
+    <n v="619.5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°94"/>
+    <x v="14"/>
+    <n v="13"/>
+    <x v="42"/>
+    <s v="Und"/>
+    <n v="5"/>
+    <n v="123.9"/>
+    <n v="619.5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°93"/>
+    <x v="13"/>
+    <n v="14"/>
+    <x v="43"/>
+    <s v="Und"/>
+    <n v="5"/>
+    <n v="140.41999999999999"/>
+    <n v="702.09999999999991"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°94"/>
+    <x v="14"/>
+    <n v="14"/>
+    <x v="43"/>
+    <s v="Und"/>
+    <n v="5"/>
+    <n v="140.41999999999999"/>
+    <n v="702.09999999999991"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°2"/>
+    <x v="71"/>
+    <n v="1"/>
+    <x v="44"/>
+    <s v="Und"/>
+    <n v="8"/>
+    <n v="200"/>
+    <n v="1600"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°73"/>
+    <x v="0"/>
+    <n v="6"/>
+    <x v="45"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="1500"/>
+    <n v="1500"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°84"/>
+    <x v="47"/>
+    <n v="24"/>
+    <x v="46"/>
+    <s v="Unidad"/>
+    <n v="3"/>
+    <n v="4.5"/>
+    <n v="13.5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°85"/>
+    <x v="48"/>
+    <n v="24"/>
+    <x v="46"/>
+    <s v="Unidad"/>
+    <n v="3"/>
+    <n v="4.5"/>
+    <n v="13.5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°84"/>
+    <x v="47"/>
+    <n v="23"/>
+    <x v="47"/>
+    <s v="Unidad"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="9"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°85"/>
+    <x v="48"/>
+    <n v="23"/>
+    <x v="47"/>
+    <s v="Unidad"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="9"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°67"/>
+    <x v="72"/>
+    <n v="4"/>
+    <x v="48"/>
+    <s v="Und"/>
+    <n v="30"/>
+    <n v="70"/>
+    <n v="2100"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°56"/>
+    <x v="73"/>
+    <n v="3"/>
+    <x v="49"/>
+    <s v="Und"/>
+    <n v="12"/>
+    <n v="580"/>
+    <n v="6960"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°67"/>
+    <x v="72"/>
+    <n v="5"/>
+    <x v="49"/>
+    <s v="Und"/>
+    <n v="12"/>
+    <n v="580"/>
+    <n v="6960"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°93"/>
+    <x v="13"/>
+    <n v="23"/>
+    <x v="50"/>
+    <s v="Und"/>
+    <n v="2"/>
+    <n v="113"/>
+    <n v="226"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°94"/>
+    <x v="14"/>
+    <n v="23"/>
+    <x v="50"/>
+    <s v="Und"/>
+    <n v="2"/>
+    <n v="113"/>
+    <n v="226"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°93"/>
+    <x v="13"/>
+    <n v="24"/>
+    <x v="51"/>
+    <s v="Und"/>
+    <n v="2"/>
+    <n v="96"/>
+    <n v="192"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°94"/>
+    <x v="14"/>
+    <n v="24"/>
+    <x v="51"/>
+    <s v="Und"/>
+    <n v="2"/>
+    <n v="96"/>
+    <n v="192"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°10"/>
+    <x v="15"/>
+    <n v="5"/>
+    <x v="52"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="280"/>
+    <n v="280"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°43"/>
+    <x v="22"/>
+    <n v="5"/>
+    <x v="52"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="280"/>
+    <n v="280"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°84"/>
+    <x v="47"/>
+    <n v="15"/>
+    <x v="53"/>
+    <s v="Unidad"/>
+    <n v="3"/>
+    <n v="8"/>
+    <n v="24"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°85"/>
+    <x v="48"/>
+    <n v="15"/>
+    <x v="53"/>
+    <s v="Unidad"/>
+    <n v="3"/>
+    <n v="8"/>
+    <n v="24"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°84"/>
+    <x v="47"/>
+    <n v="16"/>
+    <x v="54"/>
+    <s v="Unidad"/>
+    <n v="3"/>
+    <n v="12"/>
+    <n v="36"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°85"/>
+    <x v="48"/>
+    <n v="16"/>
+    <x v="54"/>
+    <s v="Unidad"/>
+    <n v="3"/>
+    <n v="12"/>
+    <n v="36"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°1"/>
+    <x v="39"/>
+    <n v="4"/>
+    <x v="55"/>
+    <s v="Und"/>
+    <n v="12"/>
+    <n v="310"/>
+    <n v="3720"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°4"/>
+    <x v="32"/>
+    <n v="3"/>
+    <x v="55"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="310"/>
+    <n v="310"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°6"/>
+    <x v="41"/>
+    <n v="3"/>
+    <x v="55"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="310"/>
+    <n v="310"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°22"/>
+    <x v="40"/>
+    <n v="3"/>
+    <x v="55"/>
+    <s v="Und"/>
+    <n v="12"/>
+    <n v="310"/>
+    <n v="3720"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°26"/>
+    <x v="74"/>
+    <n v="2"/>
+    <x v="55"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="310"/>
+    <n v="310"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°28"/>
+    <x v="36"/>
+    <n v="4"/>
+    <x v="55"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="310"/>
+    <n v="310"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°29"/>
+    <x v="75"/>
+    <n v="2"/>
+    <x v="55"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="310"/>
+    <n v="310"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°10"/>
+    <x v="15"/>
+    <n v="6"/>
+    <x v="56"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="540"/>
+    <n v="540"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°11"/>
+    <x v="1"/>
+    <n v="6"/>
+    <x v="56"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="540"/>
+    <n v="540"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°13"/>
+    <x v="16"/>
+    <n v="3"/>
+    <x v="56"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="540"/>
+    <n v="540"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°15"/>
+    <x v="17"/>
+    <n v="3"/>
+    <x v="56"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="540"/>
+    <n v="540"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°17"/>
+    <x v="18"/>
+    <n v="4"/>
+    <x v="56"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="540"/>
+    <n v="540"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°19"/>
+    <x v="19"/>
+    <n v="3"/>
+    <x v="56"/>
+    <s v="Und"/>
+    <n v="3"/>
+    <n v="540"/>
+    <n v="1620"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°20"/>
+    <x v="31"/>
+    <n v="2"/>
+    <x v="56"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="540"/>
+    <n v="540"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°9"/>
+    <x v="20"/>
+    <n v="3"/>
+    <x v="56"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="540"/>
+    <n v="540"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°33"/>
+    <x v="76"/>
+    <n v="1"/>
+    <x v="56"/>
+    <s v="Und"/>
+    <n v="2"/>
+    <n v="540"/>
+    <n v="1080"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°35"/>
+    <x v="33"/>
+    <n v="2"/>
+    <x v="56"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="540"/>
+    <n v="540"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°39"/>
+    <x v="6"/>
+    <n v="2"/>
+    <x v="56"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="540"/>
+    <n v="540"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°40"/>
+    <x v="21"/>
+    <n v="5"/>
+    <x v="56"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="540"/>
+    <n v="540"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°43"/>
+    <x v="22"/>
+    <n v="6"/>
+    <x v="56"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="540"/>
+    <n v="540"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°44"/>
+    <x v="23"/>
+    <n v="3"/>
+    <x v="56"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="540"/>
+    <n v="540"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°45"/>
+    <x v="24"/>
+    <n v="4"/>
+    <x v="56"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="540"/>
+    <n v="540"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°46"/>
+    <x v="25"/>
+    <n v="4"/>
+    <x v="56"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="540"/>
+    <n v="540"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°47"/>
+    <x v="26"/>
+    <n v="4"/>
+    <x v="56"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="540"/>
+    <n v="540"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°48"/>
+    <x v="27"/>
+    <n v="3"/>
+    <x v="56"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="540"/>
+    <n v="540"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°49"/>
+    <x v="28"/>
+    <n v="4"/>
+    <x v="56"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="540"/>
+    <n v="540"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°50"/>
+    <x v="29"/>
+    <n v="3"/>
+    <x v="56"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="540"/>
+    <n v="540"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°55"/>
+    <x v="30"/>
+    <n v="4"/>
+    <x v="56"/>
+    <s v="Und"/>
+    <n v="2"/>
+    <n v="540"/>
+    <n v="1080"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°12"/>
+    <x v="46"/>
+    <n v="2"/>
+    <x v="57"/>
+    <s v="Und"/>
+    <n v="2"/>
+    <n v="460"/>
+    <n v="920"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°2"/>
+    <x v="71"/>
+    <n v="2"/>
+    <x v="57"/>
+    <s v="Und"/>
+    <n v="16"/>
+    <n v="460"/>
+    <n v="7360"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°23"/>
+    <x v="34"/>
+    <n v="2"/>
+    <x v="57"/>
+    <s v="Und"/>
+    <n v="5"/>
+    <n v="460"/>
+    <n v="2300"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°26"/>
+    <x v="74"/>
+    <n v="3"/>
+    <x v="57"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="460"/>
+    <n v="460"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°55"/>
+    <x v="30"/>
+    <n v="5"/>
+    <x v="57"/>
+    <s v="Und"/>
+    <n v="2"/>
+    <n v="460"/>
+    <n v="920"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°11"/>
+    <x v="1"/>
+    <n v="7"/>
+    <x v="58"/>
+    <s v="Und"/>
+    <n v="4"/>
+    <n v="680"/>
+    <n v="2720"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°40"/>
+    <x v="21"/>
+    <n v="6"/>
+    <x v="58"/>
+    <s v="Und"/>
+    <n v="4"/>
+    <n v="680"/>
+    <n v="2720"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°1"/>
+    <x v="39"/>
+    <n v="5"/>
+    <x v="59"/>
+    <s v="Und"/>
+    <n v="12"/>
+    <n v="560"/>
+    <n v="6720"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°6"/>
+    <x v="41"/>
+    <n v="4"/>
+    <x v="59"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="560"/>
+    <n v="560"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°28"/>
+    <x v="36"/>
+    <n v="5"/>
+    <x v="59"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="560"/>
+    <n v="560"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°29"/>
+    <x v="75"/>
+    <n v="3"/>
+    <x v="59"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="560"/>
+    <n v="560"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°2"/>
+    <x v="71"/>
+    <n v="3"/>
+    <x v="60"/>
+    <s v="Und"/>
+    <n v="3"/>
+    <n v="560"/>
+    <n v="1680"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°23"/>
+    <x v="34"/>
+    <n v="3"/>
+    <x v="61"/>
+    <s v="Und"/>
+    <n v="2"/>
+    <n v="600"/>
+    <n v="1200"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°74"/>
+    <x v="52"/>
+    <n v="5"/>
+    <x v="62"/>
+    <s v="Und"/>
+    <n v="2"/>
+    <n v="1200"/>
+    <n v="2400"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°60"/>
+    <x v="77"/>
+    <n v="1"/>
+    <x v="63"/>
+    <s v="Und"/>
+    <n v="2"/>
+    <n v="5425"/>
+    <n v="10850"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°72"/>
+    <x v="78"/>
+    <n v="1"/>
+    <x v="63"/>
+    <s v="Und"/>
+    <n v="2"/>
+    <n v="5425"/>
+    <n v="10850"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°84"/>
+    <x v="47"/>
+    <n v="3"/>
+    <x v="64"/>
+    <s v="Unidad"/>
+    <n v="3"/>
+    <n v="147"/>
+    <n v="441"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°85"/>
+    <x v="48"/>
+    <n v="3"/>
+    <x v="64"/>
+    <s v="Unidad"/>
+    <n v="3"/>
+    <n v="147"/>
+    <n v="441"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="CUADRO N°90"/>
+    <x v="42"/>
+    <n v="10"/>
+    <x v="65"/>
+    <s v="Unidad"/>
+    <n v="5"/>
+    <n v="350"/>
+    <n v="1750"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°62"/>
+    <x v="79"/>
+    <n v="1"/>
+    <x v="66"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="14850"/>
+    <n v="14850"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°88"/>
+    <x v="80"/>
+    <n v="1"/>
+    <x v="67"/>
+    <s v="Unidad"/>
+    <n v="6"/>
+    <n v="586.46"/>
+    <n v="3518.76"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°89"/>
+    <x v="81"/>
+    <n v="1"/>
+    <x v="67"/>
+    <s v="Unidad"/>
+    <n v="6"/>
+    <n v="586.46"/>
+    <n v="3518.76"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°84"/>
+    <x v="47"/>
+    <n v="17"/>
+    <x v="68"/>
+    <s v="Unidad"/>
+    <n v="6"/>
+    <n v="40"/>
+    <n v="240"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°85"/>
+    <x v="48"/>
+    <n v="17"/>
+    <x v="68"/>
+    <s v="Unidad"/>
+    <n v="6"/>
+    <n v="40"/>
+    <n v="240"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°84"/>
+    <x v="47"/>
+    <n v="2"/>
+    <x v="69"/>
+    <s v="Unidad"/>
+    <n v="3"/>
+    <n v="282"/>
+    <n v="846"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°85"/>
+    <x v="48"/>
+    <n v="2"/>
+    <x v="69"/>
+    <s v="Unidad"/>
+    <n v="3"/>
+    <n v="282"/>
+    <n v="846"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°84"/>
+    <x v="47"/>
+    <n v="1"/>
+    <x v="70"/>
+    <s v="Unidad"/>
+    <n v="3"/>
+    <n v="282"/>
+    <n v="846"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°85"/>
+    <x v="48"/>
+    <n v="1"/>
+    <x v="70"/>
+    <s v="Unidad"/>
+    <n v="3"/>
+    <n v="282"/>
+    <n v="846"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°93"/>
+    <x v="13"/>
+    <n v="4"/>
+    <x v="71"/>
+    <s v="jgo"/>
+    <n v="12"/>
+    <n v="21.45"/>
+    <n v="257.39999999999998"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°94"/>
+    <x v="14"/>
+    <n v="4"/>
+    <x v="72"/>
+    <s v="jgo"/>
+    <n v="12"/>
+    <n v="21.45"/>
+    <n v="257.39999999999998"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°62"/>
+    <x v="79"/>
+    <n v="2"/>
+    <x v="73"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="399"/>
+    <n v="399"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°63"/>
+    <x v="58"/>
+    <n v="2"/>
+    <x v="73"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="399"/>
+    <n v="399"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°76"/>
+    <x v="82"/>
+    <n v="1"/>
+    <x v="73"/>
+    <s v="Und"/>
+    <n v="2"/>
+    <n v="399"/>
+    <n v="798"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°82"/>
+    <x v="67"/>
+    <n v="2"/>
+    <x v="73"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="399"/>
+    <n v="399"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°73"/>
+    <x v="0"/>
+    <n v="4"/>
+    <x v="74"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="16000"/>
+    <n v="16000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°57"/>
+    <x v="56"/>
+    <n v="2"/>
+    <x v="75"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="5200"/>
+    <n v="5200"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°58"/>
+    <x v="57"/>
+    <n v="2"/>
+    <x v="75"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="5200"/>
+    <n v="5200"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°63"/>
+    <x v="58"/>
+    <n v="3"/>
+    <x v="75"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="5200"/>
+    <n v="5200"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°64"/>
+    <x v="59"/>
+    <n v="2"/>
+    <x v="75"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="5200"/>
+    <n v="5200"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°65"/>
+    <x v="60"/>
+    <n v="2"/>
+    <x v="75"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="5200"/>
+    <n v="5200"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°68"/>
+    <x v="61"/>
+    <n v="2"/>
+    <x v="75"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="5200"/>
+    <n v="5200"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°70"/>
+    <x v="83"/>
+    <n v="1"/>
+    <x v="75"/>
+    <s v="Und"/>
+    <n v="2"/>
+    <n v="5200"/>
+    <n v="10400"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°78"/>
+    <x v="63"/>
+    <n v="2"/>
+    <x v="75"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="5200"/>
+    <n v="5200"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°79"/>
+    <x v="64"/>
+    <n v="2"/>
+    <x v="75"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="5200"/>
+    <n v="5200"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°80"/>
+    <x v="65"/>
+    <n v="2"/>
+    <x v="75"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="5200"/>
+    <n v="5200"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°81"/>
+    <x v="66"/>
+    <n v="2"/>
+    <x v="75"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="5200"/>
+    <n v="5200"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°82"/>
+    <x v="67"/>
+    <n v="3"/>
+    <x v="75"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="5200"/>
+    <n v="5200"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°83"/>
+    <x v="68"/>
+    <n v="2"/>
+    <x v="75"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="5200"/>
+    <n v="5200"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="CUADRO N°90"/>
+    <x v="42"/>
+    <n v="3"/>
+    <x v="76"/>
+    <s v="kit"/>
+    <n v="1"/>
+    <n v="9650"/>
+    <n v="9650"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°93"/>
+    <x v="13"/>
+    <n v="15"/>
+    <x v="77"/>
+    <s v="Und"/>
+    <n v="3"/>
+    <n v="136.5"/>
+    <n v="409.5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°94"/>
+    <x v="14"/>
+    <n v="15"/>
+    <x v="77"/>
+    <s v="Und"/>
+    <n v="3"/>
+    <n v="136.5"/>
+    <n v="409.5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°93"/>
+    <x v="13"/>
+    <n v="16"/>
+    <x v="78"/>
+    <s v="Und"/>
+    <n v="3"/>
+    <n v="145"/>
+    <n v="435"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°94"/>
+    <x v="14"/>
+    <n v="16"/>
+    <x v="78"/>
+    <s v="Und"/>
+    <n v="3"/>
+    <n v="145"/>
+    <n v="435"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="CUADRO N°90"/>
+    <x v="42"/>
+    <n v="8"/>
+    <x v="79"/>
+    <s v="Unidad"/>
+    <n v="6"/>
+    <n v="250"/>
+    <n v="1500"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°1"/>
+    <x v="39"/>
+    <n v="6"/>
+    <x v="80"/>
+    <s v="Und"/>
+    <n v="24"/>
+    <n v="1335.76"/>
+    <n v="32058.239999999998"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°14"/>
+    <x v="84"/>
+    <n v="1"/>
+    <x v="80"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="1335.76"/>
+    <n v="1335.76"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°22"/>
+    <x v="40"/>
+    <n v="4"/>
+    <x v="80"/>
+    <s v="Und"/>
+    <n v="24"/>
+    <n v="1335.76"/>
+    <n v="32058.239999999998"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°52"/>
+    <x v="85"/>
+    <n v="1"/>
+    <x v="80"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="1335.76"/>
+    <n v="1335.76"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°7"/>
+    <x v="43"/>
+    <n v="2"/>
+    <x v="81"/>
+    <s v="Und"/>
+    <n v="3"/>
+    <n v="857.3"/>
+    <n v="2571.8999999999996"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°22"/>
+    <x v="40"/>
+    <n v="5"/>
+    <x v="81"/>
+    <s v="Und"/>
+    <n v="6"/>
+    <n v="857.3"/>
+    <n v="5143.7999999999993"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°30"/>
+    <x v="44"/>
+    <n v="2"/>
+    <x v="81"/>
+    <s v="Und"/>
+    <n v="4"/>
+    <n v="857.3"/>
+    <n v="3429.2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°38"/>
+    <x v="45"/>
+    <n v="2"/>
+    <x v="81"/>
+    <s v="Und"/>
+    <n v="2"/>
+    <n v="857.3"/>
+    <n v="1714.6"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°22"/>
+    <x v="40"/>
+    <n v="6"/>
+    <x v="82"/>
+    <s v="Und"/>
+    <n v="6"/>
+    <n v="619.5"/>
+    <n v="3717"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°22"/>
+    <x v="40"/>
+    <n v="7"/>
+    <x v="83"/>
+    <s v="Und"/>
+    <n v="4"/>
+    <n v="2500"/>
+    <n v="10000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°22"/>
+    <x v="40"/>
+    <n v="8"/>
+    <x v="84"/>
+    <s v="Unidad"/>
+    <n v="1"/>
+    <n v="3200"/>
+    <n v="3200"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="0"/>
+    <s v="CUADRO N°74"/>
+    <x v="52"/>
+    <n v="9"/>
+    <x v="85"/>
+    <s v="Und"/>
+    <n v="8"/>
+    <n v="650"/>
+    <n v="5200"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="0"/>
+    <s v="CUADRO N°74"/>
+    <x v="52"/>
+    <n v="11"/>
+    <x v="86"/>
+    <s v="Unidad"/>
+    <n v="1"/>
+    <n v="18000"/>
+    <n v="18000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°93"/>
+    <x v="13"/>
+    <n v="10"/>
+    <x v="87"/>
+    <s v="Unidad"/>
+    <n v="4"/>
+    <n v="15"/>
+    <n v="60"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°94"/>
+    <x v="14"/>
+    <n v="10"/>
+    <x v="87"/>
+    <s v="Unidad"/>
+    <n v="4"/>
+    <n v="15"/>
+    <n v="60"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°91"/>
+    <x v="49"/>
+    <n v="10"/>
+    <x v="88"/>
+    <s v="Unidad"/>
+    <n v="1"/>
+    <n v="30"/>
+    <n v="30"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°92"/>
+    <x v="50"/>
+    <n v="10"/>
+    <x v="88"/>
+    <s v="Unidad"/>
+    <n v="1"/>
+    <n v="30"/>
+    <n v="30"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°88"/>
+    <x v="80"/>
+    <n v="3"/>
+    <x v="89"/>
+    <s v="kit"/>
+    <n v="1"/>
+    <n v="2000"/>
+    <n v="2000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°89"/>
+    <x v="81"/>
+    <n v="3"/>
+    <x v="89"/>
+    <s v="kit"/>
+    <n v="1"/>
+    <n v="2000"/>
+    <n v="2000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°84"/>
+    <x v="47"/>
+    <n v="6"/>
+    <x v="90"/>
+    <s v="Unidad"/>
+    <n v="3"/>
+    <n v="180"/>
+    <n v="540"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°85"/>
+    <x v="48"/>
+    <n v="6"/>
+    <x v="90"/>
+    <s v="Unidad"/>
+    <n v="3"/>
+    <n v="180"/>
+    <n v="540"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°84"/>
+    <x v="47"/>
+    <n v="7"/>
+    <x v="91"/>
+    <s v="Unidad"/>
+    <n v="3"/>
+    <n v="11.5"/>
+    <n v="34.5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°85"/>
+    <x v="48"/>
+    <n v="7"/>
+    <x v="91"/>
+    <s v="Unidad"/>
+    <n v="3"/>
+    <n v="11.5"/>
+    <n v="34.5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°60"/>
+    <x v="77"/>
+    <n v="2"/>
+    <x v="92"/>
+    <s v="Und"/>
+    <n v="5"/>
+    <n v="525"/>
+    <n v="2625"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°72"/>
+    <x v="78"/>
+    <n v="2"/>
+    <x v="92"/>
+    <s v="Und"/>
+    <n v="5"/>
+    <n v="525"/>
+    <n v="2625"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°93"/>
+    <x v="13"/>
+    <n v="22"/>
+    <x v="93"/>
+    <s v="Und"/>
+    <n v="2"/>
+    <n v="25"/>
+    <n v="50"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°94"/>
+    <x v="14"/>
+    <n v="22"/>
+    <x v="93"/>
+    <s v="Und"/>
+    <n v="2"/>
+    <n v="25"/>
+    <n v="50"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°22"/>
+    <x v="40"/>
+    <n v="7"/>
+    <x v="94"/>
+    <s v="Und"/>
+    <n v="360"/>
+    <n v="195"/>
+    <n v="70200"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°1"/>
+    <x v="39"/>
+    <n v="7"/>
+    <x v="95"/>
+    <s v="Und"/>
+    <n v="120"/>
+    <n v="170"/>
+    <n v="20400"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°1"/>
+    <x v="39"/>
+    <n v="8"/>
+    <x v="96"/>
+    <s v="Und"/>
+    <n v="120"/>
+    <n v="185"/>
+    <n v="22200"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°1"/>
+    <x v="39"/>
+    <n v="9"/>
+    <x v="97"/>
+    <s v="Und"/>
+    <n v="120"/>
+    <n v="195"/>
+    <n v="23400"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°24"/>
+    <x v="11"/>
+    <n v="4"/>
+    <x v="98"/>
+    <s v="Und"/>
+    <n v="30"/>
+    <n v="220"/>
+    <n v="6600"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°29"/>
+    <x v="75"/>
+    <n v="4"/>
+    <x v="98"/>
+    <s v="Und"/>
+    <n v="30"/>
+    <n v="220"/>
+    <n v="6600"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°14"/>
+    <x v="84"/>
+    <n v="2"/>
+    <x v="99"/>
+    <s v="Und"/>
+    <n v="2"/>
+    <n v="400"/>
+    <n v="800"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°52"/>
+    <x v="85"/>
+    <n v="2"/>
+    <x v="99"/>
+    <s v="Und"/>
+    <n v="2"/>
+    <n v="400"/>
+    <n v="800"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°18"/>
+    <x v="69"/>
+    <n v="2"/>
+    <x v="100"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="440"/>
+    <n v="440"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°2"/>
+    <x v="71"/>
+    <n v="4"/>
+    <x v="101"/>
+    <s v="Und"/>
+    <n v="2"/>
+    <n v="250"/>
+    <n v="500"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°23"/>
+    <x v="34"/>
+    <n v="4"/>
+    <x v="101"/>
+    <s v="Und"/>
+    <n v="2"/>
+    <n v="250"/>
+    <n v="500"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°32"/>
+    <x v="86"/>
+    <n v="1"/>
+    <x v="101"/>
+    <s v="Und"/>
+    <n v="4"/>
+    <n v="250"/>
+    <n v="1000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°14"/>
+    <x v="84"/>
+    <n v="3"/>
+    <x v="102"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="180"/>
+    <n v="180"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°52"/>
+    <x v="85"/>
+    <n v="3"/>
+    <x v="102"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="180"/>
+    <n v="180"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°41"/>
+    <x v="87"/>
+    <n v="1"/>
+    <x v="103"/>
+    <s v="Und"/>
+    <n v="25"/>
+    <n v="450"/>
+    <n v="11250"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°10"/>
+    <x v="15"/>
+    <n v="7"/>
+    <x v="104"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="200"/>
+    <n v="200"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°43"/>
+    <x v="22"/>
+    <n v="7"/>
+    <x v="104"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="200"/>
+    <n v="200"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°2"/>
+    <x v="71"/>
+    <n v="5"/>
+    <x v="105"/>
+    <s v="Und"/>
+    <n v="8"/>
+    <n v="300"/>
+    <n v="2400"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°51"/>
+    <x v="70"/>
+    <n v="2"/>
+    <x v="106"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="2100"/>
+    <n v="2100"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°93"/>
+    <x v="13"/>
+    <n v="2"/>
+    <x v="107"/>
+    <s v="Und"/>
+    <n v="3"/>
+    <n v="2242.5"/>
+    <n v="6727.5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°94"/>
+    <x v="14"/>
+    <n v="2"/>
+    <x v="107"/>
+    <s v="Und"/>
+    <n v="3"/>
+    <n v="2242.5"/>
+    <n v="6727.5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°14"/>
+    <x v="84"/>
+    <n v="4"/>
+    <x v="108"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="510"/>
+    <n v="510"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°52"/>
+    <x v="85"/>
+    <n v="4"/>
+    <x v="108"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="510"/>
+    <n v="510"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°37"/>
+    <x v="5"/>
+    <n v="2"/>
+    <x v="109"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="1200"/>
+    <n v="1200"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°3"/>
+    <x v="37"/>
+    <n v="2"/>
+    <x v="110"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="340"/>
+    <n v="340"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°5"/>
+    <x v="38"/>
+    <n v="3"/>
+    <x v="110"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="340"/>
+    <n v="340"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°24"/>
+    <x v="11"/>
+    <n v="5"/>
+    <x v="110"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="340"/>
+    <n v="340"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°27"/>
+    <x v="35"/>
+    <n v="3"/>
+    <x v="110"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="340"/>
+    <n v="340"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°2"/>
+    <x v="71"/>
+    <n v="6"/>
+    <x v="111"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="400"/>
+    <n v="400"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°23"/>
+    <x v="34"/>
+    <n v="5"/>
+    <x v="111"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="400"/>
+    <n v="400"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°25"/>
+    <x v="88"/>
+    <n v="2"/>
+    <x v="111"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="400"/>
+    <n v="400"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°91"/>
+    <x v="49"/>
+    <n v="6"/>
+    <x v="112"/>
+    <s v="Unidad"/>
+    <n v="1"/>
+    <n v="200"/>
+    <n v="200"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°92"/>
+    <x v="50"/>
+    <n v="6"/>
+    <x v="112"/>
+    <s v="Unidad"/>
+    <n v="1"/>
+    <n v="200"/>
+    <n v="200"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°23"/>
+    <x v="34"/>
+    <n v="6"/>
+    <x v="113"/>
+    <s v="Und"/>
+    <n v="8"/>
+    <n v="520"/>
+    <n v="4160"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°91"/>
+    <x v="49"/>
+    <n v="5"/>
+    <x v="114"/>
+    <s v="Unidad"/>
+    <n v="1"/>
+    <n v="950"/>
+    <n v="950"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°92"/>
+    <x v="50"/>
+    <n v="5"/>
+    <x v="114"/>
+    <s v="Unidad"/>
+    <n v="1"/>
+    <n v="950"/>
+    <n v="950"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°25"/>
+    <x v="88"/>
+    <n v="3"/>
+    <x v="115"/>
+    <s v="Und"/>
+    <n v="60"/>
+    <n v="280"/>
+    <n v="16800"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°2"/>
+    <x v="71"/>
+    <n v="7"/>
+    <x v="116"/>
+    <s v="Und"/>
+    <n v="3"/>
+    <n v="350"/>
+    <n v="1050"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°3"/>
+    <x v="37"/>
+    <n v="3"/>
+    <x v="116"/>
+    <s v="Und"/>
+    <n v="30"/>
+    <n v="350"/>
+    <n v="10500"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°23"/>
+    <x v="34"/>
+    <n v="7"/>
+    <x v="116"/>
+    <s v="Und"/>
+    <n v="3"/>
+    <n v="350"/>
+    <n v="1050"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°5"/>
+    <x v="38"/>
+    <n v="4"/>
+    <x v="117"/>
+    <s v="Und"/>
+    <n v="5"/>
+    <n v="520"/>
+    <n v="2600"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°28"/>
+    <x v="36"/>
+    <n v="6"/>
+    <x v="117"/>
+    <s v="Und"/>
+    <n v="5"/>
+    <n v="520"/>
+    <n v="2600"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°6"/>
+    <x v="41"/>
+    <n v="5"/>
+    <x v="118"/>
+    <s v="Und"/>
+    <n v="30"/>
+    <n v="300"/>
+    <n v="9000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="CUADRO N°90"/>
+    <x v="42"/>
+    <n v="2"/>
+    <x v="119"/>
+    <s v="kit"/>
+    <n v="1"/>
+    <n v="4500"/>
+    <n v="4500"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°60"/>
+    <x v="77"/>
+    <n v="3"/>
+    <x v="120"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="3150"/>
+    <n v="3150"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°72"/>
+    <x v="78"/>
+    <n v="3"/>
+    <x v="120"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="3150"/>
+    <n v="3150"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°60"/>
+    <x v="77"/>
+    <n v="4"/>
+    <x v="121"/>
+    <s v="Und"/>
+    <n v="6"/>
+    <n v="1399"/>
+    <n v="8394"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°72"/>
+    <x v="78"/>
+    <n v="4"/>
+    <x v="121"/>
+    <s v="Und"/>
+    <n v="5"/>
+    <n v="1399"/>
+    <n v="6995"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="0"/>
+    <s v="CUADRO N°74"/>
+    <x v="52"/>
+    <n v="11"/>
+    <x v="122"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="750"/>
+    <n v="1500"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°84"/>
+    <x v="47"/>
+    <n v="8"/>
+    <x v="123"/>
+    <s v="Unidad"/>
+    <n v="3"/>
+    <n v="1.5"/>
+    <n v="4.5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°85"/>
+    <x v="48"/>
+    <n v="8"/>
+    <x v="123"/>
+    <s v="Unidad"/>
+    <n v="3"/>
+    <n v="1.5"/>
+    <n v="4.5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°1"/>
+    <x v="39"/>
+    <n v="10"/>
+    <x v="124"/>
+    <s v="Und"/>
+    <n v="72"/>
+    <n v="350"/>
+    <n v="25200"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°22"/>
+    <x v="40"/>
+    <n v="8"/>
+    <x v="124"/>
+    <s v="Und"/>
+    <n v="84"/>
+    <n v="350"/>
+    <n v="29400"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="CUADRO N°90"/>
+    <x v="42"/>
+    <n v="9"/>
+    <x v="125"/>
+    <s v="Unidad"/>
+    <n v="10"/>
+    <n v="80"/>
+    <n v="800"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°56"/>
+    <x v="73"/>
+    <n v="5"/>
+    <x v="126"/>
+    <s v="Und"/>
+    <n v="12"/>
+    <n v="22600"/>
+    <n v="271200"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°57"/>
+    <x v="56"/>
+    <n v="3"/>
+    <x v="126"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="22600"/>
+    <n v="22600"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°58"/>
+    <x v="57"/>
+    <n v="3"/>
+    <x v="126"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="22600"/>
+    <n v="22600"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°60"/>
+    <x v="77"/>
+    <n v="6"/>
+    <x v="126"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="22600"/>
+    <n v="22600"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°67"/>
+    <x v="72"/>
+    <n v="7"/>
+    <x v="126"/>
+    <s v="Und"/>
+    <n v="12"/>
+    <n v="22600"/>
+    <n v="271200"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°68"/>
+    <x v="61"/>
+    <n v="3"/>
+    <x v="126"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="22600"/>
+    <n v="22600"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°69"/>
+    <x v="89"/>
+    <n v="2"/>
+    <x v="126"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="22600"/>
+    <n v="22600"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°70"/>
+    <x v="83"/>
+    <n v="3"/>
+    <x v="126"/>
+    <s v="Und"/>
+    <n v="2"/>
+    <n v="22600"/>
+    <n v="45200"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°72"/>
+    <x v="78"/>
+    <n v="6"/>
+    <x v="126"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="22600"/>
+    <n v="22600"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°74"/>
+    <x v="52"/>
+    <n v="12"/>
+    <x v="126"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="22600"/>
+    <n v="22600"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°74"/>
+    <x v="52"/>
+    <n v="3"/>
+    <x v="127"/>
+    <s v="Und"/>
+    <n v="6"/>
+    <n v="5000"/>
+    <n v="30000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°70"/>
+    <x v="83"/>
+    <n v="2"/>
+    <x v="128"/>
+    <s v="Und"/>
+    <n v="60"/>
+    <n v="5600"/>
+    <n v="336000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°56"/>
+    <x v="73"/>
+    <n v="4"/>
+    <x v="129"/>
+    <s v="Und"/>
+    <n v="12"/>
+    <n v="5500"/>
+    <n v="66000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°60"/>
+    <x v="77"/>
+    <n v="5"/>
+    <x v="129"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="5500"/>
+    <n v="5500"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°61"/>
+    <x v="90"/>
+    <n v="2"/>
+    <x v="129"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="5500"/>
+    <n v="5500"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°67"/>
+    <x v="72"/>
+    <n v="6"/>
+    <x v="129"/>
+    <s v="Und"/>
+    <n v="12"/>
+    <n v="5500"/>
+    <n v="66000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°69"/>
+    <x v="89"/>
+    <n v="1"/>
+    <x v="129"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="5500"/>
+    <n v="5500"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°72"/>
+    <x v="78"/>
+    <n v="5"/>
+    <x v="129"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="5500"/>
+    <n v="5500"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°74"/>
+    <x v="52"/>
+    <n v="1"/>
+    <x v="129"/>
+    <s v="Und"/>
+    <n v="3"/>
+    <n v="5500"/>
+    <n v="16500"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°75"/>
+    <x v="91"/>
+    <n v="1"/>
+    <x v="129"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="5500"/>
+    <n v="5500"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°84"/>
+    <x v="47"/>
+    <n v="19"/>
+    <x v="130"/>
+    <s v="Unidad"/>
+    <n v="1"/>
+    <n v="7"/>
+    <n v="7"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°85"/>
+    <x v="48"/>
+    <n v="19"/>
+    <x v="130"/>
+    <s v="Unidad"/>
+    <n v="1"/>
+    <n v="7"/>
+    <n v="7"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="CUADRO N°90"/>
+    <x v="42"/>
+    <n v="6"/>
+    <x v="131"/>
+    <s v="kit"/>
+    <n v="1"/>
+    <n v="1320"/>
+    <n v="1320"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°84"/>
+    <x v="47"/>
+    <n v="37"/>
+    <x v="132"/>
+    <s v="Unidad"/>
+    <n v="3"/>
+    <n v="8"/>
+    <n v="24"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°85"/>
+    <x v="48"/>
+    <n v="37"/>
+    <x v="132"/>
+    <s v="Unidad"/>
+    <n v="3"/>
+    <n v="8"/>
+    <n v="24"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°93"/>
+    <x v="13"/>
+    <n v="21"/>
+    <x v="133"/>
+    <s v="jgo"/>
+    <n v="1"/>
+    <n v="280"/>
+    <n v="280"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°94"/>
+    <x v="14"/>
+    <n v="21"/>
+    <x v="133"/>
+    <s v="jgo"/>
+    <n v="1"/>
+    <n v="280"/>
+    <n v="280"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°93"/>
+    <x v="13"/>
+    <n v="19"/>
+    <x v="134"/>
+    <s v="jgo"/>
+    <n v="2"/>
+    <n v="170"/>
+    <n v="340"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°94"/>
+    <x v="14"/>
+    <n v="19"/>
+    <x v="134"/>
+    <s v="jgo"/>
+    <n v="2"/>
+    <n v="170"/>
+    <n v="340"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°84"/>
+    <x v="47"/>
+    <n v="41"/>
+    <x v="135"/>
+    <s v="Unidad"/>
+    <n v="12"/>
+    <n v="6"/>
+    <n v="72"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°85"/>
+    <x v="48"/>
+    <n v="41"/>
+    <x v="135"/>
+    <s v="Unidad"/>
+    <n v="12"/>
+    <n v="6"/>
+    <n v="72"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°84"/>
+    <x v="47"/>
+    <n v="35"/>
+    <x v="136"/>
+    <s v="Unidad"/>
+    <n v="6"/>
+    <n v="11"/>
+    <n v="66"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°85"/>
+    <x v="48"/>
+    <n v="35"/>
+    <x v="136"/>
+    <s v="Unidad"/>
+    <n v="6"/>
+    <n v="11"/>
+    <n v="66"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°84"/>
+    <x v="47"/>
+    <n v="36"/>
+    <x v="137"/>
+    <s v="Unidad"/>
+    <n v="6"/>
+    <n v="15"/>
+    <n v="90"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°85"/>
+    <x v="48"/>
+    <n v="36"/>
+    <x v="137"/>
+    <s v="Unidad"/>
+    <n v="6"/>
+    <n v="15"/>
+    <n v="90"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°84"/>
+    <x v="47"/>
+    <n v="9"/>
+    <x v="138"/>
+    <s v="Unidad"/>
+    <n v="3"/>
+    <n v="12"/>
+    <n v="36"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°85"/>
+    <x v="48"/>
+    <n v="9"/>
+    <x v="138"/>
+    <s v="Unidad"/>
+    <n v="3"/>
+    <n v="12"/>
+    <n v="36"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°84"/>
+    <x v="47"/>
+    <n v="10"/>
+    <x v="139"/>
+    <s v="Unidad"/>
+    <n v="3"/>
+    <n v="18"/>
+    <n v="54"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°85"/>
+    <x v="48"/>
+    <n v="10"/>
+    <x v="139"/>
+    <s v="Unidad"/>
+    <n v="3"/>
+    <n v="18"/>
+    <n v="54"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°1"/>
+    <x v="39"/>
+    <n v="11"/>
+    <x v="140"/>
+    <s v="Und"/>
+    <n v="12"/>
+    <n v="750"/>
+    <n v="9000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°2"/>
+    <x v="71"/>
+    <n v="8"/>
+    <x v="140"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="750"/>
+    <n v="750"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°3"/>
+    <x v="37"/>
+    <n v="4"/>
+    <x v="140"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="750"/>
+    <n v="750"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°5"/>
+    <x v="38"/>
+    <n v="5"/>
+    <x v="140"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="750"/>
+    <n v="750"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°22"/>
+    <x v="40"/>
+    <n v="9"/>
+    <x v="140"/>
+    <s v="Und"/>
+    <n v="12"/>
+    <n v="750"/>
+    <n v="9000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°23"/>
+    <x v="34"/>
+    <n v="8"/>
+    <x v="140"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="750"/>
+    <n v="750"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°24"/>
+    <x v="11"/>
+    <n v="6"/>
+    <x v="140"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="750"/>
+    <n v="750"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°25"/>
+    <x v="88"/>
+    <n v="4"/>
+    <x v="140"/>
+    <s v="Und"/>
+    <n v="2"/>
+    <n v="750"/>
+    <n v="1500"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°27"/>
+    <x v="35"/>
+    <n v="4"/>
+    <x v="140"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="750"/>
+    <n v="750"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°6"/>
+    <x v="41"/>
+    <n v="6"/>
+    <x v="141"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="750"/>
+    <n v="750"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°51"/>
+    <x v="70"/>
+    <n v="3"/>
+    <x v="141"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="750"/>
+    <n v="750"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°28"/>
+    <x v="36"/>
+    <n v="7"/>
+    <x v="142"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="750"/>
+    <n v="750"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°29"/>
+    <x v="75"/>
+    <n v="5"/>
+    <x v="142"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="750"/>
+    <n v="750"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°14"/>
+    <x v="84"/>
+    <n v="5"/>
+    <x v="143"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="260"/>
+    <n v="260"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°18"/>
+    <x v="69"/>
+    <n v="3"/>
+    <x v="143"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="260"/>
+    <n v="260"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°45"/>
+    <x v="24"/>
+    <n v="5"/>
+    <x v="143"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="260"/>
+    <n v="260"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°52"/>
+    <x v="85"/>
+    <n v="5"/>
+    <x v="143"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="260"/>
+    <n v="260"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°84"/>
+    <x v="47"/>
+    <n v="14"/>
+    <x v="144"/>
+    <s v="Unidad"/>
+    <n v="3"/>
+    <n v="19"/>
+    <n v="57"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°85"/>
+    <x v="48"/>
+    <n v="14"/>
+    <x v="144"/>
+    <s v="Unidad"/>
+    <n v="3"/>
+    <n v="19"/>
+    <n v="57"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°84"/>
+    <x v="47"/>
+    <n v="44"/>
+    <x v="145"/>
+    <s v="Unidad"/>
+    <n v="3"/>
+    <n v="1.5"/>
+    <n v="4.5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°85"/>
+    <x v="48"/>
+    <n v="44"/>
+    <x v="145"/>
+    <s v="Unidad"/>
+    <n v="3"/>
+    <n v="1.5"/>
+    <n v="4.5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°93"/>
+    <x v="13"/>
+    <n v="9"/>
+    <x v="146"/>
+    <s v="Und"/>
+    <n v="15"/>
+    <n v="5"/>
+    <n v="75"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°94"/>
+    <x v="14"/>
+    <n v="9"/>
+    <x v="146"/>
+    <s v="Und"/>
+    <n v="15"/>
+    <n v="5"/>
+    <n v="75"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°93"/>
+    <x v="13"/>
+    <n v="11"/>
+    <x v="147"/>
+    <s v="Und"/>
+    <n v="30"/>
+    <n v="3.5"/>
+    <n v="105"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°94"/>
+    <x v="14"/>
+    <n v="11"/>
+    <x v="147"/>
+    <s v="Und"/>
+    <n v="30"/>
+    <n v="3.5"/>
+    <n v="105"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°84"/>
+    <x v="47"/>
+    <n v="43"/>
+    <x v="148"/>
+    <s v="Unidad"/>
+    <n v="6"/>
+    <n v="1.5"/>
+    <n v="9"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°85"/>
+    <x v="48"/>
+    <n v="43"/>
+    <x v="148"/>
+    <s v="Unidad"/>
+    <n v="6"/>
+    <n v="1.5"/>
+    <n v="9"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°88"/>
+    <x v="80"/>
+    <n v="2"/>
+    <x v="149"/>
+    <s v="Unidad"/>
+    <n v="3"/>
+    <n v="60"/>
+    <n v="180"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°89"/>
+    <x v="81"/>
+    <n v="2"/>
+    <x v="149"/>
+    <s v="Unidad"/>
+    <n v="3"/>
+    <n v="60"/>
+    <n v="180"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°93"/>
+    <x v="13"/>
+    <n v="20"/>
+    <x v="150"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="172"/>
+    <n v="172"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°94"/>
+    <x v="14"/>
+    <n v="20"/>
+    <x v="150"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="172"/>
+    <n v="172"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°93"/>
+    <x v="13"/>
+    <n v="18"/>
+    <x v="151"/>
+    <s v="Und"/>
+    <n v="3"/>
+    <n v="150"/>
+    <n v="450"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°94"/>
+    <x v="14"/>
+    <n v="18"/>
+    <x v="151"/>
+    <s v="Und"/>
+    <n v="3"/>
+    <n v="150"/>
+    <n v="450"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°93"/>
+    <x v="13"/>
+    <n v="5"/>
+    <x v="152"/>
+    <s v="Juego"/>
+    <n v="2"/>
+    <n v="760"/>
+    <n v="1520"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°94"/>
+    <x v="14"/>
+    <n v="5"/>
+    <x v="152"/>
+    <s v="Juego"/>
+    <n v="2"/>
+    <n v="760"/>
+    <n v="1520"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°84"/>
+    <x v="47"/>
+    <n v="31"/>
+    <x v="153"/>
+    <s v="Unidad"/>
+    <n v="3"/>
+    <n v="12"/>
+    <n v="36"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°85"/>
+    <x v="48"/>
+    <n v="31"/>
+    <x v="153"/>
+    <s v="Unidad"/>
+    <n v="3"/>
+    <n v="12"/>
+    <n v="36"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°93"/>
+    <x v="13"/>
+    <n v="17"/>
+    <x v="154"/>
+    <s v="Und"/>
+    <n v="2"/>
+    <n v="250"/>
+    <n v="500"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°94"/>
+    <x v="14"/>
+    <n v="17"/>
+    <x v="154"/>
+    <s v="Und"/>
+    <n v="2"/>
+    <n v="250"/>
+    <n v="500"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°84"/>
+    <x v="47"/>
+    <n v="11"/>
+    <x v="155"/>
+    <s v="Unidad"/>
+    <n v="3"/>
+    <n v="20"/>
+    <n v="60"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°85"/>
+    <x v="48"/>
+    <n v="11"/>
+    <x v="155"/>
+    <s v="Unidad"/>
+    <n v="3"/>
+    <n v="20"/>
+    <n v="60"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°74"/>
+    <x v="52"/>
+    <n v="8"/>
+    <x v="156"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="3610"/>
+    <n v="3610"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°93"/>
+    <x v="13"/>
+    <n v="3"/>
+    <x v="157"/>
+    <s v="Und"/>
+    <n v="6"/>
+    <n v="75.900000000000006"/>
+    <n v="455.40000000000003"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°94"/>
+    <x v="14"/>
+    <n v="3"/>
+    <x v="158"/>
+    <s v="Und"/>
+    <n v="6"/>
+    <n v="75.900000000000006"/>
+    <n v="455.40000000000003"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°93"/>
+    <x v="13"/>
+    <n v="6"/>
+    <x v="159"/>
+    <s v="Unidad"/>
+    <n v="2"/>
+    <n v="440"/>
+    <n v="880"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°94"/>
+    <x v="14"/>
+    <n v="6"/>
+    <x v="159"/>
+    <s v="Unidad"/>
+    <n v="2"/>
+    <n v="440"/>
+    <n v="880"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°62"/>
+    <x v="79"/>
+    <n v="3"/>
+    <x v="160"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="6500"/>
+    <n v="6500"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°63"/>
+    <x v="58"/>
+    <n v="4"/>
+    <x v="160"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="6500"/>
+    <n v="6500"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°82"/>
+    <x v="67"/>
+    <n v="4"/>
+    <x v="160"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="6500"/>
+    <n v="6500"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°84"/>
+    <x v="47"/>
+    <n v="34"/>
+    <x v="161"/>
+    <s v="Unidad"/>
+    <n v="6"/>
+    <n v="12"/>
+    <n v="72"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°85"/>
+    <x v="48"/>
+    <n v="34"/>
+    <x v="161"/>
+    <s v="Unidad"/>
+    <n v="6"/>
+    <n v="12"/>
+    <n v="72"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°91"/>
+    <x v="49"/>
+    <n v="7"/>
+    <x v="162"/>
+    <s v="Unidad"/>
+    <n v="1"/>
+    <n v="40"/>
+    <n v="40"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°92"/>
+    <x v="50"/>
+    <n v="7"/>
+    <x v="162"/>
+    <s v="Unidad"/>
+    <n v="1"/>
+    <n v="40"/>
+    <n v="40"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="CUADRO N°90"/>
+    <x v="42"/>
+    <n v="5"/>
+    <x v="163"/>
+    <s v="Unidad"/>
+    <n v="3"/>
+    <n v="1800"/>
+    <n v="5400"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°26"/>
+    <x v="74"/>
+    <n v="7"/>
+    <x v="164"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="27000"/>
+    <n v="27000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="CUADRO N°90"/>
+    <x v="42"/>
+    <n v="4"/>
+    <x v="165"/>
+    <s v="kit"/>
+    <n v="1"/>
+    <n v="3250"/>
+    <n v="3250"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°1"/>
+    <x v="39"/>
+    <n v="12"/>
+    <x v="166"/>
+    <s v="Und"/>
+    <n v="120"/>
+    <n v="80"/>
+    <n v="9600"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°1"/>
+    <x v="39"/>
+    <n v="13"/>
+    <x v="167"/>
+    <s v="Und"/>
+    <n v="120"/>
+    <n v="80"/>
+    <n v="9600"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°1"/>
+    <x v="39"/>
+    <n v="14"/>
+    <x v="168"/>
+    <s v="Und"/>
+    <n v="120"/>
+    <n v="80"/>
+    <n v="9600"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°1"/>
+    <x v="39"/>
+    <n v="15"/>
+    <x v="169"/>
+    <s v="Und"/>
+    <n v="12"/>
+    <n v="90"/>
+    <n v="1080"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°10"/>
+    <x v="15"/>
+    <n v="8"/>
+    <x v="169"/>
+    <s v="Und"/>
+    <n v="2"/>
+    <n v="90"/>
+    <n v="180"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°11"/>
+    <x v="1"/>
+    <n v="8"/>
+    <x v="169"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="90"/>
+    <n v="90"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°12"/>
+    <x v="46"/>
+    <n v="3"/>
+    <x v="169"/>
+    <s v="Und"/>
+    <n v="2"/>
+    <n v="90"/>
+    <n v="180"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°13"/>
+    <x v="16"/>
+    <n v="4"/>
+    <x v="169"/>
+    <s v="Und"/>
+    <n v="3"/>
+    <n v="90"/>
+    <n v="270"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°14"/>
+    <x v="84"/>
+    <n v="6"/>
+    <x v="169"/>
+    <s v="Und"/>
+    <n v="4"/>
+    <n v="90"/>
+    <n v="360"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°15"/>
+    <x v="17"/>
+    <n v="4"/>
+    <x v="169"/>
+    <s v="Und"/>
+    <n v="6"/>
+    <n v="90"/>
+    <n v="540"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°17"/>
+    <x v="18"/>
+    <n v="5"/>
+    <x v="169"/>
+    <s v="Und"/>
+    <n v="3"/>
+    <n v="90"/>
+    <n v="270"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°18"/>
+    <x v="69"/>
+    <n v="4"/>
+    <x v="169"/>
+    <s v="Und"/>
+    <n v="10"/>
+    <n v="90"/>
+    <n v="900"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°19"/>
+    <x v="19"/>
+    <n v="4"/>
+    <x v="169"/>
+    <s v="Und"/>
+    <n v="2"/>
+    <n v="90"/>
+    <n v="180"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°2"/>
+    <x v="71"/>
+    <n v="9"/>
+    <x v="169"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="90"/>
+    <n v="90"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°20"/>
+    <x v="31"/>
+    <n v="3"/>
+    <x v="169"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="90"/>
+    <n v="90"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°3"/>
+    <x v="37"/>
+    <n v="5"/>
+    <x v="169"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="90"/>
+    <n v="90"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°4"/>
+    <x v="32"/>
+    <n v="5"/>
+    <x v="169"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="90"/>
+    <n v="90"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°5"/>
+    <x v="38"/>
+    <n v="6"/>
+    <x v="169"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="90"/>
+    <n v="90"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°6"/>
+    <x v="41"/>
+    <n v="7"/>
+    <x v="169"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="90"/>
+    <n v="90"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°9"/>
+    <x v="20"/>
+    <n v="4"/>
+    <x v="169"/>
+    <s v="Und"/>
+    <n v="5"/>
+    <n v="90"/>
+    <n v="450"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°22"/>
+    <x v="40"/>
+    <n v="10"/>
+    <x v="169"/>
+    <s v="Und"/>
+    <n v="12"/>
+    <n v="90"/>
+    <n v="1080"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°23"/>
+    <x v="34"/>
+    <n v="9"/>
+    <x v="169"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="90"/>
+    <n v="90"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°24"/>
+    <x v="11"/>
+    <n v="7"/>
+    <x v="169"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="90"/>
+    <n v="90"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°25"/>
+    <x v="88"/>
+    <n v="5"/>
+    <x v="169"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="90"/>
+    <n v="90"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°26"/>
+    <x v="74"/>
+    <n v="5"/>
+    <x v="169"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="90"/>
+    <n v="90"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°27"/>
+    <x v="35"/>
+    <n v="5"/>
+    <x v="169"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="90"/>
+    <n v="90"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°28"/>
+    <x v="36"/>
+    <n v="8"/>
+    <x v="169"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="90"/>
+    <n v="90"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°29"/>
+    <x v="75"/>
+    <n v="6"/>
+    <x v="169"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="90"/>
+    <n v="90"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°33"/>
+    <x v="76"/>
+    <n v="2"/>
+    <x v="169"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="90"/>
+    <n v="90"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°35"/>
+    <x v="33"/>
+    <n v="3"/>
+    <x v="169"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="90"/>
+    <n v="90"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°37"/>
+    <x v="5"/>
+    <n v="3"/>
+    <x v="169"/>
+    <s v="Und"/>
+    <n v="2"/>
+    <n v="90"/>
+    <n v="180"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°39"/>
+    <x v="6"/>
+    <n v="3"/>
+    <x v="169"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="90"/>
+    <n v="90"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°40"/>
+    <x v="21"/>
+    <n v="7"/>
+    <x v="169"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="90"/>
+    <n v="90"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°43"/>
+    <x v="22"/>
+    <n v="8"/>
+    <x v="169"/>
+    <s v="Und"/>
+    <n v="2"/>
+    <n v="90"/>
+    <n v="180"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°44"/>
+    <x v="23"/>
+    <n v="4"/>
+    <x v="169"/>
+    <s v="Und"/>
+    <n v="5"/>
+    <n v="90"/>
+    <n v="450"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°45"/>
+    <x v="24"/>
+    <n v="6"/>
+    <x v="169"/>
+    <s v="Und"/>
+    <n v="3"/>
+    <n v="90"/>
+    <n v="270"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°46"/>
+    <x v="25"/>
+    <n v="5"/>
+    <x v="169"/>
+    <s v="Und"/>
+    <n v="3"/>
+    <n v="90"/>
+    <n v="270"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°47"/>
+    <x v="26"/>
+    <n v="5"/>
+    <x v="169"/>
+    <s v="Und"/>
+    <n v="3"/>
+    <n v="90"/>
+    <n v="270"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°48"/>
+    <x v="27"/>
+    <n v="4"/>
+    <x v="169"/>
+    <s v="Und"/>
+    <n v="6"/>
+    <n v="90"/>
+    <n v="540"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°49"/>
+    <x v="28"/>
+    <n v="5"/>
+    <x v="169"/>
+    <s v="Und"/>
+    <n v="3"/>
+    <n v="90"/>
+    <n v="270"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°50"/>
+    <x v="29"/>
+    <n v="4"/>
+    <x v="169"/>
+    <s v="Und"/>
+    <n v="3"/>
+    <n v="90"/>
+    <n v="270"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°51"/>
+    <x v="70"/>
+    <n v="4"/>
+    <x v="169"/>
+    <s v="Und"/>
+    <n v="10"/>
+    <n v="90"/>
+    <n v="900"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°52"/>
+    <x v="85"/>
+    <n v="6"/>
+    <x v="169"/>
+    <s v="Und"/>
+    <n v="4"/>
+    <n v="90"/>
+    <n v="360"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°55"/>
+    <x v="30"/>
+    <n v="6"/>
+    <x v="169"/>
+    <s v="Und"/>
+    <n v="6"/>
+    <n v="90"/>
+    <n v="540"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°93"/>
+    <x v="13"/>
+    <n v="8"/>
+    <x v="170"/>
+    <s v="Unidad"/>
+    <n v="1"/>
+    <n v="2300"/>
+    <n v="2300"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°94"/>
+    <x v="14"/>
+    <n v="8"/>
+    <x v="170"/>
+    <s v="Unidad"/>
+    <n v="1"/>
+    <n v="2300"/>
+    <n v="2300"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°10"/>
+    <x v="15"/>
+    <n v="9"/>
+    <x v="171"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="400"/>
+    <n v="400"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°19"/>
+    <x v="19"/>
+    <n v="5"/>
+    <x v="171"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="400"/>
+    <n v="400"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°43"/>
+    <x v="22"/>
+    <n v="9"/>
+    <x v="171"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="400"/>
+    <n v="400"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="2"/>
+    <s v="CUADRO N°52"/>
+    <x v="85"/>
+    <n v="8"/>
+    <x v="171"/>
+    <s v="Und"/>
+    <n v="25"/>
+    <n v="450"/>
+    <n v="11250"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°41"/>
+    <x v="87"/>
+    <n v="2"/>
+    <x v="172"/>
+    <s v="Und"/>
+    <n v="112"/>
+    <n v="90"/>
+    <n v="10080"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°32"/>
+    <x v="86"/>
+    <n v="2"/>
+    <x v="173"/>
+    <s v="Und"/>
+    <n v="308"/>
+    <n v="83"/>
+    <n v="25564"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°2"/>
+    <x v="71"/>
+    <n v="10"/>
+    <x v="174"/>
+    <s v="Und"/>
+    <n v="30"/>
+    <n v="115"/>
+    <n v="3450"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°3"/>
+    <x v="37"/>
+    <n v="6"/>
+    <x v="174"/>
+    <s v="Und"/>
+    <n v="30"/>
+    <n v="115"/>
+    <n v="3450"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°6"/>
+    <x v="41"/>
+    <n v="8"/>
+    <x v="174"/>
+    <s v="Und"/>
+    <n v="30"/>
+    <n v="115"/>
+    <n v="3450"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°22"/>
+    <x v="40"/>
+    <n v="11"/>
+    <x v="174"/>
+    <s v="Und"/>
+    <n v="360"/>
+    <n v="115"/>
+    <n v="41400"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°23"/>
+    <x v="34"/>
+    <n v="10"/>
+    <x v="174"/>
+    <s v="Und"/>
+    <n v="33"/>
+    <n v="115"/>
+    <n v="3795"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°24"/>
+    <x v="11"/>
+    <n v="8"/>
+    <x v="174"/>
+    <s v="Und"/>
+    <n v="30"/>
+    <n v="115"/>
+    <n v="3450"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°25"/>
+    <x v="88"/>
+    <n v="6"/>
+    <x v="174"/>
+    <s v="Und"/>
+    <n v="30"/>
+    <n v="115"/>
+    <n v="3450"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°29"/>
+    <x v="75"/>
+    <n v="7"/>
+    <x v="174"/>
+    <s v="Und"/>
+    <n v="30"/>
+    <n v="115"/>
+    <n v="3450"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°14"/>
+    <x v="84"/>
+    <n v="7"/>
+    <x v="175"/>
+    <s v="Und"/>
+    <n v="4"/>
+    <n v="380"/>
+    <n v="1520"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°2"/>
+    <x v="71"/>
+    <n v="11"/>
+    <x v="175"/>
+    <s v="Und"/>
+    <n v="4"/>
+    <n v="380"/>
+    <n v="1520"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°20"/>
+    <x v="31"/>
+    <n v="4"/>
+    <x v="175"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="380"/>
+    <n v="380"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°23"/>
+    <x v="34"/>
+    <n v="11"/>
+    <x v="175"/>
+    <s v="Und"/>
+    <n v="6"/>
+    <n v="380"/>
+    <n v="2280"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°35"/>
+    <x v="33"/>
+    <n v="4"/>
+    <x v="175"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="380"/>
+    <n v="380"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°52"/>
+    <x v="85"/>
+    <n v="7"/>
+    <x v="175"/>
+    <s v="Und"/>
+    <n v="2"/>
+    <n v="380"/>
+    <n v="760"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°14"/>
+    <x v="84"/>
+    <n v="8"/>
+    <x v="176"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="680"/>
+    <n v="680"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°52"/>
+    <x v="85"/>
+    <n v="9"/>
+    <x v="176"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="680"/>
+    <n v="680"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°75"/>
+    <x v="52"/>
+    <n v="11"/>
+    <x v="177"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="16500"/>
+    <n v="16500"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°60"/>
+    <x v="92"/>
+    <n v="1"/>
+    <x v="178"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="35000"/>
+    <n v="35000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°95"/>
+    <x v="14"/>
+    <n v="34"/>
+    <x v="179"/>
+    <s v="Unidad"/>
+    <n v="1"/>
+    <n v="3200"/>
+    <n v="3200"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°93"/>
+    <x v="13"/>
+    <n v="12"/>
+    <x v="180"/>
+    <s v="Und"/>
+    <n v="10"/>
+    <n v="34.5"/>
+    <n v="345"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°94"/>
+    <x v="14"/>
+    <n v="12"/>
+    <x v="180"/>
+    <s v="Und"/>
+    <n v="10"/>
+    <n v="34.5"/>
+    <n v="345"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°93"/>
+    <x v="13"/>
+    <n v="1"/>
+    <x v="181"/>
+    <s v="Und"/>
+    <n v="3"/>
+    <n v="82.5"/>
+    <n v="247.5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°94"/>
+    <x v="14"/>
+    <n v="1"/>
+    <x v="182"/>
+    <s v="Und"/>
+    <n v="3"/>
+    <n v="82.5"/>
+    <n v="247.5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°26"/>
+    <x v="74"/>
+    <n v="6"/>
+    <x v="183"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="540"/>
+    <n v="540"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="0"/>
+    <s v="CUADRO N°95"/>
+    <x v="14"/>
+    <n v="35"/>
+    <x v="184"/>
+    <s v="Unidad"/>
+    <n v="4"/>
+    <n v="35000"/>
+    <n v="140000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°24"/>
+    <x v="11"/>
+    <n v="9"/>
+    <x v="185"/>
+    <s v="Und"/>
+    <n v="30"/>
+    <n v="90"/>
+    <n v="2700"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°1"/>
+    <x v="39"/>
+    <n v="16"/>
+    <x v="186"/>
+    <s v="Und"/>
+    <n v="12"/>
+    <n v="36"/>
+    <n v="432"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°2"/>
+    <x v="71"/>
+    <n v="12"/>
+    <x v="186"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="36"/>
+    <n v="36"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="CUADRO N°3"/>
+    <x v="37"/>
+    <n v="7"/>
+    <x v="186"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="36"/>
+    <n v="36"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°22"/>
+    <x v="40"/>
+    <n v="12"/>
+    <x v="186"/>
+    <s v="Und"/>
+    <n v="12"/>
+    <n v="36"/>
+    <n v="432"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°23"/>
+    <x v="34"/>
+    <n v="12"/>
+    <x v="186"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="36"/>
+    <n v="36"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°24"/>
+    <x v="11"/>
+    <n v="10"/>
+    <x v="186"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="36"/>
+    <n v="36"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°25"/>
+    <x v="88"/>
+    <n v="7"/>
+    <x v="186"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="36"/>
+    <n v="36"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="CUADRO N°27"/>
+    <x v="35"/>
+    <n v="6"/>
+    <x v="186"/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="36"/>
+    <n v="36"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°84"/>
+    <x v="47"/>
+    <n v="21"/>
+    <x v="187"/>
+    <s v="Unidad"/>
+    <n v="3"/>
+    <n v="6"/>
+    <n v="18"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°85"/>
+    <x v="48"/>
+    <n v="21"/>
+    <x v="187"/>
+    <s v="Unidad"/>
+    <n v="3"/>
+    <n v="6"/>
+    <n v="18"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°84"/>
+    <x v="47"/>
+    <n v="20"/>
+    <x v="188"/>
+    <s v="Unidad"/>
+    <n v="3"/>
+    <n v="12"/>
+    <n v="36"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°85"/>
+    <x v="48"/>
+    <n v="20"/>
+    <x v="188"/>
+    <s v="Unidad"/>
+    <n v="3"/>
+    <n v="12"/>
+    <n v="36"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="CUADRO N°90"/>
+    <x v="42"/>
+    <n v="1"/>
+    <x v="189"/>
+    <s v="Unidad"/>
+    <n v="12"/>
+    <n v="360"/>
+    <n v="4320"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°74"/>
+    <x v="52"/>
+    <n v="9"/>
+    <x v="190"/>
+    <s v="Und"/>
+    <n v="2"/>
+    <n v="1137"/>
+    <n v="2274"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°84"/>
+    <x v="47"/>
+    <n v="12"/>
+    <x v="191"/>
+    <s v="Unidad"/>
+    <n v="3"/>
+    <n v="10"/>
+    <n v="30"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°85"/>
+    <x v="48"/>
+    <n v="12"/>
+    <x v="191"/>
+    <s v="Unidad"/>
+    <n v="3"/>
+    <n v="10"/>
+    <n v="30"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°91"/>
+    <x v="49"/>
+    <n v="2"/>
+    <x v="192"/>
+    <s v="Unidad"/>
+    <n v="1"/>
+    <n v="100"/>
+    <n v="100"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°92"/>
+    <x v="50"/>
+    <n v="2"/>
+    <x v="192"/>
+    <s v="Unidad"/>
+    <n v="1"/>
+    <n v="100"/>
+    <n v="100"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="CUADRO N°51"/>
+    <x v="70"/>
+    <n v="5"/>
+    <x v="193"/>
+    <s v="Und"/>
+    <n v="2"/>
+    <n v="4200"/>
+    <n v="8400"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="CUADRO N°66"/>
+    <x v="93"/>
+    <n v="1"/>
+    <x v="194"/>
+    <s v="Und"/>
+    <n v="6"/>
+    <n v="2149"/>
+    <n v="12894"/>
+    <x v="0"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2AB4EACF-56A6-4D17-84BC-2AEDDFA3B229}" name="TablaDinámica1" cacheId="75" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6BE87414-76EF-4AEB-BC91-3BF6DC735DAD}" name="TablaDinámica2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:D51" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="95">
+        <item x="55"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="42"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="57"/>
+        <item x="83"/>
+        <item x="73"/>
+        <item x="72"/>
+        <item x="61"/>
+        <item x="56"/>
+        <item x="82"/>
+        <item x="66"/>
+        <item x="68"/>
+        <item x="60"/>
+        <item x="63"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="0"/>
+        <item x="58"/>
+        <item x="67"/>
+        <item x="59"/>
+        <item x="91"/>
+        <item x="93"/>
+        <item x="65"/>
+        <item x="64"/>
+        <item x="92"/>
+        <item x="52"/>
+        <item x="90"/>
+        <item x="89"/>
+        <item x="79"/>
+        <item x="62"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="16"/>
+        <item x="29"/>
+        <item x="2"/>
+        <item x="8"/>
+        <item x="37"/>
+        <item x="88"/>
+        <item x="40"/>
+        <item x="71"/>
+        <item x="34"/>
+        <item x="44"/>
+        <item x="3"/>
+        <item x="28"/>
+        <item x="30"/>
+        <item x="12"/>
+        <item x="10"/>
+        <item x="4"/>
+        <item x="18"/>
+        <item x="25"/>
+        <item x="9"/>
+        <item x="1"/>
+        <item x="21"/>
+        <item x="15"/>
+        <item x="22"/>
+        <item x="31"/>
+        <item x="33"/>
+        <item x="38"/>
+        <item x="35"/>
+        <item x="5"/>
+        <item x="51"/>
+        <item x="32"/>
+        <item x="74"/>
+        <item x="20"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="17"/>
+        <item x="19"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="76"/>
+        <item x="27"/>
+        <item x="26"/>
+        <item x="86"/>
+        <item x="41"/>
+        <item x="11"/>
+        <item x="75"/>
+        <item x="36"/>
+        <item x="46"/>
+        <item x="24"/>
+        <item x="43"/>
+        <item x="45"/>
+        <item x="87"/>
+        <item x="39"/>
+        <item x="23"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="196">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="84"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="85"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="86"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" numFmtId="4" showAll="0"/>
+    <pivotField dataField="1" numFmtId="4" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item sd="0" x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="3">
+    <field x="11"/>
+    <field x="2"/>
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="48">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="11"/>
+    </i>
+    <i r="2">
+      <x v="45"/>
+    </i>
+    <i r="2">
+      <x v="48"/>
+    </i>
+    <i r="2">
+      <x v="49"/>
+    </i>
+    <i r="2">
+      <x v="62"/>
+    </i>
+    <i r="2">
+      <x v="63"/>
+    </i>
+    <i r="2">
+      <x v="65"/>
+    </i>
+    <i r="2">
+      <x v="66"/>
+    </i>
+    <i r="2">
+      <x v="74"/>
+    </i>
+    <i r="2">
+      <x v="80"/>
+    </i>
+    <i r="2">
+      <x v="88"/>
+    </i>
+    <i r="2">
+      <x v="91"/>
+    </i>
+    <i r="2">
+      <x v="92"/>
+    </i>
+    <i r="2">
+      <x v="124"/>
+    </i>
+    <i r="2">
+      <x v="131"/>
+    </i>
+    <i r="2">
+      <x v="133"/>
+    </i>
+    <i r="2">
+      <x v="146"/>
+    </i>
+    <i r="2">
+      <x v="148"/>
+    </i>
+    <i r="2">
+      <x v="150"/>
+    </i>
+    <i r="2">
+      <x v="151"/>
+    </i>
+    <i r="2">
+      <x v="153"/>
+    </i>
+    <i r="2">
+      <x v="163"/>
+    </i>
+    <i r="2">
+      <x v="178"/>
+    </i>
+    <i r="2">
+      <x v="179"/>
+    </i>
+    <i r="2">
+      <x v="180"/>
+    </i>
+    <i r="2">
+      <x v="181"/>
+    </i>
+    <i r="2">
+      <x v="184"/>
+    </i>
+    <i r="2">
+      <x v="189"/>
+    </i>
+    <i r="2">
+      <x v="191"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="12"/>
+    </i>
+    <i r="2">
+      <x v="13"/>
+    </i>
+    <i r="2">
+      <x v="14"/>
+    </i>
+    <i r="2">
+      <x v="16"/>
+    </i>
+    <i r="2">
+      <x v="44"/>
+    </i>
+    <i r="2">
+      <x v="52"/>
+    </i>
+    <i r="2">
+      <x v="123"/>
+    </i>
+    <i r="2">
+      <x v="172"/>
+    </i>
+    <i r="2">
+      <x v="173"/>
+    </i>
+    <i r="2">
+      <x v="174"/>
+    </i>
+    <i r="2">
+      <x v="175"/>
+    </i>
+    <i r="2">
+      <x v="176"/>
+    </i>
+    <i r="2">
+      <x v="183"/>
+    </i>
+    <i r="2">
+      <x v="185"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <dataFields count="3">
+    <dataField name="Suma de CANTIDAD" fld="8" baseField="0" baseItem="0"/>
+    <dataField name="Suma de PRECIO" fld="9" baseField="0" baseItem="0"/>
+    <dataField name="Suma de TOTAL" fld="10" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9E92C378-8A97-48B3-9A2D-666214D49AF1}" name="TablaDinámica1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="K521:M538" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="12">
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="4" showAll="0"/>
+    <pivotField numFmtId="4" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2AB4EACF-56A6-4D17-84BC-2AEDDFA3B229}" name="TablaDinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D204" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -10433,7 +18368,7 @@
     <dataField name="Suma de TOTAL" fld="10" baseField="0" baseItem="0" numFmtId="4"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="116">
+    <format dxfId="3">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -10442,7 +18377,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="117">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -10451,7 +18386,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="105">
+    <format dxfId="1">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -10460,7 +18395,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="104">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -10778,11 +18713,724 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26573CB1-B7BB-48C5-A63D-00A53FFCC576}">
+  <dimension ref="A3:D51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:D50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="44.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="B3" t="s">
+        <v>356</v>
+      </c>
+      <c r="C3" t="s">
+        <v>418</v>
+      </c>
+      <c r="D3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="B4" s="8">
+        <v>2826</v>
+      </c>
+      <c r="C4" s="8">
+        <v>745412.9</v>
+      </c>
+      <c r="D4" s="8">
+        <v>2531211.7199999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1573</v>
+      </c>
+      <c r="C5" s="8">
+        <v>140957.5</v>
+      </c>
+      <c r="D5" s="8">
+        <v>474094.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="B6" s="8">
+        <v>242</v>
+      </c>
+      <c r="C6" s="8">
+        <v>131144.5</v>
+      </c>
+      <c r="D6" s="8">
+        <v>283825.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="B7" s="8">
+        <v>2</v>
+      </c>
+      <c r="C7" s="8">
+        <v>1400</v>
+      </c>
+      <c r="D7" s="8">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8">
+        <v>1500</v>
+      </c>
+      <c r="D8" s="8">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="B9" s="8">
+        <v>30</v>
+      </c>
+      <c r="C9" s="8">
+        <v>70</v>
+      </c>
+      <c r="D9" s="8">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="B10" s="8">
+        <v>24</v>
+      </c>
+      <c r="C10" s="8">
+        <v>1160</v>
+      </c>
+      <c r="D10" s="8">
+        <v>13920</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="B11" s="8">
+        <v>2</v>
+      </c>
+      <c r="C11" s="8">
+        <v>1200</v>
+      </c>
+      <c r="D11" s="8">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="B12" s="8">
+        <v>4</v>
+      </c>
+      <c r="C12" s="8">
+        <v>10850</v>
+      </c>
+      <c r="D12" s="8">
+        <v>21700</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="B13" s="8">
+        <v>5</v>
+      </c>
+      <c r="C13" s="8">
+        <v>350</v>
+      </c>
+      <c r="D13" s="8">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="B14" s="8">
+        <v>1</v>
+      </c>
+      <c r="C14" s="8">
+        <v>14850</v>
+      </c>
+      <c r="D14" s="8">
+        <v>14850</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="B15" s="8">
+        <v>1</v>
+      </c>
+      <c r="C15" s="8">
+        <v>16000</v>
+      </c>
+      <c r="D15" s="8">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="24" t="s">
+        <v>295</v>
+      </c>
+      <c r="B16" s="8">
+        <v>6</v>
+      </c>
+      <c r="C16" s="8">
+        <v>250</v>
+      </c>
+      <c r="D16" s="8">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="24" t="s">
+        <v>287</v>
+      </c>
+      <c r="B17" s="8">
+        <v>2</v>
+      </c>
+      <c r="C17" s="8">
+        <v>4000</v>
+      </c>
+      <c r="D17" s="8">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="B18" s="8">
+        <v>10</v>
+      </c>
+      <c r="C18" s="8">
+        <v>1050</v>
+      </c>
+      <c r="D18" s="8">
+        <v>5250</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="24" t="s">
+        <v>357</v>
+      </c>
+      <c r="B19" s="8">
+        <v>4</v>
+      </c>
+      <c r="C19" s="8">
+        <v>50</v>
+      </c>
+      <c r="D19" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="24" t="s">
+        <v>296</v>
+      </c>
+      <c r="B20" s="8">
+        <v>10</v>
+      </c>
+      <c r="C20" s="8">
+        <v>80</v>
+      </c>
+      <c r="D20" s="8">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="B21" s="8">
+        <v>6</v>
+      </c>
+      <c r="C21" s="8">
+        <v>16</v>
+      </c>
+      <c r="D21" s="8">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="24" t="s">
+        <v>327</v>
+      </c>
+      <c r="B22" s="8">
+        <v>4</v>
+      </c>
+      <c r="C22" s="8">
+        <v>340</v>
+      </c>
+      <c r="D22" s="8">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="24" t="s">
+        <v>319</v>
+      </c>
+      <c r="B23" s="8">
+        <v>60</v>
+      </c>
+      <c r="C23" s="8">
+        <v>7</v>
+      </c>
+      <c r="D23" s="8">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="B24" s="8">
+        <v>6</v>
+      </c>
+      <c r="C24" s="8">
+        <v>120</v>
+      </c>
+      <c r="D24" s="8">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="24" t="s">
+        <v>326</v>
+      </c>
+      <c r="B25" s="8">
+        <v>6</v>
+      </c>
+      <c r="C25" s="8">
+        <v>300</v>
+      </c>
+      <c r="D25" s="8">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="24" t="s">
+        <v>313</v>
+      </c>
+      <c r="B26" s="8">
+        <v>4</v>
+      </c>
+      <c r="C26" s="8">
+        <v>1520</v>
+      </c>
+      <c r="D26" s="8">
+        <v>3040</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="B27" s="8">
+        <v>4</v>
+      </c>
+      <c r="C27" s="8">
+        <v>500</v>
+      </c>
+      <c r="D27" s="8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="24" t="s">
+        <v>293</v>
+      </c>
+      <c r="B28" s="8">
+        <v>3</v>
+      </c>
+      <c r="C28" s="8">
+        <v>1800</v>
+      </c>
+      <c r="D28" s="8">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="24" t="s">
+        <v>399</v>
+      </c>
+      <c r="B29" s="8">
+        <v>1</v>
+      </c>
+      <c r="C29" s="8">
+        <v>35000</v>
+      </c>
+      <c r="D29" s="8">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="24" t="s">
+        <v>362</v>
+      </c>
+      <c r="B30" s="8">
+        <v>1</v>
+      </c>
+      <c r="C30" s="8">
+        <v>3200</v>
+      </c>
+      <c r="D30" s="8">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="24" t="s">
+        <v>320</v>
+      </c>
+      <c r="B31" s="8">
+        <v>20</v>
+      </c>
+      <c r="C31" s="8">
+        <v>69</v>
+      </c>
+      <c r="D31" s="8">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="24" t="s">
+        <v>308</v>
+      </c>
+      <c r="B32" s="8">
+        <v>3</v>
+      </c>
+      <c r="C32" s="8">
+        <v>82.5</v>
+      </c>
+      <c r="D32" s="8">
+        <v>247.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="24" t="s">
+        <v>397</v>
+      </c>
+      <c r="B33" s="8">
+        <v>4</v>
+      </c>
+      <c r="C33" s="8">
+        <v>35000</v>
+      </c>
+      <c r="D33" s="8">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="B34" s="8">
+        <v>12</v>
+      </c>
+      <c r="C34" s="8">
+        <v>360</v>
+      </c>
+      <c r="D34" s="8">
+        <v>4320</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="B35" s="8">
+        <v>6</v>
+      </c>
+      <c r="C35" s="8">
+        <v>20</v>
+      </c>
+      <c r="D35" s="8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="B36" s="8">
+        <v>1331</v>
+      </c>
+      <c r="C36" s="8">
+        <v>9813</v>
+      </c>
+      <c r="D36" s="8">
+        <v>190269</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="8">
+        <v>42</v>
+      </c>
+      <c r="C37" s="8">
+        <v>900</v>
+      </c>
+      <c r="D37" s="8">
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="8">
+        <v>76</v>
+      </c>
+      <c r="C38" s="8">
+        <v>240</v>
+      </c>
+      <c r="D38" s="8">
+        <v>6080</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" s="8">
+        <v>1</v>
+      </c>
+      <c r="C39" s="8">
+        <v>1050</v>
+      </c>
+      <c r="D39" s="8">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" s="8">
+        <v>2</v>
+      </c>
+      <c r="C40" s="8">
+        <v>800</v>
+      </c>
+      <c r="D40" s="8">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" s="8">
+        <v>8</v>
+      </c>
+      <c r="C41" s="8">
+        <v>200</v>
+      </c>
+      <c r="D41" s="8">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="8">
+        <v>2</v>
+      </c>
+      <c r="C42" s="8">
+        <v>560</v>
+      </c>
+      <c r="D42" s="8">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" s="8">
+        <v>156</v>
+      </c>
+      <c r="C43" s="8">
+        <v>700</v>
+      </c>
+      <c r="D43" s="8">
+        <v>54600</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="24" t="s">
+        <v>386</v>
+      </c>
+      <c r="B44" s="8">
+        <v>112</v>
+      </c>
+      <c r="C44" s="8">
+        <v>90</v>
+      </c>
+      <c r="D44" s="8">
+        <v>10080</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="24" t="s">
+        <v>387</v>
+      </c>
+      <c r="B45" s="8">
+        <v>308</v>
+      </c>
+      <c r="C45" s="8">
+        <v>83</v>
+      </c>
+      <c r="D45" s="8">
+        <v>25564</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B46" s="8">
+        <v>573</v>
+      </c>
+      <c r="C46" s="8">
+        <v>920</v>
+      </c>
+      <c r="D46" s="8">
+        <v>65895</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B47" s="8">
+        <v>18</v>
+      </c>
+      <c r="C47" s="8">
+        <v>2280</v>
+      </c>
+      <c r="D47" s="8">
+        <v>6840</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="B48" s="8">
+        <v>2</v>
+      </c>
+      <c r="C48" s="8">
+        <v>1360</v>
+      </c>
+      <c r="D48" s="8">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="B49" s="8">
+        <v>1</v>
+      </c>
+      <c r="C49" s="8">
+        <v>540</v>
+      </c>
+      <c r="D49" s="8">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="B50" s="8">
+        <v>30</v>
+      </c>
+      <c r="C50" s="8">
+        <v>90</v>
+      </c>
+      <c r="D50" s="8">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="B51" s="8">
+        <v>4399</v>
+      </c>
+      <c r="C51" s="8">
+        <v>886370.4</v>
+      </c>
+      <c r="D51" s="8">
+        <v>3005306.2199999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A3:L538"/>
+  <dimension ref="A3:M538"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K521" sqref="K521"/>
+    <sheetView topLeftCell="A88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10797,7 +19445,7 @@
     <col min="8" max="8" width="7" style="1" customWidth="1"/>
     <col min="9" max="9" width="8.44140625" style="1" customWidth="1"/>
     <col min="10" max="10" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="11.5546875" style="1"/>
   </cols>
@@ -30437,7 +39085,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="513" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A513" s="1" t="s">
         <v>347</v>
       </c>
@@ -30473,7 +39121,7 @@
         <v>4320</v>
       </c>
     </row>
-    <row r="514" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A514" s="1" t="s">
         <v>347</v>
       </c>
@@ -30512,7 +39160,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="515" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A515" s="1" t="s">
         <v>348</v>
       </c>
@@ -30548,7 +39196,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="516" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A516" s="1" t="s">
         <v>347</v>
       </c>
@@ -30584,7 +39232,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="517" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A517" s="1" t="s">
         <v>348</v>
       </c>
@@ -30623,7 +39271,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="518" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A518" s="1" t="s">
         <v>347</v>
       </c>
@@ -30662,7 +39310,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="519" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A519" s="1" t="s">
         <v>347</v>
       </c>
@@ -30701,7 +39349,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="520" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A520" s="1" t="s">
         <v>348</v>
       </c>
@@ -30740,95 +39388,149 @@
         <v>402</v>
       </c>
     </row>
-    <row r="521" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F521"/>
       <c r="G521"/>
       <c r="H521"/>
-    </row>
-    <row r="522" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K521" s="15"/>
+      <c r="L521" s="16"/>
+      <c r="M521" s="17"/>
+    </row>
+    <row r="522" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F522"/>
       <c r="G522"/>
       <c r="H522"/>
-    </row>
-    <row r="523" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K522" s="18"/>
+      <c r="L522" s="19"/>
+      <c r="M522" s="20"/>
+    </row>
+    <row r="523" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F523"/>
       <c r="G523"/>
       <c r="H523"/>
-    </row>
-    <row r="524" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K523" s="18"/>
+      <c r="L523" s="19"/>
+      <c r="M523" s="20"/>
+    </row>
+    <row r="524" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F524"/>
       <c r="G524"/>
       <c r="H524"/>
-    </row>
-    <row r="525" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K524" s="18"/>
+      <c r="L524" s="19"/>
+      <c r="M524" s="20"/>
+    </row>
+    <row r="525" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F525"/>
       <c r="G525"/>
       <c r="H525"/>
-    </row>
-    <row r="526" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K525" s="18"/>
+      <c r="L525" s="19"/>
+      <c r="M525" s="20"/>
+    </row>
+    <row r="526" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F526"/>
       <c r="G526"/>
       <c r="H526"/>
-    </row>
-    <row r="527" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K526" s="18"/>
+      <c r="L526" s="19"/>
+      <c r="M526" s="20"/>
+    </row>
+    <row r="527" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F527"/>
       <c r="G527"/>
       <c r="H527"/>
-    </row>
-    <row r="528" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K527" s="18"/>
+      <c r="L527" s="19"/>
+      <c r="M527" s="20"/>
+    </row>
+    <row r="528" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F528"/>
       <c r="G528"/>
       <c r="H528"/>
-    </row>
-    <row r="529" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="K528" s="18"/>
+      <c r="L528" s="19"/>
+      <c r="M528" s="20"/>
+    </row>
+    <row r="529" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F529"/>
       <c r="G529"/>
       <c r="H529"/>
-    </row>
-    <row r="530" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="K529" s="18"/>
+      <c r="L529" s="19"/>
+      <c r="M529" s="20"/>
+    </row>
+    <row r="530" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F530"/>
       <c r="G530"/>
       <c r="H530"/>
-    </row>
-    <row r="531" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="K530" s="18"/>
+      <c r="L530" s="19"/>
+      <c r="M530" s="20"/>
+    </row>
+    <row r="531" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F531"/>
       <c r="G531"/>
       <c r="H531"/>
-    </row>
-    <row r="532" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="K531" s="18"/>
+      <c r="L531" s="19"/>
+      <c r="M531" s="20"/>
+    </row>
+    <row r="532" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F532"/>
       <c r="G532"/>
       <c r="H532"/>
-    </row>
-    <row r="533" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="K532" s="18"/>
+      <c r="L532" s="19"/>
+      <c r="M532" s="20"/>
+    </row>
+    <row r="533" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F533"/>
       <c r="G533"/>
       <c r="H533"/>
-    </row>
-    <row r="534" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="K533" s="18"/>
+      <c r="L533" s="19"/>
+      <c r="M533" s="20"/>
+    </row>
+    <row r="534" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F534"/>
       <c r="G534"/>
       <c r="H534"/>
-    </row>
-    <row r="535" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="K534" s="18"/>
+      <c r="L534" s="19"/>
+      <c r="M534" s="20"/>
+    </row>
+    <row r="535" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F535"/>
       <c r="G535"/>
       <c r="H535"/>
-    </row>
-    <row r="536" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="K535" s="18"/>
+      <c r="L535" s="19"/>
+      <c r="M535" s="20"/>
+    </row>
+    <row r="536" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F536"/>
       <c r="G536"/>
       <c r="H536"/>
-    </row>
-    <row r="537" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="K536" s="18"/>
+      <c r="L536" s="19"/>
+      <c r="M536" s="20"/>
+    </row>
+    <row r="537" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F537"/>
       <c r="G537"/>
       <c r="H537"/>
-    </row>
-    <row r="538" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="K537" s="18"/>
+      <c r="L537" s="19"/>
+      <c r="M537" s="20"/>
+    </row>
+    <row r="538" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F538"/>
       <c r="G538"/>
       <c r="H538"/>
+      <c r="K538" s="21"/>
+      <c r="L538" s="22"/>
+      <c r="M538" s="23"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:L522" xr:uid="{00000000-0001-0000-0100-000000000000}">
@@ -30844,16 +39546,16 @@
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39F60264-30CB-4C19-8A1C-90946D6E9BC1}">
   <dimension ref="A3:D205"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>

--- a/Equipamiento y Moviliario/Relacion Equipamiento y Mobiloiario PARA MODIFICACION 2021.xlsx
+++ b/Equipamiento y Moviliario/Relacion Equipamiento y Mobiloiario PARA MODIFICACION 2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositorio\Instalaciones_Especiales\Equipamiento y Moviliario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7069CFB8-E7D5-41FE-A600-188558130A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1962BE58-EB51-4A40-B16C-98DE0F74735E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="749" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="749" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Relacion de EM" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
     <pivotCache cacheId="1" r:id="rId5"/>
   </pivotCaches>
   <extLst>
@@ -1518,290 +1518,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="94">
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -18451,7 +18168,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2AB4EACF-56A6-4D17-84BC-2AEDDFA3B229}" name="TablaDinámica1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2AB4EACF-56A6-4D17-84BC-2AEDDFA3B229}" name="TablaDinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B624" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0">
@@ -41199,7 +40916,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26573CB1-B7BB-48C5-A63D-00A53FFCC576}">
   <dimension ref="A3:D207"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -44089,6 +43806,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="87" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -44096,7 +43814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39F60264-30CB-4C19-8A1C-90946D6E9BC1}">
   <dimension ref="A3:D845"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A561" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="115" workbookViewId="0">
+    <sheetView topLeftCell="A606" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="115" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
